--- a/gene_expression/bioinformatics_pipeline/readcounts_allsteps_checkagainstMS.xlsx
+++ b/gene_expression/bioinformatics_pipeline/readcounts_allsteps_checkagainstMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_temperaturevariability2023/gene_expression/bioinformatics_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD0676A9-DCF1-D347-8A65-AC01AF31CE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{BD0676A9-DCF1-D347-8A65-AC01AF31CE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54FE7072-E1C7-1341-BF1C-B0964F795716}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="16300" windowHeight="16240" xr2:uid="{E30E7334-B642-5E4F-95D2-E511D28C5524}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="23000" windowHeight="16240" xr2:uid="{E30E7334-B642-5E4F-95D2-E511D28C5524}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>633051</v>
+        <v>11893867</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>99</v>
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>845271</v>
+        <v>13209851</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>100</v>
@@ -1421,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>842539</v>
+        <v>13340389</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>101</v>
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>762393</v>
+        <v>11816133</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>102</v>
@@ -1467,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>884256</v>
+        <v>13786013</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>103</v>
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>750288</v>
+        <v>11690763</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>104</v>
@@ -1513,7 +1513,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>816086</v>
+        <v>12892034</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>105</v>
@@ -1536,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>951133</v>
+        <v>15041032</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>106</v>
@@ -1559,7 +1559,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>723219</v>
+        <v>11570068</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>107</v>
@@ -1582,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>866061</v>
+        <v>13899610</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>108</v>
@@ -1605,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>891353</v>
+        <v>14013158</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>109</v>
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>841393</v>
+        <v>13173395</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>110</v>
@@ -1651,7 +1651,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>928217</v>
+        <v>14424718</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>111</v>
@@ -1674,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>756040</v>
+        <v>11795849</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>112</v>
@@ -1697,7 +1697,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1014256</v>
+        <v>16734417</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>113</v>
@@ -1720,7 +1720,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>804231</v>
+        <v>13126670</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>114</v>
@@ -1743,7 +1743,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>815254</v>
+        <v>13417235</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>115</v>
@@ -1766,7 +1766,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>890269</v>
+        <v>13968542</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>116</v>
@@ -1789,7 +1789,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>867868</v>
+        <v>13687891</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>117</v>
@@ -1812,7 +1812,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>522684</v>
+        <v>8880017</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>118</v>
@@ -1835,7 +1835,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>758525</v>
+        <v>12205253</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>119</v>
@@ -1858,7 +1858,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>329853</v>
+        <v>6299928</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>120</v>
@@ -1881,7 +1881,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>611475</v>
+        <v>10027271</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>121</v>
@@ -1904,7 +1904,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>832281</v>
+        <v>12982523</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>122</v>
@@ -1927,7 +1927,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>575208</v>
+        <v>8999379</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>123</v>
@@ -1950,7 +1950,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>554657</v>
+        <v>8925185</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>124</v>
@@ -1973,7 +1973,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>687954</v>
+        <v>10765315</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>125</v>
@@ -1996,7 +1996,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>385259</v>
+        <v>6642725</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>126</v>
@@ -2019,7 +2019,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>611518</v>
+        <v>9667701</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>127</v>
@@ -2042,7 +2042,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>812797</v>
+        <v>12461234</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>128</v>
@@ -2065,7 +2065,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>741349</v>
+        <v>11546185</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>129</v>
@@ -2088,7 +2088,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>747466</v>
+        <v>11893894</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>130</v>
@@ -2111,7 +2111,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>596354</v>
+        <v>9525611</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>131</v>
@@ -2134,7 +2134,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>692197</v>
+        <v>10786783</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>132</v>
@@ -2157,7 +2157,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>755893</v>
+        <v>11865741</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>133</v>
@@ -2180,7 +2180,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>399376</v>
+        <v>6537998</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>134</v>
@@ -2203,7 +2203,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>845817</v>
+        <v>13224558</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>135</v>
@@ -2226,7 +2226,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>865250</v>
+        <v>13680610</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>136</v>
@@ -2249,7 +2249,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>931136</v>
+        <v>14877314</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>137</v>
@@ -2272,7 +2272,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>483740</v>
+        <v>7959769</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>138</v>
@@ -2295,7 +2295,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>506216</v>
+        <v>8075522</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>139</v>
@@ -2318,7 +2318,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>844605</v>
+        <v>13426280</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>140</v>
@@ -2341,7 +2341,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>654939</v>
+        <v>10239279</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>141</v>
@@ -2364,7 +2364,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>1031194</v>
+        <v>16437956</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>142</v>
@@ -2387,7 +2387,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>876595</v>
+        <v>13820239</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>143</v>
@@ -2410,7 +2410,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>502327</v>
+        <v>8023742</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>144</v>
@@ -2433,7 +2433,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>537850</v>
+        <v>8962152</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>145</v>
@@ -2456,7 +2456,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>627638</v>
+        <v>9775896</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>146</v>
@@ -2479,7 +2479,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>706993</v>
+        <v>12246859</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>147</v>
@@ -2502,7 +2502,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>145832</v>
+        <v>2614591</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>148</v>
@@ -2525,7 +2525,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>548588</v>
+        <v>9496745</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>149</v>
@@ -2548,7 +2548,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>645799</v>
+        <v>10885135</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>150</v>
@@ -2571,7 +2571,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>21977</v>
+        <v>392451</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>151</v>
@@ -2594,7 +2594,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>207786</v>
+        <v>3652472</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>152</v>
@@ -2617,7 +2617,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>220062</v>
+        <v>3868556</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>153</v>
@@ -2640,7 +2640,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>964759</v>
+        <v>16822781</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>154</v>
@@ -2663,7 +2663,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>1100963</v>
+        <v>19393115</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>155</v>
@@ -2686,7 +2686,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>894746</v>
+        <v>15668221</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>156</v>
@@ -2709,7 +2709,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>868817</v>
+        <v>15100209</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>157</v>
@@ -2732,7 +2732,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>1057525</v>
+        <v>18575961</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>158</v>
@@ -2755,7 +2755,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>683159</v>
+        <v>11725284</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>159</v>
@@ -2778,7 +2778,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>171179</v>
+        <v>3000014</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>160</v>
@@ -2801,7 +2801,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>524965</v>
+        <v>9165183</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>161</v>
@@ -2824,7 +2824,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>95050</v>
+        <v>1745492</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>162</v>
@@ -2847,7 +2847,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>679315</v>
+        <v>11664169</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>163</v>
@@ -2870,7 +2870,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>611197</v>
+        <v>10468927</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>164</v>
@@ -2893,7 +2893,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>1167756</v>
+        <v>21234558</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>165</v>
@@ -2916,7 +2916,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>153502</v>
+        <v>2770431</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>166</v>
@@ -2939,7 +2939,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>68328</v>
+        <v>1239658</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>167</v>
@@ -2962,7 +2962,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>57501</v>
+        <v>1050762</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>168</v>
@@ -2985,7 +2985,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>35649</v>
+        <v>663230</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>169</v>
@@ -3008,7 +3008,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>239468</v>
+        <v>4273792</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>170</v>
@@ -3031,7 +3031,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>86376</v>
+        <v>1509835</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>171</v>
@@ -3054,7 +3054,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>862495</v>
+        <v>15036329</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>172</v>
@@ -3077,7 +3077,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>959495</v>
+        <v>16893955</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>173</v>
@@ -3100,7 +3100,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>216724</v>
+        <v>3822709</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>174</v>
@@ -3123,7 +3123,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>558591</v>
+        <v>9536367</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>175</v>
@@ -3146,7 +3146,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>208720</v>
+        <v>3754659</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>176</v>
@@ -3169,7 +3169,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>578632</v>
+        <v>10000767</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>177</v>
@@ -3192,7 +3192,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>632543</v>
+        <v>10965339</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>178</v>
@@ -3215,7 +3215,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>596784</v>
+        <v>10197898</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>179</v>
@@ -3238,7 +3238,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>186088</v>
+        <v>3268809</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>180</v>
@@ -3261,7 +3261,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>563791</v>
+        <v>9722436</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>181</v>
@@ -3284,7 +3284,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>965253</v>
+        <v>16685316</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>182</v>
@@ -3307,7 +3307,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>928970</v>
+        <v>16128393</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>183</v>
@@ -3330,7 +3330,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>651911</v>
+        <v>11145711</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>184</v>
@@ -3353,7 +3353,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>25542</v>
+        <v>473700</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>185</v>
@@ -3376,7 +3376,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>628025</v>
+        <v>10813124</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>186</v>
@@ -3399,7 +3399,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>1165055</v>
+        <v>20639733</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>187</v>
@@ -3422,7 +3422,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>167227</v>
+        <v>2952368</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>188</v>
@@ -3445,7 +3445,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>1152348</v>
+        <v>20201567</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>189</v>
@@ -3468,7 +3468,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>1350264</v>
+        <v>23415093</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>190</v>
@@ -3491,7 +3491,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>1331198</v>
+        <v>23864440</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>191</v>
@@ -3514,7 +3514,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>28189</v>
+        <v>506825</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>192</v>
@@ -3537,7 +3537,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>198319</v>
+        <v>3532817</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>193</v>
@@ -3560,7 +3560,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>877106</v>
+        <v>15270107</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>194</v>

--- a/gene_expression/bioinformatics_pipeline/readcounts_allsteps_checkagainstMS.xlsx
+++ b/gene_expression/bioinformatics_pipeline/readcounts_allsteps_checkagainstMS.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_temperaturevariability2023/gene_expression/bioinformatics_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{BD0676A9-DCF1-D347-8A65-AC01AF31CE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54FE7072-E1C7-1341-BF1C-B0964F795716}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{BD0676A9-DCF1-D347-8A65-AC01AF31CE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE8F2600-F946-034C-AD40-DB45C90C7D95}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="23000" windowHeight="16240" xr2:uid="{E30E7334-B642-5E4F-95D2-E511D28C5524}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="208">
   <si>
     <t>Acer-005_S23_L001_R1_001.fastq.gz</t>
   </si>
@@ -623,308 +623,53 @@
     <t>Pcli-148</t>
   </si>
   <si>
-    <t>Sample Name</t>
-  </si>
-  <si>
-    <t>% GC</t>
-  </si>
-  <si>
-    <t>ACER-112_S69_L001_R1_001</t>
-  </si>
-  <si>
-    <t>ACER-124_S70_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-005_S23_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-009_S24_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-019_S25_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-021_S26_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-022_S27_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-029_S28_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-030_S29_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-034_S30_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-038_S31_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-041_S32_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-042_S33_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-043_S34_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-045_S35_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-055_S36_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-056_S37_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-057_S38_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-059_S39_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-063_S40_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-064_S41_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-068_S42_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-069_S43_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-072_S44_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-074_S45_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-078_S46_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-079_S47_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-082_S48_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-083_S49_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-089_S50_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-091_S51_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-094_S52_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-095_S53_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-096_S54_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-097_S55_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-102_S56_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-106_S57_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-108_S58_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-110_S59_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-113_S60_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-114_S61_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-123_S62_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-137_S63_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-139_S64_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-141_S65_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-143_S66_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-146_S67_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Acer-150_S68_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-003_S71_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-004_S72_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-006_S73_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-008_S74_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-011_S114_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-015_S75_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-018_S76_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-024_S77_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-026_S78_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-028_S79_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-029_S80_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-033_S81_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-038_S82_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-039_S83_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-040_S84_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-045_S85_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-049_S86_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-050_S87_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-052_S88_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-055_S89_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-058_S90_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-064_S91_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-066_S92_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-067_S93_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-069_S94_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-070_S95_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-075_S96_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-076_S97_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-077_S98_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-079_S99_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-091_S100_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-094_S101_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-096_S102_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-101_S103_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-103_S104_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-105_S105_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-109_S106_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-111_S107_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-114_S108_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-115_S109_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-120_S110_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-124_S115_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-126_S111_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-128_S116_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-130_S117_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-132_S118_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-135_S112_L001_R1_001</t>
-  </si>
-  <si>
-    <t>Pcli-148_S113_L001_R1_001</t>
-  </si>
-  <si>
-    <t>M Seqs (Fastqc)</t>
+    <t>Good Reads</t>
+  </si>
+  <si>
+    <t>Duplicate Reads</t>
+  </si>
+  <si>
+    <t>No Header Reads</t>
+  </si>
+  <si>
+    <t>N in Header Reads</t>
+  </si>
+  <si>
+    <t>Good Reads (Michael)</t>
+  </si>
+  <si>
+    <t>Duplicate Reads (Michael)</t>
+  </si>
+  <si>
+    <t>No Header Reads (Michael)</t>
+  </si>
+  <si>
+    <t>N in Header Reads (Michael)</t>
+  </si>
+  <si>
+    <t>Trimmed Reads Acer (Michael)</t>
+  </si>
+  <si>
+    <t>Trimmed Reads Pcli (Michael)</t>
+  </si>
+  <si>
+    <t>Percent loss (Michael)</t>
+  </si>
+  <si>
+    <t>Percent remaining Acer (Michael)</t>
+  </si>
+  <si>
+    <t>Percent remaining Pcli (Michael)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -947,19 +692,14 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.8"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,6 +709,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1011,13 +757,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,6 +788,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1332,2251 +1091,5019 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D52EED-0510-8B4B-BB21-FD44FEE4B903}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B98"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="2" max="6" width="25.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11893867</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1">
+        <v>4537382</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6915415</v>
+      </c>
+      <c r="E2" s="1">
+        <v>440422</v>
+      </c>
+      <c r="F2" s="1">
+        <v>648</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="3">
+      <c r="H2" s="3">
         <v>11893867</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G2" s="8">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I2" s="3">
+        <v>4537382</v>
+      </c>
+      <c r="J2" s="3">
+        <v>6915415</v>
+      </c>
+      <c r="K2" s="3">
+        <v>440422</v>
+      </c>
+      <c r="L2" s="3">
+        <v>648</v>
+      </c>
+      <c r="M2" s="3">
+        <v>4247857</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="5">
+        <f t="shared" ref="O2:O49" si="0">(H2-M2)/H2</f>
+        <v>0.64285316121325387</v>
+      </c>
+      <c r="P2" s="5">
+        <f t="shared" ref="P2:P49" si="1">1-O2</f>
+        <v>0.35714683878674613</v>
+      </c>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13209851</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1">
+        <v>5054485</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7682393</v>
+      </c>
+      <c r="E3" s="1">
+        <v>472188</v>
+      </c>
+      <c r="F3" s="1">
+        <v>785</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="3">
+      <c r="H3" s="3">
         <v>13209851</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G3" s="8">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I3" s="3">
+        <v>5054485</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7682393</v>
+      </c>
+      <c r="K3" s="3">
+        <v>472188</v>
+      </c>
+      <c r="L3" s="3">
+        <v>785</v>
+      </c>
+      <c r="M3" s="3">
+        <v>4845731</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5">
+        <f t="shared" si="0"/>
+        <v>0.63317292526615176</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.36682707473384824</v>
+      </c>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13340389</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1">
+        <v>4538599</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8313112</v>
+      </c>
+      <c r="E4" s="1">
+        <v>487935</v>
+      </c>
+      <c r="F4" s="1">
+        <v>743</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="3">
+      <c r="H4" s="3">
         <v>13340389</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G4" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I4" s="3">
+        <v>4538599</v>
+      </c>
+      <c r="J4" s="3">
+        <v>8313112</v>
+      </c>
+      <c r="K4" s="3">
+        <v>487935</v>
+      </c>
+      <c r="L4" s="3">
+        <v>743</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4367644</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.67259995192044253</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.32740004807955747</v>
+      </c>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11816133</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1">
+        <v>3859991</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7537000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>418501</v>
+      </c>
+      <c r="F5" s="1">
+        <v>641</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="3">
+      <c r="H5" s="3">
         <v>11816133</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="G5" s="8">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I5" s="3">
+        <v>3859991</v>
+      </c>
+      <c r="J5" s="3">
+        <v>7537000</v>
+      </c>
+      <c r="K5" s="3">
+        <v>418501</v>
+      </c>
+      <c r="L5" s="3">
+        <v>641</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3629351</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.69284782085645114</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.30715217914354886</v>
+      </c>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13786013</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1">
+        <v>4779994</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8512407</v>
+      </c>
+      <c r="E6" s="1">
+        <v>492844</v>
+      </c>
+      <c r="F6" s="1">
+        <v>768</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="3">
+      <c r="H6" s="3">
         <v>13786013</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="G6" s="8">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I6" s="3">
+        <v>4779994</v>
+      </c>
+      <c r="J6" s="3">
+        <v>8512407</v>
+      </c>
+      <c r="K6" s="3">
+        <v>492844</v>
+      </c>
+      <c r="L6" s="3">
+        <v>768</v>
+      </c>
+      <c r="M6" s="3">
+        <v>4500345</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.67355717711857666</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.32644282288142334</v>
+      </c>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11690763</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1">
+        <v>4583919</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6676587</v>
+      </c>
+      <c r="E7" s="1">
+        <v>429606</v>
+      </c>
+      <c r="F7" s="1">
+        <v>651</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="3">
+      <c r="H7" s="3">
         <v>11690763</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="G7" s="8">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I7" s="3">
+        <v>4583919</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6676587</v>
+      </c>
+      <c r="K7" s="3">
+        <v>429606</v>
+      </c>
+      <c r="L7" s="3">
+        <v>651</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4408738</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.62288706049382747</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.37711293950617253</v>
+      </c>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12892034</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1">
+        <v>4613289</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7836790</v>
+      </c>
+      <c r="E8" s="1">
+        <v>441301</v>
+      </c>
+      <c r="F8" s="1">
+        <v>654</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="3">
+      <c r="H8" s="3">
         <v>12892034</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G8" s="8">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I8" s="3">
+        <v>4613289</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7836790</v>
+      </c>
+      <c r="K8" s="3">
+        <v>441301</v>
+      </c>
+      <c r="L8" s="3">
+        <v>654</v>
+      </c>
+      <c r="M8" s="3">
+        <v>4337416</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.66355844236836481</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.33644155763163519</v>
+      </c>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15041032</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1">
+        <v>5350066</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9150839</v>
+      </c>
+      <c r="E9" s="1">
+        <v>539333</v>
+      </c>
+      <c r="F9" s="1">
+        <v>794</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="3">
+      <c r="H9" s="3">
         <v>15041032</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G9" s="8">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I9" s="3">
+        <v>5350066</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9150839</v>
+      </c>
+      <c r="K9" s="3">
+        <v>539333</v>
+      </c>
+      <c r="L9" s="3">
+        <v>794</v>
+      </c>
+      <c r="M9" s="3">
+        <v>5025037</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.66591142150352445</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.33408857849647555</v>
+      </c>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11570068</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1">
+        <v>3410961</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7748533</v>
+      </c>
+      <c r="E10" s="1">
+        <v>409963</v>
+      </c>
+      <c r="F10" s="1">
+        <v>611</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="3">
+      <c r="H10" s="3">
         <v>11570068</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="G10" s="8">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I10" s="3">
+        <v>3410961</v>
+      </c>
+      <c r="J10" s="3">
+        <v>7748533</v>
+      </c>
+      <c r="K10" s="3">
+        <v>409963</v>
+      </c>
+      <c r="L10" s="3">
+        <v>611</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2987276</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74180998763360773</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.25819001236639227</v>
+      </c>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13899610</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1">
+        <v>4290747</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9127776</v>
+      </c>
+      <c r="E11" s="1">
+        <v>480336</v>
+      </c>
+      <c r="F11" s="1">
+        <v>751</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="3">
+      <c r="H11" s="3">
         <v>13899610</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G11" s="8">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I11" s="3">
+        <v>4290747</v>
+      </c>
+      <c r="J11" s="3">
+        <v>9127776</v>
+      </c>
+      <c r="K11" s="3">
+        <v>480336</v>
+      </c>
+      <c r="L11" s="3">
+        <v>751</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3727077</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.73185744060444857</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.26814255939555143</v>
+      </c>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14013158</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1">
+        <v>5877458</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7636269</v>
+      </c>
+      <c r="E12" s="1">
+        <v>498636</v>
+      </c>
+      <c r="F12" s="1">
+        <v>795</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="3">
+      <c r="H12" s="3">
         <v>14013158</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G12" s="8">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I12" s="3">
+        <v>5877458</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7636269</v>
+      </c>
+      <c r="K12" s="3">
+        <v>498636</v>
+      </c>
+      <c r="L12" s="3">
+        <v>795</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5640952</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59745319363415439</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.40254680636584561</v>
+      </c>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13173395</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1">
+        <v>4393252</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8315845</v>
+      </c>
+      <c r="E13" s="1">
+        <v>463600</v>
+      </c>
+      <c r="F13" s="1">
+        <v>698</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="3">
+      <c r="H13" s="3">
         <v>13173395</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G13" s="8">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I13" s="3">
+        <v>4393252</v>
+      </c>
+      <c r="J13" s="3">
+        <v>8315845</v>
+      </c>
+      <c r="K13" s="3">
+        <v>463600</v>
+      </c>
+      <c r="L13" s="3">
+        <v>698</v>
+      </c>
+      <c r="M13" s="3">
+        <v>4198117</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.68131852115570812</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.31868147884429188</v>
+      </c>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14424718</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1">
+        <v>3418670</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10484051</v>
+      </c>
+      <c r="E14" s="1">
+        <v>521211</v>
+      </c>
+      <c r="F14" s="1">
+        <v>786</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="3">
+      <c r="H14" s="3">
         <v>14424718</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="G14" s="8">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I14" s="3">
+        <v>3418670</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10484051</v>
+      </c>
+      <c r="K14" s="3">
+        <v>521211</v>
+      </c>
+      <c r="L14" s="3">
+        <v>786</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3183800</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77928164696183311</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.22071835303816689</v>
+      </c>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11795849</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1">
+        <v>4132095</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7247189</v>
+      </c>
+      <c r="E15" s="1">
+        <v>415942</v>
+      </c>
+      <c r="F15" s="1">
+        <v>623</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="3">
+      <c r="H15" s="3">
         <v>11795849</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G15" s="8">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I15" s="3">
+        <v>4132095</v>
+      </c>
+      <c r="J15" s="3">
+        <v>7247189</v>
+      </c>
+      <c r="K15" s="3">
+        <v>415942</v>
+      </c>
+      <c r="L15" s="3">
+        <v>623</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3981280</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.66248465879819252</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="1"/>
+        <v>0.33751534120180748</v>
+      </c>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>16734417</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1">
+        <v>5103864</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11059966</v>
+      </c>
+      <c r="E16" s="1">
+        <v>569696</v>
+      </c>
+      <c r="F16" s="1">
+        <v>891</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="3">
+      <c r="H16" s="3">
         <v>16734417</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G16" s="8">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I16" s="3">
+        <v>5103864</v>
+      </c>
+      <c r="J16" s="3">
+        <v>11059966</v>
+      </c>
+      <c r="K16" s="3">
+        <v>569696</v>
+      </c>
+      <c r="L16" s="3">
+        <v>891</v>
+      </c>
+      <c r="M16" s="3">
+        <v>4395690</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.73732637354501207</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.26267362645498793</v>
+      </c>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13126670</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1">
+        <v>4325520</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8337480</v>
+      </c>
+      <c r="E17" s="1">
+        <v>462982</v>
+      </c>
+      <c r="F17" s="1">
+        <v>688</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="3">
+      <c r="H17" s="3">
         <v>13126670</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="G17" s="8">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I17" s="3">
+        <v>4325520</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8337480</v>
+      </c>
+      <c r="K17" s="3">
+        <v>462982</v>
+      </c>
+      <c r="L17" s="3">
+        <v>688</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3745497</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.71466510546848516</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="1"/>
+        <v>0.28533489453151484</v>
+      </c>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13417235</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1">
+        <v>4174095</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8763614</v>
+      </c>
+      <c r="E18" s="1">
+        <v>478773</v>
+      </c>
+      <c r="F18" s="1">
+        <v>753</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="3">
+      <c r="H18" s="3">
         <v>13417235</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G18" s="8">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I18" s="3">
+        <v>4174095</v>
+      </c>
+      <c r="J18" s="3">
+        <v>8763614</v>
+      </c>
+      <c r="K18" s="3">
+        <v>478773</v>
+      </c>
+      <c r="L18" s="3">
+        <v>753</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3395173</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74695434640594727</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.25304565359405273</v>
+      </c>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13968542</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1">
+        <v>4518478</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8942575</v>
+      </c>
+      <c r="E19" s="1">
+        <v>506744</v>
+      </c>
+      <c r="F19" s="1">
+        <v>745</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="3">
+      <c r="H19" s="3">
         <v>13968542</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G19" s="8">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I19" s="3">
+        <v>4518478</v>
+      </c>
+      <c r="J19" s="3">
+        <v>8942575</v>
+      </c>
+      <c r="K19" s="3">
+        <v>506744</v>
+      </c>
+      <c r="L19" s="3">
+        <v>745</v>
+      </c>
+      <c r="M19" s="3">
+        <v>4216482</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.69814444485329963</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="1"/>
+        <v>0.30185555514670037</v>
+      </c>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13687891</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1">
+        <v>5433153</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7762937</v>
+      </c>
+      <c r="E20" s="1">
+        <v>491091</v>
+      </c>
+      <c r="F20" s="1">
+        <v>710</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="3">
+      <c r="H20" s="3">
         <v>13687891</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G20" s="8">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I20" s="3">
+        <v>5433153</v>
+      </c>
+      <c r="J20" s="3">
+        <v>7762937</v>
+      </c>
+      <c r="K20" s="3">
+        <v>491091</v>
+      </c>
+      <c r="L20" s="3">
+        <v>710</v>
+      </c>
+      <c r="M20" s="3">
+        <v>5140680</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.62443593392144925</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.37556406607855075</v>
+      </c>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>8880017</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1">
+        <v>1921176</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6647552</v>
+      </c>
+      <c r="E21" s="1">
+        <v>310792</v>
+      </c>
+      <c r="F21" s="1">
+        <v>497</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="3">
+      <c r="H21" s="3">
         <v>8880017</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="G21" s="8">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I21" s="3">
+        <v>1921176</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6647552</v>
+      </c>
+      <c r="K21" s="3">
+        <v>310792</v>
+      </c>
+      <c r="L21" s="3">
+        <v>497</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1458102</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.83579963867186291</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16420036132813709</v>
+      </c>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12205253</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1">
+        <v>3594545</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8167000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>443074</v>
+      </c>
+      <c r="F22" s="1">
+        <v>634</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="3">
+      <c r="H22" s="3">
         <v>12205253</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G22" s="8">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I22" s="3">
+        <v>3594545</v>
+      </c>
+      <c r="J22" s="3">
+        <v>8167000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>443074</v>
+      </c>
+      <c r="L22" s="3">
+        <v>634</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3034018</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75141703330524978</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.24858296669475022</v>
+      </c>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>6299928</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1">
+        <v>1329595</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4736577</v>
+      </c>
+      <c r="E23" s="1">
+        <v>233415</v>
+      </c>
+      <c r="F23" s="1">
+        <v>341</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="3">
+      <c r="H23" s="3">
         <v>6299928</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="G23" s="8">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I23" s="3">
+        <v>1329595</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4736577</v>
+      </c>
+      <c r="K23" s="3">
+        <v>233415</v>
+      </c>
+      <c r="L23" s="3">
+        <v>341</v>
+      </c>
+      <c r="M23" s="3">
+        <v>852712</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.86464734200136895</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13535265799863105</v>
+      </c>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>10027271</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1">
+        <v>2803853</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6875352</v>
+      </c>
+      <c r="E24" s="1">
+        <v>347516</v>
+      </c>
+      <c r="F24" s="1">
+        <v>550</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="3">
+      <c r="H24" s="3">
         <v>10027271</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G24" s="8">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I24" s="3">
+        <v>2803853</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6875352</v>
+      </c>
+      <c r="K24" s="3">
+        <v>347516</v>
+      </c>
+      <c r="L24" s="3">
+        <v>550</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2267916</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77382520129355237</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.22617479870644763</v>
+      </c>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12982523</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1">
+        <v>4518500</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7995161</v>
+      </c>
+      <c r="E25" s="1">
+        <v>468170</v>
+      </c>
+      <c r="F25" s="1">
+        <v>692</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="3">
+      <c r="H25" s="3">
         <v>12982523</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="G25" s="8">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I25" s="3">
+        <v>4518500</v>
+      </c>
+      <c r="J25" s="3">
+        <v>7995161</v>
+      </c>
+      <c r="K25" s="3">
+        <v>468170</v>
+      </c>
+      <c r="L25" s="3">
+        <v>692</v>
+      </c>
+      <c r="M25" s="3">
+        <v>4210722</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.67566227304199655</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" si="1"/>
+        <v>0.32433772695800345</v>
+      </c>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>8999379</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1">
+        <v>2885402</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5785713</v>
+      </c>
+      <c r="E26" s="1">
+        <v>327766</v>
+      </c>
+      <c r="F26" s="1">
+        <v>498</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="3">
+      <c r="H26" s="3">
         <v>8999379</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="G26" s="8">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I26" s="3">
+        <v>2885402</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5785713</v>
+      </c>
+      <c r="K26" s="3">
+        <v>327766</v>
+      </c>
+      <c r="L26" s="3">
+        <v>498</v>
+      </c>
+      <c r="M26" s="3">
+        <v>2615820</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70933327732946905</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.29066672267053095</v>
+      </c>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>8925185</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1">
+        <v>2590358</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6023869</v>
+      </c>
+      <c r="E27" s="1">
+        <v>310475</v>
+      </c>
+      <c r="F27" s="1">
+        <v>483</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="3">
+      <c r="H27" s="3">
         <v>8925185</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G27" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I27" s="3">
+        <v>2590358</v>
+      </c>
+      <c r="J27" s="3">
+        <v>6023869</v>
+      </c>
+      <c r="K27" s="3">
+        <v>310475</v>
+      </c>
+      <c r="L27" s="3">
+        <v>483</v>
+      </c>
+      <c r="M27" s="3">
+        <v>2191125</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75450088709645791</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.24549911290354209</v>
+      </c>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>10765315</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1">
+        <v>3832744</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6556926</v>
+      </c>
+      <c r="E28" s="1">
+        <v>375099</v>
+      </c>
+      <c r="F28" s="1">
+        <v>546</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="3">
+      <c r="H28" s="3">
         <v>10765315</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G28" s="8">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I28" s="3">
+        <v>3832744</v>
+      </c>
+      <c r="J28" s="3">
+        <v>6556926</v>
+      </c>
+      <c r="K28" s="3">
+        <v>375099</v>
+      </c>
+      <c r="L28" s="3">
+        <v>546</v>
+      </c>
+      <c r="M28" s="3">
+        <v>3709718</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.65540088701538224</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34459911298461776</v>
+      </c>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>6642725</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1">
+        <v>1668858</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4737455</v>
+      </c>
+      <c r="E29" s="1">
+        <v>236096</v>
+      </c>
+      <c r="F29" s="1">
+        <v>316</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="3">
+      <c r="H29" s="3">
         <v>6642725</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="G29" s="8">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I29" s="3">
+        <v>1668858</v>
+      </c>
+      <c r="J29" s="3">
+        <v>4737455</v>
+      </c>
+      <c r="K29" s="3">
+        <v>236096</v>
+      </c>
+      <c r="L29" s="3">
+        <v>316</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1197643</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="5">
+        <f t="shared" si="0"/>
+        <v>0.81970606942181112</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="1"/>
+        <v>0.18029393057818888</v>
+      </c>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>9667701</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1">
+        <v>2402571</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6927282</v>
+      </c>
+      <c r="E30" s="1">
+        <v>337333</v>
+      </c>
+      <c r="F30" s="1">
+        <v>515</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="3">
+      <c r="H30" s="3">
         <v>9667701</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G30" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I30" s="3">
+        <v>2402571</v>
+      </c>
+      <c r="J30" s="3">
+        <v>6927282</v>
+      </c>
+      <c r="K30" s="3">
+        <v>337333</v>
+      </c>
+      <c r="L30" s="3">
+        <v>515</v>
+      </c>
+      <c r="M30" s="3">
+        <v>2089329</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7838856414777412</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="1"/>
+        <v>0.2161143585222588</v>
+      </c>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12461234</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1">
+        <v>4644535</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7366510</v>
+      </c>
+      <c r="E31" s="1">
+        <v>449511</v>
+      </c>
+      <c r="F31" s="1">
+        <v>678</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="3">
+      <c r="H31" s="3">
         <v>12461234</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="G31" s="8">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I31" s="3">
+        <v>4644535</v>
+      </c>
+      <c r="J31" s="3">
+        <v>7366510</v>
+      </c>
+      <c r="K31" s="3">
+        <v>449511</v>
+      </c>
+      <c r="L31" s="3">
+        <v>678</v>
+      </c>
+      <c r="M31" s="3">
+        <v>4508437</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="5">
+        <f t="shared" si="0"/>
+        <v>0.63820300621912729</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" si="1"/>
+        <v>0.36179699378087271</v>
+      </c>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>11546185</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1">
+        <v>4943729</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6191769</v>
+      </c>
+      <c r="E32" s="1">
+        <v>410068</v>
+      </c>
+      <c r="F32" s="1">
+        <v>619</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="3">
+      <c r="H32" s="3">
         <v>11546185</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="G32" s="8">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I32" s="3">
+        <v>4943729</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6191769</v>
+      </c>
+      <c r="K32" s="3">
+        <v>410068</v>
+      </c>
+      <c r="L32" s="3">
+        <v>619</v>
+      </c>
+      <c r="M32" s="3">
+        <v>4728151</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59050101830171609</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="1"/>
+        <v>0.40949898169828391</v>
+      </c>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>11893894</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1">
+        <v>6107116</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5368056</v>
+      </c>
+      <c r="E33" s="1">
+        <v>418072</v>
+      </c>
+      <c r="F33" s="1">
+        <v>650</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="3">
+      <c r="H33" s="3">
         <v>11893894</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G33" s="8">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I33" s="3">
+        <v>6107116</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5368056</v>
+      </c>
+      <c r="K33" s="3">
+        <v>418072</v>
+      </c>
+      <c r="L33" s="3">
+        <v>650</v>
+      </c>
+      <c r="M33" s="3">
+        <v>5608466</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5284583837723793</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="1"/>
+        <v>0.4715416162276207</v>
+      </c>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>9525611</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1">
+        <v>3016172</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6181261</v>
+      </c>
+      <c r="E34" s="1">
+        <v>327658</v>
+      </c>
+      <c r="F34" s="1">
+        <v>520</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="3">
+      <c r="H34" s="3">
         <v>9525611</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G34" s="8">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I34" s="3">
+        <v>3016172</v>
+      </c>
+      <c r="J34" s="3">
+        <v>6181261</v>
+      </c>
+      <c r="K34" s="3">
+        <v>327658</v>
+      </c>
+      <c r="L34" s="3">
+        <v>520</v>
+      </c>
+      <c r="M34" s="3">
+        <v>2647726</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7220413472689573</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" si="1"/>
+        <v>0.2779586527310427</v>
+      </c>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>10786783</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1">
+        <v>3667349</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6740598</v>
+      </c>
+      <c r="E35" s="1">
+        <v>378272</v>
+      </c>
+      <c r="F35" s="1">
+        <v>564</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="3">
+      <c r="H35" s="3">
         <v>10786783</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G35" s="8">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I35" s="3">
+        <v>3667349</v>
+      </c>
+      <c r="J35" s="3">
+        <v>6740598</v>
+      </c>
+      <c r="K35" s="3">
+        <v>378272</v>
+      </c>
+      <c r="L35" s="3">
+        <v>564</v>
+      </c>
+      <c r="M35" s="3">
+        <v>3556875</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.67025618296020228</v>
+      </c>
+      <c r="P35" s="5">
+        <f t="shared" si="1"/>
+        <v>0.32974381703979772</v>
+      </c>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>11865741</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1">
+        <v>3967556</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7476091</v>
+      </c>
+      <c r="E36" s="1">
+        <v>421470</v>
+      </c>
+      <c r="F36" s="1">
+        <v>624</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="3">
+      <c r="H36" s="3">
         <v>11865741</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G36" s="8">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I36" s="3">
+        <v>3967556</v>
+      </c>
+      <c r="J36" s="3">
+        <v>7476091</v>
+      </c>
+      <c r="K36" s="3">
+        <v>421470</v>
+      </c>
+      <c r="L36" s="3">
+        <v>624</v>
+      </c>
+      <c r="M36" s="3">
+        <v>3636838</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.69350097899490648</v>
+      </c>
+      <c r="P36" s="5">
+        <f t="shared" si="1"/>
+        <v>0.30649902100509352</v>
+      </c>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>6537998</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1">
+        <v>1743368</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4569321</v>
+      </c>
+      <c r="E37" s="1">
+        <v>224963</v>
+      </c>
+      <c r="F37" s="1">
+        <v>346</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="3">
+      <c r="H37" s="3">
         <v>6537998</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F37" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G37" s="8">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I37" s="3">
+        <v>1743368</v>
+      </c>
+      <c r="J37" s="3">
+        <v>4569321</v>
+      </c>
+      <c r="K37" s="3">
+        <v>224963</v>
+      </c>
+      <c r="L37" s="3">
+        <v>346</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1447075</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7786669558479522</v>
+      </c>
+      <c r="P37" s="5">
+        <f t="shared" si="1"/>
+        <v>0.2213330441520478</v>
+      </c>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13224558</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1">
+        <v>4607503</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8153501</v>
+      </c>
+      <c r="E38" s="1">
+        <v>462832</v>
+      </c>
+      <c r="F38" s="1">
+        <v>722</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="3">
+      <c r="H38" s="3">
         <v>13224558</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="G38" s="8">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I38" s="3">
+        <v>4607503</v>
+      </c>
+      <c r="J38" s="3">
+        <v>8153501</v>
+      </c>
+      <c r="K38" s="3">
+        <v>462832</v>
+      </c>
+      <c r="L38" s="3">
+        <v>722</v>
+      </c>
+      <c r="M38" s="3">
+        <v>4375058</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="5">
+        <f t="shared" si="0"/>
+        <v>0.66917170312988905</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" si="1"/>
+        <v>0.33082829687011095</v>
+      </c>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13680610</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1">
+        <v>6324658</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6791062</v>
+      </c>
+      <c r="E39" s="1">
+        <v>564168</v>
+      </c>
+      <c r="F39" s="1">
+        <v>722</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="3">
+      <c r="H39" s="3">
         <v>13680610</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G39" s="8">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I39" s="3">
+        <v>6324658</v>
+      </c>
+      <c r="J39" s="3">
+        <v>6791062</v>
+      </c>
+      <c r="K39" s="3">
+        <v>564168</v>
+      </c>
+      <c r="L39" s="3">
+        <v>722</v>
+      </c>
+      <c r="M39" s="3">
+        <v>5899108</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="5">
+        <f t="shared" si="0"/>
+        <v>0.56879788255055874</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="1"/>
+        <v>0.43120211744944126</v>
+      </c>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14877314</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1">
+        <v>4637854</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9719315</v>
+      </c>
+      <c r="E40" s="1">
+        <v>519343</v>
+      </c>
+      <c r="F40" s="1">
+        <v>802</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="3">
+      <c r="H40" s="3">
         <v>14877314</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G40" s="8">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I40" s="3">
+        <v>4637854</v>
+      </c>
+      <c r="J40" s="3">
+        <v>9719315</v>
+      </c>
+      <c r="K40" s="3">
+        <v>519343</v>
+      </c>
+      <c r="L40" s="3">
+        <v>802</v>
+      </c>
+      <c r="M40" s="3">
+        <v>4090239</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="5">
+        <f t="shared" si="0"/>
+        <v>0.72506871872167244</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="1"/>
+        <v>0.27493128127832756</v>
+      </c>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>7959769</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1">
+        <v>2528904</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5132666</v>
+      </c>
+      <c r="E41" s="1">
+        <v>297749</v>
+      </c>
+      <c r="F41" s="1">
+        <v>450</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="3">
+      <c r="H41" s="3">
         <v>7959769</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G41" s="8">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I41" s="3">
+        <v>2528904</v>
+      </c>
+      <c r="J41" s="3">
+        <v>5132666</v>
+      </c>
+      <c r="K41" s="3">
+        <v>297749</v>
+      </c>
+      <c r="L41" s="3">
+        <v>450</v>
+      </c>
+      <c r="M41" s="3">
+        <v>2100417</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.73612085978877029</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="1"/>
+        <v>0.26387914021122971</v>
+      </c>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>8075522</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1">
+        <v>2292116</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5498615</v>
+      </c>
+      <c r="E42" s="1">
+        <v>284357</v>
+      </c>
+      <c r="F42" s="1">
+        <v>434</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="3">
+      <c r="H42" s="3">
         <v>8075522</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F42" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G42" s="8">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I42" s="3">
+        <v>2292116</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5498615</v>
+      </c>
+      <c r="K42" s="3">
+        <v>284357</v>
+      </c>
+      <c r="L42" s="3">
+        <v>434</v>
+      </c>
+      <c r="M42" s="3">
+        <v>2067927</v>
+      </c>
+      <c r="N42" s="4"/>
+      <c r="O42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74392652264460424</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="1"/>
+        <v>0.25607347735539576</v>
+      </c>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13426280</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1">
+        <v>3682840</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9220692</v>
+      </c>
+      <c r="E43" s="1">
+        <v>522040</v>
+      </c>
+      <c r="F43" s="1">
+        <v>708</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="3">
+      <c r="H43" s="3">
         <v>13426280</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G43" s="8">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I43" s="3">
+        <v>3682840</v>
+      </c>
+      <c r="J43" s="3">
+        <v>9220692</v>
+      </c>
+      <c r="K43" s="3">
+        <v>522040</v>
+      </c>
+      <c r="L43" s="3">
+        <v>708</v>
+      </c>
+      <c r="M43" s="3">
+        <v>3257590</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75737210902796603</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="1"/>
+        <v>0.24262789097203397</v>
+      </c>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>10239279</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1">
+        <v>4216042</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5669925</v>
+      </c>
+      <c r="E44" s="1">
+        <v>352830</v>
+      </c>
+      <c r="F44" s="1">
+        <v>482</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="3">
+      <c r="H44" s="3">
         <v>10239279</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G44" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I44" s="3">
+        <v>4216042</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5669925</v>
+      </c>
+      <c r="K44" s="3">
+        <v>352830</v>
+      </c>
+      <c r="L44" s="3">
+        <v>482</v>
+      </c>
+      <c r="M44" s="3">
+        <v>4081431</v>
+      </c>
+      <c r="N44" s="4"/>
+      <c r="O44" s="5">
+        <f t="shared" si="0"/>
+        <v>0.60139468804395313</v>
+      </c>
+      <c r="P44" s="5">
+        <f t="shared" si="1"/>
+        <v>0.39860531195604687</v>
+      </c>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16437956</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1">
+        <v>6523961</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9338883</v>
+      </c>
+      <c r="E45" s="1">
+        <v>574233</v>
+      </c>
+      <c r="F45" s="1">
+        <v>879</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="3">
+      <c r="H45" s="3">
         <v>16437956</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F45" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G45" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I45" s="3">
+        <v>6523961</v>
+      </c>
+      <c r="J45" s="3">
+        <v>9338883</v>
+      </c>
+      <c r="K45" s="3">
+        <v>574233</v>
+      </c>
+      <c r="L45" s="3">
+        <v>879</v>
+      </c>
+      <c r="M45" s="3">
+        <v>6307683</v>
+      </c>
+      <c r="N45" s="4"/>
+      <c r="O45" s="5">
+        <f t="shared" si="0"/>
+        <v>0.61627327631245632</v>
+      </c>
+      <c r="P45" s="5">
+        <f t="shared" si="1"/>
+        <v>0.38372672368754368</v>
+      </c>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13820239</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1">
+        <v>4320178</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9019904</v>
+      </c>
+      <c r="E46" s="1">
+        <v>479400</v>
+      </c>
+      <c r="F46" s="1">
+        <v>757</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="3">
+      <c r="H46" s="3">
         <v>13820239</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F46" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G46" s="8">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I46" s="3">
+        <v>4320178</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9019904</v>
+      </c>
+      <c r="K46" s="3">
+        <v>479400</v>
+      </c>
+      <c r="L46" s="3">
+        <v>757</v>
+      </c>
+      <c r="M46" s="3">
+        <v>4094288</v>
+      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70374694677856153</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="1"/>
+        <v>0.29625305322143847</v>
+      </c>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>8023742</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1">
+        <v>2190255</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5563753</v>
+      </c>
+      <c r="E47" s="1">
+        <v>269304</v>
+      </c>
+      <c r="F47" s="1">
+        <v>430</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="3">
+      <c r="H47" s="3">
         <v>8023742</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F47" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G47" s="8">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I47" s="3">
+        <v>2190255</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5563753</v>
+      </c>
+      <c r="K47" s="3">
+        <v>269304</v>
+      </c>
+      <c r="L47" s="3">
+        <v>430</v>
+      </c>
+      <c r="M47" s="3">
+        <v>1895452</v>
+      </c>
+      <c r="N47" s="4"/>
+      <c r="O47" s="5">
+        <f t="shared" si="0"/>
+        <v>0.76376957285017388</v>
+      </c>
+      <c r="P47" s="5">
+        <f t="shared" si="1"/>
+        <v>0.23623042714982612</v>
+      </c>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>8962152</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1">
+        <v>2660566</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5984736</v>
+      </c>
+      <c r="E48" s="1">
+        <v>316382</v>
+      </c>
+      <c r="F48" s="1">
+        <v>468</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="3">
+      <c r="H48" s="3">
         <v>8962152</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G48" s="8">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I48" s="3">
+        <v>2660566</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5984736</v>
+      </c>
+      <c r="K48" s="3">
+        <v>316382</v>
+      </c>
+      <c r="L48" s="3">
+        <v>468</v>
+      </c>
+      <c r="M48" s="3">
+        <v>2063035</v>
+      </c>
+      <c r="N48" s="4"/>
+      <c r="O48" s="5">
+        <f t="shared" si="0"/>
+        <v>0.76980584573883593</v>
+      </c>
+      <c r="P48" s="5">
+        <f t="shared" si="1"/>
+        <v>0.23019415426116407</v>
+      </c>
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>9775896</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="1">
+        <v>3869276</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5571692</v>
+      </c>
+      <c r="E49" s="1">
+        <v>334379</v>
+      </c>
+      <c r="F49" s="1">
+        <v>549</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="3">
+      <c r="H49" s="3">
         <v>9775896</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G49" s="8">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I49" s="3">
+        <v>3869276</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5571692</v>
+      </c>
+      <c r="K49" s="3">
+        <v>334379</v>
+      </c>
+      <c r="L49" s="3">
+        <v>549</v>
+      </c>
+      <c r="M49" s="3">
+        <v>3702334</v>
+      </c>
+      <c r="N49" s="4"/>
+      <c r="O49" s="5">
+        <f t="shared" si="0"/>
+        <v>0.62127931802875158</v>
+      </c>
+      <c r="P49" s="5">
+        <f t="shared" si="1"/>
+        <v>0.37872068197124842</v>
+      </c>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12246859</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1">
+        <v>924742</v>
+      </c>
+      <c r="D50" s="1">
+        <v>10921243</v>
+      </c>
+      <c r="E50" s="1">
+        <v>400260</v>
+      </c>
+      <c r="F50" s="1">
+        <v>614</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="3">
+      <c r="H50" s="3">
         <v>12246859</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G50" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I50" s="3">
+        <v>924742</v>
+      </c>
+      <c r="J50" s="3">
+        <v>10921243</v>
+      </c>
+      <c r="K50" s="3">
+        <v>400260</v>
+      </c>
+      <c r="L50" s="3">
+        <v>614</v>
+      </c>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3">
+        <v>878719</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" ref="O50:O97" si="2">(H50-N50)/H50</f>
+        <v>0.92824943930521286</v>
+      </c>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="5">
+        <f t="shared" ref="Q50:Q97" si="3">1-O50</f>
+        <v>7.1750560694787135E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>2614591</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1">
+        <v>257659</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2259312</v>
+      </c>
+      <c r="E51" s="1">
+        <v>97493</v>
+      </c>
+      <c r="F51" s="1">
+        <v>127</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="3">
+      <c r="H51" s="3">
         <v>2614591</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G51" s="8">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I51" s="3">
+        <v>257659</v>
+      </c>
+      <c r="J51" s="3">
+        <v>2259312</v>
+      </c>
+      <c r="K51" s="3">
+        <v>97493</v>
+      </c>
+      <c r="L51" s="3">
+        <v>127</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3">
+        <v>247332</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="2"/>
+        <v>0.90540317778191692</v>
+      </c>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="5">
+        <f t="shared" si="3"/>
+        <v>9.4596822218083076E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>9496745</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1">
+        <v>764810</v>
+      </c>
+      <c r="D52" s="1">
+        <v>8421210</v>
+      </c>
+      <c r="E52" s="1">
+        <v>310229</v>
+      </c>
+      <c r="F52" s="1">
+        <v>496</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="3">
+      <c r="H52" s="3">
         <v>9496745</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F52" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G52" s="8">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I52" s="3">
+        <v>764810</v>
+      </c>
+      <c r="J52" s="3">
+        <v>8421210</v>
+      </c>
+      <c r="K52" s="3">
+        <v>310229</v>
+      </c>
+      <c r="L52" s="3">
+        <v>496</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3">
+        <v>722109</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92396247345801119</v>
+      </c>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="5">
+        <f t="shared" si="3"/>
+        <v>7.6037526541988809E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10885135</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1">
+        <v>968776</v>
+      </c>
+      <c r="D53" s="1">
+        <v>9540161</v>
+      </c>
+      <c r="E53" s="1">
+        <v>375635</v>
+      </c>
+      <c r="F53" s="1">
+        <v>563</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="3">
+      <c r="H53" s="3">
         <v>10885135</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F53" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G53" s="8">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I53" s="3">
+        <v>968776</v>
+      </c>
+      <c r="J53" s="3">
+        <v>9540161</v>
+      </c>
+      <c r="K53" s="3">
+        <v>375635</v>
+      </c>
+      <c r="L53" s="3">
+        <v>563</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3">
+        <v>932937</v>
+      </c>
+      <c r="O53" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91429256504397971</v>
+      </c>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="5">
+        <f t="shared" si="3"/>
+        <v>8.570743495602029E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>392451</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1">
+        <v>33126</v>
+      </c>
+      <c r="D54" s="1">
+        <v>288471</v>
+      </c>
+      <c r="E54" s="1">
+        <v>70836</v>
+      </c>
+      <c r="F54" s="1">
+        <v>18</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D54" s="3">
+      <c r="H54" s="3">
         <v>392451</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="F54" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="G54" s="8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I54" s="3">
+        <v>33126</v>
+      </c>
+      <c r="J54" s="3">
+        <v>288471</v>
+      </c>
+      <c r="K54" s="3">
+        <v>70836</v>
+      </c>
+      <c r="L54" s="3">
+        <v>18</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3">
+        <v>32362</v>
+      </c>
+      <c r="O54" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91753875006051711</v>
+      </c>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="5">
+        <f t="shared" si="3"/>
+        <v>8.2461249939482895E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>3652472</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="1">
+        <v>342828</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3176775</v>
+      </c>
+      <c r="E55" s="1">
+        <v>132696</v>
+      </c>
+      <c r="F55" s="1">
+        <v>173</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D55" s="3">
+      <c r="H55" s="3">
         <v>3652472</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F55" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G55" s="8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I55" s="3">
+        <v>342828</v>
+      </c>
+      <c r="J55" s="3">
+        <v>3176775</v>
+      </c>
+      <c r="K55" s="3">
+        <v>132696</v>
+      </c>
+      <c r="L55" s="3">
+        <v>173</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3">
+        <v>323633</v>
+      </c>
+      <c r="O55" s="5">
+        <f t="shared" si="2"/>
+        <v>0.9113934343644523</v>
+      </c>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="5">
+        <f t="shared" si="3"/>
+        <v>8.8606565635547696E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>3868556</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1">
+        <v>353105</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3378719</v>
+      </c>
+      <c r="E56" s="1">
+        <v>136538</v>
+      </c>
+      <c r="F56" s="1">
+        <v>194</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="3">
+      <c r="H56" s="3">
         <v>3868556</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F56" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G56" s="8">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I56" s="3">
+        <v>353105</v>
+      </c>
+      <c r="J56" s="3">
+        <v>3378719</v>
+      </c>
+      <c r="K56" s="3">
+        <v>136538</v>
+      </c>
+      <c r="L56" s="3">
+        <v>194</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3">
+        <v>331781</v>
+      </c>
+      <c r="O56" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91423647479834858</v>
+      </c>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="5">
+        <f t="shared" si="3"/>
+        <v>8.5763525201651425E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>16822781</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="1">
+        <v>1197896</v>
+      </c>
+      <c r="D57" s="1">
+        <v>15072945</v>
+      </c>
+      <c r="E57" s="1">
+        <v>551056</v>
+      </c>
+      <c r="F57" s="1">
+        <v>884</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D57" s="3">
+      <c r="H57" s="3">
         <v>16822781</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F57" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G57" s="8">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I57" s="3">
+        <v>1197896</v>
+      </c>
+      <c r="J57" s="3">
+        <v>15072945</v>
+      </c>
+      <c r="K57" s="3">
+        <v>551056</v>
+      </c>
+      <c r="L57" s="3">
+        <v>884</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3">
+        <v>1134644</v>
+      </c>
+      <c r="O57" s="5">
+        <f t="shared" si="2"/>
+        <v>0.93255312543152047</v>
+      </c>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="5">
+        <f t="shared" si="3"/>
+        <v>6.7446874568479531E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>19393115</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1">
+        <v>1338064</v>
+      </c>
+      <c r="D58" s="1">
+        <v>17405133</v>
+      </c>
+      <c r="E58" s="1">
+        <v>648902</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1016</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="3">
+      <c r="H58" s="3">
         <v>19393115</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="F58" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G58" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I58" s="3">
+        <v>1338064</v>
+      </c>
+      <c r="J58" s="3">
+        <v>17405133</v>
+      </c>
+      <c r="K58" s="3">
+        <v>648902</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1016</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3">
+        <v>1280204</v>
+      </c>
+      <c r="O58" s="5">
+        <f t="shared" si="2"/>
+        <v>0.93398667516796552</v>
+      </c>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="5">
+        <f t="shared" si="3"/>
+        <v>6.6013324832034481E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>15668221</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1">
+        <v>1633394</v>
+      </c>
+      <c r="D59" s="1">
+        <v>13470069</v>
+      </c>
+      <c r="E59" s="1">
+        <v>563910</v>
+      </c>
+      <c r="F59" s="1">
+        <v>848</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="3">
+      <c r="H59" s="3">
         <v>15668221</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F59" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G59" s="8">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I59" s="3">
+        <v>1633394</v>
+      </c>
+      <c r="J59" s="3">
+        <v>13470069</v>
+      </c>
+      <c r="K59" s="3">
+        <v>563910</v>
+      </c>
+      <c r="L59" s="3">
+        <v>848</v>
+      </c>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3">
+        <v>1569381</v>
+      </c>
+      <c r="O59" s="5">
+        <f t="shared" si="2"/>
+        <v>0.89983668216066137</v>
+      </c>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10016331783933863</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>15100209</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="1">
+        <v>1156714</v>
+      </c>
+      <c r="D60" s="1">
+        <v>13440005</v>
+      </c>
+      <c r="E60" s="1">
+        <v>502718</v>
+      </c>
+      <c r="F60" s="1">
+        <v>772</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D60" s="3">
+      <c r="H60" s="3">
         <v>15100209</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F60" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G60" s="8">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I60" s="3">
+        <v>1156714</v>
+      </c>
+      <c r="J60" s="3">
+        <v>13440005</v>
+      </c>
+      <c r="K60" s="3">
+        <v>502718</v>
+      </c>
+      <c r="L60" s="3">
+        <v>772</v>
+      </c>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3">
+        <v>1106458</v>
+      </c>
+      <c r="O60" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92672564995623574</v>
+      </c>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="5">
+        <f t="shared" si="3"/>
+        <v>7.3274350043764258E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>18575961</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1">
+        <v>1888566</v>
+      </c>
+      <c r="D61" s="1">
+        <v>16008509</v>
+      </c>
+      <c r="E61" s="1">
+        <v>677967</v>
+      </c>
+      <c r="F61" s="1">
+        <v>919</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="3">
+      <c r="H61" s="3">
         <v>18575961</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F61" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G61" s="8">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I61" s="3">
+        <v>1888566</v>
+      </c>
+      <c r="J61" s="3">
+        <v>16008509</v>
+      </c>
+      <c r="K61" s="3">
+        <v>677967</v>
+      </c>
+      <c r="L61" s="3">
+        <v>919</v>
+      </c>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3">
+        <v>1815660</v>
+      </c>
+      <c r="O61" s="5">
+        <f t="shared" si="2"/>
+        <v>0.90225754672934555</v>
+      </c>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="5">
+        <f t="shared" si="3"/>
+        <v>9.774245327065445E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11725284</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="1">
+        <v>970009</v>
+      </c>
+      <c r="D62" s="1">
+        <v>10343542</v>
+      </c>
+      <c r="E62" s="1">
+        <v>411115</v>
+      </c>
+      <c r="F62" s="1">
+        <v>618</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="3">
+      <c r="H62" s="3">
         <v>11725284</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F62" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G62" s="8">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I62" s="3">
+        <v>970009</v>
+      </c>
+      <c r="J62" s="3">
+        <v>10343542</v>
+      </c>
+      <c r="K62" s="3">
+        <v>411115</v>
+      </c>
+      <c r="L62" s="3">
+        <v>618</v>
+      </c>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3">
+        <v>926886</v>
+      </c>
+      <c r="O62" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92094980385976155</v>
+      </c>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="5">
+        <f t="shared" si="3"/>
+        <v>7.9050196140238449E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>3000014</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1">
+        <v>277347</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2588482</v>
+      </c>
+      <c r="E63" s="1">
+        <v>134046</v>
+      </c>
+      <c r="F63" s="1">
+        <v>139</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D63" s="3">
+      <c r="H63" s="3">
         <v>3000014</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F63" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G63" s="8">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I63" s="3">
+        <v>277347</v>
+      </c>
+      <c r="J63" s="3">
+        <v>2588482</v>
+      </c>
+      <c r="K63" s="3">
+        <v>134046</v>
+      </c>
+      <c r="L63" s="3">
+        <v>139</v>
+      </c>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3">
+        <v>268472</v>
+      </c>
+      <c r="O63" s="5">
+        <f t="shared" si="2"/>
+        <v>0.9105097509544956</v>
+      </c>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="5">
+        <f t="shared" si="3"/>
+        <v>8.94902490455044E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>9165183</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="1">
+        <v>634267</v>
+      </c>
+      <c r="D64" s="1">
+        <v>8211463</v>
+      </c>
+      <c r="E64" s="1">
+        <v>318974</v>
+      </c>
+      <c r="F64" s="1">
+        <v>479</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="3">
+      <c r="H64" s="3">
         <v>9165183</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F64" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G64" s="8">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I64" s="3">
+        <v>634267</v>
+      </c>
+      <c r="J64" s="3">
+        <v>8211463</v>
+      </c>
+      <c r="K64" s="3">
+        <v>318974</v>
+      </c>
+      <c r="L64" s="3">
+        <v>479</v>
+      </c>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3">
+        <v>584418</v>
+      </c>
+      <c r="O64" s="5">
+        <f t="shared" si="2"/>
+        <v>0.93623498843394615</v>
+      </c>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="5">
+        <f t="shared" si="3"/>
+        <v>6.3765011566053853E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="1">
         <v>1745492</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="1">
+        <v>256966</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1395643</v>
+      </c>
+      <c r="E65" s="1">
+        <v>92777</v>
+      </c>
+      <c r="F65" s="1">
+        <v>106</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D65" s="3">
+      <c r="H65" s="3">
         <v>1745492</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F65" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G65" s="8">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I65" s="3">
+        <v>256966</v>
+      </c>
+      <c r="J65" s="3">
+        <v>1395643</v>
+      </c>
+      <c r="K65" s="3">
+        <v>92777</v>
+      </c>
+      <c r="L65" s="3">
+        <v>106</v>
+      </c>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3">
+        <v>249021</v>
+      </c>
+      <c r="O65" s="5">
+        <f t="shared" si="2"/>
+        <v>0.85733478010784347</v>
+      </c>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14266521989215653</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>11664169</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="1">
+        <v>746693</v>
+      </c>
+      <c r="D66" s="1">
+        <v>10508892</v>
+      </c>
+      <c r="E66" s="1">
+        <v>407958</v>
+      </c>
+      <c r="F66" s="1">
+        <v>626</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D66" s="3">
+      <c r="H66" s="3">
         <v>11664169</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F66" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G66" s="8">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I66" s="3">
+        <v>746693</v>
+      </c>
+      <c r="J66" s="3">
+        <v>10508892</v>
+      </c>
+      <c r="K66" s="3">
+        <v>407958</v>
+      </c>
+      <c r="L66" s="3">
+        <v>626</v>
+      </c>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3">
+        <v>696053</v>
+      </c>
+      <c r="O66" s="5">
+        <f t="shared" si="2"/>
+        <v>0.9403255388360714</v>
+      </c>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="5">
+        <f t="shared" si="3"/>
+        <v>5.9674461163928605E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>10468927</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="1">
+        <v>779412</v>
+      </c>
+      <c r="D67" s="1">
+        <v>9330163</v>
+      </c>
+      <c r="E67" s="1">
+        <v>358764</v>
+      </c>
+      <c r="F67" s="1">
+        <v>588</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D67" s="3">
+      <c r="H67" s="3">
         <v>10468927</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F67" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G67" s="8">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I67" s="3">
+        <v>779412</v>
+      </c>
+      <c r="J67" s="3">
+        <v>9330163</v>
+      </c>
+      <c r="K67" s="3">
+        <v>358764</v>
+      </c>
+      <c r="L67" s="3">
+        <v>588</v>
+      </c>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3">
+        <v>739708</v>
+      </c>
+      <c r="O67" s="5">
+        <f t="shared" si="2"/>
+        <v>0.9293425200118407</v>
+      </c>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="5">
+        <f t="shared" si="3"/>
+        <v>7.06574799881593E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>21234558</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="1">
+        <v>1551940</v>
+      </c>
+      <c r="D68" s="1">
+        <v>18886514</v>
+      </c>
+      <c r="E68" s="1">
+        <v>795030</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1074</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="3">
+      <c r="H68" s="3">
         <v>21234558</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F68" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G68" s="8">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I68" s="3">
+        <v>1551940</v>
+      </c>
+      <c r="J68" s="3">
+        <v>18886514</v>
+      </c>
+      <c r="K68" s="3">
+        <v>795030</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1074</v>
+      </c>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3">
+        <v>1490072</v>
+      </c>
+      <c r="O68" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92982797193141487</v>
+      </c>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="5">
+        <f t="shared" si="3"/>
+        <v>7.0172028068585135E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="1">
         <v>2770431</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="1">
+        <v>271063</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2400041</v>
+      </c>
+      <c r="E69" s="1">
+        <v>99187</v>
+      </c>
+      <c r="F69" s="1">
+        <v>140</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D69" s="3">
+      <c r="H69" s="3">
         <v>2770431</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F69" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G69" s="8">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I69" s="3">
+        <v>271063</v>
+      </c>
+      <c r="J69" s="3">
+        <v>2400041</v>
+      </c>
+      <c r="K69" s="3">
+        <v>99187</v>
+      </c>
+      <c r="L69" s="3">
+        <v>140</v>
+      </c>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3">
+        <v>252430</v>
+      </c>
+      <c r="O69" s="5">
+        <f t="shared" si="2"/>
+        <v>0.90888421332276459</v>
+      </c>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="5">
+        <f t="shared" si="3"/>
+        <v>9.1115786677235411E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>1239658</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="1">
+        <v>160033</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1034687</v>
+      </c>
+      <c r="E70" s="1">
+        <v>44868</v>
+      </c>
+      <c r="F70" s="1">
+        <v>70</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D70" s="3">
+      <c r="H70" s="3">
         <v>1239658</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="F70" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G70" s="8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I70" s="3">
+        <v>160033</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1034687</v>
+      </c>
+      <c r="K70" s="3">
+        <v>44868</v>
+      </c>
+      <c r="L70" s="3">
+        <v>70</v>
+      </c>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3">
+        <v>152308</v>
+      </c>
+      <c r="O70" s="5">
+        <f t="shared" si="2"/>
+        <v>0.87713708135630952</v>
+      </c>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="5">
+        <f t="shared" si="3"/>
+        <v>0.12286291864369048</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>1050762</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="1">
+        <v>126983</v>
+      </c>
+      <c r="D71" s="1">
+        <v>885374</v>
+      </c>
+      <c r="E71" s="1">
+        <v>38348</v>
+      </c>
+      <c r="F71" s="1">
+        <v>57</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D71" s="3">
+      <c r="H71" s="3">
         <v>1050762</v>
       </c>
-      <c r="E71" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F71" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G71" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I71" s="3">
+        <v>126983</v>
+      </c>
+      <c r="J71" s="3">
+        <v>885374</v>
+      </c>
+      <c r="K71" s="3">
+        <v>38348</v>
+      </c>
+      <c r="L71" s="3">
+        <v>57</v>
+      </c>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3">
+        <v>120008</v>
+      </c>
+      <c r="O71" s="5">
+        <f t="shared" si="2"/>
+        <v>0.88578955082121358</v>
+      </c>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="5">
+        <f t="shared" si="3"/>
+        <v>0.11421044917878642</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>663230</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="1">
+        <v>101517</v>
+      </c>
+      <c r="D72" s="1">
+        <v>538236</v>
+      </c>
+      <c r="E72" s="1">
+        <v>23442</v>
+      </c>
+      <c r="F72" s="1">
+        <v>35</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D72" s="3">
+      <c r="H72" s="3">
         <v>663230</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F72" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G72" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I72" s="3">
+        <v>101517</v>
+      </c>
+      <c r="J72" s="3">
+        <v>538236</v>
+      </c>
+      <c r="K72" s="3">
+        <v>23442</v>
+      </c>
+      <c r="L72" s="3">
+        <v>35</v>
+      </c>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3">
+        <v>96812</v>
+      </c>
+      <c r="O72" s="5">
+        <f t="shared" si="2"/>
+        <v>0.85402952218687334</v>
+      </c>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14597047781312666</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>4273792</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="1">
+        <v>377002</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3742461</v>
+      </c>
+      <c r="E73" s="1">
+        <v>154091</v>
+      </c>
+      <c r="F73" s="1">
+        <v>238</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="3">
+      <c r="H73" s="3">
         <v>4273792</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F73" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G73" s="8">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I73" s="3">
+        <v>377002</v>
+      </c>
+      <c r="J73" s="3">
+        <v>3742461</v>
+      </c>
+      <c r="K73" s="3">
+        <v>154091</v>
+      </c>
+      <c r="L73" s="3">
+        <v>238</v>
+      </c>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3">
+        <v>352621</v>
+      </c>
+      <c r="O73" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91749224108239236</v>
+      </c>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="5">
+        <f t="shared" si="3"/>
+        <v>8.2507758917607643E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="1">
         <v>1509835</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="1">
+        <v>249436</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1205021</v>
+      </c>
+      <c r="E74" s="1">
+        <v>55307</v>
+      </c>
+      <c r="F74" s="1">
+        <v>71</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D74" s="3">
+      <c r="H74" s="3">
         <v>1509835</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F74" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G74" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I74" s="3">
+        <v>249436</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1205021</v>
+      </c>
+      <c r="K74" s="3">
+        <v>55307</v>
+      </c>
+      <c r="L74" s="3">
+        <v>71</v>
+      </c>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3">
+        <v>237661</v>
+      </c>
+      <c r="O74" s="5">
+        <f t="shared" si="2"/>
+        <v>0.84259140899502261</v>
+      </c>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15740859100497739</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>15036329</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="1">
+        <v>1326357</v>
+      </c>
+      <c r="D75" s="1">
+        <v>13214498</v>
+      </c>
+      <c r="E75" s="1">
+        <v>494667</v>
+      </c>
+      <c r="F75" s="1">
+        <v>807</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D75" s="3">
+      <c r="H75" s="3">
         <v>15036329</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F75" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G75" s="8">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I75" s="3">
+        <v>1326357</v>
+      </c>
+      <c r="J75" s="3">
+        <v>13214498</v>
+      </c>
+      <c r="K75" s="3">
+        <v>494667</v>
+      </c>
+      <c r="L75" s="3">
+        <v>807</v>
+      </c>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3">
+        <v>1267014</v>
+      </c>
+      <c r="O75" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91573648062635504</v>
+      </c>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="5">
+        <f t="shared" si="3"/>
+        <v>8.4263519373644957E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>16893955</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="1">
+        <v>1431626</v>
+      </c>
+      <c r="D76" s="1">
+        <v>14737975</v>
+      </c>
+      <c r="E76" s="1">
+        <v>723527</v>
+      </c>
+      <c r="F76" s="1">
+        <v>827</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D76" s="3">
+      <c r="H76" s="3">
         <v>16893955</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F76" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G76" s="8">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I76" s="3">
+        <v>1431626</v>
+      </c>
+      <c r="J76" s="3">
+        <v>14737975</v>
+      </c>
+      <c r="K76" s="3">
+        <v>723527</v>
+      </c>
+      <c r="L76" s="3">
+        <v>827</v>
+      </c>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3">
+        <v>1387034</v>
+      </c>
+      <c r="O76" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91789761485691179</v>
+      </c>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="5">
+        <f t="shared" si="3"/>
+        <v>8.2102385143088208E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>3822709</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="1">
+        <v>353006</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3317244</v>
+      </c>
+      <c r="E77" s="1">
+        <v>152240</v>
+      </c>
+      <c r="F77" s="1">
+        <v>219</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D77" s="3">
+      <c r="H77" s="3">
         <v>3822709</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F77" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G77" s="8">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I77" s="3">
+        <v>353006</v>
+      </c>
+      <c r="J77" s="3">
+        <v>3317244</v>
+      </c>
+      <c r="K77" s="3">
+        <v>152240</v>
+      </c>
+      <c r="L77" s="3">
+        <v>219</v>
+      </c>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3">
+        <v>340281</v>
+      </c>
+      <c r="O77" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91098433074555241</v>
+      </c>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="5">
+        <f t="shared" si="3"/>
+        <v>8.9015669254447594E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>9536367</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="1">
+        <v>730858</v>
+      </c>
+      <c r="D78" s="1">
+        <v>8488198</v>
+      </c>
+      <c r="E78" s="1">
+        <v>316791</v>
+      </c>
+      <c r="F78" s="1">
+        <v>520</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D78" s="3">
+      <c r="H78" s="3">
         <v>9536367</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F78" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G78" s="8">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I78" s="3">
+        <v>730858</v>
+      </c>
+      <c r="J78" s="3">
+        <v>8488198</v>
+      </c>
+      <c r="K78" s="3">
+        <v>316791</v>
+      </c>
+      <c r="L78" s="3">
+        <v>520</v>
+      </c>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3">
+        <v>699061</v>
+      </c>
+      <c r="O78" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92669524987870122</v>
+      </c>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="5">
+        <f t="shared" si="3"/>
+        <v>7.3304750121298778E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="1">
         <v>3754659</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="1">
+        <v>330001</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3294889</v>
+      </c>
+      <c r="E79" s="1">
+        <v>129556</v>
+      </c>
+      <c r="F79" s="1">
+        <v>213</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D79" s="3">
+      <c r="H79" s="3">
         <v>3754659</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F79" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G79" s="8">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I79" s="3">
+        <v>330001</v>
+      </c>
+      <c r="J79" s="3">
+        <v>3294889</v>
+      </c>
+      <c r="K79" s="3">
+        <v>129556</v>
+      </c>
+      <c r="L79" s="3">
+        <v>213</v>
+      </c>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3">
+        <v>309035</v>
+      </c>
+      <c r="O79" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91769292497667565</v>
+      </c>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="5">
+        <f t="shared" si="3"/>
+        <v>8.230707502332435E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="1">
         <v>10000767</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="1">
+        <v>690092</v>
+      </c>
+      <c r="D80" s="1">
+        <v>8962063</v>
+      </c>
+      <c r="E80" s="1">
+        <v>348090</v>
+      </c>
+      <c r="F80" s="1">
+        <v>522</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D80" s="3">
+      <c r="H80" s="3">
         <v>10000767</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F80" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G80" s="8">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I80" s="3">
+        <v>690092</v>
+      </c>
+      <c r="J80" s="3">
+        <v>8962063</v>
+      </c>
+      <c r="K80" s="3">
+        <v>348090</v>
+      </c>
+      <c r="L80" s="3">
+        <v>522</v>
+      </c>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3">
+        <v>645429</v>
+      </c>
+      <c r="O80" s="5">
+        <f t="shared" si="2"/>
+        <v>0.93546205006076033</v>
+      </c>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="5">
+        <f t="shared" si="3"/>
+        <v>6.4537949939239669E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>10965339</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="1">
+        <v>847478</v>
+      </c>
+      <c r="D81" s="1">
+        <v>9740913</v>
+      </c>
+      <c r="E81" s="1">
+        <v>376370</v>
+      </c>
+      <c r="F81" s="1">
+        <v>578</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D81" s="3">
+      <c r="H81" s="3">
         <v>10965339</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F81" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G81" s="8">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I81" s="3">
+        <v>847478</v>
+      </c>
+      <c r="J81" s="3">
+        <v>9740913</v>
+      </c>
+      <c r="K81" s="3">
+        <v>376370</v>
+      </c>
+      <c r="L81" s="3">
+        <v>578</v>
+      </c>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3">
+        <v>796681</v>
+      </c>
+      <c r="O81" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92734552027985639</v>
+      </c>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="5">
+        <f t="shared" si="3"/>
+        <v>7.2654479720143605E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>10197898</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="1">
+        <v>674198</v>
+      </c>
+      <c r="D82" s="1">
+        <v>9175831</v>
+      </c>
+      <c r="E82" s="1">
+        <v>347389</v>
+      </c>
+      <c r="F82" s="1">
+        <v>480</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D82" s="3">
+      <c r="H82" s="3">
         <v>10197898</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F82" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G82" s="8">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I82" s="3">
+        <v>674198</v>
+      </c>
+      <c r="J82" s="3">
+        <v>9175831</v>
+      </c>
+      <c r="K82" s="3">
+        <v>347389</v>
+      </c>
+      <c r="L82" s="3">
+        <v>480</v>
+      </c>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3">
+        <v>624347</v>
+      </c>
+      <c r="O82" s="5">
+        <f t="shared" si="2"/>
+        <v>0.9387768930420759</v>
+      </c>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="5">
+        <f t="shared" si="3"/>
+        <v>6.1223106957924101E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>3268809</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="1">
+        <v>320059</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2835336</v>
+      </c>
+      <c r="E83" s="1">
+        <v>113283</v>
+      </c>
+      <c r="F83" s="1">
+        <v>131</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D83" s="3">
+      <c r="H83" s="3">
         <v>3268809</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F83" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G83" s="8">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I83" s="3">
+        <v>320059</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2835336</v>
+      </c>
+      <c r="K83" s="3">
+        <v>113283</v>
+      </c>
+      <c r="L83" s="3">
+        <v>131</v>
+      </c>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3">
+        <v>304607</v>
+      </c>
+      <c r="O83" s="5">
+        <f t="shared" si="2"/>
+        <v>0.90681407203663478</v>
+      </c>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="5">
+        <f t="shared" si="3"/>
+        <v>9.3185927963365223E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>9722436</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="1">
+        <v>836293</v>
+      </c>
+      <c r="D84" s="1">
+        <v>8564364</v>
+      </c>
+      <c r="E84" s="1">
+        <v>321270</v>
+      </c>
+      <c r="F84" s="1">
+        <v>509</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D84" s="3">
+      <c r="H84" s="3">
         <v>9722436</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F84" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G84" s="8">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I84" s="3">
+        <v>836293</v>
+      </c>
+      <c r="J84" s="3">
+        <v>8564364</v>
+      </c>
+      <c r="K84" s="3">
+        <v>321270</v>
+      </c>
+      <c r="L84" s="3">
+        <v>509</v>
+      </c>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3">
+        <v>793940</v>
+      </c>
+      <c r="O84" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91833939560003275</v>
+      </c>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="5">
+        <f t="shared" si="3"/>
+        <v>8.1660604399967252E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>16685316</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="1">
+        <v>1267722</v>
+      </c>
+      <c r="D85" s="1">
+        <v>14858184</v>
+      </c>
+      <c r="E85" s="1">
+        <v>558507</v>
+      </c>
+      <c r="F85" s="1">
+        <v>903</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D85" s="3">
+      <c r="H85" s="3">
         <v>16685316</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F85" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G85" s="8">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I85" s="3">
+        <v>1267722</v>
+      </c>
+      <c r="J85" s="3">
+        <v>14858184</v>
+      </c>
+      <c r="K85" s="3">
+        <v>558507</v>
+      </c>
+      <c r="L85" s="3">
+        <v>903</v>
+      </c>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3">
+        <v>1211234</v>
+      </c>
+      <c r="O85" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92740718845240933</v>
+      </c>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="5">
+        <f t="shared" si="3"/>
+        <v>7.2592811547590674E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>16128393</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="1">
+        <v>1631974</v>
+      </c>
+      <c r="D86" s="1">
+        <v>13926474</v>
+      </c>
+      <c r="E86" s="1">
+        <v>569081</v>
+      </c>
+      <c r="F86" s="1">
+        <v>864</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D86" s="3">
+      <c r="H86" s="3">
         <v>16128393</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F86" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G86" s="8">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I86" s="3">
+        <v>1631974</v>
+      </c>
+      <c r="J86" s="3">
+        <v>13926474</v>
+      </c>
+      <c r="K86" s="3">
+        <v>569081</v>
+      </c>
+      <c r="L86" s="3">
+        <v>864</v>
+      </c>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3">
+        <v>1560066</v>
+      </c>
+      <c r="O86" s="5">
+        <f t="shared" si="2"/>
+        <v>0.90327207428539225</v>
+      </c>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="5">
+        <f t="shared" si="3"/>
+        <v>9.6727925714607754E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>11145711</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="1">
+        <v>708792</v>
+      </c>
+      <c r="D87" s="1">
+        <v>10078638</v>
+      </c>
+      <c r="E87" s="1">
+        <v>357706</v>
+      </c>
+      <c r="F87" s="1">
+        <v>575</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D87" s="3">
+      <c r="H87" s="3">
         <v>11145711</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="F87" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G87" s="8">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I87" s="3">
+        <v>708792</v>
+      </c>
+      <c r="J87" s="3">
+        <v>10078638</v>
+      </c>
+      <c r="K87" s="3">
+        <v>357706</v>
+      </c>
+      <c r="L87" s="3">
+        <v>575</v>
+      </c>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3">
+        <v>675378</v>
+      </c>
+      <c r="O87" s="5">
+        <f t="shared" si="2"/>
+        <v>0.93940467324157251</v>
+      </c>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="5">
+        <f t="shared" si="3"/>
+        <v>6.0595326758427492E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>473700</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="1">
+        <v>100968</v>
+      </c>
+      <c r="D88" s="1">
+        <v>355840</v>
+      </c>
+      <c r="E88" s="1">
+        <v>16870</v>
+      </c>
+      <c r="F88" s="1">
+        <v>22</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D88" s="3">
+      <c r="H88" s="3">
         <v>473700</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="F88" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G88" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I88" s="3">
+        <v>100968</v>
+      </c>
+      <c r="J88" s="3">
+        <v>355840</v>
+      </c>
+      <c r="K88" s="3">
+        <v>16870</v>
+      </c>
+      <c r="L88" s="3">
+        <v>22</v>
+      </c>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3">
+        <v>96980</v>
+      </c>
+      <c r="O88" s="5">
+        <f t="shared" si="2"/>
+        <v>0.79527126873548659</v>
+      </c>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="5">
+        <f t="shared" si="3"/>
+        <v>0.20472873126451341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>10813124</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="1">
+        <v>814116</v>
+      </c>
+      <c r="D89" s="1">
+        <v>9642685</v>
+      </c>
+      <c r="E89" s="1">
+        <v>355737</v>
+      </c>
+      <c r="F89" s="1">
+        <v>586</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D89" s="3">
+      <c r="H89" s="3">
         <v>10813124</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F89" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G89" s="8">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I89" s="3">
+        <v>814116</v>
+      </c>
+      <c r="J89" s="3">
+        <v>9642685</v>
+      </c>
+      <c r="K89" s="3">
+        <v>355737</v>
+      </c>
+      <c r="L89" s="3">
+        <v>586</v>
+      </c>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3">
+        <v>771746</v>
+      </c>
+      <c r="O89" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92862876630287416</v>
+      </c>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="5">
+        <f t="shared" si="3"/>
+        <v>7.1371233697125835E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>20639733</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="1">
+        <v>1551107</v>
+      </c>
+      <c r="D90" s="1">
+        <v>18240983</v>
+      </c>
+      <c r="E90" s="1">
+        <v>846578</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1065</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D90" s="3">
+      <c r="H90" s="3">
         <v>20639733</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F90" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G90" s="8">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I90" s="3">
+        <v>1551107</v>
+      </c>
+      <c r="J90" s="3">
+        <v>18240983</v>
+      </c>
+      <c r="K90" s="3">
+        <v>846578</v>
+      </c>
+      <c r="L90" s="3">
+        <v>1065</v>
+      </c>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3">
+        <v>1496213</v>
+      </c>
+      <c r="O90" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92750812231921798</v>
+      </c>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="5">
+        <f t="shared" si="3"/>
+        <v>7.2491877680782024E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>2952368</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="1">
+        <v>221956</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2488418</v>
+      </c>
+      <c r="E91" s="1">
+        <v>241856</v>
+      </c>
+      <c r="F91" s="1">
+        <v>138</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D91" s="3">
+      <c r="H91" s="3">
         <v>2952368</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F91" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G91" s="8">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I91" s="3">
+        <v>221956</v>
+      </c>
+      <c r="J91" s="3">
+        <v>2488418</v>
+      </c>
+      <c r="K91" s="3">
+        <v>241856</v>
+      </c>
+      <c r="L91" s="3">
+        <v>138</v>
+      </c>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3">
+        <v>215349</v>
+      </c>
+      <c r="O91" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92705888967770955</v>
+      </c>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="5">
+        <f t="shared" si="3"/>
+        <v>7.2941110322290448E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>20201567</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="1">
+        <v>2104007</v>
+      </c>
+      <c r="D92" s="1">
+        <v>17412413</v>
+      </c>
+      <c r="E92" s="1">
+        <v>684066</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1081</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D92" s="3">
+      <c r="H92" s="3">
         <v>20201567</v>
       </c>
-      <c r="E92" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F92" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G92" s="8">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I92" s="3">
+        <v>2104007</v>
+      </c>
+      <c r="J92" s="3">
+        <v>17412413</v>
+      </c>
+      <c r="K92" s="3">
+        <v>684066</v>
+      </c>
+      <c r="L92" s="3">
+        <v>1081</v>
+      </c>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3">
+        <v>2029638</v>
+      </c>
+      <c r="O92" s="5">
+        <f t="shared" si="2"/>
+        <v>0.89953066512117597</v>
+      </c>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10046933487882403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>23415093</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="1">
+        <v>2634952</v>
+      </c>
+      <c r="D93" s="1">
+        <v>19970386</v>
+      </c>
+      <c r="E93" s="1">
+        <v>808520</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1235</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D93" s="3">
+      <c r="H93" s="3">
         <v>23415093</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F93" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G93" s="8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I93" s="3">
+        <v>2634952</v>
+      </c>
+      <c r="J93" s="3">
+        <v>19970386</v>
+      </c>
+      <c r="K93" s="3">
+        <v>808520</v>
+      </c>
+      <c r="L93" s="3">
+        <v>1235</v>
+      </c>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3">
+        <v>2543327</v>
+      </c>
+      <c r="O93" s="5">
+        <f t="shared" si="2"/>
+        <v>0.89138087130382104</v>
+      </c>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10861912869617896</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>23864440</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="1">
+        <v>1516455</v>
+      </c>
+      <c r="D94" s="1">
+        <v>21456770</v>
+      </c>
+      <c r="E94" s="1">
+        <v>890012</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1203</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="3">
+      <c r="H94" s="3">
         <v>23864440</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F94" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G94" s="8">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I94" s="3">
+        <v>1516455</v>
+      </c>
+      <c r="J94" s="3">
+        <v>21456770</v>
+      </c>
+      <c r="K94" s="3">
+        <v>890012</v>
+      </c>
+      <c r="L94" s="3">
+        <v>1203</v>
+      </c>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3">
+        <v>1454733</v>
+      </c>
+      <c r="O94" s="5">
+        <f t="shared" si="2"/>
+        <v>0.93904181283952193</v>
+      </c>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="5">
+        <f t="shared" si="3"/>
+        <v>6.0958187160478072E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>506825</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="1">
+        <v>49810</v>
+      </c>
+      <c r="D95" s="1">
+        <v>408840</v>
+      </c>
+      <c r="E95" s="1">
+        <v>48153</v>
+      </c>
+      <c r="F95" s="1">
+        <v>22</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D95" s="3">
+      <c r="H95" s="3">
         <v>506825</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F95" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G95" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I95" s="3">
+        <v>49810</v>
+      </c>
+      <c r="J95" s="3">
+        <v>408840</v>
+      </c>
+      <c r="K95" s="3">
+        <v>48153</v>
+      </c>
+      <c r="L95" s="3">
+        <v>22</v>
+      </c>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3">
+        <v>48765</v>
+      </c>
+      <c r="O95" s="5">
+        <f t="shared" si="2"/>
+        <v>0.90378335717456715</v>
+      </c>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="5">
+        <f t="shared" si="3"/>
+        <v>9.6216642825432852E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>3532817</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="1">
+        <v>306970</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3101002</v>
+      </c>
+      <c r="E96" s="1">
+        <v>124673</v>
+      </c>
+      <c r="F96" s="1">
+        <v>172</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D96" s="3">
+      <c r="H96" s="3">
         <v>3532817</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F96" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="G96" s="8">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="I96" s="3">
+        <v>306970</v>
+      </c>
+      <c r="J96" s="3">
+        <v>3101002</v>
+      </c>
+      <c r="K96" s="3">
+        <v>124673</v>
+      </c>
+      <c r="L96" s="3">
+        <v>172</v>
+      </c>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3">
+        <v>287005</v>
+      </c>
+      <c r="O96" s="5">
+        <f t="shared" si="2"/>
+        <v>0.9187602980850692</v>
+      </c>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="5">
+        <f t="shared" si="3"/>
+        <v>8.1239701914930795E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>15270107</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="1">
+        <v>1083782</v>
+      </c>
+      <c r="D97" s="1">
+        <v>13654681</v>
+      </c>
+      <c r="E97" s="1">
+        <v>530848</v>
+      </c>
+      <c r="F97" s="1">
+        <v>796</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D97" s="3">
+      <c r="H97" s="3">
         <v>15270107</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F97" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="G97" s="8">
-        <v>15</v>
-      </c>
+      <c r="I97" s="3">
+        <v>1083782</v>
+      </c>
+      <c r="J97" s="3">
+        <v>13654681</v>
+      </c>
+      <c r="K97" s="3">
+        <v>530848</v>
+      </c>
+      <c r="L97" s="3">
+        <v>796</v>
+      </c>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3">
+        <v>1032853</v>
+      </c>
+      <c r="O97" s="5">
+        <f t="shared" si="2"/>
+        <v>0.93236111574070835</v>
+      </c>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="5">
+        <f t="shared" si="3"/>
+        <v>6.7638884259291654E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B98" s="6">
+        <f t="shared" ref="B98" si="4">SUM(B2:B97)</f>
+        <v>1030054588</v>
+      </c>
+      <c r="C98" s="6">
+        <f t="shared" ref="C98:G98" si="5">SUM(C2:C97)</f>
+        <v>228782525</v>
+      </c>
+      <c r="D98" s="6">
+        <f t="shared" si="5"/>
+        <v>764441711</v>
+      </c>
+      <c r="E98" s="6">
+        <f t="shared" si="5"/>
+        <v>36775808</v>
+      </c>
+      <c r="F98" s="6">
+        <f t="shared" si="5"/>
+        <v>54544</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6">
+        <f t="shared" ref="H98:O98" si="6">SUM(H2:H97)</f>
+        <v>1030054588</v>
+      </c>
+      <c r="I98" s="6">
+        <f t="shared" si="6"/>
+        <v>228782525</v>
+      </c>
+      <c r="J98" s="6">
+        <f t="shared" si="6"/>
+        <v>764441711</v>
+      </c>
+      <c r="K98" s="6">
+        <f t="shared" si="6"/>
+        <v>36775808</v>
+      </c>
+      <c r="L98" s="6">
+        <f t="shared" si="6"/>
+        <v>54544</v>
+      </c>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6">
+        <f t="shared" si="6"/>
+        <v>37132406</v>
+      </c>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gene_expression/bioinformatics_pipeline/readcounts_allsteps_checkagainstMS.xlsx
+++ b/gene_expression/bioinformatics_pipeline/readcounts_allsteps_checkagainstMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_temperaturevariability2023/gene_expression/bioinformatics_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{BD0676A9-DCF1-D347-8A65-AC01AF31CE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE8F2600-F946-034C-AD40-DB45C90C7D95}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{BD0676A9-DCF1-D347-8A65-AC01AF31CE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E076FB6-9C8F-AF46-866D-8E16C79CB476}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="23000" windowHeight="16240" xr2:uid="{E30E7334-B642-5E4F-95D2-E511D28C5524}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28740" windowHeight="16240" xr2:uid="{E30E7334-B642-5E4F-95D2-E511D28C5524}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="213">
   <si>
     <t>Acer-005_S23_L001_R1_001.fastq.gz</t>
   </si>
@@ -633,6 +633,21 @@
   </si>
   <si>
     <t>N in Header Reads</t>
+  </si>
+  <si>
+    <t>Trimmed Reads Acer</t>
+  </si>
+  <si>
+    <t>Trimmed Reads Pcli</t>
+  </si>
+  <si>
+    <t>Percent loss</t>
+  </si>
+  <si>
+    <t>Percent remaining Acer</t>
+  </si>
+  <si>
+    <t>Percent remaining Pcli</t>
   </si>
   <si>
     <t>Good Reads (Michael)</t>
@@ -669,7 +684,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -689,6 +704,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -743,14 +765,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -770,12 +790,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1091,5019 +1124,6113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D52EED-0510-8B4B-BB21-FD44FEE4B903}">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="6" width="25.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="28.1640625" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:22" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="10">
         <v>11893867</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="10">
         <v>4537382</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="10">
         <v>6915415</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="10">
         <v>440422</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="10">
         <v>648</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10">
+        <v>4247857</v>
+      </c>
+      <c r="I2" s="11">
+        <f>(B2-G2)/B2</f>
+        <v>0.64285316121325387</v>
+      </c>
+      <c r="J2" s="12">
+        <f>1-I2</f>
+        <v>0.35714683878674613</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="3">
+      <c r="M2" s="2">
         <v>11893867</v>
       </c>
-      <c r="I2" s="3">
+      <c r="N2" s="2">
         <v>4537382</v>
       </c>
-      <c r="J2" s="3">
+      <c r="O2" s="2">
         <v>6915415</v>
       </c>
-      <c r="K2" s="3">
+      <c r="P2" s="2">
         <v>440422</v>
       </c>
-      <c r="L2" s="3">
+      <c r="Q2" s="2">
         <v>648</v>
       </c>
-      <c r="M2" s="3">
+      <c r="R2" s="2">
         <v>4247857</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5">
-        <f t="shared" ref="O2:O49" si="0">(H2-M2)/H2</f>
+      <c r="S2" s="3"/>
+      <c r="T2" s="4">
+        <f t="shared" ref="T2:T49" si="0">(M2-R2)/M2</f>
         <v>0.64285316121325387</v>
       </c>
-      <c r="P2" s="5">
-        <f t="shared" ref="P2:P49" si="1">1-O2</f>
+      <c r="U2" s="4">
+        <f t="shared" ref="U2:U49" si="1">1-T2</f>
         <v>0.35714683878674613</v>
       </c>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V2" s="4"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="10">
         <v>13209851</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="10">
         <v>5054485</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="10">
         <v>7682393</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="10">
         <v>472188</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="10">
         <v>785</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10">
+        <v>4845731</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" ref="I3:I66" si="2">(B3-G3)/B3</f>
+        <v>0.63317292526615176</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" ref="J3:J49" si="3">1-I3</f>
+        <v>0.36682707473384824</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="3">
+      <c r="M3" s="2">
         <v>13209851</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N3" s="2">
         <v>5054485</v>
       </c>
-      <c r="J3" s="3">
+      <c r="O3" s="2">
         <v>7682393</v>
       </c>
-      <c r="K3" s="3">
+      <c r="P3" s="2">
         <v>472188</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="2">
         <v>785</v>
       </c>
-      <c r="M3" s="3">
+      <c r="R3" s="2">
         <v>4845731</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5">
+      <c r="S3" s="3"/>
+      <c r="T3" s="4">
         <f t="shared" si="0"/>
         <v>0.63317292526615176</v>
       </c>
-      <c r="P3" s="5">
+      <c r="U3" s="4">
         <f t="shared" si="1"/>
         <v>0.36682707473384824</v>
       </c>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="10">
         <v>13340389</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <v>4538599</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="10">
         <v>8313112</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="10">
         <v>487935</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="10">
         <v>743</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="10">
+        <v>4367644</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="2"/>
+        <v>0.67259995192044253</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="3"/>
+        <v>0.32740004807955747</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="3">
+      <c r="M4" s="2">
         <v>13340389</v>
       </c>
-      <c r="I4" s="3">
+      <c r="N4" s="2">
         <v>4538599</v>
       </c>
-      <c r="J4" s="3">
+      <c r="O4" s="2">
         <v>8313112</v>
       </c>
-      <c r="K4" s="3">
+      <c r="P4" s="2">
         <v>487935</v>
       </c>
-      <c r="L4" s="3">
+      <c r="Q4" s="2">
         <v>743</v>
       </c>
-      <c r="M4" s="3">
+      <c r="R4" s="2">
         <v>4367644</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5">
+      <c r="S4" s="3"/>
+      <c r="T4" s="4">
         <f t="shared" si="0"/>
         <v>0.67259995192044253</v>
       </c>
-      <c r="P4" s="5">
+      <c r="U4" s="4">
         <f t="shared" si="1"/>
         <v>0.32740004807955747</v>
       </c>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="10">
         <v>11816133</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="10">
         <v>3859991</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="10">
         <v>7537000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="10">
         <v>418501</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="10">
         <v>641</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="10">
+        <v>3629351</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="2"/>
+        <v>0.69284782085645114</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="3"/>
+        <v>0.30715217914354886</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="3">
+      <c r="M5" s="2">
         <v>11816133</v>
       </c>
-      <c r="I5" s="3">
+      <c r="N5" s="2">
         <v>3859991</v>
       </c>
-      <c r="J5" s="3">
+      <c r="O5" s="2">
         <v>7537000</v>
       </c>
-      <c r="K5" s="3">
+      <c r="P5" s="2">
         <v>418501</v>
       </c>
-      <c r="L5" s="3">
+      <c r="Q5" s="2">
         <v>641</v>
       </c>
-      <c r="M5" s="3">
+      <c r="R5" s="2">
         <v>3629351</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5">
+      <c r="S5" s="3"/>
+      <c r="T5" s="4">
         <f t="shared" si="0"/>
         <v>0.69284782085645114</v>
       </c>
-      <c r="P5" s="5">
+      <c r="U5" s="4">
         <f t="shared" si="1"/>
         <v>0.30715217914354886</v>
       </c>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="10">
         <v>13786013</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="10">
         <v>4779994</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="10">
         <v>8512407</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="10">
         <v>492844</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="10">
         <v>768</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="10">
+        <v>4500345</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="2"/>
+        <v>0.67355717711857666</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="3"/>
+        <v>0.32644282288142334</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="3">
+      <c r="M6" s="2">
         <v>13786013</v>
       </c>
-      <c r="I6" s="3">
+      <c r="N6" s="2">
         <v>4779994</v>
       </c>
-      <c r="J6" s="3">
+      <c r="O6" s="2">
         <v>8512407</v>
       </c>
-      <c r="K6" s="3">
+      <c r="P6" s="2">
         <v>492844</v>
       </c>
-      <c r="L6" s="3">
+      <c r="Q6" s="2">
         <v>768</v>
       </c>
-      <c r="M6" s="3">
+      <c r="R6" s="2">
         <v>4500345</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="5">
+      <c r="S6" s="3"/>
+      <c r="T6" s="4">
         <f t="shared" si="0"/>
         <v>0.67355717711857666</v>
       </c>
-      <c r="P6" s="5">
+      <c r="U6" s="4">
         <f t="shared" si="1"/>
         <v>0.32644282288142334</v>
       </c>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="10">
         <v>11690763</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="10">
         <v>4583919</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="10">
         <v>6676587</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <v>429606</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="10">
         <v>651</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="10">
+        <v>4408738</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="2"/>
+        <v>0.62288706049382747</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="3"/>
+        <v>0.37711293950617253</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="3">
+      <c r="M7" s="2">
         <v>11690763</v>
       </c>
-      <c r="I7" s="3">
+      <c r="N7" s="2">
         <v>4583919</v>
       </c>
-      <c r="J7" s="3">
+      <c r="O7" s="2">
         <v>6676587</v>
       </c>
-      <c r="K7" s="3">
+      <c r="P7" s="2">
         <v>429606</v>
       </c>
-      <c r="L7" s="3">
+      <c r="Q7" s="2">
         <v>651</v>
       </c>
-      <c r="M7" s="3">
+      <c r="R7" s="2">
         <v>4408738</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="5">
+      <c r="S7" s="3"/>
+      <c r="T7" s="4">
         <f t="shared" si="0"/>
         <v>0.62288706049382747</v>
       </c>
-      <c r="P7" s="5">
+      <c r="U7" s="4">
         <f t="shared" si="1"/>
         <v>0.37711293950617253</v>
       </c>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="10">
         <v>12892034</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10">
         <v>4613289</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="10">
         <v>7836790</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <v>441301</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="10">
         <v>654</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="10">
+        <v>4337416</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="2"/>
+        <v>0.66355844236836481</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="3"/>
+        <v>0.33644155763163519</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="2">
         <v>12892034</v>
       </c>
-      <c r="I8" s="3">
+      <c r="N8" s="2">
         <v>4613289</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="2">
         <v>7836790</v>
       </c>
-      <c r="K8" s="3">
+      <c r="P8" s="2">
         <v>441301</v>
       </c>
-      <c r="L8" s="3">
+      <c r="Q8" s="2">
         <v>654</v>
       </c>
-      <c r="M8" s="3">
+      <c r="R8" s="2">
         <v>4337416</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5">
+      <c r="S8" s="3"/>
+      <c r="T8" s="4">
         <f t="shared" si="0"/>
         <v>0.66355844236836481</v>
       </c>
-      <c r="P8" s="5">
+      <c r="U8" s="4">
         <f t="shared" si="1"/>
         <v>0.33644155763163519</v>
       </c>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="10">
         <v>15041032</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="10">
         <v>5350066</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="10">
         <v>9150839</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="10">
         <v>539333</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="10">
         <v>794</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="10">
+        <v>5025037</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>0.66591142150352445</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="3"/>
+        <v>0.33408857849647555</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="2">
         <v>15041032</v>
       </c>
-      <c r="I9" s="3">
+      <c r="N9" s="2">
         <v>5350066</v>
       </c>
-      <c r="J9" s="3">
+      <c r="O9" s="2">
         <v>9150839</v>
       </c>
-      <c r="K9" s="3">
+      <c r="P9" s="2">
         <v>539333</v>
       </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="2">
         <v>794</v>
       </c>
-      <c r="M9" s="3">
+      <c r="R9" s="2">
         <v>5025037</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="5">
+      <c r="S9" s="3"/>
+      <c r="T9" s="4">
         <f t="shared" si="0"/>
         <v>0.66591142150352445</v>
       </c>
-      <c r="P9" s="5">
+      <c r="U9" s="4">
         <f t="shared" si="1"/>
         <v>0.33408857849647555</v>
       </c>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="10">
         <v>11570068</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <v>3410961</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="10">
         <v>7748533</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="10">
         <v>409963</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="10">
         <v>611</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10">
+        <v>2987276</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74180998763360773</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="3"/>
+        <v>0.25819001236639227</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="2">
         <v>11570068</v>
       </c>
-      <c r="I10" s="3">
+      <c r="N10" s="2">
         <v>3410961</v>
       </c>
-      <c r="J10" s="3">
+      <c r="O10" s="2">
         <v>7748533</v>
       </c>
-      <c r="K10" s="3">
+      <c r="P10" s="2">
         <v>409963</v>
       </c>
-      <c r="L10" s="3">
+      <c r="Q10" s="2">
         <v>611</v>
       </c>
-      <c r="M10" s="3">
+      <c r="R10" s="2">
         <v>2987276</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5">
+      <c r="S10" s="3"/>
+      <c r="T10" s="4">
         <f t="shared" si="0"/>
         <v>0.74180998763360773</v>
       </c>
-      <c r="P10" s="5">
+      <c r="U10" s="4">
         <f t="shared" si="1"/>
         <v>0.25819001236639227</v>
       </c>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="10">
         <v>13899610</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="10">
         <v>4290747</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="10">
         <v>9127776</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="10">
         <v>480336</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="10">
         <v>751</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="10">
+        <v>3727077</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>0.73185744060444857</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="3"/>
+        <v>0.26814255939555143</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="3">
+      <c r="M11" s="2">
         <v>13899610</v>
       </c>
-      <c r="I11" s="3">
+      <c r="N11" s="2">
         <v>4290747</v>
       </c>
-      <c r="J11" s="3">
+      <c r="O11" s="2">
         <v>9127776</v>
       </c>
-      <c r="K11" s="3">
+      <c r="P11" s="2">
         <v>480336</v>
       </c>
-      <c r="L11" s="3">
+      <c r="Q11" s="2">
         <v>751</v>
       </c>
-      <c r="M11" s="3">
+      <c r="R11" s="2">
         <v>3727077</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5">
+      <c r="S11" s="3"/>
+      <c r="T11" s="4">
         <f t="shared" si="0"/>
         <v>0.73185744060444857</v>
       </c>
-      <c r="P11" s="5">
+      <c r="U11" s="4">
         <f t="shared" si="1"/>
         <v>0.26814255939555143</v>
       </c>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="10">
         <v>14013158</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="10">
         <v>5877458</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="10">
         <v>7636269</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="10">
         <v>498636</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="10">
         <v>795</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="10">
+        <v>5640952</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.59745319363415439</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="3"/>
+        <v>0.40254680636584561</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="3">
+      <c r="M12" s="2">
         <v>14013158</v>
       </c>
-      <c r="I12" s="3">
+      <c r="N12" s="2">
         <v>5877458</v>
       </c>
-      <c r="J12" s="3">
+      <c r="O12" s="2">
         <v>7636269</v>
       </c>
-      <c r="K12" s="3">
+      <c r="P12" s="2">
         <v>498636</v>
       </c>
-      <c r="L12" s="3">
+      <c r="Q12" s="2">
         <v>795</v>
       </c>
-      <c r="M12" s="3">
+      <c r="R12" s="2">
         <v>5640952</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="5">
+      <c r="S12" s="3"/>
+      <c r="T12" s="4">
         <f t="shared" si="0"/>
         <v>0.59745319363415439</v>
       </c>
-      <c r="P12" s="5">
+      <c r="U12" s="4">
         <f t="shared" si="1"/>
         <v>0.40254680636584561</v>
       </c>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="10">
         <v>13173395</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="10">
         <v>4393252</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="10">
         <v>8315845</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="10">
         <v>463600</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="10">
         <v>698</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="10">
+        <v>4198117</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="2"/>
+        <v>0.68131852115570812</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="3"/>
+        <v>0.31868147884429188</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="3">
+      <c r="M13" s="2">
         <v>13173395</v>
       </c>
-      <c r="I13" s="3">
+      <c r="N13" s="2">
         <v>4393252</v>
       </c>
-      <c r="J13" s="3">
+      <c r="O13" s="2">
         <v>8315845</v>
       </c>
-      <c r="K13" s="3">
+      <c r="P13" s="2">
         <v>463600</v>
       </c>
-      <c r="L13" s="3">
+      <c r="Q13" s="2">
         <v>698</v>
       </c>
-      <c r="M13" s="3">
+      <c r="R13" s="2">
         <v>4198117</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5">
+      <c r="S13" s="3"/>
+      <c r="T13" s="4">
         <f t="shared" si="0"/>
         <v>0.68131852115570812</v>
       </c>
-      <c r="P13" s="5">
+      <c r="U13" s="4">
         <f t="shared" si="1"/>
         <v>0.31868147884429188</v>
       </c>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="10">
         <v>14424718</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="10">
         <v>3418670</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="10">
         <v>10484051</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="10">
         <v>521211</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="10">
         <v>786</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="10">
+        <v>3183800</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.77928164696183311</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="3"/>
+        <v>0.22071835303816689</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="3">
+      <c r="M14" s="2">
         <v>14424718</v>
       </c>
-      <c r="I14" s="3">
+      <c r="N14" s="2">
         <v>3418670</v>
       </c>
-      <c r="J14" s="3">
+      <c r="O14" s="2">
         <v>10484051</v>
       </c>
-      <c r="K14" s="3">
+      <c r="P14" s="2">
         <v>521211</v>
       </c>
-      <c r="L14" s="3">
+      <c r="Q14" s="2">
         <v>786</v>
       </c>
-      <c r="M14" s="3">
+      <c r="R14" s="2">
         <v>3183800</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5">
+      <c r="S14" s="3"/>
+      <c r="T14" s="4">
         <f t="shared" si="0"/>
         <v>0.77928164696183311</v>
       </c>
-      <c r="P14" s="5">
+      <c r="U14" s="4">
         <f t="shared" si="1"/>
         <v>0.22071835303816689</v>
       </c>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="10">
         <v>11795849</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="10">
         <v>4132095</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="10">
         <v>7247189</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="10">
         <v>415942</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="10">
         <v>623</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="10">
+        <v>3981280</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="2"/>
+        <v>0.66248465879819252</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="3"/>
+        <v>0.33751534120180748</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="3">
+      <c r="M15" s="2">
         <v>11795849</v>
       </c>
-      <c r="I15" s="3">
+      <c r="N15" s="2">
         <v>4132095</v>
       </c>
-      <c r="J15" s="3">
+      <c r="O15" s="2">
         <v>7247189</v>
       </c>
-      <c r="K15" s="3">
+      <c r="P15" s="2">
         <v>415942</v>
       </c>
-      <c r="L15" s="3">
+      <c r="Q15" s="2">
         <v>623</v>
       </c>
-      <c r="M15" s="3">
+      <c r="R15" s="2">
         <v>3981280</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="5">
+      <c r="S15" s="3"/>
+      <c r="T15" s="4">
         <f t="shared" si="0"/>
         <v>0.66248465879819252</v>
       </c>
-      <c r="P15" s="5">
+      <c r="U15" s="4">
         <f t="shared" si="1"/>
         <v>0.33751534120180748</v>
       </c>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="10">
         <v>16734417</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="10">
         <v>5103864</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="10">
         <v>11059966</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="10">
         <v>569696</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="10">
         <v>891</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="10">
+        <v>4395690</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="2"/>
+        <v>0.73732637354501207</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="3"/>
+        <v>0.26267362645498793</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="3">
+      <c r="M16" s="2">
         <v>16734417</v>
       </c>
-      <c r="I16" s="3">
+      <c r="N16" s="2">
         <v>5103864</v>
       </c>
-      <c r="J16" s="3">
+      <c r="O16" s="2">
         <v>11059966</v>
       </c>
-      <c r="K16" s="3">
+      <c r="P16" s="2">
         <v>569696</v>
       </c>
-      <c r="L16" s="3">
+      <c r="Q16" s="2">
         <v>891</v>
       </c>
-      <c r="M16" s="3">
+      <c r="R16" s="2">
         <v>4395690</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5">
+      <c r="S16" s="3"/>
+      <c r="T16" s="4">
         <f t="shared" si="0"/>
         <v>0.73732637354501207</v>
       </c>
-      <c r="P16" s="5">
+      <c r="U16" s="4">
         <f t="shared" si="1"/>
         <v>0.26267362645498793</v>
       </c>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="10">
         <v>13126670</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="10">
         <v>4325520</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="10">
         <v>8337480</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="10">
         <v>462982</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="10">
         <v>688</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="10">
+        <v>3745497</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="2"/>
+        <v>0.71466510546848516</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="3"/>
+        <v>0.28533489453151484</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="2">
         <v>13126670</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="2">
         <v>4325520</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="2">
         <v>8337480</v>
       </c>
-      <c r="K17" s="3">
+      <c r="P17" s="2">
         <v>462982</v>
       </c>
-      <c r="L17" s="3">
+      <c r="Q17" s="2">
         <v>688</v>
       </c>
-      <c r="M17" s="3">
+      <c r="R17" s="2">
         <v>3745497</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="5">
+      <c r="S17" s="3"/>
+      <c r="T17" s="4">
         <f t="shared" si="0"/>
         <v>0.71466510546848516</v>
       </c>
-      <c r="P17" s="5">
+      <c r="U17" s="4">
         <f t="shared" si="1"/>
         <v>0.28533489453151484</v>
       </c>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="10">
         <v>13417235</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="10">
         <v>4174095</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="10">
         <v>8763614</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="10">
         <v>478773</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="10">
         <v>753</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="10">
+        <v>3395173</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74695434640594727</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="3"/>
+        <v>0.25304565359405273</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="2">
         <v>13417235</v>
       </c>
-      <c r="I18" s="3">
+      <c r="N18" s="2">
         <v>4174095</v>
       </c>
-      <c r="J18" s="3">
+      <c r="O18" s="2">
         <v>8763614</v>
       </c>
-      <c r="K18" s="3">
+      <c r="P18" s="2">
         <v>478773</v>
       </c>
-      <c r="L18" s="3">
+      <c r="Q18" s="2">
         <v>753</v>
       </c>
-      <c r="M18" s="3">
+      <c r="R18" s="2">
         <v>3395173</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="5">
+      <c r="S18" s="3"/>
+      <c r="T18" s="4">
         <f t="shared" si="0"/>
         <v>0.74695434640594727</v>
       </c>
-      <c r="P18" s="5">
+      <c r="U18" s="4">
         <f t="shared" si="1"/>
         <v>0.25304565359405273</v>
       </c>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="10">
         <v>13968542</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="10">
         <v>4518478</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="10">
         <v>8942575</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="10">
         <v>506744</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="10">
         <v>745</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="10">
+        <v>4216482</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="2"/>
+        <v>0.69814444485329963</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="3"/>
+        <v>0.30185555514670037</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="3">
+      <c r="M19" s="2">
         <v>13968542</v>
       </c>
-      <c r="I19" s="3">
+      <c r="N19" s="2">
         <v>4518478</v>
       </c>
-      <c r="J19" s="3">
+      <c r="O19" s="2">
         <v>8942575</v>
       </c>
-      <c r="K19" s="3">
+      <c r="P19" s="2">
         <v>506744</v>
       </c>
-      <c r="L19" s="3">
+      <c r="Q19" s="2">
         <v>745</v>
       </c>
-      <c r="M19" s="3">
+      <c r="R19" s="2">
         <v>4216482</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="5">
+      <c r="S19" s="3"/>
+      <c r="T19" s="4">
         <f t="shared" si="0"/>
         <v>0.69814444485329963</v>
       </c>
-      <c r="P19" s="5">
+      <c r="U19" s="4">
         <f t="shared" si="1"/>
         <v>0.30185555514670037</v>
       </c>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="10">
         <v>13687891</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="10">
         <v>5433153</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="10">
         <v>7762937</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="10">
         <v>491091</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="10">
         <v>710</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="10">
+        <v>5140680</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="2"/>
+        <v>0.62443593392144925</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="3"/>
+        <v>0.37556406607855075</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="2">
         <v>13687891</v>
       </c>
-      <c r="I20" s="3">
+      <c r="N20" s="2">
         <v>5433153</v>
       </c>
-      <c r="J20" s="3">
+      <c r="O20" s="2">
         <v>7762937</v>
       </c>
-      <c r="K20" s="3">
+      <c r="P20" s="2">
         <v>491091</v>
       </c>
-      <c r="L20" s="3">
+      <c r="Q20" s="2">
         <v>710</v>
       </c>
-      <c r="M20" s="3">
+      <c r="R20" s="2">
         <v>5140680</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="5">
+      <c r="S20" s="3"/>
+      <c r="T20" s="4">
         <f t="shared" si="0"/>
         <v>0.62443593392144925</v>
       </c>
-      <c r="P20" s="5">
+      <c r="U20" s="4">
         <f t="shared" si="1"/>
         <v>0.37556406607855075</v>
       </c>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="10">
         <v>8880017</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="10">
         <v>1921176</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="10">
         <v>6647552</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="10">
         <v>310792</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="10">
         <v>497</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="10">
+        <v>1458102</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="2"/>
+        <v>0.83579963867186291</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="3"/>
+        <v>0.16420036132813709</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="3">
+      <c r="M21" s="2">
         <v>8880017</v>
       </c>
-      <c r="I21" s="3">
+      <c r="N21" s="2">
         <v>1921176</v>
       </c>
-      <c r="J21" s="3">
+      <c r="O21" s="2">
         <v>6647552</v>
       </c>
-      <c r="K21" s="3">
+      <c r="P21" s="2">
         <v>310792</v>
       </c>
-      <c r="L21" s="3">
+      <c r="Q21" s="2">
         <v>497</v>
       </c>
-      <c r="M21" s="3">
+      <c r="R21" s="2">
         <v>1458102</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="5">
+      <c r="S21" s="3"/>
+      <c r="T21" s="4">
         <f t="shared" si="0"/>
         <v>0.83579963867186291</v>
       </c>
-      <c r="P21" s="5">
+      <c r="U21" s="4">
         <f t="shared" si="1"/>
         <v>0.16420036132813709</v>
       </c>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="10">
         <v>12205253</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="10">
         <v>3594545</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="10">
         <v>8167000</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="10">
         <v>443074</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="10">
         <v>634</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="10">
+        <v>3034018</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" si="2"/>
+        <v>0.75141703330524978</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="3"/>
+        <v>0.24858296669475022</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="3">
+      <c r="M22" s="2">
         <v>12205253</v>
       </c>
-      <c r="I22" s="3">
+      <c r="N22" s="2">
         <v>3594545</v>
       </c>
-      <c r="J22" s="3">
+      <c r="O22" s="2">
         <v>8167000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="P22" s="2">
         <v>443074</v>
       </c>
-      <c r="L22" s="3">
+      <c r="Q22" s="2">
         <v>634</v>
       </c>
-      <c r="M22" s="3">
+      <c r="R22" s="2">
         <v>3034018</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="5">
+      <c r="S22" s="3"/>
+      <c r="T22" s="4">
         <f t="shared" si="0"/>
         <v>0.75141703330524978</v>
       </c>
-      <c r="P22" s="5">
+      <c r="U22" s="4">
         <f t="shared" si="1"/>
         <v>0.24858296669475022</v>
       </c>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="10">
         <v>6299928</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="10">
         <v>1329595</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="10">
         <v>4736577</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="10">
         <v>233415</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="10">
         <v>341</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="10">
+        <v>852712</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" si="2"/>
+        <v>0.86464734200136895</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="3"/>
+        <v>0.13535265799863105</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H23" s="3">
+      <c r="M23" s="2">
         <v>6299928</v>
       </c>
-      <c r="I23" s="3">
+      <c r="N23" s="2">
         <v>1329595</v>
       </c>
-      <c r="J23" s="3">
+      <c r="O23" s="2">
         <v>4736577</v>
       </c>
-      <c r="K23" s="3">
+      <c r="P23" s="2">
         <v>233415</v>
       </c>
-      <c r="L23" s="3">
+      <c r="Q23" s="2">
         <v>341</v>
       </c>
-      <c r="M23" s="3">
+      <c r="R23" s="2">
         <v>852712</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="5">
+      <c r="S23" s="3"/>
+      <c r="T23" s="4">
         <f t="shared" si="0"/>
         <v>0.86464734200136895</v>
       </c>
-      <c r="P23" s="5">
+      <c r="U23" s="4">
         <f t="shared" si="1"/>
         <v>0.13535265799863105</v>
       </c>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="10">
         <v>10027271</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="10">
         <v>2803853</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="10">
         <v>6875352</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="10">
         <v>347516</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="10">
         <v>550</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="10">
+        <v>2267916</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="2"/>
+        <v>0.77382520129355237</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="3"/>
+        <v>0.22617479870644763</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="3">
+      <c r="M24" s="2">
         <v>10027271</v>
       </c>
-      <c r="I24" s="3">
+      <c r="N24" s="2">
         <v>2803853</v>
       </c>
-      <c r="J24" s="3">
+      <c r="O24" s="2">
         <v>6875352</v>
       </c>
-      <c r="K24" s="3">
+      <c r="P24" s="2">
         <v>347516</v>
       </c>
-      <c r="L24" s="3">
+      <c r="Q24" s="2">
         <v>550</v>
       </c>
-      <c r="M24" s="3">
+      <c r="R24" s="2">
         <v>2267916</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5">
+      <c r="S24" s="3"/>
+      <c r="T24" s="4">
         <f t="shared" si="0"/>
         <v>0.77382520129355237</v>
       </c>
-      <c r="P24" s="5">
+      <c r="U24" s="4">
         <f t="shared" si="1"/>
         <v>0.22617479870644763</v>
       </c>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="10">
         <v>12982523</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="10">
         <v>4518500</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="10">
         <v>7995161</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="10">
         <v>468170</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="10">
         <v>692</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="10">
+        <v>4210722</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" si="2"/>
+        <v>0.67566227304199655</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="3"/>
+        <v>0.32433772695800345</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H25" s="3">
+      <c r="M25" s="2">
         <v>12982523</v>
       </c>
-      <c r="I25" s="3">
+      <c r="N25" s="2">
         <v>4518500</v>
       </c>
-      <c r="J25" s="3">
+      <c r="O25" s="2">
         <v>7995161</v>
       </c>
-      <c r="K25" s="3">
+      <c r="P25" s="2">
         <v>468170</v>
       </c>
-      <c r="L25" s="3">
+      <c r="Q25" s="2">
         <v>692</v>
       </c>
-      <c r="M25" s="3">
+      <c r="R25" s="2">
         <v>4210722</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5">
+      <c r="S25" s="3"/>
+      <c r="T25" s="4">
         <f t="shared" si="0"/>
         <v>0.67566227304199655</v>
       </c>
-      <c r="P25" s="5">
+      <c r="U25" s="4">
         <f t="shared" si="1"/>
         <v>0.32433772695800345</v>
       </c>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="10">
         <v>8999379</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="10">
         <v>2885402</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="10">
         <v>5785713</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="10">
         <v>327766</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="10">
         <v>498</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="10">
+        <v>2615820</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="2"/>
+        <v>0.70933327732946905</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="3"/>
+        <v>0.29066672267053095</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="3">
+      <c r="M26" s="2">
         <v>8999379</v>
       </c>
-      <c r="I26" s="3">
+      <c r="N26" s="2">
         <v>2885402</v>
       </c>
-      <c r="J26" s="3">
+      <c r="O26" s="2">
         <v>5785713</v>
       </c>
-      <c r="K26" s="3">
+      <c r="P26" s="2">
         <v>327766</v>
       </c>
-      <c r="L26" s="3">
+      <c r="Q26" s="2">
         <v>498</v>
       </c>
-      <c r="M26" s="3">
+      <c r="R26" s="2">
         <v>2615820</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="5">
+      <c r="S26" s="3"/>
+      <c r="T26" s="4">
         <f t="shared" si="0"/>
         <v>0.70933327732946905</v>
       </c>
-      <c r="P26" s="5">
+      <c r="U26" s="4">
         <f t="shared" si="1"/>
         <v>0.29066672267053095</v>
       </c>
-      <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="10">
         <v>8925185</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="10">
         <v>2590358</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="10">
         <v>6023869</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="10">
         <v>310475</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="10">
         <v>483</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="10">
+        <v>2191125</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" si="2"/>
+        <v>0.75450088709645791</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" si="3"/>
+        <v>0.24549911290354209</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="3">
+      <c r="M27" s="2">
         <v>8925185</v>
       </c>
-      <c r="I27" s="3">
+      <c r="N27" s="2">
         <v>2590358</v>
       </c>
-      <c r="J27" s="3">
+      <c r="O27" s="2">
         <v>6023869</v>
       </c>
-      <c r="K27" s="3">
+      <c r="P27" s="2">
         <v>310475</v>
       </c>
-      <c r="L27" s="3">
+      <c r="Q27" s="2">
         <v>483</v>
       </c>
-      <c r="M27" s="3">
+      <c r="R27" s="2">
         <v>2191125</v>
       </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="5">
+      <c r="S27" s="3"/>
+      <c r="T27" s="4">
         <f t="shared" si="0"/>
         <v>0.75450088709645791</v>
       </c>
-      <c r="P27" s="5">
+      <c r="U27" s="4">
         <f t="shared" si="1"/>
         <v>0.24549911290354209</v>
       </c>
-      <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="10">
         <v>10765315</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="10">
         <v>3832744</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="10">
         <v>6556926</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="10">
         <v>375099</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="10">
         <v>546</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="10">
+        <v>3709718</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="2"/>
+        <v>0.65540088701538224</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" si="3"/>
+        <v>0.34459911298461776</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="3">
+      <c r="M28" s="2">
         <v>10765315</v>
       </c>
-      <c r="I28" s="3">
+      <c r="N28" s="2">
         <v>3832744</v>
       </c>
-      <c r="J28" s="3">
+      <c r="O28" s="2">
         <v>6556926</v>
       </c>
-      <c r="K28" s="3">
+      <c r="P28" s="2">
         <v>375099</v>
       </c>
-      <c r="L28" s="3">
+      <c r="Q28" s="2">
         <v>546</v>
       </c>
-      <c r="M28" s="3">
+      <c r="R28" s="2">
         <v>3709718</v>
       </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="5">
+      <c r="S28" s="3"/>
+      <c r="T28" s="4">
         <f t="shared" si="0"/>
         <v>0.65540088701538224</v>
       </c>
-      <c r="P28" s="5">
+      <c r="U28" s="4">
         <f t="shared" si="1"/>
         <v>0.34459911298461776</v>
       </c>
-      <c r="Q28" s="5"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="10">
         <v>6642725</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="10">
         <v>1668858</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="10">
         <v>4737455</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="10">
         <v>236096</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="10">
         <v>316</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="10">
+        <v>1197643</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81970606942181112</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" si="3"/>
+        <v>0.18029393057818888</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="3">
+      <c r="M29" s="2">
         <v>6642725</v>
       </c>
-      <c r="I29" s="3">
+      <c r="N29" s="2">
         <v>1668858</v>
       </c>
-      <c r="J29" s="3">
+      <c r="O29" s="2">
         <v>4737455</v>
       </c>
-      <c r="K29" s="3">
+      <c r="P29" s="2">
         <v>236096</v>
       </c>
-      <c r="L29" s="3">
+      <c r="Q29" s="2">
         <v>316</v>
       </c>
-      <c r="M29" s="3">
+      <c r="R29" s="2">
         <v>1197643</v>
       </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="5">
+      <c r="S29" s="3"/>
+      <c r="T29" s="4">
         <f t="shared" si="0"/>
         <v>0.81970606942181112</v>
       </c>
-      <c r="P29" s="5">
+      <c r="U29" s="4">
         <f t="shared" si="1"/>
         <v>0.18029393057818888</v>
       </c>
-      <c r="Q29" s="5"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="10">
         <v>9667701</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="10">
         <v>2402571</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="10">
         <v>6927282</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="10">
         <v>337333</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="10">
         <v>515</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="10">
+        <v>2089329</v>
+      </c>
+      <c r="I30" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7838856414777412</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="3"/>
+        <v>0.2161143585222588</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H30" s="3">
+      <c r="M30" s="2">
         <v>9667701</v>
       </c>
-      <c r="I30" s="3">
+      <c r="N30" s="2">
         <v>2402571</v>
       </c>
-      <c r="J30" s="3">
+      <c r="O30" s="2">
         <v>6927282</v>
       </c>
-      <c r="K30" s="3">
+      <c r="P30" s="2">
         <v>337333</v>
       </c>
-      <c r="L30" s="3">
+      <c r="Q30" s="2">
         <v>515</v>
       </c>
-      <c r="M30" s="3">
+      <c r="R30" s="2">
         <v>2089329</v>
       </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="5">
+      <c r="S30" s="3"/>
+      <c r="T30" s="4">
         <f t="shared" si="0"/>
         <v>0.7838856414777412</v>
       </c>
-      <c r="P30" s="5">
+      <c r="U30" s="4">
         <f t="shared" si="1"/>
         <v>0.2161143585222588</v>
       </c>
-      <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="10">
         <v>12461234</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="10">
         <v>4644535</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="10">
         <v>7366510</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="10">
         <v>449511</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="10">
         <v>678</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="10">
+        <v>4508437</v>
+      </c>
+      <c r="I31" s="11">
+        <f t="shared" si="2"/>
+        <v>0.63820300621912729</v>
+      </c>
+      <c r="J31" s="12">
+        <f t="shared" si="3"/>
+        <v>0.36179699378087271</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H31" s="3">
+      <c r="M31" s="2">
         <v>12461234</v>
       </c>
-      <c r="I31" s="3">
+      <c r="N31" s="2">
         <v>4644535</v>
       </c>
-      <c r="J31" s="3">
+      <c r="O31" s="2">
         <v>7366510</v>
       </c>
-      <c r="K31" s="3">
+      <c r="P31" s="2">
         <v>449511</v>
       </c>
-      <c r="L31" s="3">
+      <c r="Q31" s="2">
         <v>678</v>
       </c>
-      <c r="M31" s="3">
+      <c r="R31" s="2">
         <v>4508437</v>
       </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="5">
+      <c r="S31" s="3"/>
+      <c r="T31" s="4">
         <f t="shared" si="0"/>
         <v>0.63820300621912729</v>
       </c>
-      <c r="P31" s="5">
+      <c r="U31" s="4">
         <f t="shared" si="1"/>
         <v>0.36179699378087271</v>
       </c>
-      <c r="Q31" s="5"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="10">
         <v>11546185</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="10">
         <v>4943729</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="10">
         <v>6191769</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="10">
         <v>410068</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="10">
         <v>619</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="10">
+        <v>4728151</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" si="2"/>
+        <v>0.59050101830171609</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" si="3"/>
+        <v>0.40949898169828391</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="3">
+      <c r="M32" s="2">
         <v>11546185</v>
       </c>
-      <c r="I32" s="3">
+      <c r="N32" s="2">
         <v>4943729</v>
       </c>
-      <c r="J32" s="3">
+      <c r="O32" s="2">
         <v>6191769</v>
       </c>
-      <c r="K32" s="3">
+      <c r="P32" s="2">
         <v>410068</v>
       </c>
-      <c r="L32" s="3">
+      <c r="Q32" s="2">
         <v>619</v>
       </c>
-      <c r="M32" s="3">
+      <c r="R32" s="2">
         <v>4728151</v>
       </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="5">
+      <c r="S32" s="3"/>
+      <c r="T32" s="4">
         <f t="shared" si="0"/>
         <v>0.59050101830171609</v>
       </c>
-      <c r="P32" s="5">
+      <c r="U32" s="4">
         <f t="shared" si="1"/>
         <v>0.40949898169828391</v>
       </c>
-      <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="10">
         <v>11893894</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="10">
         <v>6107116</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="10">
         <v>5368056</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="10">
         <v>418072</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="10">
         <v>650</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="10">
+        <v>5608466</v>
+      </c>
+      <c r="I33" s="11">
+        <f t="shared" si="2"/>
+        <v>0.5284583837723793</v>
+      </c>
+      <c r="J33" s="12">
+        <f t="shared" si="3"/>
+        <v>0.4715416162276207</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H33" s="3">
+      <c r="M33" s="2">
         <v>11893894</v>
       </c>
-      <c r="I33" s="3">
+      <c r="N33" s="2">
         <v>6107116</v>
       </c>
-      <c r="J33" s="3">
+      <c r="O33" s="2">
         <v>5368056</v>
       </c>
-      <c r="K33" s="3">
+      <c r="P33" s="2">
         <v>418072</v>
       </c>
-      <c r="L33" s="3">
+      <c r="Q33" s="2">
         <v>650</v>
       </c>
-      <c r="M33" s="3">
+      <c r="R33" s="2">
         <v>5608466</v>
       </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="5">
+      <c r="S33" s="3"/>
+      <c r="T33" s="4">
         <f t="shared" si="0"/>
         <v>0.5284583837723793</v>
       </c>
-      <c r="P33" s="5">
+      <c r="U33" s="4">
         <f t="shared" si="1"/>
         <v>0.4715416162276207</v>
       </c>
-      <c r="Q33" s="5"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V33" s="4"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="10">
         <v>9525611</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="10">
         <v>3016172</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="10">
         <v>6181261</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="10">
         <v>327658</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="10">
         <v>520</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="10">
+        <v>2647726</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7220413472689573</v>
+      </c>
+      <c r="J34" s="12">
+        <f t="shared" si="3"/>
+        <v>0.2779586527310427</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="3">
+      <c r="M34" s="2">
         <v>9525611</v>
       </c>
-      <c r="I34" s="3">
+      <c r="N34" s="2">
         <v>3016172</v>
       </c>
-      <c r="J34" s="3">
+      <c r="O34" s="2">
         <v>6181261</v>
       </c>
-      <c r="K34" s="3">
+      <c r="P34" s="2">
         <v>327658</v>
       </c>
-      <c r="L34" s="3">
+      <c r="Q34" s="2">
         <v>520</v>
       </c>
-      <c r="M34" s="3">
+      <c r="R34" s="2">
         <v>2647726</v>
       </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="5">
+      <c r="S34" s="3"/>
+      <c r="T34" s="4">
         <f t="shared" si="0"/>
         <v>0.7220413472689573</v>
       </c>
-      <c r="P34" s="5">
+      <c r="U34" s="4">
         <f t="shared" si="1"/>
         <v>0.2779586527310427</v>
       </c>
-      <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V34" s="4"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="10">
         <v>10786783</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="10">
         <v>3667349</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="10">
         <v>6740598</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="10">
         <v>378272</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="10">
         <v>564</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="10">
+        <v>3556875</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" si="2"/>
+        <v>0.67025618296020228</v>
+      </c>
+      <c r="J35" s="12">
+        <f t="shared" si="3"/>
+        <v>0.32974381703979772</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H35" s="3">
+      <c r="M35" s="2">
         <v>10786783</v>
       </c>
-      <c r="I35" s="3">
+      <c r="N35" s="2">
         <v>3667349</v>
       </c>
-      <c r="J35" s="3">
+      <c r="O35" s="2">
         <v>6740598</v>
       </c>
-      <c r="K35" s="3">
+      <c r="P35" s="2">
         <v>378272</v>
       </c>
-      <c r="L35" s="3">
+      <c r="Q35" s="2">
         <v>564</v>
       </c>
-      <c r="M35" s="3">
+      <c r="R35" s="2">
         <v>3556875</v>
       </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="5">
+      <c r="S35" s="3"/>
+      <c r="T35" s="4">
         <f t="shared" si="0"/>
         <v>0.67025618296020228</v>
       </c>
-      <c r="P35" s="5">
+      <c r="U35" s="4">
         <f t="shared" si="1"/>
         <v>0.32974381703979772</v>
       </c>
-      <c r="Q35" s="5"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V35" s="4"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="10">
         <v>11865741</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="10">
         <v>3967556</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="10">
         <v>7476091</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="10">
         <v>421470</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="10">
         <v>624</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="10">
+        <v>3636838</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="2"/>
+        <v>0.69350097899490648</v>
+      </c>
+      <c r="J36" s="12">
+        <f t="shared" si="3"/>
+        <v>0.30649902100509352</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H36" s="3">
+      <c r="M36" s="2">
         <v>11865741</v>
       </c>
-      <c r="I36" s="3">
+      <c r="N36" s="2">
         <v>3967556</v>
       </c>
-      <c r="J36" s="3">
+      <c r="O36" s="2">
         <v>7476091</v>
       </c>
-      <c r="K36" s="3">
+      <c r="P36" s="2">
         <v>421470</v>
       </c>
-      <c r="L36" s="3">
+      <c r="Q36" s="2">
         <v>624</v>
       </c>
-      <c r="M36" s="3">
+      <c r="R36" s="2">
         <v>3636838</v>
       </c>
-      <c r="N36" s="4"/>
-      <c r="O36" s="5">
+      <c r="S36" s="3"/>
+      <c r="T36" s="4">
         <f t="shared" si="0"/>
         <v>0.69350097899490648</v>
       </c>
-      <c r="P36" s="5">
+      <c r="U36" s="4">
         <f t="shared" si="1"/>
         <v>0.30649902100509352</v>
       </c>
-      <c r="Q36" s="5"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V36" s="4"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="10">
         <v>6537998</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="10">
         <v>1743368</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="10">
         <v>4569321</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="10">
         <v>224963</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="10">
         <v>346</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="10">
+        <v>1447075</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7786669558479522</v>
+      </c>
+      <c r="J37" s="12">
+        <f t="shared" si="3"/>
+        <v>0.2213330441520478</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H37" s="3">
+      <c r="M37" s="2">
         <v>6537998</v>
       </c>
-      <c r="I37" s="3">
+      <c r="N37" s="2">
         <v>1743368</v>
       </c>
-      <c r="J37" s="3">
+      <c r="O37" s="2">
         <v>4569321</v>
       </c>
-      <c r="K37" s="3">
+      <c r="P37" s="2">
         <v>224963</v>
       </c>
-      <c r="L37" s="3">
+      <c r="Q37" s="2">
         <v>346</v>
       </c>
-      <c r="M37" s="3">
+      <c r="R37" s="2">
         <v>1447075</v>
       </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="5">
+      <c r="S37" s="3"/>
+      <c r="T37" s="4">
         <f t="shared" si="0"/>
         <v>0.7786669558479522</v>
       </c>
-      <c r="P37" s="5">
+      <c r="U37" s="4">
         <f t="shared" si="1"/>
         <v>0.2213330441520478</v>
       </c>
-      <c r="Q37" s="5"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V37" s="4"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="10">
         <v>13224558</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="10">
         <v>4607503</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="10">
         <v>8153501</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="10">
         <v>462832</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="10">
         <v>722</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="10">
+        <v>4375058</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="2"/>
+        <v>0.66917170312988905</v>
+      </c>
+      <c r="J38" s="12">
+        <f t="shared" si="3"/>
+        <v>0.33082829687011095</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H38" s="3">
+      <c r="M38" s="2">
         <v>13224558</v>
       </c>
-      <c r="I38" s="3">
+      <c r="N38" s="2">
         <v>4607503</v>
       </c>
-      <c r="J38" s="3">
+      <c r="O38" s="2">
         <v>8153501</v>
       </c>
-      <c r="K38" s="3">
+      <c r="P38" s="2">
         <v>462832</v>
       </c>
-      <c r="L38" s="3">
+      <c r="Q38" s="2">
         <v>722</v>
       </c>
-      <c r="M38" s="3">
+      <c r="R38" s="2">
         <v>4375058</v>
       </c>
-      <c r="N38" s="4"/>
-      <c r="O38" s="5">
+      <c r="S38" s="3"/>
+      <c r="T38" s="4">
         <f t="shared" si="0"/>
         <v>0.66917170312988905</v>
       </c>
-      <c r="P38" s="5">
+      <c r="U38" s="4">
         <f t="shared" si="1"/>
         <v>0.33082829687011095</v>
       </c>
-      <c r="Q38" s="5"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V38" s="4"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="10">
         <v>13680610</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="10">
         <v>6324658</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="10">
         <v>6791062</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="10">
         <v>564168</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="10">
         <v>722</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="10">
+        <v>5899108</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="2"/>
+        <v>0.56879788255055874</v>
+      </c>
+      <c r="J39" s="12">
+        <f t="shared" si="3"/>
+        <v>0.43120211744944126</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="3">
+      <c r="M39" s="2">
         <v>13680610</v>
       </c>
-      <c r="I39" s="3">
+      <c r="N39" s="2">
         <v>6324658</v>
       </c>
-      <c r="J39" s="3">
+      <c r="O39" s="2">
         <v>6791062</v>
       </c>
-      <c r="K39" s="3">
+      <c r="P39" s="2">
         <v>564168</v>
       </c>
-      <c r="L39" s="3">
+      <c r="Q39" s="2">
         <v>722</v>
       </c>
-      <c r="M39" s="3">
+      <c r="R39" s="2">
         <v>5899108</v>
       </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="5">
+      <c r="S39" s="3"/>
+      <c r="T39" s="4">
         <f t="shared" si="0"/>
         <v>0.56879788255055874</v>
       </c>
-      <c r="P39" s="5">
+      <c r="U39" s="4">
         <f t="shared" si="1"/>
         <v>0.43120211744944126</v>
       </c>
-      <c r="Q39" s="5"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V39" s="4"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="10">
         <v>14877314</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="10">
         <v>4637854</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="10">
         <v>9719315</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="10">
         <v>519343</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="10">
         <v>802</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="10">
+        <v>4090239</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" si="2"/>
+        <v>0.72506871872167244</v>
+      </c>
+      <c r="J40" s="12">
+        <f t="shared" si="3"/>
+        <v>0.27493128127832756</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H40" s="3">
+      <c r="M40" s="2">
         <v>14877314</v>
       </c>
-      <c r="I40" s="3">
+      <c r="N40" s="2">
         <v>4637854</v>
       </c>
-      <c r="J40" s="3">
+      <c r="O40" s="2">
         <v>9719315</v>
       </c>
-      <c r="K40" s="3">
+      <c r="P40" s="2">
         <v>519343</v>
       </c>
-      <c r="L40" s="3">
+      <c r="Q40" s="2">
         <v>802</v>
       </c>
-      <c r="M40" s="3">
+      <c r="R40" s="2">
         <v>4090239</v>
       </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="5">
+      <c r="S40" s="3"/>
+      <c r="T40" s="4">
         <f t="shared" si="0"/>
         <v>0.72506871872167244</v>
       </c>
-      <c r="P40" s="5">
+      <c r="U40" s="4">
         <f t="shared" si="1"/>
         <v>0.27493128127832756</v>
       </c>
-      <c r="Q40" s="5"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V40" s="4"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="10">
         <v>7959769</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="10">
         <v>2528904</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="10">
         <v>5132666</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="10">
         <v>297749</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="10">
         <v>450</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="10">
+        <v>2100417</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="2"/>
+        <v>0.73612085978877029</v>
+      </c>
+      <c r="J41" s="12">
+        <f t="shared" si="3"/>
+        <v>0.26387914021122971</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H41" s="3">
+      <c r="M41" s="2">
         <v>7959769</v>
       </c>
-      <c r="I41" s="3">
+      <c r="N41" s="2">
         <v>2528904</v>
       </c>
-      <c r="J41" s="3">
+      <c r="O41" s="2">
         <v>5132666</v>
       </c>
-      <c r="K41" s="3">
+      <c r="P41" s="2">
         <v>297749</v>
       </c>
-      <c r="L41" s="3">
+      <c r="Q41" s="2">
         <v>450</v>
       </c>
-      <c r="M41" s="3">
+      <c r="R41" s="2">
         <v>2100417</v>
       </c>
-      <c r="N41" s="4"/>
-      <c r="O41" s="5">
+      <c r="S41" s="3"/>
+      <c r="T41" s="4">
         <f t="shared" si="0"/>
         <v>0.73612085978877029</v>
       </c>
-      <c r="P41" s="5">
+      <c r="U41" s="4">
         <f t="shared" si="1"/>
         <v>0.26387914021122971</v>
       </c>
-      <c r="Q41" s="5"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V41" s="4"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="10">
         <v>8075522</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="10">
         <v>2292116</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="10">
         <v>5498615</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="10">
         <v>284357</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="10">
         <v>434</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="10">
+        <v>2067927</v>
+      </c>
+      <c r="I42" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74392652264460424</v>
+      </c>
+      <c r="J42" s="12">
+        <f t="shared" si="3"/>
+        <v>0.25607347735539576</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H42" s="3">
+      <c r="M42" s="2">
         <v>8075522</v>
       </c>
-      <c r="I42" s="3">
+      <c r="N42" s="2">
         <v>2292116</v>
       </c>
-      <c r="J42" s="3">
+      <c r="O42" s="2">
         <v>5498615</v>
       </c>
-      <c r="K42" s="3">
+      <c r="P42" s="2">
         <v>284357</v>
       </c>
-      <c r="L42" s="3">
+      <c r="Q42" s="2">
         <v>434</v>
       </c>
-      <c r="M42" s="3">
+      <c r="R42" s="2">
         <v>2067927</v>
       </c>
-      <c r="N42" s="4"/>
-      <c r="O42" s="5">
+      <c r="S42" s="3"/>
+      <c r="T42" s="4">
         <f t="shared" si="0"/>
         <v>0.74392652264460424</v>
       </c>
-      <c r="P42" s="5">
+      <c r="U42" s="4">
         <f t="shared" si="1"/>
         <v>0.25607347735539576</v>
       </c>
-      <c r="Q42" s="5"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V42" s="4"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="10">
         <v>13426280</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="10">
         <v>3682840</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="10">
         <v>9220692</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="10">
         <v>522040</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="10">
         <v>708</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="10">
+        <v>3257590</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="2"/>
+        <v>0.75737210902796603</v>
+      </c>
+      <c r="J43" s="12">
+        <f t="shared" si="3"/>
+        <v>0.24262789097203397</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H43" s="3">
+      <c r="M43" s="2">
         <v>13426280</v>
       </c>
-      <c r="I43" s="3">
+      <c r="N43" s="2">
         <v>3682840</v>
       </c>
-      <c r="J43" s="3">
+      <c r="O43" s="2">
         <v>9220692</v>
       </c>
-      <c r="K43" s="3">
+      <c r="P43" s="2">
         <v>522040</v>
       </c>
-      <c r="L43" s="3">
+      <c r="Q43" s="2">
         <v>708</v>
       </c>
-      <c r="M43" s="3">
+      <c r="R43" s="2">
         <v>3257590</v>
       </c>
-      <c r="N43" s="4"/>
-      <c r="O43" s="5">
+      <c r="S43" s="3"/>
+      <c r="T43" s="4">
         <f t="shared" si="0"/>
         <v>0.75737210902796603</v>
       </c>
-      <c r="P43" s="5">
+      <c r="U43" s="4">
         <f t="shared" si="1"/>
         <v>0.24262789097203397</v>
       </c>
-      <c r="Q43" s="5"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V43" s="4"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="10">
         <v>10239279</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="10">
         <v>4216042</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="10">
         <v>5669925</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="10">
         <v>352830</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="10">
         <v>482</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="10">
+        <v>4081431</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="2"/>
+        <v>0.60139468804395313</v>
+      </c>
+      <c r="J44" s="12">
+        <f t="shared" si="3"/>
+        <v>0.39860531195604687</v>
+      </c>
+      <c r="L44" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H44" s="3">
+      <c r="M44" s="2">
         <v>10239279</v>
       </c>
-      <c r="I44" s="3">
+      <c r="N44" s="2">
         <v>4216042</v>
       </c>
-      <c r="J44" s="3">
+      <c r="O44" s="2">
         <v>5669925</v>
       </c>
-      <c r="K44" s="3">
+      <c r="P44" s="2">
         <v>352830</v>
       </c>
-      <c r="L44" s="3">
+      <c r="Q44" s="2">
         <v>482</v>
       </c>
-      <c r="M44" s="3">
+      <c r="R44" s="2">
         <v>4081431</v>
       </c>
-      <c r="N44" s="4"/>
-      <c r="O44" s="5">
+      <c r="S44" s="3"/>
+      <c r="T44" s="4">
         <f t="shared" si="0"/>
         <v>0.60139468804395313</v>
       </c>
-      <c r="P44" s="5">
+      <c r="U44" s="4">
         <f t="shared" si="1"/>
         <v>0.39860531195604687</v>
       </c>
-      <c r="Q44" s="5"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V44" s="4"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="10">
         <v>16437956</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="10">
         <v>6523961</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="10">
         <v>9338883</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="10">
         <v>574233</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="10">
         <v>879</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="10">
+        <v>6307683</v>
+      </c>
+      <c r="I45" s="11">
+        <f t="shared" si="2"/>
+        <v>0.61627327631245632</v>
+      </c>
+      <c r="J45" s="12">
+        <f t="shared" si="3"/>
+        <v>0.38372672368754368</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H45" s="3">
+      <c r="M45" s="2">
         <v>16437956</v>
       </c>
-      <c r="I45" s="3">
+      <c r="N45" s="2">
         <v>6523961</v>
       </c>
-      <c r="J45" s="3">
+      <c r="O45" s="2">
         <v>9338883</v>
       </c>
-      <c r="K45" s="3">
+      <c r="P45" s="2">
         <v>574233</v>
       </c>
-      <c r="L45" s="3">
+      <c r="Q45" s="2">
         <v>879</v>
       </c>
-      <c r="M45" s="3">
+      <c r="R45" s="2">
         <v>6307683</v>
       </c>
-      <c r="N45" s="4"/>
-      <c r="O45" s="5">
+      <c r="S45" s="3"/>
+      <c r="T45" s="4">
         <f t="shared" si="0"/>
         <v>0.61627327631245632</v>
       </c>
-      <c r="P45" s="5">
+      <c r="U45" s="4">
         <f t="shared" si="1"/>
         <v>0.38372672368754368</v>
       </c>
-      <c r="Q45" s="5"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V45" s="4"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="10">
         <v>13820239</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="10">
         <v>4320178</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="10">
         <v>9019904</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="10">
         <v>479400</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="10">
         <v>757</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="10">
+        <v>4094288</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="2"/>
+        <v>0.70374694677856153</v>
+      </c>
+      <c r="J46" s="12">
+        <f t="shared" si="3"/>
+        <v>0.29625305322143847</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H46" s="3">
+      <c r="M46" s="2">
         <v>13820239</v>
       </c>
-      <c r="I46" s="3">
+      <c r="N46" s="2">
         <v>4320178</v>
       </c>
-      <c r="J46" s="3">
+      <c r="O46" s="2">
         <v>9019904</v>
       </c>
-      <c r="K46" s="3">
+      <c r="P46" s="2">
         <v>479400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="Q46" s="2">
         <v>757</v>
       </c>
-      <c r="M46" s="3">
+      <c r="R46" s="2">
         <v>4094288</v>
       </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="5">
+      <c r="S46" s="3"/>
+      <c r="T46" s="4">
         <f t="shared" si="0"/>
         <v>0.70374694677856153</v>
       </c>
-      <c r="P46" s="5">
+      <c r="U46" s="4">
         <f t="shared" si="1"/>
         <v>0.29625305322143847</v>
       </c>
-      <c r="Q46" s="5"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V46" s="4"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="10">
         <v>8023742</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="10">
         <v>2190255</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="10">
         <v>5563753</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="10">
         <v>269304</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="10">
         <v>430</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="10">
+        <v>1895452</v>
+      </c>
+      <c r="I47" s="11">
+        <f t="shared" si="2"/>
+        <v>0.76376957285017388</v>
+      </c>
+      <c r="J47" s="12">
+        <f t="shared" si="3"/>
+        <v>0.23623042714982612</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H47" s="3">
+      <c r="M47" s="2">
         <v>8023742</v>
       </c>
-      <c r="I47" s="3">
+      <c r="N47" s="2">
         <v>2190255</v>
       </c>
-      <c r="J47" s="3">
+      <c r="O47" s="2">
         <v>5563753</v>
       </c>
-      <c r="K47" s="3">
+      <c r="P47" s="2">
         <v>269304</v>
       </c>
-      <c r="L47" s="3">
+      <c r="Q47" s="2">
         <v>430</v>
       </c>
-      <c r="M47" s="3">
+      <c r="R47" s="2">
         <v>1895452</v>
       </c>
-      <c r="N47" s="4"/>
-      <c r="O47" s="5">
+      <c r="S47" s="3"/>
+      <c r="T47" s="4">
         <f t="shared" si="0"/>
         <v>0.76376957285017388</v>
       </c>
-      <c r="P47" s="5">
+      <c r="U47" s="4">
         <f t="shared" si="1"/>
         <v>0.23623042714982612</v>
       </c>
-      <c r="Q47" s="5"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V47" s="4"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="10">
         <v>8962152</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="10">
         <v>2660566</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="10">
         <v>5984736</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="10">
         <v>316382</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="10">
         <v>468</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="10">
+        <v>2063035</v>
+      </c>
+      <c r="I48" s="11">
+        <f t="shared" si="2"/>
+        <v>0.76980584573883593</v>
+      </c>
+      <c r="J48" s="12">
+        <f t="shared" si="3"/>
+        <v>0.23019415426116407</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H48" s="3">
+      <c r="M48" s="2">
         <v>8962152</v>
       </c>
-      <c r="I48" s="3">
+      <c r="N48" s="2">
         <v>2660566</v>
       </c>
-      <c r="J48" s="3">
+      <c r="O48" s="2">
         <v>5984736</v>
       </c>
-      <c r="K48" s="3">
+      <c r="P48" s="2">
         <v>316382</v>
       </c>
-      <c r="L48" s="3">
+      <c r="Q48" s="2">
         <v>468</v>
       </c>
-      <c r="M48" s="3">
+      <c r="R48" s="2">
         <v>2063035</v>
       </c>
-      <c r="N48" s="4"/>
-      <c r="O48" s="5">
+      <c r="S48" s="3"/>
+      <c r="T48" s="4">
         <f t="shared" si="0"/>
         <v>0.76980584573883593</v>
       </c>
-      <c r="P48" s="5">
+      <c r="U48" s="4">
         <f t="shared" si="1"/>
         <v>0.23019415426116407</v>
       </c>
-      <c r="Q48" s="5"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V48" s="4"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="10">
         <v>9775896</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="10">
         <v>3869276</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="10">
         <v>5571692</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="10">
         <v>334379</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="10">
         <v>549</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="10">
+        <v>3702334</v>
+      </c>
+      <c r="I49" s="11">
+        <f t="shared" si="2"/>
+        <v>0.62127931802875158</v>
+      </c>
+      <c r="J49" s="12">
+        <f t="shared" si="3"/>
+        <v>0.37872068197124842</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H49" s="3">
+      <c r="M49" s="2">
         <v>9775896</v>
       </c>
-      <c r="I49" s="3">
+      <c r="N49" s="2">
         <v>3869276</v>
       </c>
-      <c r="J49" s="3">
+      <c r="O49" s="2">
         <v>5571692</v>
       </c>
-      <c r="K49" s="3">
+      <c r="P49" s="2">
         <v>334379</v>
       </c>
-      <c r="L49" s="3">
+      <c r="Q49" s="2">
         <v>549</v>
       </c>
-      <c r="M49" s="3">
+      <c r="R49" s="2">
         <v>3702334</v>
       </c>
-      <c r="N49" s="4"/>
-      <c r="O49" s="5">
+      <c r="S49" s="3"/>
+      <c r="T49" s="4">
         <f t="shared" si="0"/>
         <v>0.62127931802875158</v>
       </c>
-      <c r="P49" s="5">
+      <c r="U49" s="4">
         <f t="shared" si="1"/>
         <v>0.37872068197124842</v>
       </c>
-      <c r="Q49" s="5"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V49" s="4"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="10">
         <v>12246859</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="10">
         <v>924742</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="10">
         <v>10921243</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="10">
         <v>400260</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="10">
         <v>614</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="10">
+        <v>878719</v>
+      </c>
+      <c r="I50" s="11">
+        <f>(B50-H50)/B50</f>
+        <v>0.92824943930521286</v>
+      </c>
+      <c r="K50" s="12">
+        <f>1-I50</f>
+        <v>7.1750560694787135E-2</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H50" s="3">
+      <c r="M50" s="2">
         <v>12246859</v>
       </c>
-      <c r="I50" s="3">
+      <c r="N50" s="2">
         <v>924742</v>
       </c>
-      <c r="J50" s="3">
+      <c r="O50" s="2">
         <v>10921243</v>
       </c>
-      <c r="K50" s="3">
+      <c r="P50" s="2">
         <v>400260</v>
       </c>
-      <c r="L50" s="3">
+      <c r="Q50" s="2">
         <v>614</v>
       </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3">
+      <c r="R50" s="2"/>
+      <c r="S50" s="2">
         <v>878719</v>
       </c>
-      <c r="O50" s="5">
-        <f t="shared" ref="O50:O97" si="2">(H50-N50)/H50</f>
+      <c r="T50" s="4">
+        <f t="shared" ref="T50:T97" si="4">(M50-S50)/M50</f>
         <v>0.92824943930521286</v>
       </c>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="5">
-        <f t="shared" ref="Q50:Q97" si="3">1-O50</f>
+      <c r="U50" s="3"/>
+      <c r="V50" s="4">
+        <f t="shared" ref="V50:V97" si="5">1-T50</f>
         <v>7.1750560694787135E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="10">
         <v>2614591</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="10">
         <v>257659</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="10">
         <v>2259312</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="10">
         <v>97493</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="10">
         <v>127</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="10">
+        <v>247332</v>
+      </c>
+      <c r="I51" s="11">
+        <f t="shared" ref="I51:I97" si="6">(B51-H51)/B51</f>
+        <v>0.90540317778191692</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" ref="K51:K97" si="7">1-I51</f>
+        <v>9.4596822218083076E-2</v>
+      </c>
+      <c r="L51" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H51" s="3">
+      <c r="M51" s="2">
         <v>2614591</v>
       </c>
-      <c r="I51" s="3">
+      <c r="N51" s="2">
         <v>257659</v>
       </c>
-      <c r="J51" s="3">
+      <c r="O51" s="2">
         <v>2259312</v>
       </c>
-      <c r="K51" s="3">
+      <c r="P51" s="2">
         <v>97493</v>
       </c>
-      <c r="L51" s="3">
+      <c r="Q51" s="2">
         <v>127</v>
       </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3">
+      <c r="R51" s="2"/>
+      <c r="S51" s="2">
         <v>247332</v>
       </c>
-      <c r="O51" s="5">
-        <f t="shared" si="2"/>
+      <c r="T51" s="4">
+        <f t="shared" si="4"/>
         <v>0.90540317778191692</v>
       </c>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="5">
-        <f t="shared" si="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="4">
+        <f t="shared" si="5"/>
         <v>9.4596822218083076E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="10">
         <v>9496745</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="10">
         <v>764810</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="10">
         <v>8421210</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="10">
         <v>310229</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="10">
         <v>496</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="10">
+        <v>722109</v>
+      </c>
+      <c r="I52" s="11">
+        <f t="shared" si="6"/>
+        <v>0.92396247345801119</v>
+      </c>
+      <c r="K52" s="12">
+        <f t="shared" si="7"/>
+        <v>7.6037526541988809E-2</v>
+      </c>
+      <c r="L52" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H52" s="3">
+      <c r="M52" s="2">
         <v>9496745</v>
       </c>
-      <c r="I52" s="3">
+      <c r="N52" s="2">
         <v>764810</v>
       </c>
-      <c r="J52" s="3">
+      <c r="O52" s="2">
         <v>8421210</v>
       </c>
-      <c r="K52" s="3">
+      <c r="P52" s="2">
         <v>310229</v>
       </c>
-      <c r="L52" s="3">
+      <c r="Q52" s="2">
         <v>496</v>
       </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3">
+      <c r="R52" s="2"/>
+      <c r="S52" s="2">
         <v>722109</v>
       </c>
-      <c r="O52" s="5">
-        <f t="shared" si="2"/>
+      <c r="T52" s="4">
+        <f t="shared" si="4"/>
         <v>0.92396247345801119</v>
       </c>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="5">
-        <f t="shared" si="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="4">
+        <f t="shared" si="5"/>
         <v>7.6037526541988809E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="10">
         <v>10885135</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="10">
         <v>968776</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="10">
         <v>9540161</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="10">
         <v>375635</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="10">
         <v>563</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="10">
+        <v>932937</v>
+      </c>
+      <c r="I53" s="11">
+        <f t="shared" si="6"/>
+        <v>0.91429256504397971</v>
+      </c>
+      <c r="K53" s="12">
+        <f t="shared" si="7"/>
+        <v>8.570743495602029E-2</v>
+      </c>
+      <c r="L53" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H53" s="3">
+      <c r="M53" s="2">
         <v>10885135</v>
       </c>
-      <c r="I53" s="3">
+      <c r="N53" s="2">
         <v>968776</v>
       </c>
-      <c r="J53" s="3">
+      <c r="O53" s="2">
         <v>9540161</v>
       </c>
-      <c r="K53" s="3">
+      <c r="P53" s="2">
         <v>375635</v>
       </c>
-      <c r="L53" s="3">
+      <c r="Q53" s="2">
         <v>563</v>
       </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3">
+      <c r="R53" s="2"/>
+      <c r="S53" s="2">
         <v>932937</v>
       </c>
-      <c r="O53" s="5">
-        <f t="shared" si="2"/>
+      <c r="T53" s="4">
+        <f t="shared" si="4"/>
         <v>0.91429256504397971</v>
       </c>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="5">
-        <f t="shared" si="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="4">
+        <f t="shared" si="5"/>
         <v>8.570743495602029E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="10">
         <v>392451</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="10">
         <v>33126</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="10">
         <v>288471</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="10">
         <v>70836</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="10">
         <v>18</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="10">
+        <v>32362</v>
+      </c>
+      <c r="I54" s="11">
+        <f t="shared" si="6"/>
+        <v>0.91753875006051711</v>
+      </c>
+      <c r="K54" s="12">
+        <f t="shared" si="7"/>
+        <v>8.2461249939482895E-2</v>
+      </c>
+      <c r="L54" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H54" s="3">
+      <c r="M54" s="2">
         <v>392451</v>
       </c>
-      <c r="I54" s="3">
+      <c r="N54" s="2">
         <v>33126</v>
       </c>
-      <c r="J54" s="3">
+      <c r="O54" s="2">
         <v>288471</v>
       </c>
-      <c r="K54" s="3">
+      <c r="P54" s="2">
         <v>70836</v>
       </c>
-      <c r="L54" s="3">
+      <c r="Q54" s="2">
         <v>18</v>
       </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3">
+      <c r="R54" s="2"/>
+      <c r="S54" s="2">
         <v>32362</v>
       </c>
-      <c r="O54" s="5">
-        <f t="shared" si="2"/>
+      <c r="T54" s="4">
+        <f t="shared" si="4"/>
         <v>0.91753875006051711</v>
       </c>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="5">
-        <f t="shared" si="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="4">
+        <f t="shared" si="5"/>
         <v>8.2461249939482895E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="10">
         <v>3652472</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="10">
         <v>342828</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="10">
         <v>3176775</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="10">
         <v>132696</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="10">
         <v>173</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="10">
+        <v>323633</v>
+      </c>
+      <c r="I55" s="11">
+        <f t="shared" si="6"/>
+        <v>0.9113934343644523</v>
+      </c>
+      <c r="K55" s="12">
+        <f t="shared" si="7"/>
+        <v>8.8606565635547696E-2</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H55" s="3">
+      <c r="M55" s="2">
         <v>3652472</v>
       </c>
-      <c r="I55" s="3">
+      <c r="N55" s="2">
         <v>342828</v>
       </c>
-      <c r="J55" s="3">
+      <c r="O55" s="2">
         <v>3176775</v>
       </c>
-      <c r="K55" s="3">
+      <c r="P55" s="2">
         <v>132696</v>
       </c>
-      <c r="L55" s="3">
+      <c r="Q55" s="2">
         <v>173</v>
       </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3">
+      <c r="R55" s="2"/>
+      <c r="S55" s="2">
         <v>323633</v>
       </c>
-      <c r="O55" s="5">
-        <f t="shared" si="2"/>
+      <c r="T55" s="4">
+        <f t="shared" si="4"/>
         <v>0.9113934343644523</v>
       </c>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="5">
-        <f t="shared" si="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="4">
+        <f t="shared" si="5"/>
         <v>8.8606565635547696E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="10">
         <v>3868556</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="10">
         <v>353105</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="10">
         <v>3378719</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="10">
         <v>136538</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="10">
         <v>194</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="10">
+        <v>331781</v>
+      </c>
+      <c r="I56" s="11">
+        <f t="shared" si="6"/>
+        <v>0.91423647479834858</v>
+      </c>
+      <c r="K56" s="12">
+        <f t="shared" si="7"/>
+        <v>8.5763525201651425E-2</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H56" s="3">
+      <c r="M56" s="2">
         <v>3868556</v>
       </c>
-      <c r="I56" s="3">
+      <c r="N56" s="2">
         <v>353105</v>
       </c>
-      <c r="J56" s="3">
+      <c r="O56" s="2">
         <v>3378719</v>
       </c>
-      <c r="K56" s="3">
+      <c r="P56" s="2">
         <v>136538</v>
       </c>
-      <c r="L56" s="3">
+      <c r="Q56" s="2">
         <v>194</v>
       </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3">
+      <c r="R56" s="2"/>
+      <c r="S56" s="2">
         <v>331781</v>
       </c>
-      <c r="O56" s="5">
-        <f t="shared" si="2"/>
+      <c r="T56" s="4">
+        <f t="shared" si="4"/>
         <v>0.91423647479834858</v>
       </c>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="5">
-        <f t="shared" si="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="4">
+        <f t="shared" si="5"/>
         <v>8.5763525201651425E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="10">
         <v>16822781</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="10">
         <v>1197896</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="10">
         <v>15072945</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="10">
         <v>551056</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="10">
         <v>884</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="10">
+        <v>1134644</v>
+      </c>
+      <c r="I57" s="11">
+        <f t="shared" si="6"/>
+        <v>0.93255312543152047</v>
+      </c>
+      <c r="K57" s="12">
+        <f t="shared" si="7"/>
+        <v>6.7446874568479531E-2</v>
+      </c>
+      <c r="L57" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H57" s="3">
+      <c r="M57" s="2">
         <v>16822781</v>
       </c>
-      <c r="I57" s="3">
+      <c r="N57" s="2">
         <v>1197896</v>
       </c>
-      <c r="J57" s="3">
+      <c r="O57" s="2">
         <v>15072945</v>
       </c>
-      <c r="K57" s="3">
+      <c r="P57" s="2">
         <v>551056</v>
       </c>
-      <c r="L57" s="3">
+      <c r="Q57" s="2">
         <v>884</v>
       </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3">
+      <c r="R57" s="2"/>
+      <c r="S57" s="2">
         <v>1134644</v>
       </c>
-      <c r="O57" s="5">
-        <f t="shared" si="2"/>
+      <c r="T57" s="4">
+        <f t="shared" si="4"/>
         <v>0.93255312543152047</v>
       </c>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="5">
-        <f t="shared" si="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="4">
+        <f t="shared" si="5"/>
         <v>6.7446874568479531E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="10">
         <v>19393115</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="10">
         <v>1338064</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="10">
         <v>17405133</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="10">
         <v>648902</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="10">
         <v>1016</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="10">
+        <v>1280204</v>
+      </c>
+      <c r="I58" s="11">
+        <f t="shared" si="6"/>
+        <v>0.93398667516796552</v>
+      </c>
+      <c r="K58" s="12">
+        <f t="shared" si="7"/>
+        <v>6.6013324832034481E-2</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H58" s="3">
+      <c r="M58" s="2">
         <v>19393115</v>
       </c>
-      <c r="I58" s="3">
+      <c r="N58" s="2">
         <v>1338064</v>
       </c>
-      <c r="J58" s="3">
+      <c r="O58" s="2">
         <v>17405133</v>
       </c>
-      <c r="K58" s="3">
+      <c r="P58" s="2">
         <v>648902</v>
       </c>
-      <c r="L58" s="3">
+      <c r="Q58" s="2">
         <v>1016</v>
       </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3">
+      <c r="R58" s="2"/>
+      <c r="S58" s="2">
         <v>1280204</v>
       </c>
-      <c r="O58" s="5">
-        <f t="shared" si="2"/>
+      <c r="T58" s="4">
+        <f t="shared" si="4"/>
         <v>0.93398667516796552</v>
       </c>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="5">
-        <f t="shared" si="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="4">
+        <f t="shared" si="5"/>
         <v>6.6013324832034481E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="10">
         <v>15668221</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="10">
         <v>1633394</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="10">
         <v>13470069</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="10">
         <v>563910</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="10">
         <v>848</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="10">
+        <v>1569381</v>
+      </c>
+      <c r="I59" s="11">
+        <f t="shared" si="6"/>
+        <v>0.89983668216066137</v>
+      </c>
+      <c r="K59" s="12">
+        <f t="shared" si="7"/>
+        <v>0.10016331783933863</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H59" s="3">
+      <c r="M59" s="2">
         <v>15668221</v>
       </c>
-      <c r="I59" s="3">
+      <c r="N59" s="2">
         <v>1633394</v>
       </c>
-      <c r="J59" s="3">
+      <c r="O59" s="2">
         <v>13470069</v>
       </c>
-      <c r="K59" s="3">
+      <c r="P59" s="2">
         <v>563910</v>
       </c>
-      <c r="L59" s="3">
+      <c r="Q59" s="2">
         <v>848</v>
       </c>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3">
+      <c r="R59" s="2"/>
+      <c r="S59" s="2">
         <v>1569381</v>
       </c>
-      <c r="O59" s="5">
-        <f t="shared" si="2"/>
+      <c r="T59" s="4">
+        <f t="shared" si="4"/>
         <v>0.89983668216066137</v>
       </c>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="5">
-        <f t="shared" si="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="4">
+        <f t="shared" si="5"/>
         <v>0.10016331783933863</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="10">
         <v>15100209</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="10">
         <v>1156714</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="10">
         <v>13440005</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="10">
         <v>502718</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="10">
         <v>772</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="10">
+        <v>1106458</v>
+      </c>
+      <c r="I60" s="11">
+        <f t="shared" si="6"/>
+        <v>0.92672564995623574</v>
+      </c>
+      <c r="K60" s="12">
+        <f t="shared" si="7"/>
+        <v>7.3274350043764258E-2</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H60" s="3">
+      <c r="M60" s="2">
         <v>15100209</v>
       </c>
-      <c r="I60" s="3">
+      <c r="N60" s="2">
         <v>1156714</v>
       </c>
-      <c r="J60" s="3">
+      <c r="O60" s="2">
         <v>13440005</v>
       </c>
-      <c r="K60" s="3">
+      <c r="P60" s="2">
         <v>502718</v>
       </c>
-      <c r="L60" s="3">
+      <c r="Q60" s="2">
         <v>772</v>
       </c>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3">
+      <c r="R60" s="2"/>
+      <c r="S60" s="2">
         <v>1106458</v>
       </c>
-      <c r="O60" s="5">
-        <f t="shared" si="2"/>
+      <c r="T60" s="4">
+        <f t="shared" si="4"/>
         <v>0.92672564995623574</v>
       </c>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="5">
-        <f t="shared" si="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="4">
+        <f t="shared" si="5"/>
         <v>7.3274350043764258E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="10">
         <v>18575961</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="10">
         <v>1888566</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="10">
         <v>16008509</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="10">
         <v>677967</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="10">
         <v>919</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="10">
+        <v>1815660</v>
+      </c>
+      <c r="I61" s="11">
+        <f t="shared" si="6"/>
+        <v>0.90225754672934555</v>
+      </c>
+      <c r="K61" s="12">
+        <f t="shared" si="7"/>
+        <v>9.774245327065445E-2</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H61" s="3">
+      <c r="M61" s="2">
         <v>18575961</v>
       </c>
-      <c r="I61" s="3">
+      <c r="N61" s="2">
         <v>1888566</v>
       </c>
-      <c r="J61" s="3">
+      <c r="O61" s="2">
         <v>16008509</v>
       </c>
-      <c r="K61" s="3">
+      <c r="P61" s="2">
         <v>677967</v>
       </c>
-      <c r="L61" s="3">
+      <c r="Q61" s="2">
         <v>919</v>
       </c>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3">
+      <c r="R61" s="2"/>
+      <c r="S61" s="2">
         <v>1815660</v>
       </c>
-      <c r="O61" s="5">
-        <f t="shared" si="2"/>
+      <c r="T61" s="4">
+        <f t="shared" si="4"/>
         <v>0.90225754672934555</v>
       </c>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="5">
-        <f t="shared" si="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="4">
+        <f t="shared" si="5"/>
         <v>9.774245327065445E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="10">
         <v>11725284</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="10">
         <v>970009</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="10">
         <v>10343542</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="10">
         <v>411115</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="10">
         <v>618</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="10">
+        <v>926886</v>
+      </c>
+      <c r="I62" s="11">
+        <f t="shared" si="6"/>
+        <v>0.92094980385976155</v>
+      </c>
+      <c r="K62" s="12">
+        <f t="shared" si="7"/>
+        <v>7.9050196140238449E-2</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H62" s="3">
+      <c r="M62" s="2">
         <v>11725284</v>
       </c>
-      <c r="I62" s="3">
+      <c r="N62" s="2">
         <v>970009</v>
       </c>
-      <c r="J62" s="3">
+      <c r="O62" s="2">
         <v>10343542</v>
       </c>
-      <c r="K62" s="3">
+      <c r="P62" s="2">
         <v>411115</v>
       </c>
-      <c r="L62" s="3">
+      <c r="Q62" s="2">
         <v>618</v>
       </c>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3">
+      <c r="R62" s="2"/>
+      <c r="S62" s="2">
         <v>926886</v>
       </c>
-      <c r="O62" s="5">
-        <f t="shared" si="2"/>
+      <c r="T62" s="4">
+        <f t="shared" si="4"/>
         <v>0.92094980385976155</v>
       </c>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="5">
-        <f t="shared" si="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="4">
+        <f t="shared" si="5"/>
         <v>7.9050196140238449E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="10">
         <v>3000014</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="10">
         <v>277347</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="10">
         <v>2588482</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="10">
         <v>134046</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="10">
         <v>139</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="10">
+        <v>268472</v>
+      </c>
+      <c r="I63" s="11">
+        <f t="shared" si="6"/>
+        <v>0.9105097509544956</v>
+      </c>
+      <c r="K63" s="12">
+        <f t="shared" si="7"/>
+        <v>8.94902490455044E-2</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H63" s="3">
+      <c r="M63" s="2">
         <v>3000014</v>
       </c>
-      <c r="I63" s="3">
+      <c r="N63" s="2">
         <v>277347</v>
       </c>
-      <c r="J63" s="3">
+      <c r="O63" s="2">
         <v>2588482</v>
       </c>
-      <c r="K63" s="3">
+      <c r="P63" s="2">
         <v>134046</v>
       </c>
-      <c r="L63" s="3">
+      <c r="Q63" s="2">
         <v>139</v>
       </c>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3">
+      <c r="R63" s="2"/>
+      <c r="S63" s="2">
         <v>268472</v>
       </c>
-      <c r="O63" s="5">
-        <f t="shared" si="2"/>
+      <c r="T63" s="4">
+        <f t="shared" si="4"/>
         <v>0.9105097509544956</v>
       </c>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="5">
-        <f t="shared" si="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="4">
+        <f t="shared" si="5"/>
         <v>8.94902490455044E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="10">
         <v>9165183</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="10">
         <v>634267</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="10">
         <v>8211463</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="10">
         <v>318974</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="10">
         <v>479</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="H64" s="10">
+        <v>584418</v>
+      </c>
+      <c r="I64" s="11">
+        <f t="shared" si="6"/>
+        <v>0.93623498843394615</v>
+      </c>
+      <c r="K64" s="12">
+        <f t="shared" si="7"/>
+        <v>6.3765011566053853E-2</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H64" s="3">
+      <c r="M64" s="2">
         <v>9165183</v>
       </c>
-      <c r="I64" s="3">
+      <c r="N64" s="2">
         <v>634267</v>
       </c>
-      <c r="J64" s="3">
+      <c r="O64" s="2">
         <v>8211463</v>
       </c>
-      <c r="K64" s="3">
+      <c r="P64" s="2">
         <v>318974</v>
       </c>
-      <c r="L64" s="3">
+      <c r="Q64" s="2">
         <v>479</v>
       </c>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3">
+      <c r="R64" s="2"/>
+      <c r="S64" s="2">
         <v>584418</v>
       </c>
-      <c r="O64" s="5">
-        <f t="shared" si="2"/>
+      <c r="T64" s="4">
+        <f t="shared" si="4"/>
         <v>0.93623498843394615</v>
       </c>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="5">
-        <f t="shared" si="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="4">
+        <f t="shared" si="5"/>
         <v>6.3765011566053853E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="10">
         <v>1745492</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="10">
         <v>256966</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="10">
         <v>1395643</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="10">
         <v>92777</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="10">
         <v>106</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="10">
+        <v>249021</v>
+      </c>
+      <c r="I65" s="11">
+        <f t="shared" si="6"/>
+        <v>0.85733478010784347</v>
+      </c>
+      <c r="K65" s="12">
+        <f t="shared" si="7"/>
+        <v>0.14266521989215653</v>
+      </c>
+      <c r="L65" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H65" s="3">
+      <c r="M65" s="2">
         <v>1745492</v>
       </c>
-      <c r="I65" s="3">
+      <c r="N65" s="2">
         <v>256966</v>
       </c>
-      <c r="J65" s="3">
+      <c r="O65" s="2">
         <v>1395643</v>
       </c>
-      <c r="K65" s="3">
+      <c r="P65" s="2">
         <v>92777</v>
       </c>
-      <c r="L65" s="3">
+      <c r="Q65" s="2">
         <v>106</v>
       </c>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3">
+      <c r="R65" s="2"/>
+      <c r="S65" s="2">
         <v>249021</v>
       </c>
-      <c r="O65" s="5">
-        <f t="shared" si="2"/>
+      <c r="T65" s="4">
+        <f t="shared" si="4"/>
         <v>0.85733478010784347</v>
       </c>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="5">
-        <f t="shared" si="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="4">
+        <f t="shared" si="5"/>
         <v>0.14266521989215653</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="10">
         <v>11664169</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="10">
         <v>746693</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="10">
         <v>10508892</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="10">
         <v>407958</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="10">
         <v>626</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="10">
+        <v>696053</v>
+      </c>
+      <c r="I66" s="11">
+        <f t="shared" si="6"/>
+        <v>0.9403255388360714</v>
+      </c>
+      <c r="K66" s="12">
+        <f t="shared" si="7"/>
+        <v>5.9674461163928605E-2</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H66" s="3">
+      <c r="M66" s="2">
         <v>11664169</v>
       </c>
-      <c r="I66" s="3">
+      <c r="N66" s="2">
         <v>746693</v>
       </c>
-      <c r="J66" s="3">
+      <c r="O66" s="2">
         <v>10508892</v>
       </c>
-      <c r="K66" s="3">
+      <c r="P66" s="2">
         <v>407958</v>
       </c>
-      <c r="L66" s="3">
+      <c r="Q66" s="2">
         <v>626</v>
       </c>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3">
+      <c r="R66" s="2"/>
+      <c r="S66" s="2">
         <v>696053</v>
       </c>
-      <c r="O66" s="5">
-        <f t="shared" si="2"/>
+      <c r="T66" s="4">
+        <f t="shared" si="4"/>
         <v>0.9403255388360714</v>
       </c>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="5">
-        <f t="shared" si="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="4">
+        <f t="shared" si="5"/>
         <v>5.9674461163928605E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="10">
         <v>10468927</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="10">
         <v>779412</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="10">
         <v>9330163</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="10">
         <v>358764</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="10">
         <v>588</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="H67" s="10">
+        <v>739708</v>
+      </c>
+      <c r="I67" s="11">
+        <f t="shared" si="6"/>
+        <v>0.9293425200118407</v>
+      </c>
+      <c r="K67" s="12">
+        <f t="shared" si="7"/>
+        <v>7.06574799881593E-2</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H67" s="3">
+      <c r="M67" s="2">
         <v>10468927</v>
       </c>
-      <c r="I67" s="3">
+      <c r="N67" s="2">
         <v>779412</v>
       </c>
-      <c r="J67" s="3">
+      <c r="O67" s="2">
         <v>9330163</v>
       </c>
-      <c r="K67" s="3">
+      <c r="P67" s="2">
         <v>358764</v>
       </c>
-      <c r="L67" s="3">
+      <c r="Q67" s="2">
         <v>588</v>
       </c>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3">
+      <c r="R67" s="2"/>
+      <c r="S67" s="2">
         <v>739708</v>
       </c>
-      <c r="O67" s="5">
-        <f t="shared" si="2"/>
+      <c r="T67" s="4">
+        <f t="shared" si="4"/>
         <v>0.9293425200118407</v>
       </c>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="5">
-        <f t="shared" si="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="4">
+        <f t="shared" si="5"/>
         <v>7.06574799881593E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="10">
         <v>21234558</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="10">
         <v>1551940</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="10">
         <v>18886514</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="10">
         <v>795030</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="10">
         <v>1074</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="H68" s="10">
+        <v>1490072</v>
+      </c>
+      <c r="I68" s="11">
+        <f t="shared" si="6"/>
+        <v>0.92982797193141487</v>
+      </c>
+      <c r="K68" s="12">
+        <f t="shared" si="7"/>
+        <v>7.0172028068585135E-2</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H68" s="3">
+      <c r="M68" s="2">
         <v>21234558</v>
       </c>
-      <c r="I68" s="3">
+      <c r="N68" s="2">
         <v>1551940</v>
       </c>
-      <c r="J68" s="3">
+      <c r="O68" s="2">
         <v>18886514</v>
       </c>
-      <c r="K68" s="3">
+      <c r="P68" s="2">
         <v>795030</v>
       </c>
-      <c r="L68" s="3">
+      <c r="Q68" s="2">
         <v>1074</v>
       </c>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3">
+      <c r="R68" s="2"/>
+      <c r="S68" s="2">
         <v>1490072</v>
       </c>
-      <c r="O68" s="5">
-        <f t="shared" si="2"/>
+      <c r="T68" s="4">
+        <f t="shared" si="4"/>
         <v>0.92982797193141487</v>
       </c>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="5">
-        <f t="shared" si="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="4">
+        <f t="shared" si="5"/>
         <v>7.0172028068585135E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="10">
         <v>2770431</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="10">
         <v>271063</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="10">
         <v>2400041</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="10">
         <v>99187</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="10">
         <v>140</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="H69" s="10">
+        <v>252430</v>
+      </c>
+      <c r="I69" s="11">
+        <f t="shared" si="6"/>
+        <v>0.90888421332276459</v>
+      </c>
+      <c r="K69" s="12">
+        <f t="shared" si="7"/>
+        <v>9.1115786677235411E-2</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H69" s="3">
+      <c r="M69" s="2">
         <v>2770431</v>
       </c>
-      <c r="I69" s="3">
+      <c r="N69" s="2">
         <v>271063</v>
       </c>
-      <c r="J69" s="3">
+      <c r="O69" s="2">
         <v>2400041</v>
       </c>
-      <c r="K69" s="3">
+      <c r="P69" s="2">
         <v>99187</v>
       </c>
-      <c r="L69" s="3">
+      <c r="Q69" s="2">
         <v>140</v>
       </c>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3">
+      <c r="R69" s="2"/>
+      <c r="S69" s="2">
         <v>252430</v>
       </c>
-      <c r="O69" s="5">
-        <f t="shared" si="2"/>
+      <c r="T69" s="4">
+        <f t="shared" si="4"/>
         <v>0.90888421332276459</v>
       </c>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="5">
-        <f t="shared" si="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="4">
+        <f t="shared" si="5"/>
         <v>9.1115786677235411E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="10">
         <v>1239658</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="10">
         <v>160033</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="10">
         <v>1034687</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="10">
         <v>44868</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="10">
         <v>70</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="H70" s="10">
+        <v>152308</v>
+      </c>
+      <c r="I70" s="11">
+        <f t="shared" si="6"/>
+        <v>0.87713708135630952</v>
+      </c>
+      <c r="K70" s="12">
+        <f t="shared" si="7"/>
+        <v>0.12286291864369048</v>
+      </c>
+      <c r="L70" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H70" s="3">
+      <c r="M70" s="2">
         <v>1239658</v>
       </c>
-      <c r="I70" s="3">
+      <c r="N70" s="2">
         <v>160033</v>
       </c>
-      <c r="J70" s="3">
+      <c r="O70" s="2">
         <v>1034687</v>
       </c>
-      <c r="K70" s="3">
+      <c r="P70" s="2">
         <v>44868</v>
       </c>
-      <c r="L70" s="3">
+      <c r="Q70" s="2">
         <v>70</v>
       </c>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3">
+      <c r="R70" s="2"/>
+      <c r="S70" s="2">
         <v>152308</v>
       </c>
-      <c r="O70" s="5">
-        <f t="shared" si="2"/>
+      <c r="T70" s="4">
+        <f t="shared" si="4"/>
         <v>0.87713708135630952</v>
       </c>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="5">
-        <f t="shared" si="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="4">
+        <f t="shared" si="5"/>
         <v>0.12286291864369048</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="10">
         <v>1050762</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="10">
         <v>126983</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="10">
         <v>885374</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="10">
         <v>38348</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="10">
         <v>57</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="H71" s="10">
+        <v>120008</v>
+      </c>
+      <c r="I71" s="11">
+        <f t="shared" si="6"/>
+        <v>0.88578955082121358</v>
+      </c>
+      <c r="K71" s="12">
+        <f t="shared" si="7"/>
+        <v>0.11421044917878642</v>
+      </c>
+      <c r="L71" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H71" s="3">
+      <c r="M71" s="2">
         <v>1050762</v>
       </c>
-      <c r="I71" s="3">
+      <c r="N71" s="2">
         <v>126983</v>
       </c>
-      <c r="J71" s="3">
+      <c r="O71" s="2">
         <v>885374</v>
       </c>
-      <c r="K71" s="3">
+      <c r="P71" s="2">
         <v>38348</v>
       </c>
-      <c r="L71" s="3">
+      <c r="Q71" s="2">
         <v>57</v>
       </c>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3">
+      <c r="R71" s="2"/>
+      <c r="S71" s="2">
         <v>120008</v>
       </c>
-      <c r="O71" s="5">
-        <f t="shared" si="2"/>
+      <c r="T71" s="4">
+        <f t="shared" si="4"/>
         <v>0.88578955082121358</v>
       </c>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="5">
-        <f t="shared" si="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="4">
+        <f t="shared" si="5"/>
         <v>0.11421044917878642</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="10">
         <v>663230</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="10">
         <v>101517</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="10">
         <v>538236</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="10">
         <v>23442</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="10">
         <v>35</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="H72" s="10">
+        <v>96812</v>
+      </c>
+      <c r="I72" s="11">
+        <f t="shared" si="6"/>
+        <v>0.85402952218687334</v>
+      </c>
+      <c r="K72" s="12">
+        <f t="shared" si="7"/>
+        <v>0.14597047781312666</v>
+      </c>
+      <c r="L72" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H72" s="3">
+      <c r="M72" s="2">
         <v>663230</v>
       </c>
-      <c r="I72" s="3">
+      <c r="N72" s="2">
         <v>101517</v>
       </c>
-      <c r="J72" s="3">
+      <c r="O72" s="2">
         <v>538236</v>
       </c>
-      <c r="K72" s="3">
+      <c r="P72" s="2">
         <v>23442</v>
       </c>
-      <c r="L72" s="3">
+      <c r="Q72" s="2">
         <v>35</v>
       </c>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3">
+      <c r="R72" s="2"/>
+      <c r="S72" s="2">
         <v>96812</v>
       </c>
-      <c r="O72" s="5">
-        <f t="shared" si="2"/>
+      <c r="T72" s="4">
+        <f t="shared" si="4"/>
         <v>0.85402952218687334</v>
       </c>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="5">
-        <f t="shared" si="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="4">
+        <f t="shared" si="5"/>
         <v>0.14597047781312666</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="10">
         <v>4273792</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="10">
         <v>377002</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="10">
         <v>3742461</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="10">
         <v>154091</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="10">
         <v>238</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="H73" s="10">
+        <v>352621</v>
+      </c>
+      <c r="I73" s="11">
+        <f t="shared" si="6"/>
+        <v>0.91749224108239236</v>
+      </c>
+      <c r="K73" s="12">
+        <f t="shared" si="7"/>
+        <v>8.2507758917607643E-2</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H73" s="3">
+      <c r="M73" s="2">
         <v>4273792</v>
       </c>
-      <c r="I73" s="3">
+      <c r="N73" s="2">
         <v>377002</v>
       </c>
-      <c r="J73" s="3">
+      <c r="O73" s="2">
         <v>3742461</v>
       </c>
-      <c r="K73" s="3">
+      <c r="P73" s="2">
         <v>154091</v>
       </c>
-      <c r="L73" s="3">
+      <c r="Q73" s="2">
         <v>238</v>
       </c>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3">
+      <c r="R73" s="2"/>
+      <c r="S73" s="2">
         <v>352621</v>
       </c>
-      <c r="O73" s="5">
-        <f t="shared" si="2"/>
+      <c r="T73" s="4">
+        <f t="shared" si="4"/>
         <v>0.91749224108239236</v>
       </c>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="5">
-        <f t="shared" si="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="4">
+        <f t="shared" si="5"/>
         <v>8.2507758917607643E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="10">
         <v>1509835</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="10">
         <v>249436</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="10">
         <v>1205021</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="10">
         <v>55307</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="10">
         <v>71</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="H74" s="10">
+        <v>237661</v>
+      </c>
+      <c r="I74" s="11">
+        <f t="shared" si="6"/>
+        <v>0.84259140899502261</v>
+      </c>
+      <c r="K74" s="12">
+        <f t="shared" si="7"/>
+        <v>0.15740859100497739</v>
+      </c>
+      <c r="L74" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H74" s="3">
+      <c r="M74" s="2">
         <v>1509835</v>
       </c>
-      <c r="I74" s="3">
+      <c r="N74" s="2">
         <v>249436</v>
       </c>
-      <c r="J74" s="3">
+      <c r="O74" s="2">
         <v>1205021</v>
       </c>
-      <c r="K74" s="3">
+      <c r="P74" s="2">
         <v>55307</v>
       </c>
-      <c r="L74" s="3">
+      <c r="Q74" s="2">
         <v>71</v>
       </c>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3">
+      <c r="R74" s="2"/>
+      <c r="S74" s="2">
         <v>237661</v>
       </c>
-      <c r="O74" s="5">
-        <f t="shared" si="2"/>
+      <c r="T74" s="4">
+        <f t="shared" si="4"/>
         <v>0.84259140899502261</v>
       </c>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="5">
-        <f t="shared" si="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="4">
+        <f t="shared" si="5"/>
         <v>0.15740859100497739</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="10">
         <v>15036329</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="10">
         <v>1326357</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="10">
         <v>13214498</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="10">
         <v>494667</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="10">
         <v>807</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="H75" s="10">
+        <v>1267014</v>
+      </c>
+      <c r="I75" s="11">
+        <f t="shared" si="6"/>
+        <v>0.91573648062635504</v>
+      </c>
+      <c r="K75" s="12">
+        <f t="shared" si="7"/>
+        <v>8.4263519373644957E-2</v>
+      </c>
+      <c r="L75" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H75" s="3">
+      <c r="M75" s="2">
         <v>15036329</v>
       </c>
-      <c r="I75" s="3">
+      <c r="N75" s="2">
         <v>1326357</v>
       </c>
-      <c r="J75" s="3">
+      <c r="O75" s="2">
         <v>13214498</v>
       </c>
-      <c r="K75" s="3">
+      <c r="P75" s="2">
         <v>494667</v>
       </c>
-      <c r="L75" s="3">
+      <c r="Q75" s="2">
         <v>807</v>
       </c>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3">
+      <c r="R75" s="2"/>
+      <c r="S75" s="2">
         <v>1267014</v>
       </c>
-      <c r="O75" s="5">
-        <f t="shared" si="2"/>
+      <c r="T75" s="4">
+        <f t="shared" si="4"/>
         <v>0.91573648062635504</v>
       </c>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="5">
-        <f t="shared" si="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="4">
+        <f t="shared" si="5"/>
         <v>8.4263519373644957E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="10">
         <v>16893955</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="10">
         <v>1431626</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="10">
         <v>14737975</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="10">
         <v>723527</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="10">
         <v>827</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="H76" s="10">
+        <v>1387034</v>
+      </c>
+      <c r="I76" s="11">
+        <f t="shared" si="6"/>
+        <v>0.91789761485691179</v>
+      </c>
+      <c r="K76" s="12">
+        <f t="shared" si="7"/>
+        <v>8.2102385143088208E-2</v>
+      </c>
+      <c r="L76" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H76" s="3">
+      <c r="M76" s="2">
         <v>16893955</v>
       </c>
-      <c r="I76" s="3">
+      <c r="N76" s="2">
         <v>1431626</v>
       </c>
-      <c r="J76" s="3">
+      <c r="O76" s="2">
         <v>14737975</v>
       </c>
-      <c r="K76" s="3">
+      <c r="P76" s="2">
         <v>723527</v>
       </c>
-      <c r="L76" s="3">
+      <c r="Q76" s="2">
         <v>827</v>
       </c>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3">
+      <c r="R76" s="2"/>
+      <c r="S76" s="2">
         <v>1387034</v>
       </c>
-      <c r="O76" s="5">
-        <f t="shared" si="2"/>
+      <c r="T76" s="4">
+        <f t="shared" si="4"/>
         <v>0.91789761485691179</v>
       </c>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="5">
-        <f t="shared" si="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="4">
+        <f t="shared" si="5"/>
         <v>8.2102385143088208E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="10">
         <v>3822709</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="10">
         <v>353006</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="10">
         <v>3317244</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="10">
         <v>152240</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="10">
         <v>219</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="H77" s="10">
+        <v>340281</v>
+      </c>
+      <c r="I77" s="11">
+        <f t="shared" si="6"/>
+        <v>0.91098433074555241</v>
+      </c>
+      <c r="K77" s="12">
+        <f t="shared" si="7"/>
+        <v>8.9015669254447594E-2</v>
+      </c>
+      <c r="L77" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H77" s="3">
+      <c r="M77" s="2">
         <v>3822709</v>
       </c>
-      <c r="I77" s="3">
+      <c r="N77" s="2">
         <v>353006</v>
       </c>
-      <c r="J77" s="3">
+      <c r="O77" s="2">
         <v>3317244</v>
       </c>
-      <c r="K77" s="3">
+      <c r="P77" s="2">
         <v>152240</v>
       </c>
-      <c r="L77" s="3">
+      <c r="Q77" s="2">
         <v>219</v>
       </c>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3">
+      <c r="R77" s="2"/>
+      <c r="S77" s="2">
         <v>340281</v>
       </c>
-      <c r="O77" s="5">
-        <f t="shared" si="2"/>
+      <c r="T77" s="4">
+        <f t="shared" si="4"/>
         <v>0.91098433074555241</v>
       </c>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="5">
-        <f t="shared" si="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="4">
+        <f t="shared" si="5"/>
         <v>8.9015669254447594E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="10">
         <v>9536367</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="10">
         <v>730858</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="10">
         <v>8488198</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="10">
         <v>316791</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="10">
         <v>520</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="H78" s="10">
+        <v>699061</v>
+      </c>
+      <c r="I78" s="11">
+        <f t="shared" si="6"/>
+        <v>0.92669524987870122</v>
+      </c>
+      <c r="K78" s="12">
+        <f t="shared" si="7"/>
+        <v>7.3304750121298778E-2</v>
+      </c>
+      <c r="L78" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H78" s="3">
+      <c r="M78" s="2">
         <v>9536367</v>
       </c>
-      <c r="I78" s="3">
+      <c r="N78" s="2">
         <v>730858</v>
       </c>
-      <c r="J78" s="3">
+      <c r="O78" s="2">
         <v>8488198</v>
       </c>
-      <c r="K78" s="3">
+      <c r="P78" s="2">
         <v>316791</v>
       </c>
-      <c r="L78" s="3">
+      <c r="Q78" s="2">
         <v>520</v>
       </c>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3">
+      <c r="R78" s="2"/>
+      <c r="S78" s="2">
         <v>699061</v>
       </c>
-      <c r="O78" s="5">
-        <f t="shared" si="2"/>
+      <c r="T78" s="4">
+        <f t="shared" si="4"/>
         <v>0.92669524987870122</v>
       </c>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="5">
-        <f t="shared" si="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="4">
+        <f t="shared" si="5"/>
         <v>7.3304750121298778E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="10">
         <v>3754659</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="10">
         <v>330001</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="10">
         <v>3294889</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="10">
         <v>129556</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="10">
         <v>213</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="H79" s="10">
+        <v>309035</v>
+      </c>
+      <c r="I79" s="11">
+        <f t="shared" si="6"/>
+        <v>0.91769292497667565</v>
+      </c>
+      <c r="K79" s="12">
+        <f t="shared" si="7"/>
+        <v>8.230707502332435E-2</v>
+      </c>
+      <c r="L79" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H79" s="3">
+      <c r="M79" s="2">
         <v>3754659</v>
       </c>
-      <c r="I79" s="3">
+      <c r="N79" s="2">
         <v>330001</v>
       </c>
-      <c r="J79" s="3">
+      <c r="O79" s="2">
         <v>3294889</v>
       </c>
-      <c r="K79" s="3">
+      <c r="P79" s="2">
         <v>129556</v>
       </c>
-      <c r="L79" s="3">
+      <c r="Q79" s="2">
         <v>213</v>
       </c>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3">
+      <c r="R79" s="2"/>
+      <c r="S79" s="2">
         <v>309035</v>
       </c>
-      <c r="O79" s="5">
-        <f t="shared" si="2"/>
+      <c r="T79" s="4">
+        <f t="shared" si="4"/>
         <v>0.91769292497667565</v>
       </c>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="5">
-        <f t="shared" si="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="4">
+        <f t="shared" si="5"/>
         <v>8.230707502332435E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="10">
         <v>10000767</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="10">
         <v>690092</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="10">
         <v>8962063</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="10">
         <v>348090</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="10">
         <v>522</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="H80" s="10">
+        <v>645429</v>
+      </c>
+      <c r="I80" s="11">
+        <f t="shared" si="6"/>
+        <v>0.93546205006076033</v>
+      </c>
+      <c r="K80" s="12">
+        <f t="shared" si="7"/>
+        <v>6.4537949939239669E-2</v>
+      </c>
+      <c r="L80" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H80" s="3">
+      <c r="M80" s="2">
         <v>10000767</v>
       </c>
-      <c r="I80" s="3">
+      <c r="N80" s="2">
         <v>690092</v>
       </c>
-      <c r="J80" s="3">
+      <c r="O80" s="2">
         <v>8962063</v>
       </c>
-      <c r="K80" s="3">
+      <c r="P80" s="2">
         <v>348090</v>
       </c>
-      <c r="L80" s="3">
+      <c r="Q80" s="2">
         <v>522</v>
       </c>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3">
+      <c r="R80" s="2"/>
+      <c r="S80" s="2">
         <v>645429</v>
       </c>
-      <c r="O80" s="5">
-        <f t="shared" si="2"/>
+      <c r="T80" s="4">
+        <f t="shared" si="4"/>
         <v>0.93546205006076033</v>
       </c>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="5">
-        <f t="shared" si="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="4">
+        <f t="shared" si="5"/>
         <v>6.4537949939239669E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="10">
         <v>10965339</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="10">
         <v>847478</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="10">
         <v>9740913</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="10">
         <v>376370</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="10">
         <v>578</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="10">
+        <v>796681</v>
+      </c>
+      <c r="I81" s="11">
+        <f t="shared" si="6"/>
+        <v>0.92734552027985639</v>
+      </c>
+      <c r="K81" s="12">
+        <f t="shared" si="7"/>
+        <v>7.2654479720143605E-2</v>
+      </c>
+      <c r="L81" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H81" s="3">
+      <c r="M81" s="2">
         <v>10965339</v>
       </c>
-      <c r="I81" s="3">
+      <c r="N81" s="2">
         <v>847478</v>
       </c>
-      <c r="J81" s="3">
+      <c r="O81" s="2">
         <v>9740913</v>
       </c>
-      <c r="K81" s="3">
+      <c r="P81" s="2">
         <v>376370</v>
       </c>
-      <c r="L81" s="3">
+      <c r="Q81" s="2">
         <v>578</v>
       </c>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3">
+      <c r="R81" s="2"/>
+      <c r="S81" s="2">
         <v>796681</v>
       </c>
-      <c r="O81" s="5">
-        <f t="shared" si="2"/>
+      <c r="T81" s="4">
+        <f t="shared" si="4"/>
         <v>0.92734552027985639</v>
       </c>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="5">
-        <f t="shared" si="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="4">
+        <f t="shared" si="5"/>
         <v>7.2654479720143605E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="10">
         <v>10197898</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="10">
         <v>674198</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="10">
         <v>9175831</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="10">
         <v>347389</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="10">
         <v>480</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="H82" s="10">
+        <v>624347</v>
+      </c>
+      <c r="I82" s="11">
+        <f t="shared" si="6"/>
+        <v>0.9387768930420759</v>
+      </c>
+      <c r="K82" s="12">
+        <f t="shared" si="7"/>
+        <v>6.1223106957924101E-2</v>
+      </c>
+      <c r="L82" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H82" s="3">
+      <c r="M82" s="2">
         <v>10197898</v>
       </c>
-      <c r="I82" s="3">
+      <c r="N82" s="2">
         <v>674198</v>
       </c>
-      <c r="J82" s="3">
+      <c r="O82" s="2">
         <v>9175831</v>
       </c>
-      <c r="K82" s="3">
+      <c r="P82" s="2">
         <v>347389</v>
       </c>
-      <c r="L82" s="3">
+      <c r="Q82" s="2">
         <v>480</v>
       </c>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3">
+      <c r="R82" s="2"/>
+      <c r="S82" s="2">
         <v>624347</v>
       </c>
-      <c r="O82" s="5">
-        <f t="shared" si="2"/>
+      <c r="T82" s="4">
+        <f t="shared" si="4"/>
         <v>0.9387768930420759</v>
       </c>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="5">
-        <f t="shared" si="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="4">
+        <f t="shared" si="5"/>
         <v>6.1223106957924101E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="10">
         <v>3268809</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="10">
         <v>320059</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="10">
         <v>2835336</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="10">
         <v>113283</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="10">
         <v>131</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="H83" s="10">
+        <v>304607</v>
+      </c>
+      <c r="I83" s="11">
+        <f t="shared" si="6"/>
+        <v>0.90681407203663478</v>
+      </c>
+      <c r="K83" s="12">
+        <f t="shared" si="7"/>
+        <v>9.3185927963365223E-2</v>
+      </c>
+      <c r="L83" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H83" s="3">
+      <c r="M83" s="2">
         <v>3268809</v>
       </c>
-      <c r="I83" s="3">
+      <c r="N83" s="2">
         <v>320059</v>
       </c>
-      <c r="J83" s="3">
+      <c r="O83" s="2">
         <v>2835336</v>
       </c>
-      <c r="K83" s="3">
+      <c r="P83" s="2">
         <v>113283</v>
       </c>
-      <c r="L83" s="3">
+      <c r="Q83" s="2">
         <v>131</v>
       </c>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3">
+      <c r="R83" s="2"/>
+      <c r="S83" s="2">
         <v>304607</v>
       </c>
-      <c r="O83" s="5">
-        <f t="shared" si="2"/>
+      <c r="T83" s="4">
+        <f t="shared" si="4"/>
         <v>0.90681407203663478</v>
       </c>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="5">
-        <f t="shared" si="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="4">
+        <f t="shared" si="5"/>
         <v>9.3185927963365223E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="10">
         <v>9722436</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="10">
         <v>836293</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="10">
         <v>8564364</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="10">
         <v>321270</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="10">
         <v>509</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="10">
+        <v>793940</v>
+      </c>
+      <c r="I84" s="11">
+        <f t="shared" si="6"/>
+        <v>0.91833939560003275</v>
+      </c>
+      <c r="K84" s="12">
+        <f t="shared" si="7"/>
+        <v>8.1660604399967252E-2</v>
+      </c>
+      <c r="L84" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H84" s="3">
+      <c r="M84" s="2">
         <v>9722436</v>
       </c>
-      <c r="I84" s="3">
+      <c r="N84" s="2">
         <v>836293</v>
       </c>
-      <c r="J84" s="3">
+      <c r="O84" s="2">
         <v>8564364</v>
       </c>
-      <c r="K84" s="3">
+      <c r="P84" s="2">
         <v>321270</v>
       </c>
-      <c r="L84" s="3">
+      <c r="Q84" s="2">
         <v>509</v>
       </c>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3">
+      <c r="R84" s="2"/>
+      <c r="S84" s="2">
         <v>793940</v>
       </c>
-      <c r="O84" s="5">
-        <f t="shared" si="2"/>
+      <c r="T84" s="4">
+        <f t="shared" si="4"/>
         <v>0.91833939560003275</v>
       </c>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="5">
-        <f t="shared" si="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="4">
+        <f t="shared" si="5"/>
         <v>8.1660604399967252E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="10">
         <v>16685316</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="10">
         <v>1267722</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="10">
         <v>14858184</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="10">
         <v>558507</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="10">
         <v>903</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="H85" s="10">
+        <v>1211234</v>
+      </c>
+      <c r="I85" s="11">
+        <f t="shared" si="6"/>
+        <v>0.92740718845240933</v>
+      </c>
+      <c r="K85" s="12">
+        <f t="shared" si="7"/>
+        <v>7.2592811547590674E-2</v>
+      </c>
+      <c r="L85" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H85" s="3">
+      <c r="M85" s="2">
         <v>16685316</v>
       </c>
-      <c r="I85" s="3">
+      <c r="N85" s="2">
         <v>1267722</v>
       </c>
-      <c r="J85" s="3">
+      <c r="O85" s="2">
         <v>14858184</v>
       </c>
-      <c r="K85" s="3">
+      <c r="P85" s="2">
         <v>558507</v>
       </c>
-      <c r="L85" s="3">
+      <c r="Q85" s="2">
         <v>903</v>
       </c>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3">
+      <c r="R85" s="2"/>
+      <c r="S85" s="2">
         <v>1211234</v>
       </c>
-      <c r="O85" s="5">
-        <f t="shared" si="2"/>
+      <c r="T85" s="4">
+        <f t="shared" si="4"/>
         <v>0.92740718845240933</v>
       </c>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="5">
-        <f t="shared" si="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="4">
+        <f t="shared" si="5"/>
         <v>7.2592811547590674E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="10">
         <v>16128393</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="10">
         <v>1631974</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="10">
         <v>13926474</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="10">
         <v>569081</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="10">
         <v>864</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="H86" s="10">
+        <v>1560066</v>
+      </c>
+      <c r="I86" s="11">
+        <f t="shared" si="6"/>
+        <v>0.90327207428539225</v>
+      </c>
+      <c r="K86" s="12">
+        <f t="shared" si="7"/>
+        <v>9.6727925714607754E-2</v>
+      </c>
+      <c r="L86" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H86" s="3">
+      <c r="M86" s="2">
         <v>16128393</v>
       </c>
-      <c r="I86" s="3">
+      <c r="N86" s="2">
         <v>1631974</v>
       </c>
-      <c r="J86" s="3">
+      <c r="O86" s="2">
         <v>13926474</v>
       </c>
-      <c r="K86" s="3">
+      <c r="P86" s="2">
         <v>569081</v>
       </c>
-      <c r="L86" s="3">
+      <c r="Q86" s="2">
         <v>864</v>
       </c>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3">
+      <c r="R86" s="2"/>
+      <c r="S86" s="2">
         <v>1560066</v>
       </c>
-      <c r="O86" s="5">
-        <f t="shared" si="2"/>
+      <c r="T86" s="4">
+        <f t="shared" si="4"/>
         <v>0.90327207428539225</v>
       </c>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="5">
-        <f t="shared" si="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="4">
+        <f t="shared" si="5"/>
         <v>9.6727925714607754E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="10">
         <v>11145711</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="10">
         <v>708792</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="10">
         <v>10078638</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="10">
         <v>357706</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="10">
         <v>575</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="H87" s="10">
+        <v>675378</v>
+      </c>
+      <c r="I87" s="11">
+        <f t="shared" si="6"/>
+        <v>0.93940467324157251</v>
+      </c>
+      <c r="K87" s="12">
+        <f t="shared" si="7"/>
+        <v>6.0595326758427492E-2</v>
+      </c>
+      <c r="L87" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H87" s="3">
+      <c r="M87" s="2">
         <v>11145711</v>
       </c>
-      <c r="I87" s="3">
+      <c r="N87" s="2">
         <v>708792</v>
       </c>
-      <c r="J87" s="3">
+      <c r="O87" s="2">
         <v>10078638</v>
       </c>
-      <c r="K87" s="3">
+      <c r="P87" s="2">
         <v>357706</v>
       </c>
-      <c r="L87" s="3">
+      <c r="Q87" s="2">
         <v>575</v>
       </c>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3">
+      <c r="R87" s="2"/>
+      <c r="S87" s="2">
         <v>675378</v>
       </c>
-      <c r="O87" s="5">
-        <f t="shared" si="2"/>
+      <c r="T87" s="4">
+        <f t="shared" si="4"/>
         <v>0.93940467324157251</v>
       </c>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="5">
-        <f t="shared" si="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="4">
+        <f t="shared" si="5"/>
         <v>6.0595326758427492E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="10">
         <v>473700</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="10">
         <v>100968</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="10">
         <v>355840</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="10">
         <v>16870</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="10">
         <v>22</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="H88" s="10">
+        <v>96980</v>
+      </c>
+      <c r="I88" s="11">
+        <f t="shared" si="6"/>
+        <v>0.79527126873548659</v>
+      </c>
+      <c r="K88" s="12">
+        <f t="shared" si="7"/>
+        <v>0.20472873126451341</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H88" s="3">
+      <c r="M88" s="2">
         <v>473700</v>
       </c>
-      <c r="I88" s="3">
+      <c r="N88" s="2">
         <v>100968</v>
       </c>
-      <c r="J88" s="3">
+      <c r="O88" s="2">
         <v>355840</v>
       </c>
-      <c r="K88" s="3">
+      <c r="P88" s="2">
         <v>16870</v>
       </c>
-      <c r="L88" s="3">
+      <c r="Q88" s="2">
         <v>22</v>
       </c>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3">
+      <c r="R88" s="2"/>
+      <c r="S88" s="2">
         <v>96980</v>
       </c>
-      <c r="O88" s="5">
-        <f t="shared" si="2"/>
+      <c r="T88" s="4">
+        <f t="shared" si="4"/>
         <v>0.79527126873548659</v>
       </c>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="5">
-        <f t="shared" si="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="4">
+        <f t="shared" si="5"/>
         <v>0.20472873126451341</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="10">
         <v>10813124</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="10">
         <v>814116</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="10">
         <v>9642685</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="10">
         <v>355737</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="10">
         <v>586</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="H89" s="10">
+        <v>771746</v>
+      </c>
+      <c r="I89" s="11">
+        <f t="shared" si="6"/>
+        <v>0.92862876630287416</v>
+      </c>
+      <c r="K89" s="12">
+        <f t="shared" si="7"/>
+        <v>7.1371233697125835E-2</v>
+      </c>
+      <c r="L89" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H89" s="3">
+      <c r="M89" s="2">
         <v>10813124</v>
       </c>
-      <c r="I89" s="3">
+      <c r="N89" s="2">
         <v>814116</v>
       </c>
-      <c r="J89" s="3">
+      <c r="O89" s="2">
         <v>9642685</v>
       </c>
-      <c r="K89" s="3">
+      <c r="P89" s="2">
         <v>355737</v>
       </c>
-      <c r="L89" s="3">
+      <c r="Q89" s="2">
         <v>586</v>
       </c>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3">
+      <c r="R89" s="2"/>
+      <c r="S89" s="2">
         <v>771746</v>
       </c>
-      <c r="O89" s="5">
-        <f t="shared" si="2"/>
+      <c r="T89" s="4">
+        <f t="shared" si="4"/>
         <v>0.92862876630287416</v>
       </c>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="5">
-        <f t="shared" si="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="4">
+        <f t="shared" si="5"/>
         <v>7.1371233697125835E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="10">
         <v>20639733</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="10">
         <v>1551107</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="10">
         <v>18240983</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="10">
         <v>846578</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="10">
         <v>1065</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="H90" s="10">
+        <v>1496213</v>
+      </c>
+      <c r="I90" s="11">
+        <f t="shared" si="6"/>
+        <v>0.92750812231921798</v>
+      </c>
+      <c r="K90" s="12">
+        <f t="shared" si="7"/>
+        <v>7.2491877680782024E-2</v>
+      </c>
+      <c r="L90" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H90" s="3">
+      <c r="M90" s="2">
         <v>20639733</v>
       </c>
-      <c r="I90" s="3">
+      <c r="N90" s="2">
         <v>1551107</v>
       </c>
-      <c r="J90" s="3">
+      <c r="O90" s="2">
         <v>18240983</v>
       </c>
-      <c r="K90" s="3">
+      <c r="P90" s="2">
         <v>846578</v>
       </c>
-      <c r="L90" s="3">
+      <c r="Q90" s="2">
         <v>1065</v>
       </c>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3">
+      <c r="R90" s="2"/>
+      <c r="S90" s="2">
         <v>1496213</v>
       </c>
-      <c r="O90" s="5">
-        <f t="shared" si="2"/>
+      <c r="T90" s="4">
+        <f t="shared" si="4"/>
         <v>0.92750812231921798</v>
       </c>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="5">
-        <f t="shared" si="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="4">
+        <f t="shared" si="5"/>
         <v>7.2491877680782024E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="10">
         <v>2952368</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="10">
         <v>221956</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="10">
         <v>2488418</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="10">
         <v>241856</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="10">
         <v>138</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="H91" s="10">
+        <v>215349</v>
+      </c>
+      <c r="I91" s="11">
+        <f t="shared" si="6"/>
+        <v>0.92705888967770955</v>
+      </c>
+      <c r="K91" s="12">
+        <f t="shared" si="7"/>
+        <v>7.2941110322290448E-2</v>
+      </c>
+      <c r="L91" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H91" s="3">
+      <c r="M91" s="2">
         <v>2952368</v>
       </c>
-      <c r="I91" s="3">
+      <c r="N91" s="2">
         <v>221956</v>
       </c>
-      <c r="J91" s="3">
+      <c r="O91" s="2">
         <v>2488418</v>
       </c>
-      <c r="K91" s="3">
+      <c r="P91" s="2">
         <v>241856</v>
       </c>
-      <c r="L91" s="3">
+      <c r="Q91" s="2">
         <v>138</v>
       </c>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3">
+      <c r="R91" s="2"/>
+      <c r="S91" s="2">
         <v>215349</v>
       </c>
-      <c r="O91" s="5">
-        <f t="shared" si="2"/>
+      <c r="T91" s="4">
+        <f t="shared" si="4"/>
         <v>0.92705888967770955</v>
       </c>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="5">
-        <f t="shared" si="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="4">
+        <f t="shared" si="5"/>
         <v>7.2941110322290448E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="10">
         <v>20201567</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="10">
         <v>2104007</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="10">
         <v>17412413</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="10">
         <v>684066</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="10">
         <v>1081</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="H92" s="10">
+        <v>2029638</v>
+      </c>
+      <c r="I92" s="11">
+        <f t="shared" si="6"/>
+        <v>0.89953066512117597</v>
+      </c>
+      <c r="K92" s="12">
+        <f t="shared" si="7"/>
+        <v>0.10046933487882403</v>
+      </c>
+      <c r="L92" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H92" s="3">
+      <c r="M92" s="2">
         <v>20201567</v>
       </c>
-      <c r="I92" s="3">
+      <c r="N92" s="2">
         <v>2104007</v>
       </c>
-      <c r="J92" s="3">
+      <c r="O92" s="2">
         <v>17412413</v>
       </c>
-      <c r="K92" s="3">
+      <c r="P92" s="2">
         <v>684066</v>
       </c>
-      <c r="L92" s="3">
+      <c r="Q92" s="2">
         <v>1081</v>
       </c>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3">
+      <c r="R92" s="2"/>
+      <c r="S92" s="2">
         <v>2029638</v>
       </c>
-      <c r="O92" s="5">
-        <f t="shared" si="2"/>
+      <c r="T92" s="4">
+        <f t="shared" si="4"/>
         <v>0.89953066512117597</v>
       </c>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="5">
-        <f t="shared" si="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="4">
+        <f t="shared" si="5"/>
         <v>0.10046933487882403</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="10">
         <v>23415093</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="10">
         <v>2634952</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="10">
         <v>19970386</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="10">
         <v>808520</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="10">
         <v>1235</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="H93" s="10">
+        <v>2543327</v>
+      </c>
+      <c r="I93" s="11">
+        <f t="shared" si="6"/>
+        <v>0.89138087130382104</v>
+      </c>
+      <c r="K93" s="12">
+        <f t="shared" si="7"/>
+        <v>0.10861912869617896</v>
+      </c>
+      <c r="L93" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H93" s="3">
+      <c r="M93" s="2">
         <v>23415093</v>
       </c>
-      <c r="I93" s="3">
+      <c r="N93" s="2">
         <v>2634952</v>
       </c>
-      <c r="J93" s="3">
+      <c r="O93" s="2">
         <v>19970386</v>
       </c>
-      <c r="K93" s="3">
+      <c r="P93" s="2">
         <v>808520</v>
       </c>
-      <c r="L93" s="3">
+      <c r="Q93" s="2">
         <v>1235</v>
       </c>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3">
+      <c r="R93" s="2"/>
+      <c r="S93" s="2">
         <v>2543327</v>
       </c>
-      <c r="O93" s="5">
-        <f t="shared" si="2"/>
+      <c r="T93" s="4">
+        <f t="shared" si="4"/>
         <v>0.89138087130382104</v>
       </c>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="5">
-        <f t="shared" si="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="4">
+        <f t="shared" si="5"/>
         <v>0.10861912869617896</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="10">
         <v>23864440</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="10">
         <v>1516455</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="10">
         <v>21456770</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="10">
         <v>890012</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="10">
         <v>1203</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="H94" s="10">
+        <v>1454733</v>
+      </c>
+      <c r="I94" s="11">
+        <f t="shared" si="6"/>
+        <v>0.93904181283952193</v>
+      </c>
+      <c r="K94" s="12">
+        <f t="shared" si="7"/>
+        <v>6.0958187160478072E-2</v>
+      </c>
+      <c r="L94" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H94" s="3">
+      <c r="M94" s="2">
         <v>23864440</v>
       </c>
-      <c r="I94" s="3">
+      <c r="N94" s="2">
         <v>1516455</v>
       </c>
-      <c r="J94" s="3">
+      <c r="O94" s="2">
         <v>21456770</v>
       </c>
-      <c r="K94" s="3">
+      <c r="P94" s="2">
         <v>890012</v>
       </c>
-      <c r="L94" s="3">
+      <c r="Q94" s="2">
         <v>1203</v>
       </c>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3">
+      <c r="R94" s="2"/>
+      <c r="S94" s="2">
         <v>1454733</v>
       </c>
-      <c r="O94" s="5">
-        <f t="shared" si="2"/>
+      <c r="T94" s="4">
+        <f t="shared" si="4"/>
         <v>0.93904181283952193</v>
       </c>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="5">
-        <f t="shared" si="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="4">
+        <f t="shared" si="5"/>
         <v>6.0958187160478072E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="10">
         <v>506825</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="10">
         <v>49810</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="10">
         <v>408840</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="10">
         <v>48153</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="10">
         <v>22</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="10">
+        <v>48765</v>
+      </c>
+      <c r="I95" s="11">
+        <f t="shared" si="6"/>
+        <v>0.90378335717456715</v>
+      </c>
+      <c r="K95" s="12">
+        <f t="shared" si="7"/>
+        <v>9.6216642825432852E-2</v>
+      </c>
+      <c r="L95" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H95" s="3">
+      <c r="M95" s="2">
         <v>506825</v>
       </c>
-      <c r="I95" s="3">
+      <c r="N95" s="2">
         <v>49810</v>
       </c>
-      <c r="J95" s="3">
+      <c r="O95" s="2">
         <v>408840</v>
       </c>
-      <c r="K95" s="3">
+      <c r="P95" s="2">
         <v>48153</v>
       </c>
-      <c r="L95" s="3">
+      <c r="Q95" s="2">
         <v>22</v>
       </c>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3">
+      <c r="R95" s="2"/>
+      <c r="S95" s="2">
         <v>48765</v>
       </c>
-      <c r="O95" s="5">
-        <f t="shared" si="2"/>
+      <c r="T95" s="4">
+        <f t="shared" si="4"/>
         <v>0.90378335717456715</v>
       </c>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="5">
-        <f t="shared" si="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="4">
+        <f t="shared" si="5"/>
         <v>9.6216642825432852E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="10">
         <v>3532817</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="10">
         <v>306970</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="10">
         <v>3101002</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="10">
         <v>124673</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="10">
         <v>172</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="H96" s="10">
+        <v>287005</v>
+      </c>
+      <c r="I96" s="11">
+        <f t="shared" si="6"/>
+        <v>0.9187602980850692</v>
+      </c>
+      <c r="K96" s="12">
+        <f t="shared" si="7"/>
+        <v>8.1239701914930795E-2</v>
+      </c>
+      <c r="L96" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H96" s="3">
+      <c r="M96" s="2">
         <v>3532817</v>
       </c>
-      <c r="I96" s="3">
+      <c r="N96" s="2">
         <v>306970</v>
       </c>
-      <c r="J96" s="3">
+      <c r="O96" s="2">
         <v>3101002</v>
       </c>
-      <c r="K96" s="3">
+      <c r="P96" s="2">
         <v>124673</v>
       </c>
-      <c r="L96" s="3">
+      <c r="Q96" s="2">
         <v>172</v>
       </c>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3">
+      <c r="R96" s="2"/>
+      <c r="S96" s="2">
         <v>287005</v>
       </c>
-      <c r="O96" s="5">
-        <f t="shared" si="2"/>
+      <c r="T96" s="4">
+        <f t="shared" si="4"/>
         <v>0.9187602980850692</v>
       </c>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="5">
-        <f t="shared" si="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="4">
+        <f t="shared" si="5"/>
         <v>8.1239701914930795E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="10">
         <v>15270107</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="10">
         <v>1083782</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="10">
         <v>13654681</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="10">
         <v>530848</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97" s="10">
         <v>796</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="H97" s="10">
+        <v>1032853</v>
+      </c>
+      <c r="I97" s="11">
+        <f t="shared" si="6"/>
+        <v>0.93236111574070835</v>
+      </c>
+      <c r="K97" s="12">
+        <f t="shared" si="7"/>
+        <v>6.7638884259291654E-2</v>
+      </c>
+      <c r="L97" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H97" s="3">
+      <c r="M97" s="2">
         <v>15270107</v>
       </c>
-      <c r="I97" s="3">
+      <c r="N97" s="2">
         <v>1083782</v>
       </c>
-      <c r="J97" s="3">
+      <c r="O97" s="2">
         <v>13654681</v>
       </c>
-      <c r="K97" s="3">
+      <c r="P97" s="2">
         <v>530848</v>
       </c>
-      <c r="L97" s="3">
+      <c r="Q97" s="2">
         <v>796</v>
       </c>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3">
+      <c r="R97" s="2"/>
+      <c r="S97" s="2">
         <v>1032853</v>
       </c>
-      <c r="O97" s="5">
-        <f t="shared" si="2"/>
+      <c r="T97" s="4">
+        <f t="shared" si="4"/>
         <v>0.93236111574070835</v>
       </c>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="5">
-        <f t="shared" si="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="4">
+        <f t="shared" si="5"/>
         <v>6.7638884259291654E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B98" s="6">
-        <f t="shared" ref="B98" si="4">SUM(B2:B97)</f>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B98" s="5">
+        <f t="shared" ref="B98" si="8">SUM(B2:B97)</f>
         <v>1030054588</v>
       </c>
-      <c r="C98" s="6">
-        <f t="shared" ref="C98:G98" si="5">SUM(C2:C97)</f>
+      <c r="C98" s="5">
+        <f t="shared" ref="C98:H98" si="9">SUM(C2:C97)</f>
         <v>228782525</v>
       </c>
-      <c r="D98" s="6">
-        <f t="shared" si="5"/>
+      <c r="D98" s="5">
+        <f t="shared" si="9"/>
         <v>764441711</v>
       </c>
-      <c r="E98" s="6">
-        <f t="shared" si="5"/>
+      <c r="E98" s="5">
+        <f t="shared" si="9"/>
         <v>36775808</v>
       </c>
-      <c r="F98" s="6">
-        <f t="shared" si="5"/>
+      <c r="F98" s="5">
+        <f t="shared" si="9"/>
         <v>54544</v>
       </c>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6">
-        <f t="shared" ref="H98:O98" si="6">SUM(H2:H97)</f>
+      <c r="G98" s="5">
+        <f t="shared" si="9"/>
+        <v>173669378</v>
+      </c>
+      <c r="H98" s="5">
+        <f t="shared" si="9"/>
+        <v>37132406</v>
+      </c>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5">
+        <f t="shared" ref="M98:T98" si="10">SUM(M2:M97)</f>
         <v>1030054588</v>
       </c>
-      <c r="I98" s="6">
-        <f t="shared" si="6"/>
+      <c r="N98" s="5">
+        <f t="shared" si="10"/>
         <v>228782525</v>
       </c>
-      <c r="J98" s="6">
-        <f t="shared" si="6"/>
+      <c r="O98" s="5">
+        <f t="shared" si="10"/>
         <v>764441711</v>
       </c>
-      <c r="K98" s="6">
-        <f t="shared" si="6"/>
+      <c r="P98" s="5">
+        <f t="shared" si="10"/>
         <v>36775808</v>
       </c>
-      <c r="L98" s="6">
-        <f t="shared" si="6"/>
+      <c r="Q98" s="5">
+        <f t="shared" si="10"/>
         <v>54544</v>
       </c>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6">
-        <f t="shared" si="6"/>
+      <c r="R98" s="5">
+        <f t="shared" si="10"/>
+        <v>173669378</v>
+      </c>
+      <c r="S98" s="5">
+        <f t="shared" si="10"/>
         <v>37132406</v>
       </c>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gene_expression/bioinformatics_pipeline/readcounts_allsteps_checkagainstMS.xlsx
+++ b/gene_expression/bioinformatics_pipeline/readcounts_allsteps_checkagainstMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_temperaturevariability2023/gene_expression/bioinformatics_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{BD0676A9-DCF1-D347-8A65-AC01AF31CE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E076FB6-9C8F-AF46-866D-8E16C79CB476}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{BD0676A9-DCF1-D347-8A65-AC01AF31CE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00BE452B-7980-BE4D-9804-5DF8A5C4516A}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28740" windowHeight="16240" xr2:uid="{E30E7334-B642-5E4F-95D2-E511D28C5524}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="13600" windowHeight="16240" xr2:uid="{E30E7334-B642-5E4F-95D2-E511D28C5524}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="215">
   <si>
     <t>Acer-005_S23_L001_R1_001.fastq.gz</t>
   </si>
@@ -675,6 +675,12 @@
   </si>
   <si>
     <t>Percent remaining Pcli (Michael)</t>
+  </si>
+  <si>
+    <t>number Acer aligned</t>
+  </si>
+  <si>
+    <t>Percent Acer aligned</t>
   </si>
 </sst>
 </file>
@@ -769,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -805,6 +811,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,10 +837,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1124,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D52EED-0510-8B4B-BB21-FD44FEE4B903}">
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="132" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,12 +1154,13 @@
     <col min="8" max="8" width="12.1640625" style="10" customWidth="1"/>
     <col min="9" max="9" width="10" style="10" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="28.1640625" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="28.1640625" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>96</v>
       </c>
@@ -1181,41 +1194,47 @@
       <c r="K1" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1245,39 +1264,46 @@
         <f>1-I2</f>
         <v>0.35714683878674613</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2">
+        <v>2918558</v>
+      </c>
+      <c r="M2" s="13">
+        <f>L2/G2</f>
+        <v>0.68706597232439792</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="2">
+      <c r="O2" s="2">
         <v>11893867</v>
       </c>
-      <c r="N2" s="2">
+      <c r="P2" s="2">
         <v>4537382</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <v>6915415</v>
       </c>
-      <c r="P2" s="2">
+      <c r="R2" s="2">
         <v>440422</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="2">
         <v>648</v>
       </c>
-      <c r="R2" s="2">
+      <c r="T2" s="2">
         <v>4247857</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="4">
-        <f t="shared" ref="T2:T49" si="0">(M2-R2)/M2</f>
+      <c r="U2" s="3"/>
+      <c r="V2" s="4">
+        <f t="shared" ref="V2:V49" si="0">(O2-T2)/O2</f>
         <v>0.64285316121325387</v>
       </c>
-      <c r="U2" s="4">
-        <f t="shared" ref="U2:U49" si="1">1-T2</f>
+      <c r="W2" s="4">
+        <f t="shared" ref="W2:W49" si="1">1-V2</f>
         <v>0.35714683878674613</v>
       </c>
-      <c r="V2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1300,46 +1326,53 @@
         <v>4845731</v>
       </c>
       <c r="I3" s="11">
-        <f t="shared" ref="I3:I66" si="2">(B3-G3)/B3</f>
+        <f t="shared" ref="I3:I49" si="2">(B3-G3)/B3</f>
         <v>0.63317292526615176</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" ref="J3:J49" si="3">1-I3</f>
         <v>0.36682707473384824</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3">
+        <v>3587065</v>
+      </c>
+      <c r="M3" s="13">
+        <f t="shared" ref="M3:M49" si="4">L3/G3</f>
+        <v>0.74025260585038666</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="2">
         <v>13209851</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
         <v>5054485</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>7682393</v>
       </c>
-      <c r="P3" s="2">
+      <c r="R3" s="2">
         <v>472188</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="2">
         <v>785</v>
       </c>
-      <c r="R3" s="2">
+      <c r="T3" s="2">
         <v>4845731</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="4">
+      <c r="U3" s="3"/>
+      <c r="V3" s="4">
         <f t="shared" si="0"/>
         <v>0.63317292526615176</v>
       </c>
-      <c r="U3" s="4">
+      <c r="W3" s="4">
         <f t="shared" si="1"/>
         <v>0.36682707473384824</v>
       </c>
-      <c r="V3" s="4"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1369,39 +1402,46 @@
         <f t="shared" si="3"/>
         <v>0.32740004807955747</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4">
+        <v>3218714</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" si="4"/>
+        <v>0.73694513563834418</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O4" s="2">
         <v>13340389</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
         <v>4538599</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>8313112</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>487935</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>743</v>
       </c>
-      <c r="R4" s="2">
+      <c r="T4" s="2">
         <v>4367644</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="4">
+      <c r="U4" s="3"/>
+      <c r="V4" s="4">
         <f t="shared" si="0"/>
         <v>0.67259995192044253</v>
       </c>
-      <c r="U4" s="4">
+      <c r="W4" s="4">
         <f t="shared" si="1"/>
         <v>0.32740004807955747</v>
       </c>
-      <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1431,39 +1471,46 @@
         <f t="shared" si="3"/>
         <v>0.30715217914354886</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5">
+        <v>2960614</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" si="4"/>
+        <v>0.8157419880303669</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>11816133</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>3859991</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>7537000</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>418501</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>641</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5" s="2">
         <v>3629351</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="4">
         <f t="shared" si="0"/>
         <v>0.69284782085645114</v>
       </c>
-      <c r="U5" s="4">
+      <c r="W5" s="4">
         <f t="shared" si="1"/>
         <v>0.30715217914354886</v>
       </c>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1493,39 +1540,46 @@
         <f t="shared" si="3"/>
         <v>0.32644282288142334</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6">
+        <v>2365036</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" si="4"/>
+        <v>0.52552326543853856</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>13786013</v>
       </c>
-      <c r="N6" s="2">
+      <c r="P6" s="2">
         <v>4779994</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <v>8512407</v>
       </c>
-      <c r="P6" s="2">
+      <c r="R6" s="2">
         <v>492844</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>768</v>
       </c>
-      <c r="R6" s="2">
+      <c r="T6" s="2">
         <v>4500345</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="4">
+      <c r="U6" s="3"/>
+      <c r="V6" s="4">
         <f t="shared" si="0"/>
         <v>0.67355717711857666</v>
       </c>
-      <c r="U6" s="4">
+      <c r="W6" s="4">
         <f t="shared" si="1"/>
         <v>0.32644282288142334</v>
       </c>
-      <c r="V6" s="4"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1555,39 +1609,46 @@
         <f t="shared" si="3"/>
         <v>0.37711293950617253</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7">
+        <v>3288915</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="4"/>
+        <v>0.7459991952345546</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>11690763</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>4583919</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>6676587</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>429606</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>651</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>4408738</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="4">
+      <c r="U7" s="3"/>
+      <c r="V7" s="4">
         <f t="shared" si="0"/>
         <v>0.62288706049382747</v>
       </c>
-      <c r="U7" s="4">
+      <c r="W7" s="4">
         <f t="shared" si="1"/>
         <v>0.37711293950617253</v>
       </c>
-      <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1617,39 +1678,46 @@
         <f t="shared" si="3"/>
         <v>0.33644155763163519</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8">
+        <v>3027491</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="4"/>
+        <v>0.6979941513564758</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="2">
+      <c r="O8" s="2">
         <v>12892034</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>4613289</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <v>7836790</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <v>441301</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="S8" s="2">
         <v>654</v>
       </c>
-      <c r="R8" s="2">
+      <c r="T8" s="2">
         <v>4337416</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="4">
+      <c r="U8" s="3"/>
+      <c r="V8" s="4">
         <f t="shared" si="0"/>
         <v>0.66355844236836481</v>
       </c>
-      <c r="U8" s="4">
+      <c r="W8" s="4">
         <f t="shared" si="1"/>
         <v>0.33644155763163519</v>
       </c>
-      <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1679,39 +1747,46 @@
         <f t="shared" si="3"/>
         <v>0.33408857849647555</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9">
+        <v>2738756</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="4"/>
+        <v>0.54502205655401148</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="2">
+      <c r="O9" s="2">
         <v>15041032</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>5350066</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>9150839</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <v>539333</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
         <v>794</v>
       </c>
-      <c r="R9" s="2">
+      <c r="T9" s="2">
         <v>5025037</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="4">
+      <c r="U9" s="3"/>
+      <c r="V9" s="4">
         <f t="shared" si="0"/>
         <v>0.66591142150352445</v>
       </c>
-      <c r="U9" s="4">
+      <c r="W9" s="4">
         <f t="shared" si="1"/>
         <v>0.33408857849647555</v>
       </c>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1741,39 +1816,46 @@
         <f t="shared" si="3"/>
         <v>0.25819001236639227</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10">
+        <v>3849597</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2886646563625188</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M10" s="2">
+      <c r="O10" s="2">
         <v>11570068</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>3410961</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <v>7748533</v>
       </c>
-      <c r="P10" s="2">
+      <c r="R10" s="2">
         <v>409963</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
         <v>611</v>
       </c>
-      <c r="R10" s="2">
+      <c r="T10" s="2">
         <v>2987276</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="4">
+      <c r="U10" s="3"/>
+      <c r="V10" s="4">
         <f t="shared" si="0"/>
         <v>0.74180998763360773</v>
       </c>
-      <c r="U10" s="4">
+      <c r="W10" s="4">
         <f t="shared" si="1"/>
         <v>0.25819001236639227</v>
       </c>
-      <c r="V10" s="4"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1803,39 +1885,46 @@
         <f t="shared" si="3"/>
         <v>0.26814255939555143</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11">
+        <v>1855978</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="4"/>
+        <v>0.49797146664799252</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="2">
+      <c r="O11" s="2">
         <v>13899610</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>4290747</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <v>9127776</v>
       </c>
-      <c r="P11" s="2">
+      <c r="R11" s="2">
         <v>480336</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="S11" s="2">
         <v>751</v>
       </c>
-      <c r="R11" s="2">
+      <c r="T11" s="2">
         <v>3727077</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="4">
+      <c r="U11" s="3"/>
+      <c r="V11" s="4">
         <f t="shared" si="0"/>
         <v>0.73185744060444857</v>
       </c>
-      <c r="U11" s="4">
+      <c r="W11" s="4">
         <f t="shared" si="1"/>
         <v>0.26814255939555143</v>
       </c>
-      <c r="V11" s="4"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1865,39 +1954,46 @@
         <f t="shared" si="3"/>
         <v>0.40254680636584561</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12">
+        <v>3442169</v>
+      </c>
+      <c r="M12" s="13">
+        <f t="shared" si="4"/>
+        <v>0.61021065238633476</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M12" s="2">
+      <c r="O12" s="2">
         <v>14013158</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
         <v>5877458</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Q12" s="2">
         <v>7636269</v>
       </c>
-      <c r="P12" s="2">
+      <c r="R12" s="2">
         <v>498636</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="S12" s="2">
         <v>795</v>
       </c>
-      <c r="R12" s="2">
+      <c r="T12" s="2">
         <v>5640952</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="4">
+      <c r="U12" s="3"/>
+      <c r="V12" s="4">
         <f t="shared" si="0"/>
         <v>0.59745319363415439</v>
       </c>
-      <c r="U12" s="4">
+      <c r="W12" s="4">
         <f t="shared" si="1"/>
         <v>0.40254680636584561</v>
       </c>
-      <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1927,39 +2023,46 @@
         <f t="shared" si="3"/>
         <v>0.31868147884429188</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13">
+        <v>2879950</v>
+      </c>
+      <c r="M13" s="13">
+        <f t="shared" si="4"/>
+        <v>0.68600994207641186</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>13173395</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
         <v>4393252</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <v>8315845</v>
       </c>
-      <c r="P13" s="2">
+      <c r="R13" s="2">
         <v>463600</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="S13" s="2">
         <v>698</v>
       </c>
-      <c r="R13" s="2">
+      <c r="T13" s="2">
         <v>4198117</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="4">
+      <c r="U13" s="3"/>
+      <c r="V13" s="4">
         <f t="shared" si="0"/>
         <v>0.68131852115570812</v>
       </c>
-      <c r="U13" s="4">
+      <c r="W13" s="4">
         <f t="shared" si="1"/>
         <v>0.31868147884429188</v>
       </c>
-      <c r="V13" s="4"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1989,39 +2092,46 @@
         <f t="shared" si="3"/>
         <v>0.22071835303816689</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14">
+        <v>2233717</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="4"/>
+        <v>0.70158835353979521</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M14" s="2">
+      <c r="O14" s="2">
         <v>14424718</v>
       </c>
-      <c r="N14" s="2">
+      <c r="P14" s="2">
         <v>3418670</v>
       </c>
-      <c r="O14" s="2">
+      <c r="Q14" s="2">
         <v>10484051</v>
       </c>
-      <c r="P14" s="2">
+      <c r="R14" s="2">
         <v>521211</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="S14" s="2">
         <v>786</v>
       </c>
-      <c r="R14" s="2">
+      <c r="T14" s="2">
         <v>3183800</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="4">
+      <c r="U14" s="3"/>
+      <c r="V14" s="4">
         <f t="shared" si="0"/>
         <v>0.77928164696183311</v>
       </c>
-      <c r="U14" s="4">
+      <c r="W14" s="4">
         <f t="shared" si="1"/>
         <v>0.22071835303816689</v>
       </c>
-      <c r="V14" s="4"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2051,39 +2161,46 @@
         <f t="shared" si="3"/>
         <v>0.33751534120180748</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15">
+        <v>2931574</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="4"/>
+        <v>0.73633956918378007</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="2">
+      <c r="O15" s="2">
         <v>11795849</v>
       </c>
-      <c r="N15" s="2">
+      <c r="P15" s="2">
         <v>4132095</v>
       </c>
-      <c r="O15" s="2">
+      <c r="Q15" s="2">
         <v>7247189</v>
       </c>
-      <c r="P15" s="2">
+      <c r="R15" s="2">
         <v>415942</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="S15" s="2">
         <v>623</v>
       </c>
-      <c r="R15" s="2">
+      <c r="T15" s="2">
         <v>3981280</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="4">
+      <c r="U15" s="3"/>
+      <c r="V15" s="4">
         <f t="shared" si="0"/>
         <v>0.66248465879819252</v>
       </c>
-      <c r="U15" s="4">
+      <c r="W15" s="4">
         <f t="shared" si="1"/>
         <v>0.33751534120180748</v>
       </c>
-      <c r="V15" s="4"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2113,39 +2230,46 @@
         <f t="shared" si="3"/>
         <v>0.26267362645498793</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16">
+        <v>3289468</v>
+      </c>
+      <c r="M16" s="13">
+        <f t="shared" si="4"/>
+        <v>0.74833939609026112</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="2">
+      <c r="O16" s="2">
         <v>16734417</v>
       </c>
-      <c r="N16" s="2">
+      <c r="P16" s="2">
         <v>5103864</v>
       </c>
-      <c r="O16" s="2">
+      <c r="Q16" s="2">
         <v>11059966</v>
       </c>
-      <c r="P16" s="2">
+      <c r="R16" s="2">
         <v>569696</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="S16" s="2">
         <v>891</v>
       </c>
-      <c r="R16" s="2">
+      <c r="T16" s="2">
         <v>4395690</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="4">
+      <c r="U16" s="3"/>
+      <c r="V16" s="4">
         <f t="shared" si="0"/>
         <v>0.73732637354501207</v>
       </c>
-      <c r="U16" s="4">
+      <c r="W16" s="4">
         <f t="shared" si="1"/>
         <v>0.26267362645498793</v>
       </c>
-      <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2175,39 +2299,46 @@
         <f t="shared" si="3"/>
         <v>0.28533489453151484</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17">
+        <v>2794945</v>
+      </c>
+      <c r="M17" s="13">
+        <f t="shared" si="4"/>
+        <v>0.74621472130400857</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M17" s="2">
+      <c r="O17" s="2">
         <v>13126670</v>
       </c>
-      <c r="N17" s="2">
+      <c r="P17" s="2">
         <v>4325520</v>
       </c>
-      <c r="O17" s="2">
+      <c r="Q17" s="2">
         <v>8337480</v>
       </c>
-      <c r="P17" s="2">
+      <c r="R17" s="2">
         <v>462982</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="S17" s="2">
         <v>688</v>
       </c>
-      <c r="R17" s="2">
+      <c r="T17" s="2">
         <v>3745497</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="4">
+      <c r="U17" s="3"/>
+      <c r="V17" s="4">
         <f t="shared" si="0"/>
         <v>0.71466510546848516</v>
       </c>
-      <c r="U17" s="4">
+      <c r="W17" s="4">
         <f t="shared" si="1"/>
         <v>0.28533489453151484</v>
       </c>
-      <c r="V17" s="4"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2237,39 +2368,46 @@
         <f t="shared" si="3"/>
         <v>0.25304565359405273</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18">
+        <v>2587113</v>
+      </c>
+      <c r="M18" s="13">
+        <f t="shared" si="4"/>
+        <v>0.76199740042701802</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="M18" s="2">
+      <c r="O18" s="2">
         <v>13417235</v>
       </c>
-      <c r="N18" s="2">
+      <c r="P18" s="2">
         <v>4174095</v>
       </c>
-      <c r="O18" s="2">
+      <c r="Q18" s="2">
         <v>8763614</v>
       </c>
-      <c r="P18" s="2">
+      <c r="R18" s="2">
         <v>478773</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="S18" s="2">
         <v>753</v>
       </c>
-      <c r="R18" s="2">
+      <c r="T18" s="2">
         <v>3395173</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="4">
+      <c r="U18" s="3"/>
+      <c r="V18" s="4">
         <f t="shared" si="0"/>
         <v>0.74695434640594727</v>
       </c>
-      <c r="U18" s="4">
+      <c r="W18" s="4">
         <f t="shared" si="1"/>
         <v>0.25304565359405273</v>
       </c>
-      <c r="V18" s="4"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2299,39 +2437,46 @@
         <f t="shared" si="3"/>
         <v>0.30185555514670037</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19">
+        <v>2779463</v>
+      </c>
+      <c r="M19" s="13">
+        <f t="shared" si="4"/>
+        <v>0.65919005464745251</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M19" s="2">
+      <c r="O19" s="2">
         <v>13968542</v>
       </c>
-      <c r="N19" s="2">
+      <c r="P19" s="2">
         <v>4518478</v>
       </c>
-      <c r="O19" s="2">
+      <c r="Q19" s="2">
         <v>8942575</v>
       </c>
-      <c r="P19" s="2">
+      <c r="R19" s="2">
         <v>506744</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="S19" s="2">
         <v>745</v>
       </c>
-      <c r="R19" s="2">
+      <c r="T19" s="2">
         <v>4216482</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="4">
+      <c r="U19" s="3"/>
+      <c r="V19" s="4">
         <f t="shared" si="0"/>
         <v>0.69814444485329963</v>
       </c>
-      <c r="U19" s="4">
+      <c r="W19" s="4">
         <f t="shared" si="1"/>
         <v>0.30185555514670037</v>
       </c>
-      <c r="V19" s="4"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2361,39 +2506,46 @@
         <f t="shared" si="3"/>
         <v>0.37556406607855075</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20">
+        <v>3449011</v>
+      </c>
+      <c r="M20" s="13">
+        <f t="shared" si="4"/>
+        <v>0.67092505271676117</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M20" s="2">
+      <c r="O20" s="2">
         <v>13687891</v>
       </c>
-      <c r="N20" s="2">
+      <c r="P20" s="2">
         <v>5433153</v>
       </c>
-      <c r="O20" s="2">
+      <c r="Q20" s="2">
         <v>7762937</v>
       </c>
-      <c r="P20" s="2">
+      <c r="R20" s="2">
         <v>491091</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="S20" s="2">
         <v>710</v>
       </c>
-      <c r="R20" s="2">
+      <c r="T20" s="2">
         <v>5140680</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="4">
+      <c r="U20" s="3"/>
+      <c r="V20" s="4">
         <f t="shared" si="0"/>
         <v>0.62443593392144925</v>
       </c>
-      <c r="U20" s="4">
+      <c r="W20" s="4">
         <f t="shared" si="1"/>
         <v>0.37556406607855075</v>
       </c>
-      <c r="V20" s="4"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2423,39 +2575,46 @@
         <f t="shared" si="3"/>
         <v>0.16420036132813709</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21">
+        <v>853810</v>
+      </c>
+      <c r="M21" s="13">
+        <f t="shared" si="4"/>
+        <v>0.58556260124463178</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M21" s="2">
+      <c r="O21" s="2">
         <v>8880017</v>
       </c>
-      <c r="N21" s="2">
+      <c r="P21" s="2">
         <v>1921176</v>
       </c>
-      <c r="O21" s="2">
+      <c r="Q21" s="2">
         <v>6647552</v>
       </c>
-      <c r="P21" s="2">
+      <c r="R21" s="2">
         <v>310792</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="S21" s="2">
         <v>497</v>
       </c>
-      <c r="R21" s="2">
+      <c r="T21" s="2">
         <v>1458102</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="4">
+      <c r="U21" s="3"/>
+      <c r="V21" s="4">
         <f t="shared" si="0"/>
         <v>0.83579963867186291</v>
       </c>
-      <c r="U21" s="4">
+      <c r="W21" s="4">
         <f t="shared" si="1"/>
         <v>0.16420036132813709</v>
       </c>
-      <c r="V21" s="4"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2485,39 +2644,46 @@
         <f t="shared" si="3"/>
         <v>0.24858296669475022</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22">
+        <v>2007059</v>
+      </c>
+      <c r="M22" s="13">
+        <f t="shared" si="4"/>
+        <v>0.66151848802479085</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M22" s="2">
+      <c r="O22" s="2">
         <v>12205253</v>
       </c>
-      <c r="N22" s="2">
+      <c r="P22" s="2">
         <v>3594545</v>
       </c>
-      <c r="O22" s="2">
+      <c r="Q22" s="2">
         <v>8167000</v>
       </c>
-      <c r="P22" s="2">
+      <c r="R22" s="2">
         <v>443074</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="S22" s="2">
         <v>634</v>
       </c>
-      <c r="R22" s="2">
+      <c r="T22" s="2">
         <v>3034018</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="4">
+      <c r="U22" s="3"/>
+      <c r="V22" s="4">
         <f t="shared" si="0"/>
         <v>0.75141703330524978</v>
       </c>
-      <c r="U22" s="4">
+      <c r="W22" s="4">
         <f t="shared" si="1"/>
         <v>0.24858296669475022</v>
       </c>
-      <c r="V22" s="4"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2547,39 +2713,46 @@
         <f t="shared" si="3"/>
         <v>0.13535265799863105</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23">
+        <v>506092</v>
+      </c>
+      <c r="M23" s="13">
+        <f t="shared" si="4"/>
+        <v>0.59350871103021885</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M23" s="2">
+      <c r="O23" s="2">
         <v>6299928</v>
       </c>
-      <c r="N23" s="2">
+      <c r="P23" s="2">
         <v>1329595</v>
       </c>
-      <c r="O23" s="2">
+      <c r="Q23" s="2">
         <v>4736577</v>
       </c>
-      <c r="P23" s="2">
+      <c r="R23" s="2">
         <v>233415</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="S23" s="2">
         <v>341</v>
       </c>
-      <c r="R23" s="2">
+      <c r="T23" s="2">
         <v>852712</v>
       </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="4">
+      <c r="U23" s="3"/>
+      <c r="V23" s="4">
         <f t="shared" si="0"/>
         <v>0.86464734200136895</v>
       </c>
-      <c r="U23" s="4">
+      <c r="W23" s="4">
         <f t="shared" si="1"/>
         <v>0.13535265799863105</v>
       </c>
-      <c r="V23" s="4"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2609,39 +2782,46 @@
         <f t="shared" si="3"/>
         <v>0.22617479870644763</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24">
+        <v>1685851</v>
+      </c>
+      <c r="M24" s="13">
+        <f t="shared" si="4"/>
+        <v>0.74334807814751513</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M24" s="2">
+      <c r="O24" s="2">
         <v>10027271</v>
       </c>
-      <c r="N24" s="2">
+      <c r="P24" s="2">
         <v>2803853</v>
       </c>
-      <c r="O24" s="2">
+      <c r="Q24" s="2">
         <v>6875352</v>
       </c>
-      <c r="P24" s="2">
+      <c r="R24" s="2">
         <v>347516</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="S24" s="2">
         <v>550</v>
       </c>
-      <c r="R24" s="2">
+      <c r="T24" s="2">
         <v>2267916</v>
       </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="4">
+      <c r="U24" s="3"/>
+      <c r="V24" s="4">
         <f t="shared" si="0"/>
         <v>0.77382520129355237</v>
       </c>
-      <c r="U24" s="4">
+      <c r="W24" s="4">
         <f t="shared" si="1"/>
         <v>0.22617479870644763</v>
       </c>
-      <c r="V24" s="4"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X24" s="4"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2671,39 +2851,46 @@
         <f t="shared" si="3"/>
         <v>0.32433772695800345</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25">
+        <v>2478021</v>
+      </c>
+      <c r="M25" s="13">
+        <f t="shared" si="4"/>
+        <v>0.58850263683995285</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M25" s="2">
+      <c r="O25" s="2">
         <v>12982523</v>
       </c>
-      <c r="N25" s="2">
+      <c r="P25" s="2">
         <v>4518500</v>
       </c>
-      <c r="O25" s="2">
+      <c r="Q25" s="2">
         <v>7995161</v>
       </c>
-      <c r="P25" s="2">
+      <c r="R25" s="2">
         <v>468170</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="S25" s="2">
         <v>692</v>
       </c>
-      <c r="R25" s="2">
+      <c r="T25" s="2">
         <v>4210722</v>
       </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="4">
+      <c r="U25" s="3"/>
+      <c r="V25" s="4">
         <f t="shared" si="0"/>
         <v>0.67566227304199655</v>
       </c>
-      <c r="U25" s="4">
+      <c r="W25" s="4">
         <f t="shared" si="1"/>
         <v>0.32433772695800345</v>
       </c>
-      <c r="V25" s="4"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2733,39 +2920,46 @@
         <f t="shared" si="3"/>
         <v>0.29066672267053095</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26">
+        <v>1507114</v>
+      </c>
+      <c r="M26" s="13">
+        <f t="shared" si="4"/>
+        <v>0.57615355796652679</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M26" s="2">
+      <c r="O26" s="2">
         <v>8999379</v>
       </c>
-      <c r="N26" s="2">
+      <c r="P26" s="2">
         <v>2885402</v>
       </c>
-      <c r="O26" s="2">
+      <c r="Q26" s="2">
         <v>5785713</v>
       </c>
-      <c r="P26" s="2">
+      <c r="R26" s="2">
         <v>327766</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="S26" s="2">
         <v>498</v>
       </c>
-      <c r="R26" s="2">
+      <c r="T26" s="2">
         <v>2615820</v>
       </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="4">
+      <c r="U26" s="3"/>
+      <c r="V26" s="4">
         <f t="shared" si="0"/>
         <v>0.70933327732946905</v>
       </c>
-      <c r="U26" s="4">
+      <c r="W26" s="4">
         <f t="shared" si="1"/>
         <v>0.29066672267053095</v>
       </c>
-      <c r="V26" s="4"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2795,39 +2989,46 @@
         <f t="shared" si="3"/>
         <v>0.24549911290354209</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27">
+        <v>1589025</v>
+      </c>
+      <c r="M27" s="13">
+        <f t="shared" si="4"/>
+        <v>0.72520965257573167</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="M27" s="2">
+      <c r="O27" s="2">
         <v>8925185</v>
       </c>
-      <c r="N27" s="2">
+      <c r="P27" s="2">
         <v>2590358</v>
       </c>
-      <c r="O27" s="2">
+      <c r="Q27" s="2">
         <v>6023869</v>
       </c>
-      <c r="P27" s="2">
+      <c r="R27" s="2">
         <v>310475</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="S27" s="2">
         <v>483</v>
       </c>
-      <c r="R27" s="2">
+      <c r="T27" s="2">
         <v>2191125</v>
       </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="4">
+      <c r="U27" s="3"/>
+      <c r="V27" s="4">
         <f t="shared" si="0"/>
         <v>0.75450088709645791</v>
       </c>
-      <c r="U27" s="4">
+      <c r="W27" s="4">
         <f t="shared" si="1"/>
         <v>0.24549911290354209</v>
       </c>
-      <c r="V27" s="4"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X27" s="4"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2857,39 +3058,46 @@
         <f t="shared" si="3"/>
         <v>0.34459911298461776</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28">
+        <v>2667608</v>
+      </c>
+      <c r="M28" s="13">
+        <f t="shared" si="4"/>
+        <v>0.71908646425415623</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M28" s="2">
+      <c r="O28" s="2">
         <v>10765315</v>
       </c>
-      <c r="N28" s="2">
+      <c r="P28" s="2">
         <v>3832744</v>
       </c>
-      <c r="O28" s="2">
+      <c r="Q28" s="2">
         <v>6556926</v>
       </c>
-      <c r="P28" s="2">
+      <c r="R28" s="2">
         <v>375099</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="S28" s="2">
         <v>546</v>
       </c>
-      <c r="R28" s="2">
+      <c r="T28" s="2">
         <v>3709718</v>
       </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="4">
+      <c r="U28" s="3"/>
+      <c r="V28" s="4">
         <f t="shared" si="0"/>
         <v>0.65540088701538224</v>
       </c>
-      <c r="U28" s="4">
+      <c r="W28" s="4">
         <f t="shared" si="1"/>
         <v>0.34459911298461776</v>
       </c>
-      <c r="V28" s="4"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X28" s="4"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2919,39 +3127,46 @@
         <f t="shared" si="3"/>
         <v>0.18029393057818888</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29">
+        <v>561607</v>
+      </c>
+      <c r="M29" s="13">
+        <f t="shared" si="4"/>
+        <v>0.46892688388776954</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M29" s="2">
+      <c r="O29" s="2">
         <v>6642725</v>
       </c>
-      <c r="N29" s="2">
+      <c r="P29" s="2">
         <v>1668858</v>
       </c>
-      <c r="O29" s="2">
+      <c r="Q29" s="2">
         <v>4737455</v>
       </c>
-      <c r="P29" s="2">
+      <c r="R29" s="2">
         <v>236096</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="S29" s="2">
         <v>316</v>
       </c>
-      <c r="R29" s="2">
+      <c r="T29" s="2">
         <v>1197643</v>
       </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="4">
+      <c r="U29" s="3"/>
+      <c r="V29" s="4">
         <f t="shared" si="0"/>
         <v>0.81970606942181112</v>
       </c>
-      <c r="U29" s="4">
+      <c r="W29" s="4">
         <f t="shared" si="1"/>
         <v>0.18029393057818888</v>
       </c>
-      <c r="V29" s="4"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2981,39 +3196,46 @@
         <f t="shared" si="3"/>
         <v>0.2161143585222588</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30">
+        <v>1236497</v>
+      </c>
+      <c r="M30" s="13">
+        <f t="shared" si="4"/>
+        <v>0.59181536273128832</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="M30" s="2">
+      <c r="O30" s="2">
         <v>9667701</v>
       </c>
-      <c r="N30" s="2">
+      <c r="P30" s="2">
         <v>2402571</v>
       </c>
-      <c r="O30" s="2">
+      <c r="Q30" s="2">
         <v>6927282</v>
       </c>
-      <c r="P30" s="2">
+      <c r="R30" s="2">
         <v>337333</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="S30" s="2">
         <v>515</v>
       </c>
-      <c r="R30" s="2">
+      <c r="T30" s="2">
         <v>2089329</v>
       </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="4">
+      <c r="U30" s="3"/>
+      <c r="V30" s="4">
         <f t="shared" si="0"/>
         <v>0.7838856414777412</v>
       </c>
-      <c r="U30" s="4">
+      <c r="W30" s="4">
         <f t="shared" si="1"/>
         <v>0.2161143585222588</v>
       </c>
-      <c r="V30" s="4"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X30" s="4"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3043,39 +3265,46 @@
         <f t="shared" si="3"/>
         <v>0.36179699378087271</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31">
+        <v>2930474</v>
+      </c>
+      <c r="M31" s="13">
+        <f t="shared" si="4"/>
+        <v>0.64999777084608257</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M31" s="2">
+      <c r="O31" s="2">
         <v>12461234</v>
       </c>
-      <c r="N31" s="2">
+      <c r="P31" s="2">
         <v>4644535</v>
       </c>
-      <c r="O31" s="2">
+      <c r="Q31" s="2">
         <v>7366510</v>
       </c>
-      <c r="P31" s="2">
+      <c r="R31" s="2">
         <v>449511</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="S31" s="2">
         <v>678</v>
       </c>
-      <c r="R31" s="2">
+      <c r="T31" s="2">
         <v>4508437</v>
       </c>
-      <c r="S31" s="3"/>
-      <c r="T31" s="4">
+      <c r="U31" s="3"/>
+      <c r="V31" s="4">
         <f t="shared" si="0"/>
         <v>0.63820300621912729</v>
       </c>
-      <c r="U31" s="4">
+      <c r="W31" s="4">
         <f t="shared" si="1"/>
         <v>0.36179699378087271</v>
       </c>
-      <c r="V31" s="4"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X31" s="4"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3105,39 +3334,46 @@
         <f t="shared" si="3"/>
         <v>0.40949898169828391</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32">
+        <v>3099395</v>
+      </c>
+      <c r="M32" s="13">
+        <f t="shared" si="4"/>
+        <v>0.65551946204763767</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M32" s="2">
+      <c r="O32" s="2">
         <v>11546185</v>
       </c>
-      <c r="N32" s="2">
+      <c r="P32" s="2">
         <v>4943729</v>
       </c>
-      <c r="O32" s="2">
+      <c r="Q32" s="2">
         <v>6191769</v>
       </c>
-      <c r="P32" s="2">
+      <c r="R32" s="2">
         <v>410068</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="S32" s="2">
         <v>619</v>
       </c>
-      <c r="R32" s="2">
+      <c r="T32" s="2">
         <v>4728151</v>
       </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="4">
+      <c r="U32" s="3"/>
+      <c r="V32" s="4">
         <f t="shared" si="0"/>
         <v>0.59050101830171609</v>
       </c>
-      <c r="U32" s="4">
+      <c r="W32" s="4">
         <f t="shared" si="1"/>
         <v>0.40949898169828391</v>
       </c>
-      <c r="V32" s="4"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3167,39 +3403,46 @@
         <f t="shared" si="3"/>
         <v>0.4715416162276207</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33">
+        <v>3937464</v>
+      </c>
+      <c r="M33" s="13">
+        <f t="shared" si="4"/>
+        <v>0.70205721136581734</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M33" s="2">
+      <c r="O33" s="2">
         <v>11893894</v>
       </c>
-      <c r="N33" s="2">
+      <c r="P33" s="2">
         <v>6107116</v>
       </c>
-      <c r="O33" s="2">
+      <c r="Q33" s="2">
         <v>5368056</v>
       </c>
-      <c r="P33" s="2">
+      <c r="R33" s="2">
         <v>418072</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="S33" s="2">
         <v>650</v>
       </c>
-      <c r="R33" s="2">
+      <c r="T33" s="2">
         <v>5608466</v>
       </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="4">
+      <c r="U33" s="3"/>
+      <c r="V33" s="4">
         <f t="shared" si="0"/>
         <v>0.5284583837723793</v>
       </c>
-      <c r="U33" s="4">
+      <c r="W33" s="4">
         <f t="shared" si="1"/>
         <v>0.4715416162276207</v>
       </c>
-      <c r="V33" s="4"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X33" s="4"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3229,39 +3472,46 @@
         <f t="shared" si="3"/>
         <v>0.2779586527310427</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34">
+        <v>2042388</v>
+      </c>
+      <c r="M34" s="13">
+        <f t="shared" si="4"/>
+        <v>0.77137437937309228</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M34" s="2">
+      <c r="O34" s="2">
         <v>9525611</v>
       </c>
-      <c r="N34" s="2">
+      <c r="P34" s="2">
         <v>3016172</v>
       </c>
-      <c r="O34" s="2">
+      <c r="Q34" s="2">
         <v>6181261</v>
       </c>
-      <c r="P34" s="2">
+      <c r="R34" s="2">
         <v>327658</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="S34" s="2">
         <v>520</v>
       </c>
-      <c r="R34" s="2">
+      <c r="T34" s="2">
         <v>2647726</v>
       </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="4">
+      <c r="U34" s="3"/>
+      <c r="V34" s="4">
         <f t="shared" si="0"/>
         <v>0.7220413472689573</v>
       </c>
-      <c r="U34" s="4">
+      <c r="W34" s="4">
         <f t="shared" si="1"/>
         <v>0.2779586527310427</v>
       </c>
-      <c r="V34" s="4"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3291,39 +3541,46 @@
         <f t="shared" si="3"/>
         <v>0.32974381703979772</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35">
+        <v>2573688</v>
+      </c>
+      <c r="M35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.72358123352662096</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M35" s="2">
+      <c r="O35" s="2">
         <v>10786783</v>
       </c>
-      <c r="N35" s="2">
+      <c r="P35" s="2">
         <v>3667349</v>
       </c>
-      <c r="O35" s="2">
+      <c r="Q35" s="2">
         <v>6740598</v>
       </c>
-      <c r="P35" s="2">
+      <c r="R35" s="2">
         <v>378272</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="S35" s="2">
         <v>564</v>
       </c>
-      <c r="R35" s="2">
+      <c r="T35" s="2">
         <v>3556875</v>
       </c>
-      <c r="S35" s="3"/>
-      <c r="T35" s="4">
+      <c r="U35" s="3"/>
+      <c r="V35" s="4">
         <f t="shared" si="0"/>
         <v>0.67025618296020228</v>
       </c>
-      <c r="U35" s="4">
+      <c r="W35" s="4">
         <f t="shared" si="1"/>
         <v>0.32974381703979772</v>
       </c>
-      <c r="V35" s="4"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3353,39 +3610,46 @@
         <f t="shared" si="3"/>
         <v>0.30649902100509352</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36">
+        <v>2462468</v>
+      </c>
+      <c r="M36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.67709037356076895</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M36" s="2">
+      <c r="O36" s="2">
         <v>11865741</v>
       </c>
-      <c r="N36" s="2">
+      <c r="P36" s="2">
         <v>3967556</v>
       </c>
-      <c r="O36" s="2">
+      <c r="Q36" s="2">
         <v>7476091</v>
       </c>
-      <c r="P36" s="2">
+      <c r="R36" s="2">
         <v>421470</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="S36" s="2">
         <v>624</v>
       </c>
-      <c r="R36" s="2">
+      <c r="T36" s="2">
         <v>3636838</v>
       </c>
-      <c r="S36" s="3"/>
-      <c r="T36" s="4">
+      <c r="U36" s="3"/>
+      <c r="V36" s="4">
         <f t="shared" si="0"/>
         <v>0.69350097899490648</v>
       </c>
-      <c r="U36" s="4">
+      <c r="W36" s="4">
         <f t="shared" si="1"/>
         <v>0.30649902100509352</v>
       </c>
-      <c r="V36" s="4"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X36" s="4"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3415,39 +3679,46 @@
         <f t="shared" si="3"/>
         <v>0.2213330441520478</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37">
+        <v>909757</v>
+      </c>
+      <c r="M37" s="13">
+        <f t="shared" si="4"/>
+        <v>0.62868683378539469</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M37" s="2">
+      <c r="O37" s="2">
         <v>6537998</v>
       </c>
-      <c r="N37" s="2">
+      <c r="P37" s="2">
         <v>1743368</v>
       </c>
-      <c r="O37" s="2">
+      <c r="Q37" s="2">
         <v>4569321</v>
       </c>
-      <c r="P37" s="2">
+      <c r="R37" s="2">
         <v>224963</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="S37" s="2">
         <v>346</v>
       </c>
-      <c r="R37" s="2">
+      <c r="T37" s="2">
         <v>1447075</v>
       </c>
-      <c r="S37" s="3"/>
-      <c r="T37" s="4">
+      <c r="U37" s="3"/>
+      <c r="V37" s="4">
         <f t="shared" si="0"/>
         <v>0.7786669558479522</v>
       </c>
-      <c r="U37" s="4">
+      <c r="W37" s="4">
         <f t="shared" si="1"/>
         <v>0.2213330441520478</v>
       </c>
-      <c r="V37" s="4"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X37" s="4"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3477,39 +3748,46 @@
         <f t="shared" si="3"/>
         <v>0.33082829687011095</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38">
+        <v>2854857</v>
+      </c>
+      <c r="M38" s="13">
+        <f t="shared" si="4"/>
+        <v>0.65253009217249236</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>13224558</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>4607503</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>8153501</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>462832</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>722</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>4375058</v>
       </c>
-      <c r="S38" s="3"/>
-      <c r="T38" s="4">
+      <c r="U38" s="3"/>
+      <c r="V38" s="4">
         <f t="shared" si="0"/>
         <v>0.66917170312988905</v>
       </c>
-      <c r="U38" s="4">
+      <c r="W38" s="4">
         <f t="shared" si="1"/>
         <v>0.33082829687011095</v>
       </c>
-      <c r="V38" s="4"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3539,39 +3817,46 @@
         <f t="shared" si="3"/>
         <v>0.43120211744944126</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39">
+        <v>4120374</v>
+      </c>
+      <c r="M39" s="13">
+        <f t="shared" si="4"/>
+        <v>0.69847407438548337</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M39" s="2">
+      <c r="O39" s="2">
         <v>13680610</v>
       </c>
-      <c r="N39" s="2">
+      <c r="P39" s="2">
         <v>6324658</v>
       </c>
-      <c r="O39" s="2">
+      <c r="Q39" s="2">
         <v>6791062</v>
       </c>
-      <c r="P39" s="2">
+      <c r="R39" s="2">
         <v>564168</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="S39" s="2">
         <v>722</v>
       </c>
-      <c r="R39" s="2">
+      <c r="T39" s="2">
         <v>5899108</v>
       </c>
-      <c r="S39" s="3"/>
-      <c r="T39" s="4">
+      <c r="U39" s="3"/>
+      <c r="V39" s="4">
         <f t="shared" si="0"/>
         <v>0.56879788255055874</v>
       </c>
-      <c r="U39" s="4">
+      <c r="W39" s="4">
         <f t="shared" si="1"/>
         <v>0.43120211744944126</v>
       </c>
-      <c r="V39" s="4"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3601,39 +3886,46 @@
         <f t="shared" si="3"/>
         <v>0.27493128127832756</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40">
+        <v>2887605</v>
+      </c>
+      <c r="M40" s="13">
+        <f t="shared" si="4"/>
+        <v>0.70597463864581023</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M40" s="2">
+      <c r="O40" s="2">
         <v>14877314</v>
       </c>
-      <c r="N40" s="2">
+      <c r="P40" s="2">
         <v>4637854</v>
       </c>
-      <c r="O40" s="2">
+      <c r="Q40" s="2">
         <v>9719315</v>
       </c>
-      <c r="P40" s="2">
+      <c r="R40" s="2">
         <v>519343</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="S40" s="2">
         <v>802</v>
       </c>
-      <c r="R40" s="2">
+      <c r="T40" s="2">
         <v>4090239</v>
       </c>
-      <c r="S40" s="3"/>
-      <c r="T40" s="4">
+      <c r="U40" s="3"/>
+      <c r="V40" s="4">
         <f t="shared" si="0"/>
         <v>0.72506871872167244</v>
       </c>
-      <c r="U40" s="4">
+      <c r="W40" s="4">
         <f t="shared" si="1"/>
         <v>0.27493128127832756</v>
       </c>
-      <c r="V40" s="4"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3663,39 +3955,46 @@
         <f t="shared" si="3"/>
         <v>0.26387914021122971</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41">
+        <v>1450814</v>
+      </c>
+      <c r="M41" s="13">
+        <f t="shared" si="4"/>
+        <v>0.69072665094597885</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M41" s="2">
+      <c r="O41" s="2">
         <v>7959769</v>
       </c>
-      <c r="N41" s="2">
+      <c r="P41" s="2">
         <v>2528904</v>
       </c>
-      <c r="O41" s="2">
+      <c r="Q41" s="2">
         <v>5132666</v>
       </c>
-      <c r="P41" s="2">
+      <c r="R41" s="2">
         <v>297749</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="S41" s="2">
         <v>450</v>
       </c>
-      <c r="R41" s="2">
+      <c r="T41" s="2">
         <v>2100417</v>
       </c>
-      <c r="S41" s="3"/>
-      <c r="T41" s="4">
+      <c r="U41" s="3"/>
+      <c r="V41" s="4">
         <f t="shared" si="0"/>
         <v>0.73612085978877029</v>
       </c>
-      <c r="U41" s="4">
+      <c r="W41" s="4">
         <f t="shared" si="1"/>
         <v>0.26387914021122971</v>
       </c>
-      <c r="V41" s="4"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3725,39 +4024,46 @@
         <f t="shared" si="3"/>
         <v>0.25607347735539576</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42">
+        <v>1451523</v>
+      </c>
+      <c r="M42" s="13">
+        <f t="shared" si="4"/>
+        <v>0.70192177963728897</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M42" s="2">
+      <c r="O42" s="2">
         <v>8075522</v>
       </c>
-      <c r="N42" s="2">
+      <c r="P42" s="2">
         <v>2292116</v>
       </c>
-      <c r="O42" s="2">
+      <c r="Q42" s="2">
         <v>5498615</v>
       </c>
-      <c r="P42" s="2">
+      <c r="R42" s="2">
         <v>284357</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="S42" s="2">
         <v>434</v>
       </c>
-      <c r="R42" s="2">
+      <c r="T42" s="2">
         <v>2067927</v>
       </c>
-      <c r="S42" s="3"/>
-      <c r="T42" s="4">
+      <c r="U42" s="3"/>
+      <c r="V42" s="4">
         <f t="shared" si="0"/>
         <v>0.74392652264460424</v>
       </c>
-      <c r="U42" s="4">
+      <c r="W42" s="4">
         <f t="shared" si="1"/>
         <v>0.25607347735539576</v>
       </c>
-      <c r="V42" s="4"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X42" s="4"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3787,39 +4093,46 @@
         <f t="shared" si="3"/>
         <v>0.24262789097203397</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43">
+        <v>2125336</v>
+      </c>
+      <c r="M43" s="13">
+        <f t="shared" si="4"/>
+        <v>0.65242587311478728</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M43" s="2">
+      <c r="O43" s="2">
         <v>13426280</v>
       </c>
-      <c r="N43" s="2">
+      <c r="P43" s="2">
         <v>3682840</v>
       </c>
-      <c r="O43" s="2">
+      <c r="Q43" s="2">
         <v>9220692</v>
       </c>
-      <c r="P43" s="2">
+      <c r="R43" s="2">
         <v>522040</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="S43" s="2">
         <v>708</v>
       </c>
-      <c r="R43" s="2">
+      <c r="T43" s="2">
         <v>3257590</v>
       </c>
-      <c r="S43" s="3"/>
-      <c r="T43" s="4">
+      <c r="U43" s="3"/>
+      <c r="V43" s="4">
         <f t="shared" si="0"/>
         <v>0.75737210902796603</v>
       </c>
-      <c r="U43" s="4">
+      <c r="W43" s="4">
         <f t="shared" si="1"/>
         <v>0.24262789097203397</v>
       </c>
-      <c r="V43" s="4"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X43" s="4"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3849,39 +4162,46 @@
         <f t="shared" si="3"/>
         <v>0.39860531195604687</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44">
+        <v>3053592</v>
+      </c>
+      <c r="M44" s="13">
+        <f t="shared" si="4"/>
+        <v>0.74816700319079266</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M44" s="2">
+      <c r="O44" s="2">
         <v>10239279</v>
       </c>
-      <c r="N44" s="2">
+      <c r="P44" s="2">
         <v>4216042</v>
       </c>
-      <c r="O44" s="2">
+      <c r="Q44" s="2">
         <v>5669925</v>
       </c>
-      <c r="P44" s="2">
+      <c r="R44" s="2">
         <v>352830</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="S44" s="2">
         <v>482</v>
       </c>
-      <c r="R44" s="2">
+      <c r="T44" s="2">
         <v>4081431</v>
       </c>
-      <c r="S44" s="3"/>
-      <c r="T44" s="4">
+      <c r="U44" s="3"/>
+      <c r="V44" s="4">
         <f t="shared" si="0"/>
         <v>0.60139468804395313</v>
       </c>
-      <c r="U44" s="4">
+      <c r="W44" s="4">
         <f t="shared" si="1"/>
         <v>0.39860531195604687</v>
       </c>
-      <c r="V44" s="4"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X44" s="4"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3911,39 +4231,46 @@
         <f t="shared" si="3"/>
         <v>0.38372672368754368</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45">
+        <v>4474876</v>
+      </c>
+      <c r="M45" s="13">
+        <f t="shared" si="4"/>
+        <v>0.70943260782128714</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M45" s="2">
+      <c r="O45" s="2">
         <v>16437956</v>
       </c>
-      <c r="N45" s="2">
+      <c r="P45" s="2">
         <v>6523961</v>
       </c>
-      <c r="O45" s="2">
+      <c r="Q45" s="2">
         <v>9338883</v>
       </c>
-      <c r="P45" s="2">
+      <c r="R45" s="2">
         <v>574233</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="S45" s="2">
         <v>879</v>
       </c>
-      <c r="R45" s="2">
+      <c r="T45" s="2">
         <v>6307683</v>
       </c>
-      <c r="S45" s="3"/>
-      <c r="T45" s="4">
+      <c r="U45" s="3"/>
+      <c r="V45" s="4">
         <f t="shared" si="0"/>
         <v>0.61627327631245632</v>
       </c>
-      <c r="U45" s="4">
+      <c r="W45" s="4">
         <f t="shared" si="1"/>
         <v>0.38372672368754368</v>
       </c>
-      <c r="V45" s="4"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X45" s="4"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3973,39 +4300,46 @@
         <f t="shared" si="3"/>
         <v>0.29625305322143847</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46">
+        <v>2960681</v>
+      </c>
+      <c r="M46" s="13">
+        <f t="shared" si="4"/>
+        <v>0.72312475331486203</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M46" s="2">
+      <c r="O46" s="2">
         <v>13820239</v>
       </c>
-      <c r="N46" s="2">
+      <c r="P46" s="2">
         <v>4320178</v>
       </c>
-      <c r="O46" s="2">
+      <c r="Q46" s="2">
         <v>9019904</v>
       </c>
-      <c r="P46" s="2">
+      <c r="R46" s="2">
         <v>479400</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="S46" s="2">
         <v>757</v>
       </c>
-      <c r="R46" s="2">
+      <c r="T46" s="2">
         <v>4094288</v>
       </c>
-      <c r="S46" s="3"/>
-      <c r="T46" s="4">
+      <c r="U46" s="3"/>
+      <c r="V46" s="4">
         <f t="shared" si="0"/>
         <v>0.70374694677856153</v>
       </c>
-      <c r="U46" s="4">
+      <c r="W46" s="4">
         <f t="shared" si="1"/>
         <v>0.29625305322143847</v>
       </c>
-      <c r="V46" s="4"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X46" s="4"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4035,39 +4369,46 @@
         <f t="shared" si="3"/>
         <v>0.23623042714982612</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47">
+        <v>1325141</v>
+      </c>
+      <c r="M47" s="13">
+        <f t="shared" si="4"/>
+        <v>0.69911609473624237</v>
+      </c>
+      <c r="N47" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M47" s="2">
+      <c r="O47" s="2">
         <v>8023742</v>
       </c>
-      <c r="N47" s="2">
+      <c r="P47" s="2">
         <v>2190255</v>
       </c>
-      <c r="O47" s="2">
+      <c r="Q47" s="2">
         <v>5563753</v>
       </c>
-      <c r="P47" s="2">
+      <c r="R47" s="2">
         <v>269304</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="S47" s="2">
         <v>430</v>
       </c>
-      <c r="R47" s="2">
+      <c r="T47" s="2">
         <v>1895452</v>
       </c>
-      <c r="S47" s="3"/>
-      <c r="T47" s="4">
+      <c r="U47" s="3"/>
+      <c r="V47" s="4">
         <f t="shared" si="0"/>
         <v>0.76376957285017388</v>
       </c>
-      <c r="U47" s="4">
+      <c r="W47" s="4">
         <f t="shared" si="1"/>
         <v>0.23623042714982612</v>
       </c>
-      <c r="V47" s="4"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X47" s="4"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4097,39 +4438,46 @@
         <f t="shared" si="3"/>
         <v>0.23019415426116407</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48">
+        <v>1452828</v>
+      </c>
+      <c r="M48" s="13">
+        <f t="shared" si="4"/>
+        <v>0.70421878446075803</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M48" s="2">
+      <c r="O48" s="2">
         <v>8962152</v>
       </c>
-      <c r="N48" s="2">
+      <c r="P48" s="2">
         <v>2660566</v>
       </c>
-      <c r="O48" s="2">
+      <c r="Q48" s="2">
         <v>5984736</v>
       </c>
-      <c r="P48" s="2">
+      <c r="R48" s="2">
         <v>316382</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="S48" s="2">
         <v>468</v>
       </c>
-      <c r="R48" s="2">
+      <c r="T48" s="2">
         <v>2063035</v>
       </c>
-      <c r="S48" s="3"/>
-      <c r="T48" s="4">
+      <c r="U48" s="3"/>
+      <c r="V48" s="4">
         <f t="shared" si="0"/>
         <v>0.76980584573883593</v>
       </c>
-      <c r="U48" s="4">
+      <c r="W48" s="4">
         <f t="shared" si="1"/>
         <v>0.23019415426116407</v>
       </c>
-      <c r="V48" s="4"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X48" s="4"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -4159,39 +4507,46 @@
         <f t="shared" si="3"/>
         <v>0.37872068197124842</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49">
+        <v>2524166</v>
+      </c>
+      <c r="M49" s="13">
+        <f t="shared" si="4"/>
+        <v>0.68177695475340694</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="M49" s="2">
+      <c r="O49" s="2">
         <v>9775896</v>
       </c>
-      <c r="N49" s="2">
+      <c r="P49" s="2">
         <v>3869276</v>
       </c>
-      <c r="O49" s="2">
+      <c r="Q49" s="2">
         <v>5571692</v>
       </c>
-      <c r="P49" s="2">
+      <c r="R49" s="2">
         <v>334379</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="S49" s="2">
         <v>549</v>
       </c>
-      <c r="R49" s="2">
+      <c r="T49" s="2">
         <v>3702334</v>
       </c>
-      <c r="S49" s="3"/>
-      <c r="T49" s="4">
+      <c r="U49" s="3"/>
+      <c r="V49" s="4">
         <f t="shared" si="0"/>
         <v>0.62127931802875158</v>
       </c>
-      <c r="U49" s="4">
+      <c r="W49" s="4">
         <f t="shared" si="1"/>
         <v>0.37872068197124842</v>
       </c>
-      <c r="V49" s="4"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X49" s="4"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -4221,39 +4576,40 @@
         <f>1-I50</f>
         <v>7.1750560694787135E-2</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="12"/>
+      <c r="N50" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M50" s="2">
+      <c r="O50" s="2">
         <v>12246859</v>
       </c>
-      <c r="N50" s="2">
+      <c r="P50" s="2">
         <v>924742</v>
       </c>
-      <c r="O50" s="2">
+      <c r="Q50" s="2">
         <v>10921243</v>
       </c>
-      <c r="P50" s="2">
+      <c r="R50" s="2">
         <v>400260</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="S50" s="2">
         <v>614</v>
       </c>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2">
+      <c r="T50" s="2"/>
+      <c r="U50" s="2">
         <v>878719</v>
       </c>
-      <c r="T50" s="4">
-        <f t="shared" ref="T50:T97" si="4">(M50-S50)/M50</f>
+      <c r="V50" s="4">
+        <f t="shared" ref="V50:V97" si="5">(O50-U50)/O50</f>
         <v>0.92824943930521286</v>
       </c>
-      <c r="U50" s="3"/>
-      <c r="V50" s="4">
-        <f t="shared" ref="V50:V97" si="5">1-T50</f>
+      <c r="W50" s="3"/>
+      <c r="X50" s="4">
+        <f t="shared" ref="X50:X97" si="6">1-V50</f>
         <v>7.1750560694787135E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4276,46 +4632,47 @@
         <v>247332</v>
       </c>
       <c r="I51" s="11">
-        <f t="shared" ref="I51:I97" si="6">(B51-H51)/B51</f>
+        <f t="shared" ref="I51:I97" si="7">(B51-H51)/B51</f>
         <v>0.90540317778191692</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" ref="K51:K97" si="7">1-I51</f>
+        <f>1-I51</f>
         <v>9.4596822218083076E-2</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="12"/>
+      <c r="N51" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M51" s="2">
+      <c r="O51" s="2">
         <v>2614591</v>
       </c>
-      <c r="N51" s="2">
+      <c r="P51" s="2">
         <v>257659</v>
       </c>
-      <c r="O51" s="2">
+      <c r="Q51" s="2">
         <v>2259312</v>
       </c>
-      <c r="P51" s="2">
+      <c r="R51" s="2">
         <v>97493</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="S51" s="2">
         <v>127</v>
       </c>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2">
+      <c r="T51" s="2"/>
+      <c r="U51" s="2">
         <v>247332</v>
       </c>
-      <c r="T51" s="4">
-        <f t="shared" si="4"/>
-        <v>0.90540317778191692</v>
-      </c>
-      <c r="U51" s="3"/>
       <c r="V51" s="4">
         <f t="shared" si="5"/>
+        <v>0.90540317778191692</v>
+      </c>
+      <c r="W51" s="3"/>
+      <c r="X51" s="4">
+        <f t="shared" si="6"/>
         <v>9.4596822218083076E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4338,46 +4695,47 @@
         <v>722109</v>
       </c>
       <c r="I52" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92396247345801119</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I52</f>
         <v>7.6037526541988809E-2</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" s="12"/>
+      <c r="N52" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M52" s="2">
+      <c r="O52" s="2">
         <v>9496745</v>
       </c>
-      <c r="N52" s="2">
+      <c r="P52" s="2">
         <v>764810</v>
       </c>
-      <c r="O52" s="2">
+      <c r="Q52" s="2">
         <v>8421210</v>
       </c>
-      <c r="P52" s="2">
+      <c r="R52" s="2">
         <v>310229</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="S52" s="2">
         <v>496</v>
       </c>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2">
+      <c r="T52" s="2"/>
+      <c r="U52" s="2">
         <v>722109</v>
       </c>
-      <c r="T52" s="4">
-        <f t="shared" si="4"/>
-        <v>0.92396247345801119</v>
-      </c>
-      <c r="U52" s="3"/>
       <c r="V52" s="4">
         <f t="shared" si="5"/>
+        <v>0.92396247345801119</v>
+      </c>
+      <c r="W52" s="3"/>
+      <c r="X52" s="4">
+        <f t="shared" si="6"/>
         <v>7.6037526541988809E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -4400,46 +4758,47 @@
         <v>932937</v>
       </c>
       <c r="I53" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91429256504397971</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I53</f>
         <v>8.570743495602029E-2</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="12"/>
+      <c r="N53" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M53" s="2">
+      <c r="O53" s="2">
         <v>10885135</v>
       </c>
-      <c r="N53" s="2">
+      <c r="P53" s="2">
         <v>968776</v>
       </c>
-      <c r="O53" s="2">
+      <c r="Q53" s="2">
         <v>9540161</v>
       </c>
-      <c r="P53" s="2">
+      <c r="R53" s="2">
         <v>375635</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="S53" s="2">
         <v>563</v>
       </c>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2">
+      <c r="T53" s="2"/>
+      <c r="U53" s="2">
         <v>932937</v>
       </c>
-      <c r="T53" s="4">
-        <f t="shared" si="4"/>
-        <v>0.91429256504397971</v>
-      </c>
-      <c r="U53" s="3"/>
       <c r="V53" s="4">
         <f t="shared" si="5"/>
+        <v>0.91429256504397971</v>
+      </c>
+      <c r="W53" s="3"/>
+      <c r="X53" s="4">
+        <f t="shared" si="6"/>
         <v>8.570743495602029E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4462,46 +4821,47 @@
         <v>32362</v>
       </c>
       <c r="I54" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91753875006051711</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I54</f>
         <v>8.2461249939482895E-2</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" s="12"/>
+      <c r="N54" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M54" s="2">
+      <c r="O54" s="2">
         <v>392451</v>
       </c>
-      <c r="N54" s="2">
+      <c r="P54" s="2">
         <v>33126</v>
       </c>
-      <c r="O54" s="2">
+      <c r="Q54" s="2">
         <v>288471</v>
       </c>
-      <c r="P54" s="2">
+      <c r="R54" s="2">
         <v>70836</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="S54" s="2">
         <v>18</v>
       </c>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2">
+      <c r="T54" s="2"/>
+      <c r="U54" s="2">
         <v>32362</v>
       </c>
-      <c r="T54" s="4">
-        <f t="shared" si="4"/>
-        <v>0.91753875006051711</v>
-      </c>
-      <c r="U54" s="3"/>
       <c r="V54" s="4">
         <f t="shared" si="5"/>
+        <v>0.91753875006051711</v>
+      </c>
+      <c r="W54" s="3"/>
+      <c r="X54" s="4">
+        <f t="shared" si="6"/>
         <v>8.2461249939482895E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -4524,46 +4884,47 @@
         <v>323633</v>
       </c>
       <c r="I55" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9113934343644523</v>
       </c>
       <c r="K55" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I55</f>
         <v>8.8606565635547696E-2</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="12"/>
+      <c r="N55" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="M55" s="2">
+      <c r="O55" s="2">
         <v>3652472</v>
       </c>
-      <c r="N55" s="2">
+      <c r="P55" s="2">
         <v>342828</v>
       </c>
-      <c r="O55" s="2">
+      <c r="Q55" s="2">
         <v>3176775</v>
       </c>
-      <c r="P55" s="2">
+      <c r="R55" s="2">
         <v>132696</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="S55" s="2">
         <v>173</v>
       </c>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2">
+      <c r="T55" s="2"/>
+      <c r="U55" s="2">
         <v>323633</v>
       </c>
-      <c r="T55" s="4">
-        <f t="shared" si="4"/>
-        <v>0.9113934343644523</v>
-      </c>
-      <c r="U55" s="3"/>
       <c r="V55" s="4">
         <f t="shared" si="5"/>
+        <v>0.9113934343644523</v>
+      </c>
+      <c r="W55" s="3"/>
+      <c r="X55" s="4">
+        <f t="shared" si="6"/>
         <v>8.8606565635547696E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -4586,46 +4947,47 @@
         <v>331781</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91423647479834858</v>
       </c>
       <c r="K56" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I56</f>
         <v>8.5763525201651425E-2</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="12"/>
+      <c r="N56" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M56" s="2">
+      <c r="O56" s="2">
         <v>3868556</v>
       </c>
-      <c r="N56" s="2">
+      <c r="P56" s="2">
         <v>353105</v>
       </c>
-      <c r="O56" s="2">
+      <c r="Q56" s="2">
         <v>3378719</v>
       </c>
-      <c r="P56" s="2">
+      <c r="R56" s="2">
         <v>136538</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="S56" s="2">
         <v>194</v>
       </c>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2">
+      <c r="T56" s="2"/>
+      <c r="U56" s="2">
         <v>331781</v>
       </c>
-      <c r="T56" s="4">
-        <f t="shared" si="4"/>
-        <v>0.91423647479834858</v>
-      </c>
-      <c r="U56" s="3"/>
       <c r="V56" s="4">
         <f t="shared" si="5"/>
+        <v>0.91423647479834858</v>
+      </c>
+      <c r="W56" s="3"/>
+      <c r="X56" s="4">
+        <f t="shared" si="6"/>
         <v>8.5763525201651425E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -4648,46 +5010,47 @@
         <v>1134644</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93255312543152047</v>
       </c>
       <c r="K57" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I57</f>
         <v>6.7446874568479531E-2</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" s="12"/>
+      <c r="N57" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M57" s="2">
+      <c r="O57" s="2">
         <v>16822781</v>
       </c>
-      <c r="N57" s="2">
+      <c r="P57" s="2">
         <v>1197896</v>
       </c>
-      <c r="O57" s="2">
+      <c r="Q57" s="2">
         <v>15072945</v>
       </c>
-      <c r="P57" s="2">
+      <c r="R57" s="2">
         <v>551056</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="S57" s="2">
         <v>884</v>
       </c>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2">
+      <c r="T57" s="2"/>
+      <c r="U57" s="2">
         <v>1134644</v>
       </c>
-      <c r="T57" s="4">
-        <f t="shared" si="4"/>
-        <v>0.93255312543152047</v>
-      </c>
-      <c r="U57" s="3"/>
       <c r="V57" s="4">
         <f t="shared" si="5"/>
+        <v>0.93255312543152047</v>
+      </c>
+      <c r="W57" s="3"/>
+      <c r="X57" s="4">
+        <f t="shared" si="6"/>
         <v>6.7446874568479531E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -4710,46 +5073,47 @@
         <v>1280204</v>
       </c>
       <c r="I58" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93398667516796552</v>
       </c>
       <c r="K58" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I58</f>
         <v>6.6013324832034481E-2</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" s="12"/>
+      <c r="N58" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M58" s="2">
+      <c r="O58" s="2">
         <v>19393115</v>
       </c>
-      <c r="N58" s="2">
+      <c r="P58" s="2">
         <v>1338064</v>
       </c>
-      <c r="O58" s="2">
+      <c r="Q58" s="2">
         <v>17405133</v>
       </c>
-      <c r="P58" s="2">
+      <c r="R58" s="2">
         <v>648902</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="S58" s="2">
         <v>1016</v>
       </c>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2">
+      <c r="T58" s="2"/>
+      <c r="U58" s="2">
         <v>1280204</v>
       </c>
-      <c r="T58" s="4">
-        <f t="shared" si="4"/>
-        <v>0.93398667516796552</v>
-      </c>
-      <c r="U58" s="3"/>
       <c r="V58" s="4">
         <f t="shared" si="5"/>
+        <v>0.93398667516796552</v>
+      </c>
+      <c r="W58" s="3"/>
+      <c r="X58" s="4">
+        <f t="shared" si="6"/>
         <v>6.6013324832034481E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -4772,46 +5136,47 @@
         <v>1569381</v>
       </c>
       <c r="I59" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.89983668216066137</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I59</f>
         <v>0.10016331783933863</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" s="12"/>
+      <c r="N59" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M59" s="2">
+      <c r="O59" s="2">
         <v>15668221</v>
       </c>
-      <c r="N59" s="2">
+      <c r="P59" s="2">
         <v>1633394</v>
       </c>
-      <c r="O59" s="2">
+      <c r="Q59" s="2">
         <v>13470069</v>
       </c>
-      <c r="P59" s="2">
+      <c r="R59" s="2">
         <v>563910</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="S59" s="2">
         <v>848</v>
       </c>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2">
+      <c r="T59" s="2"/>
+      <c r="U59" s="2">
         <v>1569381</v>
       </c>
-      <c r="T59" s="4">
-        <f t="shared" si="4"/>
-        <v>0.89983668216066137</v>
-      </c>
-      <c r="U59" s="3"/>
       <c r="V59" s="4">
         <f t="shared" si="5"/>
+        <v>0.89983668216066137</v>
+      </c>
+      <c r="W59" s="3"/>
+      <c r="X59" s="4">
+        <f t="shared" si="6"/>
         <v>0.10016331783933863</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -4834,46 +5199,47 @@
         <v>1106458</v>
       </c>
       <c r="I60" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92672564995623574</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I60</f>
         <v>7.3274350043764258E-2</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L60" s="12"/>
+      <c r="N60" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M60" s="2">
+      <c r="O60" s="2">
         <v>15100209</v>
       </c>
-      <c r="N60" s="2">
+      <c r="P60" s="2">
         <v>1156714</v>
       </c>
-      <c r="O60" s="2">
+      <c r="Q60" s="2">
         <v>13440005</v>
       </c>
-      <c r="P60" s="2">
+      <c r="R60" s="2">
         <v>502718</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="S60" s="2">
         <v>772</v>
       </c>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2">
+      <c r="T60" s="2"/>
+      <c r="U60" s="2">
         <v>1106458</v>
       </c>
-      <c r="T60" s="4">
-        <f t="shared" si="4"/>
-        <v>0.92672564995623574</v>
-      </c>
-      <c r="U60" s="3"/>
       <c r="V60" s="4">
         <f t="shared" si="5"/>
+        <v>0.92672564995623574</v>
+      </c>
+      <c r="W60" s="3"/>
+      <c r="X60" s="4">
+        <f t="shared" si="6"/>
         <v>7.3274350043764258E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4896,46 +5262,47 @@
         <v>1815660</v>
       </c>
       <c r="I61" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.90225754672934555</v>
       </c>
       <c r="K61" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I61</f>
         <v>9.774245327065445E-2</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L61" s="12"/>
+      <c r="N61" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M61" s="2">
+      <c r="O61" s="2">
         <v>18575961</v>
       </c>
-      <c r="N61" s="2">
+      <c r="P61" s="2">
         <v>1888566</v>
       </c>
-      <c r="O61" s="2">
+      <c r="Q61" s="2">
         <v>16008509</v>
       </c>
-      <c r="P61" s="2">
+      <c r="R61" s="2">
         <v>677967</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="S61" s="2">
         <v>919</v>
       </c>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2">
+      <c r="T61" s="2"/>
+      <c r="U61" s="2">
         <v>1815660</v>
       </c>
-      <c r="T61" s="4">
-        <f t="shared" si="4"/>
-        <v>0.90225754672934555</v>
-      </c>
-      <c r="U61" s="3"/>
       <c r="V61" s="4">
         <f t="shared" si="5"/>
+        <v>0.90225754672934555</v>
+      </c>
+      <c r="W61" s="3"/>
+      <c r="X61" s="4">
+        <f t="shared" si="6"/>
         <v>9.774245327065445E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4958,46 +5325,47 @@
         <v>926886</v>
       </c>
       <c r="I62" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92094980385976155</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I62</f>
         <v>7.9050196140238449E-2</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L62" s="12"/>
+      <c r="N62" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M62" s="2">
+      <c r="O62" s="2">
         <v>11725284</v>
       </c>
-      <c r="N62" s="2">
+      <c r="P62" s="2">
         <v>970009</v>
       </c>
-      <c r="O62" s="2">
+      <c r="Q62" s="2">
         <v>10343542</v>
       </c>
-      <c r="P62" s="2">
+      <c r="R62" s="2">
         <v>411115</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="S62" s="2">
         <v>618</v>
       </c>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2">
+      <c r="T62" s="2"/>
+      <c r="U62" s="2">
         <v>926886</v>
       </c>
-      <c r="T62" s="4">
-        <f t="shared" si="4"/>
-        <v>0.92094980385976155</v>
-      </c>
-      <c r="U62" s="3"/>
       <c r="V62" s="4">
         <f t="shared" si="5"/>
+        <v>0.92094980385976155</v>
+      </c>
+      <c r="W62" s="3"/>
+      <c r="X62" s="4">
+        <f t="shared" si="6"/>
         <v>7.9050196140238449E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -5020,46 +5388,47 @@
         <v>268472</v>
       </c>
       <c r="I63" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9105097509544956</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I63</f>
         <v>8.94902490455044E-2</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L63" s="12"/>
+      <c r="N63" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M63" s="2">
+      <c r="O63" s="2">
         <v>3000014</v>
       </c>
-      <c r="N63" s="2">
+      <c r="P63" s="2">
         <v>277347</v>
       </c>
-      <c r="O63" s="2">
+      <c r="Q63" s="2">
         <v>2588482</v>
       </c>
-      <c r="P63" s="2">
+      <c r="R63" s="2">
         <v>134046</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="S63" s="2">
         <v>139</v>
       </c>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2">
+      <c r="T63" s="2"/>
+      <c r="U63" s="2">
         <v>268472</v>
       </c>
-      <c r="T63" s="4">
-        <f t="shared" si="4"/>
-        <v>0.9105097509544956</v>
-      </c>
-      <c r="U63" s="3"/>
       <c r="V63" s="4">
         <f t="shared" si="5"/>
+        <v>0.9105097509544956</v>
+      </c>
+      <c r="W63" s="3"/>
+      <c r="X63" s="4">
+        <f t="shared" si="6"/>
         <v>8.94902490455044E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -5082,46 +5451,47 @@
         <v>584418</v>
       </c>
       <c r="I64" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93623498843394615</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I64</f>
         <v>6.3765011566053853E-2</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L64" s="12"/>
+      <c r="N64" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="M64" s="2">
+      <c r="O64" s="2">
         <v>9165183</v>
       </c>
-      <c r="N64" s="2">
+      <c r="P64" s="2">
         <v>634267</v>
       </c>
-      <c r="O64" s="2">
+      <c r="Q64" s="2">
         <v>8211463</v>
       </c>
-      <c r="P64" s="2">
+      <c r="R64" s="2">
         <v>318974</v>
       </c>
-      <c r="Q64" s="2">
+      <c r="S64" s="2">
         <v>479</v>
       </c>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2">
+      <c r="T64" s="2"/>
+      <c r="U64" s="2">
         <v>584418</v>
       </c>
-      <c r="T64" s="4">
-        <f t="shared" si="4"/>
-        <v>0.93623498843394615</v>
-      </c>
-      <c r="U64" s="3"/>
       <c r="V64" s="4">
         <f t="shared" si="5"/>
+        <v>0.93623498843394615</v>
+      </c>
+      <c r="W64" s="3"/>
+      <c r="X64" s="4">
+        <f t="shared" si="6"/>
         <v>6.3765011566053853E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -5144,46 +5514,47 @@
         <v>249021</v>
       </c>
       <c r="I65" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.85733478010784347</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I65</f>
         <v>0.14266521989215653</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L65" s="12"/>
+      <c r="N65" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="M65" s="2">
+      <c r="O65" s="2">
         <v>1745492</v>
       </c>
-      <c r="N65" s="2">
+      <c r="P65" s="2">
         <v>256966</v>
       </c>
-      <c r="O65" s="2">
+      <c r="Q65" s="2">
         <v>1395643</v>
       </c>
-      <c r="P65" s="2">
+      <c r="R65" s="2">
         <v>92777</v>
       </c>
-      <c r="Q65" s="2">
+      <c r="S65" s="2">
         <v>106</v>
       </c>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2">
+      <c r="T65" s="2"/>
+      <c r="U65" s="2">
         <v>249021</v>
       </c>
-      <c r="T65" s="4">
-        <f t="shared" si="4"/>
-        <v>0.85733478010784347</v>
-      </c>
-      <c r="U65" s="3"/>
       <c r="V65" s="4">
         <f t="shared" si="5"/>
+        <v>0.85733478010784347</v>
+      </c>
+      <c r="W65" s="3"/>
+      <c r="X65" s="4">
+        <f t="shared" si="6"/>
         <v>0.14266521989215653</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -5206,46 +5577,47 @@
         <v>696053</v>
       </c>
       <c r="I66" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9403255388360714</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I66</f>
         <v>5.9674461163928605E-2</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L66" s="12"/>
+      <c r="N66" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="M66" s="2">
+      <c r="O66" s="2">
         <v>11664169</v>
       </c>
-      <c r="N66" s="2">
+      <c r="P66" s="2">
         <v>746693</v>
       </c>
-      <c r="O66" s="2">
+      <c r="Q66" s="2">
         <v>10508892</v>
       </c>
-      <c r="P66" s="2">
+      <c r="R66" s="2">
         <v>407958</v>
       </c>
-      <c r="Q66" s="2">
+      <c r="S66" s="2">
         <v>626</v>
       </c>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2">
+      <c r="T66" s="2"/>
+      <c r="U66" s="2">
         <v>696053</v>
       </c>
-      <c r="T66" s="4">
-        <f t="shared" si="4"/>
-        <v>0.9403255388360714</v>
-      </c>
-      <c r="U66" s="3"/>
       <c r="V66" s="4">
         <f t="shared" si="5"/>
+        <v>0.9403255388360714</v>
+      </c>
+      <c r="W66" s="3"/>
+      <c r="X66" s="4">
+        <f t="shared" si="6"/>
         <v>5.9674461163928605E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -5268,46 +5640,47 @@
         <v>739708</v>
       </c>
       <c r="I67" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9293425200118407</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I67</f>
         <v>7.06574799881593E-2</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L67" s="12"/>
+      <c r="N67" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="M67" s="2">
+      <c r="O67" s="2">
         <v>10468927</v>
       </c>
-      <c r="N67" s="2">
+      <c r="P67" s="2">
         <v>779412</v>
       </c>
-      <c r="O67" s="2">
+      <c r="Q67" s="2">
         <v>9330163</v>
       </c>
-      <c r="P67" s="2">
+      <c r="R67" s="2">
         <v>358764</v>
       </c>
-      <c r="Q67" s="2">
+      <c r="S67" s="2">
         <v>588</v>
       </c>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2">
+      <c r="T67" s="2"/>
+      <c r="U67" s="2">
         <v>739708</v>
       </c>
-      <c r="T67" s="4">
-        <f t="shared" si="4"/>
-        <v>0.9293425200118407</v>
-      </c>
-      <c r="U67" s="3"/>
       <c r="V67" s="4">
         <f t="shared" si="5"/>
+        <v>0.9293425200118407</v>
+      </c>
+      <c r="W67" s="3"/>
+      <c r="X67" s="4">
+        <f t="shared" si="6"/>
         <v>7.06574799881593E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -5330,46 +5703,47 @@
         <v>1490072</v>
       </c>
       <c r="I68" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92982797193141487</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I68</f>
         <v>7.0172028068585135E-2</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L68" s="12"/>
+      <c r="N68" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="M68" s="2">
+      <c r="O68" s="2">
         <v>21234558</v>
       </c>
-      <c r="N68" s="2">
+      <c r="P68" s="2">
         <v>1551940</v>
       </c>
-      <c r="O68" s="2">
+      <c r="Q68" s="2">
         <v>18886514</v>
       </c>
-      <c r="P68" s="2">
+      <c r="R68" s="2">
         <v>795030</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="S68" s="2">
         <v>1074</v>
       </c>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2">
+      <c r="T68" s="2"/>
+      <c r="U68" s="2">
         <v>1490072</v>
       </c>
-      <c r="T68" s="4">
-        <f t="shared" si="4"/>
-        <v>0.92982797193141487</v>
-      </c>
-      <c r="U68" s="3"/>
       <c r="V68" s="4">
         <f t="shared" si="5"/>
+        <v>0.92982797193141487</v>
+      </c>
+      <c r="W68" s="3"/>
+      <c r="X68" s="4">
+        <f t="shared" si="6"/>
         <v>7.0172028068585135E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -5392,46 +5766,47 @@
         <v>252430</v>
       </c>
       <c r="I69" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.90888421332276459</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I69</f>
         <v>9.1115786677235411E-2</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L69" s="12"/>
+      <c r="N69" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="M69" s="2">
+      <c r="O69" s="2">
         <v>2770431</v>
       </c>
-      <c r="N69" s="2">
+      <c r="P69" s="2">
         <v>271063</v>
       </c>
-      <c r="O69" s="2">
+      <c r="Q69" s="2">
         <v>2400041</v>
       </c>
-      <c r="P69" s="2">
+      <c r="R69" s="2">
         <v>99187</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="S69" s="2">
         <v>140</v>
       </c>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2">
+      <c r="T69" s="2"/>
+      <c r="U69" s="2">
         <v>252430</v>
       </c>
-      <c r="T69" s="4">
-        <f t="shared" si="4"/>
-        <v>0.90888421332276459</v>
-      </c>
-      <c r="U69" s="3"/>
       <c r="V69" s="4">
         <f t="shared" si="5"/>
+        <v>0.90888421332276459</v>
+      </c>
+      <c r="W69" s="3"/>
+      <c r="X69" s="4">
+        <f t="shared" si="6"/>
         <v>9.1115786677235411E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -5454,46 +5829,47 @@
         <v>152308</v>
       </c>
       <c r="I70" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.87713708135630952</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I70</f>
         <v>0.12286291864369048</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L70" s="12"/>
+      <c r="N70" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M70" s="2">
+      <c r="O70" s="2">
         <v>1239658</v>
       </c>
-      <c r="N70" s="2">
+      <c r="P70" s="2">
         <v>160033</v>
       </c>
-      <c r="O70" s="2">
+      <c r="Q70" s="2">
         <v>1034687</v>
       </c>
-      <c r="P70" s="2">
+      <c r="R70" s="2">
         <v>44868</v>
       </c>
-      <c r="Q70" s="2">
+      <c r="S70" s="2">
         <v>70</v>
       </c>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2">
+      <c r="T70" s="2"/>
+      <c r="U70" s="2">
         <v>152308</v>
       </c>
-      <c r="T70" s="4">
-        <f t="shared" si="4"/>
-        <v>0.87713708135630952</v>
-      </c>
-      <c r="U70" s="3"/>
       <c r="V70" s="4">
         <f t="shared" si="5"/>
+        <v>0.87713708135630952</v>
+      </c>
+      <c r="W70" s="3"/>
+      <c r="X70" s="4">
+        <f t="shared" si="6"/>
         <v>0.12286291864369048</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -5516,46 +5892,47 @@
         <v>120008</v>
       </c>
       <c r="I71" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.88578955082121358</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I71</f>
         <v>0.11421044917878642</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L71" s="12"/>
+      <c r="N71" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M71" s="2">
+      <c r="O71" s="2">
         <v>1050762</v>
       </c>
-      <c r="N71" s="2">
+      <c r="P71" s="2">
         <v>126983</v>
       </c>
-      <c r="O71" s="2">
+      <c r="Q71" s="2">
         <v>885374</v>
       </c>
-      <c r="P71" s="2">
+      <c r="R71" s="2">
         <v>38348</v>
       </c>
-      <c r="Q71" s="2">
+      <c r="S71" s="2">
         <v>57</v>
       </c>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2">
+      <c r="T71" s="2"/>
+      <c r="U71" s="2">
         <v>120008</v>
       </c>
-      <c r="T71" s="4">
-        <f t="shared" si="4"/>
-        <v>0.88578955082121358</v>
-      </c>
-      <c r="U71" s="3"/>
       <c r="V71" s="4">
         <f t="shared" si="5"/>
+        <v>0.88578955082121358</v>
+      </c>
+      <c r="W71" s="3"/>
+      <c r="X71" s="4">
+        <f t="shared" si="6"/>
         <v>0.11421044917878642</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -5578,46 +5955,47 @@
         <v>96812</v>
       </c>
       <c r="I72" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.85402952218687334</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I72</f>
         <v>0.14597047781312666</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L72" s="12"/>
+      <c r="N72" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M72" s="2">
+      <c r="O72" s="2">
         <v>663230</v>
       </c>
-      <c r="N72" s="2">
+      <c r="P72" s="2">
         <v>101517</v>
       </c>
-      <c r="O72" s="2">
+      <c r="Q72" s="2">
         <v>538236</v>
       </c>
-      <c r="P72" s="2">
+      <c r="R72" s="2">
         <v>23442</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="S72" s="2">
         <v>35</v>
       </c>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2">
+      <c r="T72" s="2"/>
+      <c r="U72" s="2">
         <v>96812</v>
       </c>
-      <c r="T72" s="4">
-        <f t="shared" si="4"/>
-        <v>0.85402952218687334</v>
-      </c>
-      <c r="U72" s="3"/>
       <c r="V72" s="4">
         <f t="shared" si="5"/>
+        <v>0.85402952218687334</v>
+      </c>
+      <c r="W72" s="3"/>
+      <c r="X72" s="4">
+        <f t="shared" si="6"/>
         <v>0.14597047781312666</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -5640,46 +6018,47 @@
         <v>352621</v>
       </c>
       <c r="I73" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91749224108239236</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I73</f>
         <v>8.2507758917607643E-2</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L73" s="12"/>
+      <c r="N73" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M73" s="2">
+      <c r="O73" s="2">
         <v>4273792</v>
       </c>
-      <c r="N73" s="2">
+      <c r="P73" s="2">
         <v>377002</v>
       </c>
-      <c r="O73" s="2">
+      <c r="Q73" s="2">
         <v>3742461</v>
       </c>
-      <c r="P73" s="2">
+      <c r="R73" s="2">
         <v>154091</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="S73" s="2">
         <v>238</v>
       </c>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2">
+      <c r="T73" s="2"/>
+      <c r="U73" s="2">
         <v>352621</v>
       </c>
-      <c r="T73" s="4">
-        <f t="shared" si="4"/>
-        <v>0.91749224108239236</v>
-      </c>
-      <c r="U73" s="3"/>
       <c r="V73" s="4">
         <f t="shared" si="5"/>
+        <v>0.91749224108239236</v>
+      </c>
+      <c r="W73" s="3"/>
+      <c r="X73" s="4">
+        <f t="shared" si="6"/>
         <v>8.2507758917607643E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -5702,46 +6081,47 @@
         <v>237661</v>
       </c>
       <c r="I74" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.84259140899502261</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I74</f>
         <v>0.15740859100497739</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L74" s="12"/>
+      <c r="N74" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="M74" s="2">
+      <c r="O74" s="2">
         <v>1509835</v>
       </c>
-      <c r="N74" s="2">
+      <c r="P74" s="2">
         <v>249436</v>
       </c>
-      <c r="O74" s="2">
+      <c r="Q74" s="2">
         <v>1205021</v>
       </c>
-      <c r="P74" s="2">
+      <c r="R74" s="2">
         <v>55307</v>
       </c>
-      <c r="Q74" s="2">
+      <c r="S74" s="2">
         <v>71</v>
       </c>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2">
+      <c r="T74" s="2"/>
+      <c r="U74" s="2">
         <v>237661</v>
       </c>
-      <c r="T74" s="4">
-        <f t="shared" si="4"/>
-        <v>0.84259140899502261</v>
-      </c>
-      <c r="U74" s="3"/>
       <c r="V74" s="4">
         <f t="shared" si="5"/>
+        <v>0.84259140899502261</v>
+      </c>
+      <c r="W74" s="3"/>
+      <c r="X74" s="4">
+        <f t="shared" si="6"/>
         <v>0.15740859100497739</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -5764,46 +6144,47 @@
         <v>1267014</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91573648062635504</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I75</f>
         <v>8.4263519373644957E-2</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L75" s="12"/>
+      <c r="N75" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M75" s="2">
+      <c r="O75" s="2">
         <v>15036329</v>
       </c>
-      <c r="N75" s="2">
+      <c r="P75" s="2">
         <v>1326357</v>
       </c>
-      <c r="O75" s="2">
+      <c r="Q75" s="2">
         <v>13214498</v>
       </c>
-      <c r="P75" s="2">
+      <c r="R75" s="2">
         <v>494667</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="S75" s="2">
         <v>807</v>
       </c>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2">
+      <c r="T75" s="2"/>
+      <c r="U75" s="2">
         <v>1267014</v>
       </c>
-      <c r="T75" s="4">
-        <f t="shared" si="4"/>
-        <v>0.91573648062635504</v>
-      </c>
-      <c r="U75" s="3"/>
       <c r="V75" s="4">
         <f t="shared" si="5"/>
+        <v>0.91573648062635504</v>
+      </c>
+      <c r="W75" s="3"/>
+      <c r="X75" s="4">
+        <f t="shared" si="6"/>
         <v>8.4263519373644957E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -5826,46 +6207,47 @@
         <v>1387034</v>
       </c>
       <c r="I76" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91789761485691179</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I76</f>
         <v>8.2102385143088208E-2</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="L76" s="12"/>
+      <c r="N76" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M76" s="2">
+      <c r="O76" s="2">
         <v>16893955</v>
       </c>
-      <c r="N76" s="2">
+      <c r="P76" s="2">
         <v>1431626</v>
       </c>
-      <c r="O76" s="2">
+      <c r="Q76" s="2">
         <v>14737975</v>
       </c>
-      <c r="P76" s="2">
+      <c r="R76" s="2">
         <v>723527</v>
       </c>
-      <c r="Q76" s="2">
+      <c r="S76" s="2">
         <v>827</v>
       </c>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2">
+      <c r="T76" s="2"/>
+      <c r="U76" s="2">
         <v>1387034</v>
       </c>
-      <c r="T76" s="4">
-        <f t="shared" si="4"/>
-        <v>0.91789761485691179</v>
-      </c>
-      <c r="U76" s="3"/>
       <c r="V76" s="4">
         <f t="shared" si="5"/>
+        <v>0.91789761485691179</v>
+      </c>
+      <c r="W76" s="3"/>
+      <c r="X76" s="4">
+        <f t="shared" si="6"/>
         <v>8.2102385143088208E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -5888,46 +6270,47 @@
         <v>340281</v>
       </c>
       <c r="I77" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91098433074555241</v>
       </c>
       <c r="K77" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I77</f>
         <v>8.9015669254447594E-2</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="L77" s="12"/>
+      <c r="N77" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M77" s="2">
+      <c r="O77" s="2">
         <v>3822709</v>
       </c>
-      <c r="N77" s="2">
+      <c r="P77" s="2">
         <v>353006</v>
       </c>
-      <c r="O77" s="2">
+      <c r="Q77" s="2">
         <v>3317244</v>
       </c>
-      <c r="P77" s="2">
+      <c r="R77" s="2">
         <v>152240</v>
       </c>
-      <c r="Q77" s="2">
+      <c r="S77" s="2">
         <v>219</v>
       </c>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2">
+      <c r="T77" s="2"/>
+      <c r="U77" s="2">
         <v>340281</v>
       </c>
-      <c r="T77" s="4">
-        <f t="shared" si="4"/>
-        <v>0.91098433074555241</v>
-      </c>
-      <c r="U77" s="3"/>
       <c r="V77" s="4">
         <f t="shared" si="5"/>
+        <v>0.91098433074555241</v>
+      </c>
+      <c r="W77" s="3"/>
+      <c r="X77" s="4">
+        <f t="shared" si="6"/>
         <v>8.9015669254447594E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -5950,46 +6333,47 @@
         <v>699061</v>
       </c>
       <c r="I78" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92669524987870122</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I78</f>
         <v>7.3304750121298778E-2</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="L78" s="12"/>
+      <c r="N78" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="M78" s="2">
+      <c r="O78" s="2">
         <v>9536367</v>
       </c>
-      <c r="N78" s="2">
+      <c r="P78" s="2">
         <v>730858</v>
       </c>
-      <c r="O78" s="2">
+      <c r="Q78" s="2">
         <v>8488198</v>
       </c>
-      <c r="P78" s="2">
+      <c r="R78" s="2">
         <v>316791</v>
       </c>
-      <c r="Q78" s="2">
+      <c r="S78" s="2">
         <v>520</v>
       </c>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2">
+      <c r="T78" s="2"/>
+      <c r="U78" s="2">
         <v>699061</v>
       </c>
-      <c r="T78" s="4">
-        <f t="shared" si="4"/>
-        <v>0.92669524987870122</v>
-      </c>
-      <c r="U78" s="3"/>
       <c r="V78" s="4">
         <f t="shared" si="5"/>
+        <v>0.92669524987870122</v>
+      </c>
+      <c r="W78" s="3"/>
+      <c r="X78" s="4">
+        <f t="shared" si="6"/>
         <v>7.3304750121298778E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -6012,46 +6396,47 @@
         <v>309035</v>
       </c>
       <c r="I79" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91769292497667565</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I79</f>
         <v>8.230707502332435E-2</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="L79" s="12"/>
+      <c r="N79" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M79" s="2">
+      <c r="O79" s="2">
         <v>3754659</v>
       </c>
-      <c r="N79" s="2">
+      <c r="P79" s="2">
         <v>330001</v>
       </c>
-      <c r="O79" s="2">
+      <c r="Q79" s="2">
         <v>3294889</v>
       </c>
-      <c r="P79" s="2">
+      <c r="R79" s="2">
         <v>129556</v>
       </c>
-      <c r="Q79" s="2">
+      <c r="S79" s="2">
         <v>213</v>
       </c>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2">
+      <c r="T79" s="2"/>
+      <c r="U79" s="2">
         <v>309035</v>
       </c>
-      <c r="T79" s="4">
-        <f t="shared" si="4"/>
-        <v>0.91769292497667565</v>
-      </c>
-      <c r="U79" s="3"/>
       <c r="V79" s="4">
         <f t="shared" si="5"/>
+        <v>0.91769292497667565</v>
+      </c>
+      <c r="W79" s="3"/>
+      <c r="X79" s="4">
+        <f t="shared" si="6"/>
         <v>8.230707502332435E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -6074,46 +6459,47 @@
         <v>645429</v>
       </c>
       <c r="I80" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93546205006076033</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I80</f>
         <v>6.4537949939239669E-2</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="L80" s="12"/>
+      <c r="N80" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>10000767</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>690092</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>8962063</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>348090</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>522</v>
       </c>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2">
+      <c r="T80" s="2"/>
+      <c r="U80" s="2">
         <v>645429</v>
       </c>
-      <c r="T80" s="4">
-        <f t="shared" si="4"/>
-        <v>0.93546205006076033</v>
-      </c>
-      <c r="U80" s="3"/>
       <c r="V80" s="4">
         <f t="shared" si="5"/>
+        <v>0.93546205006076033</v>
+      </c>
+      <c r="W80" s="3"/>
+      <c r="X80" s="4">
+        <f t="shared" si="6"/>
         <v>6.4537949939239669E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -6136,46 +6522,47 @@
         <v>796681</v>
       </c>
       <c r="I81" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92734552027985639</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I81</f>
         <v>7.2654479720143605E-2</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L81" s="12"/>
+      <c r="N81" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="M81" s="2">
+      <c r="O81" s="2">
         <v>10965339</v>
       </c>
-      <c r="N81" s="2">
+      <c r="P81" s="2">
         <v>847478</v>
       </c>
-      <c r="O81" s="2">
+      <c r="Q81" s="2">
         <v>9740913</v>
       </c>
-      <c r="P81" s="2">
+      <c r="R81" s="2">
         <v>376370</v>
       </c>
-      <c r="Q81" s="2">
+      <c r="S81" s="2">
         <v>578</v>
       </c>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2">
+      <c r="T81" s="2"/>
+      <c r="U81" s="2">
         <v>796681</v>
       </c>
-      <c r="T81" s="4">
-        <f t="shared" si="4"/>
-        <v>0.92734552027985639</v>
-      </c>
-      <c r="U81" s="3"/>
       <c r="V81" s="4">
         <f t="shared" si="5"/>
+        <v>0.92734552027985639</v>
+      </c>
+      <c r="W81" s="3"/>
+      <c r="X81" s="4">
+        <f t="shared" si="6"/>
         <v>7.2654479720143605E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -6198,46 +6585,47 @@
         <v>624347</v>
       </c>
       <c r="I82" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9387768930420759</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I82</f>
         <v>6.1223106957924101E-2</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L82" s="12"/>
+      <c r="N82" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="M82" s="2">
+      <c r="O82" s="2">
         <v>10197898</v>
       </c>
-      <c r="N82" s="2">
+      <c r="P82" s="2">
         <v>674198</v>
       </c>
-      <c r="O82" s="2">
+      <c r="Q82" s="2">
         <v>9175831</v>
       </c>
-      <c r="P82" s="2">
+      <c r="R82" s="2">
         <v>347389</v>
       </c>
-      <c r="Q82" s="2">
+      <c r="S82" s="2">
         <v>480</v>
       </c>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2">
+      <c r="T82" s="2"/>
+      <c r="U82" s="2">
         <v>624347</v>
       </c>
-      <c r="T82" s="4">
-        <f t="shared" si="4"/>
-        <v>0.9387768930420759</v>
-      </c>
-      <c r="U82" s="3"/>
       <c r="V82" s="4">
         <f t="shared" si="5"/>
+        <v>0.9387768930420759</v>
+      </c>
+      <c r="W82" s="3"/>
+      <c r="X82" s="4">
+        <f t="shared" si="6"/>
         <v>6.1223106957924101E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -6260,46 +6648,47 @@
         <v>304607</v>
       </c>
       <c r="I83" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.90681407203663478</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I83</f>
         <v>9.3185927963365223E-2</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L83" s="12"/>
+      <c r="N83" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="M83" s="2">
+      <c r="O83" s="2">
         <v>3268809</v>
       </c>
-      <c r="N83" s="2">
+      <c r="P83" s="2">
         <v>320059</v>
       </c>
-      <c r="O83" s="2">
+      <c r="Q83" s="2">
         <v>2835336</v>
       </c>
-      <c r="P83" s="2">
+      <c r="R83" s="2">
         <v>113283</v>
       </c>
-      <c r="Q83" s="2">
+      <c r="S83" s="2">
         <v>131</v>
       </c>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2">
+      <c r="T83" s="2"/>
+      <c r="U83" s="2">
         <v>304607</v>
       </c>
-      <c r="T83" s="4">
-        <f t="shared" si="4"/>
-        <v>0.90681407203663478</v>
-      </c>
-      <c r="U83" s="3"/>
       <c r="V83" s="4">
         <f t="shared" si="5"/>
+        <v>0.90681407203663478</v>
+      </c>
+      <c r="W83" s="3"/>
+      <c r="X83" s="4">
+        <f t="shared" si="6"/>
         <v>9.3185927963365223E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -6322,46 +6711,47 @@
         <v>793940</v>
       </c>
       <c r="I84" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91833939560003275</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I84</f>
         <v>8.1660604399967252E-2</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L84" s="12"/>
+      <c r="N84" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M84" s="2">
+      <c r="O84" s="2">
         <v>9722436</v>
       </c>
-      <c r="N84" s="2">
+      <c r="P84" s="2">
         <v>836293</v>
       </c>
-      <c r="O84" s="2">
+      <c r="Q84" s="2">
         <v>8564364</v>
       </c>
-      <c r="P84" s="2">
+      <c r="R84" s="2">
         <v>321270</v>
       </c>
-      <c r="Q84" s="2">
+      <c r="S84" s="2">
         <v>509</v>
       </c>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2">
+      <c r="T84" s="2"/>
+      <c r="U84" s="2">
         <v>793940</v>
       </c>
-      <c r="T84" s="4">
-        <f t="shared" si="4"/>
-        <v>0.91833939560003275</v>
-      </c>
-      <c r="U84" s="3"/>
       <c r="V84" s="4">
         <f t="shared" si="5"/>
+        <v>0.91833939560003275</v>
+      </c>
+      <c r="W84" s="3"/>
+      <c r="X84" s="4">
+        <f t="shared" si="6"/>
         <v>8.1660604399967252E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -6384,46 +6774,47 @@
         <v>1211234</v>
       </c>
       <c r="I85" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92740718845240933</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I85</f>
         <v>7.2592811547590674E-2</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="L85" s="12"/>
+      <c r="N85" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M85" s="2">
+      <c r="O85" s="2">
         <v>16685316</v>
       </c>
-      <c r="N85" s="2">
+      <c r="P85" s="2">
         <v>1267722</v>
       </c>
-      <c r="O85" s="2">
+      <c r="Q85" s="2">
         <v>14858184</v>
       </c>
-      <c r="P85" s="2">
+      <c r="R85" s="2">
         <v>558507</v>
       </c>
-      <c r="Q85" s="2">
+      <c r="S85" s="2">
         <v>903</v>
       </c>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2">
+      <c r="T85" s="2"/>
+      <c r="U85" s="2">
         <v>1211234</v>
       </c>
-      <c r="T85" s="4">
-        <f t="shared" si="4"/>
-        <v>0.92740718845240933</v>
-      </c>
-      <c r="U85" s="3"/>
       <c r="V85" s="4">
         <f t="shared" si="5"/>
+        <v>0.92740718845240933</v>
+      </c>
+      <c r="W85" s="3"/>
+      <c r="X85" s="4">
+        <f t="shared" si="6"/>
         <v>7.2592811547590674E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -6446,46 +6837,47 @@
         <v>1560066</v>
       </c>
       <c r="I86" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.90327207428539225</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I86</f>
         <v>9.6727925714607754E-2</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="L86" s="12"/>
+      <c r="N86" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M86" s="2">
+      <c r="O86" s="2">
         <v>16128393</v>
       </c>
-      <c r="N86" s="2">
+      <c r="P86" s="2">
         <v>1631974</v>
       </c>
-      <c r="O86" s="2">
+      <c r="Q86" s="2">
         <v>13926474</v>
       </c>
-      <c r="P86" s="2">
+      <c r="R86" s="2">
         <v>569081</v>
       </c>
-      <c r="Q86" s="2">
+      <c r="S86" s="2">
         <v>864</v>
       </c>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2">
+      <c r="T86" s="2"/>
+      <c r="U86" s="2">
         <v>1560066</v>
       </c>
-      <c r="T86" s="4">
-        <f t="shared" si="4"/>
-        <v>0.90327207428539225</v>
-      </c>
-      <c r="U86" s="3"/>
       <c r="V86" s="4">
         <f t="shared" si="5"/>
+        <v>0.90327207428539225</v>
+      </c>
+      <c r="W86" s="3"/>
+      <c r="X86" s="4">
+        <f t="shared" si="6"/>
         <v>9.6727925714607754E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -6508,46 +6900,47 @@
         <v>675378</v>
       </c>
       <c r="I87" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93940467324157251</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I87</f>
         <v>6.0595326758427492E-2</v>
       </c>
-      <c r="L87" s="2" t="s">
+      <c r="L87" s="12"/>
+      <c r="N87" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="M87" s="2">
+      <c r="O87" s="2">
         <v>11145711</v>
       </c>
-      <c r="N87" s="2">
+      <c r="P87" s="2">
         <v>708792</v>
       </c>
-      <c r="O87" s="2">
+      <c r="Q87" s="2">
         <v>10078638</v>
       </c>
-      <c r="P87" s="2">
+      <c r="R87" s="2">
         <v>357706</v>
       </c>
-      <c r="Q87" s="2">
+      <c r="S87" s="2">
         <v>575</v>
       </c>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2">
+      <c r="T87" s="2"/>
+      <c r="U87" s="2">
         <v>675378</v>
       </c>
-      <c r="T87" s="4">
-        <f t="shared" si="4"/>
-        <v>0.93940467324157251</v>
-      </c>
-      <c r="U87" s="3"/>
       <c r="V87" s="4">
         <f t="shared" si="5"/>
+        <v>0.93940467324157251</v>
+      </c>
+      <c r="W87" s="3"/>
+      <c r="X87" s="4">
+        <f t="shared" si="6"/>
         <v>6.0595326758427492E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -6570,46 +6963,47 @@
         <v>96980</v>
       </c>
       <c r="I88" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.79527126873548659</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I88</f>
         <v>0.20472873126451341</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="L88" s="12"/>
+      <c r="N88" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="M88" s="2">
+      <c r="O88" s="2">
         <v>473700</v>
       </c>
-      <c r="N88" s="2">
+      <c r="P88" s="2">
         <v>100968</v>
       </c>
-      <c r="O88" s="2">
+      <c r="Q88" s="2">
         <v>355840</v>
       </c>
-      <c r="P88" s="2">
+      <c r="R88" s="2">
         <v>16870</v>
       </c>
-      <c r="Q88" s="2">
+      <c r="S88" s="2">
         <v>22</v>
       </c>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2">
+      <c r="T88" s="2"/>
+      <c r="U88" s="2">
         <v>96980</v>
       </c>
-      <c r="T88" s="4">
-        <f t="shared" si="4"/>
-        <v>0.79527126873548659</v>
-      </c>
-      <c r="U88" s="3"/>
       <c r="V88" s="4">
         <f t="shared" si="5"/>
+        <v>0.79527126873548659</v>
+      </c>
+      <c r="W88" s="3"/>
+      <c r="X88" s="4">
+        <f t="shared" si="6"/>
         <v>0.20472873126451341</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -6632,46 +7026,47 @@
         <v>771746</v>
       </c>
       <c r="I89" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92862876630287416</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I89</f>
         <v>7.1371233697125835E-2</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="L89" s="12"/>
+      <c r="N89" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="M89" s="2">
+      <c r="O89" s="2">
         <v>10813124</v>
       </c>
-      <c r="N89" s="2">
+      <c r="P89" s="2">
         <v>814116</v>
       </c>
-      <c r="O89" s="2">
+      <c r="Q89" s="2">
         <v>9642685</v>
       </c>
-      <c r="P89" s="2">
+      <c r="R89" s="2">
         <v>355737</v>
       </c>
-      <c r="Q89" s="2">
+      <c r="S89" s="2">
         <v>586</v>
       </c>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2">
+      <c r="T89" s="2"/>
+      <c r="U89" s="2">
         <v>771746</v>
       </c>
-      <c r="T89" s="4">
-        <f t="shared" si="4"/>
-        <v>0.92862876630287416</v>
-      </c>
-      <c r="U89" s="3"/>
       <c r="V89" s="4">
         <f t="shared" si="5"/>
+        <v>0.92862876630287416</v>
+      </c>
+      <c r="W89" s="3"/>
+      <c r="X89" s="4">
+        <f t="shared" si="6"/>
         <v>7.1371233697125835E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -6694,46 +7089,47 @@
         <v>1496213</v>
       </c>
       <c r="I90" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92750812231921798</v>
       </c>
       <c r="K90" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I90</f>
         <v>7.2491877680782024E-2</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="L90" s="12"/>
+      <c r="N90" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="M90" s="2">
+      <c r="O90" s="2">
         <v>20639733</v>
       </c>
-      <c r="N90" s="2">
+      <c r="P90" s="2">
         <v>1551107</v>
       </c>
-      <c r="O90" s="2">
+      <c r="Q90" s="2">
         <v>18240983</v>
       </c>
-      <c r="P90" s="2">
+      <c r="R90" s="2">
         <v>846578</v>
       </c>
-      <c r="Q90" s="2">
+      <c r="S90" s="2">
         <v>1065</v>
       </c>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2">
+      <c r="T90" s="2"/>
+      <c r="U90" s="2">
         <v>1496213</v>
       </c>
-      <c r="T90" s="4">
-        <f t="shared" si="4"/>
-        <v>0.92750812231921798</v>
-      </c>
-      <c r="U90" s="3"/>
       <c r="V90" s="4">
         <f t="shared" si="5"/>
+        <v>0.92750812231921798</v>
+      </c>
+      <c r="W90" s="3"/>
+      <c r="X90" s="4">
+        <f t="shared" si="6"/>
         <v>7.2491877680782024E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -6756,46 +7152,47 @@
         <v>215349</v>
       </c>
       <c r="I91" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92705888967770955</v>
       </c>
       <c r="K91" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I91</f>
         <v>7.2941110322290448E-2</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="L91" s="12"/>
+      <c r="N91" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M91" s="2">
+      <c r="O91" s="2">
         <v>2952368</v>
       </c>
-      <c r="N91" s="2">
+      <c r="P91" s="2">
         <v>221956</v>
       </c>
-      <c r="O91" s="2">
+      <c r="Q91" s="2">
         <v>2488418</v>
       </c>
-      <c r="P91" s="2">
+      <c r="R91" s="2">
         <v>241856</v>
       </c>
-      <c r="Q91" s="2">
+      <c r="S91" s="2">
         <v>138</v>
       </c>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2">
+      <c r="T91" s="2"/>
+      <c r="U91" s="2">
         <v>215349</v>
       </c>
-      <c r="T91" s="4">
-        <f t="shared" si="4"/>
-        <v>0.92705888967770955</v>
-      </c>
-      <c r="U91" s="3"/>
       <c r="V91" s="4">
         <f t="shared" si="5"/>
+        <v>0.92705888967770955</v>
+      </c>
+      <c r="W91" s="3"/>
+      <c r="X91" s="4">
+        <f t="shared" si="6"/>
         <v>7.2941110322290448E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -6818,46 +7215,47 @@
         <v>2029638</v>
       </c>
       <c r="I92" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.89953066512117597</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I92</f>
         <v>0.10046933487882403</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="L92" s="12"/>
+      <c r="N92" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="M92" s="2">
+      <c r="O92" s="2">
         <v>20201567</v>
       </c>
-      <c r="N92" s="2">
+      <c r="P92" s="2">
         <v>2104007</v>
       </c>
-      <c r="O92" s="2">
+      <c r="Q92" s="2">
         <v>17412413</v>
       </c>
-      <c r="P92" s="2">
+      <c r="R92" s="2">
         <v>684066</v>
       </c>
-      <c r="Q92" s="2">
+      <c r="S92" s="2">
         <v>1081</v>
       </c>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2">
+      <c r="T92" s="2"/>
+      <c r="U92" s="2">
         <v>2029638</v>
       </c>
-      <c r="T92" s="4">
-        <f t="shared" si="4"/>
-        <v>0.89953066512117597</v>
-      </c>
-      <c r="U92" s="3"/>
       <c r="V92" s="4">
         <f t="shared" si="5"/>
+        <v>0.89953066512117597</v>
+      </c>
+      <c r="W92" s="3"/>
+      <c r="X92" s="4">
+        <f t="shared" si="6"/>
         <v>0.10046933487882403</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -6880,46 +7278,47 @@
         <v>2543327</v>
       </c>
       <c r="I93" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.89138087130382104</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I93</f>
         <v>0.10861912869617896</v>
       </c>
-      <c r="L93" s="2" t="s">
+      <c r="L93" s="12"/>
+      <c r="N93" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M93" s="2">
+      <c r="O93" s="2">
         <v>23415093</v>
       </c>
-      <c r="N93" s="2">
+      <c r="P93" s="2">
         <v>2634952</v>
       </c>
-      <c r="O93" s="2">
+      <c r="Q93" s="2">
         <v>19970386</v>
       </c>
-      <c r="P93" s="2">
+      <c r="R93" s="2">
         <v>808520</v>
       </c>
-      <c r="Q93" s="2">
+      <c r="S93" s="2">
         <v>1235</v>
       </c>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2">
+      <c r="T93" s="2"/>
+      <c r="U93" s="2">
         <v>2543327</v>
       </c>
-      <c r="T93" s="4">
-        <f t="shared" si="4"/>
-        <v>0.89138087130382104</v>
-      </c>
-      <c r="U93" s="3"/>
       <c r="V93" s="4">
         <f t="shared" si="5"/>
+        <v>0.89138087130382104</v>
+      </c>
+      <c r="W93" s="3"/>
+      <c r="X93" s="4">
+        <f t="shared" si="6"/>
         <v>0.10861912869617896</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -6942,46 +7341,47 @@
         <v>1454733</v>
       </c>
       <c r="I94" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93904181283952193</v>
       </c>
       <c r="K94" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I94</f>
         <v>6.0958187160478072E-2</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="L94" s="12"/>
+      <c r="N94" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M94" s="2">
+      <c r="O94" s="2">
         <v>23864440</v>
       </c>
-      <c r="N94" s="2">
+      <c r="P94" s="2">
         <v>1516455</v>
       </c>
-      <c r="O94" s="2">
+      <c r="Q94" s="2">
         <v>21456770</v>
       </c>
-      <c r="P94" s="2">
+      <c r="R94" s="2">
         <v>890012</v>
       </c>
-      <c r="Q94" s="2">
+      <c r="S94" s="2">
         <v>1203</v>
       </c>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2">
+      <c r="T94" s="2"/>
+      <c r="U94" s="2">
         <v>1454733</v>
       </c>
-      <c r="T94" s="4">
-        <f t="shared" si="4"/>
-        <v>0.93904181283952193</v>
-      </c>
-      <c r="U94" s="3"/>
       <c r="V94" s="4">
         <f t="shared" si="5"/>
+        <v>0.93904181283952193</v>
+      </c>
+      <c r="W94" s="3"/>
+      <c r="X94" s="4">
+        <f t="shared" si="6"/>
         <v>6.0958187160478072E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -7004,46 +7404,47 @@
         <v>48765</v>
       </c>
       <c r="I95" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.90378335717456715</v>
       </c>
       <c r="K95" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I95</f>
         <v>9.6216642825432852E-2</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="L95" s="12"/>
+      <c r="N95" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M95" s="2">
+      <c r="O95" s="2">
         <v>506825</v>
       </c>
-      <c r="N95" s="2">
+      <c r="P95" s="2">
         <v>49810</v>
       </c>
-      <c r="O95" s="2">
+      <c r="Q95" s="2">
         <v>408840</v>
       </c>
-      <c r="P95" s="2">
+      <c r="R95" s="2">
         <v>48153</v>
       </c>
-      <c r="Q95" s="2">
+      <c r="S95" s="2">
         <v>22</v>
       </c>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2">
+      <c r="T95" s="2"/>
+      <c r="U95" s="2">
         <v>48765</v>
       </c>
-      <c r="T95" s="4">
-        <f t="shared" si="4"/>
-        <v>0.90378335717456715</v>
-      </c>
-      <c r="U95" s="3"/>
       <c r="V95" s="4">
         <f t="shared" si="5"/>
+        <v>0.90378335717456715</v>
+      </c>
+      <c r="W95" s="3"/>
+      <c r="X95" s="4">
+        <f t="shared" si="6"/>
         <v>9.6216642825432852E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -7066,46 +7467,47 @@
         <v>287005</v>
       </c>
       <c r="I96" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9187602980850692</v>
       </c>
       <c r="K96" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I96</f>
         <v>8.1239701914930795E-2</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="L96" s="12"/>
+      <c r="N96" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M96" s="2">
+      <c r="O96" s="2">
         <v>3532817</v>
       </c>
-      <c r="N96" s="2">
+      <c r="P96" s="2">
         <v>306970</v>
       </c>
-      <c r="O96" s="2">
+      <c r="Q96" s="2">
         <v>3101002</v>
       </c>
-      <c r="P96" s="2">
+      <c r="R96" s="2">
         <v>124673</v>
       </c>
-      <c r="Q96" s="2">
+      <c r="S96" s="2">
         <v>172</v>
       </c>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2">
+      <c r="T96" s="2"/>
+      <c r="U96" s="2">
         <v>287005</v>
       </c>
-      <c r="T96" s="4">
-        <f t="shared" si="4"/>
-        <v>0.9187602980850692</v>
-      </c>
-      <c r="U96" s="3"/>
       <c r="V96" s="4">
         <f t="shared" si="5"/>
+        <v>0.9187602980850692</v>
+      </c>
+      <c r="W96" s="3"/>
+      <c r="X96" s="4">
+        <f t="shared" si="6"/>
         <v>8.1239701914930795E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -7128,46 +7530,47 @@
         <v>1032853</v>
       </c>
       <c r="I97" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93236111574070835</v>
       </c>
       <c r="K97" s="12">
-        <f t="shared" si="7"/>
+        <f>1-I97</f>
         <v>6.7638884259291654E-2</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="L97" s="12"/>
+      <c r="N97" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M97" s="2">
+      <c r="O97" s="2">
         <v>15270107</v>
       </c>
-      <c r="N97" s="2">
+      <c r="P97" s="2">
         <v>1083782</v>
       </c>
-      <c r="O97" s="2">
+      <c r="Q97" s="2">
         <v>13654681</v>
       </c>
-      <c r="P97" s="2">
+      <c r="R97" s="2">
         <v>530848</v>
       </c>
-      <c r="Q97" s="2">
+      <c r="S97" s="2">
         <v>796</v>
       </c>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2">
+      <c r="T97" s="2"/>
+      <c r="U97" s="2">
         <v>1032853</v>
       </c>
-      <c r="T97" s="4">
-        <f t="shared" si="4"/>
-        <v>0.93236111574070835</v>
-      </c>
-      <c r="U97" s="3"/>
       <c r="V97" s="4">
         <f t="shared" si="5"/>
+        <v>0.93236111574070835</v>
+      </c>
+      <c r="W97" s="3"/>
+      <c r="X97" s="4">
+        <f t="shared" si="6"/>
         <v>6.7638884259291654E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B98" s="5">
         <f t="shared" ref="B98" si="8">SUM(B2:B97)</f>
         <v>1030054588</v>
@@ -7200,37 +7603,39 @@
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
-      <c r="M98" s="5">
-        <f t="shared" ref="M98:T98" si="10">SUM(M2:M97)</f>
+      <c r="M98" s="16"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5">
+        <f t="shared" ref="O98:U98" si="10">SUM(O2:O97)</f>
         <v>1030054588</v>
       </c>
-      <c r="N98" s="5">
+      <c r="P98" s="5">
         <f t="shared" si="10"/>
         <v>228782525</v>
       </c>
-      <c r="O98" s="5">
+      <c r="Q98" s="5">
         <f t="shared" si="10"/>
         <v>764441711</v>
       </c>
-      <c r="P98" s="5">
+      <c r="R98" s="5">
         <f t="shared" si="10"/>
         <v>36775808</v>
       </c>
-      <c r="Q98" s="5">
+      <c r="S98" s="5">
         <f t="shared" si="10"/>
         <v>54544</v>
       </c>
-      <c r="R98" s="5">
+      <c r="T98" s="5">
         <f t="shared" si="10"/>
         <v>173669378</v>
       </c>
-      <c r="S98" s="5">
+      <c r="U98" s="5">
         <f t="shared" si="10"/>
         <v>37132406</v>
       </c>
-      <c r="T98" s="6"/>
-      <c r="U98" s="6"/>
       <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gene_expression/bioinformatics_pipeline/readcounts_allsteps_checkagainstMS.xlsx
+++ b/gene_expression/bioinformatics_pipeline/readcounts_allsteps_checkagainstMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_temperaturevariability2023/gene_expression/bioinformatics_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{BD0676A9-DCF1-D347-8A65-AC01AF31CE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00BE452B-7980-BE4D-9804-5DF8A5C4516A}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{BD0676A9-DCF1-D347-8A65-AC01AF31CE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2BDBA03-3DE7-544B-A00A-1B751A9E2A1F}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="13600" windowHeight="16240" xr2:uid="{E30E7334-B642-5E4F-95D2-E511D28C5524}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28780" windowHeight="16240" xr2:uid="{E30E7334-B642-5E4F-95D2-E511D28C5524}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="216">
   <si>
     <t>Acer-005_S23_L001_R1_001.fastq.gz</t>
   </si>
@@ -681,6 +681,9 @@
   </si>
   <si>
     <t>Percent Acer aligned</t>
+  </si>
+  <si>
+    <t>Percent aligned Acer (Michael)</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -821,6 +824,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,6 +841,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1136,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D52EED-0510-8B4B-BB21-FD44FEE4B903}">
-  <dimension ref="A1:X98"/>
+  <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="132" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="132" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,9 +1166,10 @@
     <col min="13" max="13" width="10.83203125" style="15" customWidth="1"/>
     <col min="14" max="14" width="28.1640625" customWidth="1"/>
     <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>96</v>
       </c>
@@ -1233,8 +1242,11 @@
       <c r="X1" s="7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1302,8 +1314,11 @@
         <v>0.35714683878674613</v>
       </c>
       <c r="X2" s="4"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y2" s="13">
+        <v>0.87182737083663597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1371,8 +1386,11 @@
         <v>0.36682707473384824</v>
       </c>
       <c r="X3" s="4"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y3" s="13">
+        <v>0.86705720973780842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1440,8 +1458,11 @@
         <v>0.32740004807955747</v>
       </c>
       <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y4" s="13">
+        <v>0.87438124535790918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1472,11 +1493,11 @@
         <v>0.30715217914354886</v>
       </c>
       <c r="L5">
-        <v>2960614</v>
+        <v>2365036</v>
       </c>
       <c r="M5" s="13">
         <f t="shared" si="4"/>
-        <v>0.8157419880303669</v>
+        <v>0.65164157448535565</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>102</v>
@@ -1509,8 +1530,11 @@
         <v>0.30715217914354886</v>
       </c>
       <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y5" s="13">
+        <v>0.86297770593144618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1541,11 +1565,11 @@
         <v>0.32644282288142334</v>
       </c>
       <c r="L6">
-        <v>2365036</v>
+        <v>2960614</v>
       </c>
       <c r="M6" s="13">
         <f t="shared" si="4"/>
-        <v>0.52552326543853856</v>
+        <v>0.65786378599862905</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>103</v>
@@ -1578,8 +1602,11 @@
         <v>0.32644282288142334</v>
       </c>
       <c r="X6" s="4"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y6" s="13">
+        <v>0.86356312682694325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1610,11 +1637,11 @@
         <v>0.37711293950617253</v>
       </c>
       <c r="L7">
-        <v>3288915</v>
+        <v>2931574</v>
       </c>
       <c r="M7" s="13">
         <f t="shared" si="4"/>
-        <v>0.7459991952345546</v>
+        <v>0.66494629528903737</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>104</v>
@@ -1647,8 +1674,11 @@
         <v>0.37711293950617253</v>
       </c>
       <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="13">
+        <v>0.87859224113567191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1679,11 +1709,11 @@
         <v>0.33644155763163519</v>
       </c>
       <c r="L8">
-        <v>3027491</v>
+        <v>3289468</v>
       </c>
       <c r="M8" s="13">
         <f t="shared" si="4"/>
-        <v>0.6979941513564758</v>
+        <v>0.75839347666905821</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>105</v>
@@ -1716,8 +1746,11 @@
         <v>0.33644155763163519</v>
       </c>
       <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="13">
+        <v>0.86673494080346458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1748,11 +1781,11 @@
         <v>0.33408857849647555</v>
       </c>
       <c r="L9">
-        <v>2738756</v>
+        <v>3442169</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" si="4"/>
-        <v>0.54502205655401148</v>
+        <v>0.68500371241047575</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>106</v>
@@ -1785,8 +1818,11 @@
         <v>0.33408857849647555</v>
       </c>
       <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="13">
+        <v>0.86868017091217442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1817,11 +1853,11 @@
         <v>0.25819001236639227</v>
       </c>
       <c r="L10">
-        <v>3849597</v>
-      </c>
-      <c r="M10" s="13">
+        <v>2233717</v>
+      </c>
+      <c r="M10" s="17">
         <f t="shared" si="4"/>
-        <v>1.2886646563625188</v>
+        <v>0.74774376388388619</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>107</v>
@@ -1854,8 +1890,11 @@
         <v>0.25819001236639227</v>
       </c>
       <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="13">
+        <v>0.82886951188976177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1886,11 +1925,11 @@
         <v>0.26814255939555143</v>
       </c>
       <c r="L11">
-        <v>1855978</v>
+        <v>2738756</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="4"/>
-        <v>0.49797146664799252</v>
+        <v>0.73482678248933408</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>108</v>
@@ -1923,8 +1962,11 @@
         <v>0.26814255939555143</v>
       </c>
       <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="13">
+        <v>0.83545174945406275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1955,11 +1997,11 @@
         <v>0.40254680636584561</v>
       </c>
       <c r="L12">
-        <v>3442169</v>
+        <v>3849597</v>
       </c>
       <c r="M12" s="13">
         <f t="shared" si="4"/>
-        <v>0.61021065238633476</v>
+        <v>0.68243746800185501</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>109</v>
@@ -1992,8 +2034,11 @@
         <v>0.40254680636584561</v>
       </c>
       <c r="X12" s="4"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="13">
+        <v>0.86477832110608277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2024,11 +2069,11 @@
         <v>0.31868147884429188</v>
       </c>
       <c r="L13">
-        <v>2879950</v>
+        <v>3027491</v>
       </c>
       <c r="M13" s="13">
         <f t="shared" si="4"/>
-        <v>0.68600994207641186</v>
+        <v>0.72115450808064663</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>110</v>
@@ -2061,8 +2106,11 @@
         <v>0.31868147884429188</v>
       </c>
       <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="13">
+        <v>0.86374653207616658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2093,11 +2141,11 @@
         <v>0.22071835303816689</v>
       </c>
       <c r="L14">
-        <v>2233717</v>
+        <v>1855978</v>
       </c>
       <c r="M14" s="13">
         <f t="shared" si="4"/>
-        <v>0.70158835353979521</v>
+        <v>0.58294428041962432</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>111</v>
@@ -2130,8 +2178,11 @@
         <v>0.22071835303816689</v>
       </c>
       <c r="X14" s="4"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="13">
+        <v>0.86299484892267098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2162,11 +2213,11 @@
         <v>0.33751534120180748</v>
       </c>
       <c r="L15">
-        <v>2931574</v>
+        <v>2879950</v>
       </c>
       <c r="M15" s="13">
         <f t="shared" si="4"/>
-        <v>0.73633956918378007</v>
+        <v>0.72337288510227871</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>112</v>
@@ -2199,8 +2250,11 @@
         <v>0.33751534120180748</v>
       </c>
       <c r="X15" s="4"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="13">
+        <v>0.86944500261222524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2231,11 +2285,11 @@
         <v>0.26267362645498793</v>
       </c>
       <c r="L16">
-        <v>3289468</v>
+        <v>3288915</v>
       </c>
       <c r="M16" s="13">
         <f t="shared" si="4"/>
-        <v>0.74833939609026112</v>
+        <v>0.74821359104031449</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>113</v>
@@ -2268,8 +2322,11 @@
         <v>0.26267362645498793</v>
       </c>
       <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="13">
+        <v>0.83625005403019781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2337,8 +2394,11 @@
         <v>0.28533489453151484</v>
       </c>
       <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="13">
+        <v>0.86220093087779803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2406,8 +2466,11 @@
         <v>0.25304565359405273</v>
       </c>
       <c r="X18" s="4"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="13">
+        <v>0.84241333210413727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2475,8 +2538,11 @@
         <v>0.30185555514670037</v>
       </c>
       <c r="X19" s="4"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="13">
+        <v>0.86542145798321923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2544,8 +2610,11 @@
         <v>0.37556406607855075</v>
       </c>
       <c r="X20" s="4"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="13">
+        <v>0.86755468148182735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2613,8 +2682,11 @@
         <v>0.16420036132813709</v>
       </c>
       <c r="X21" s="4"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="13">
+        <v>0.78648475895376313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2682,8 +2754,11 @@
         <v>0.24858296669475022</v>
       </c>
       <c r="X22" s="4"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="13">
+        <v>0.87466125777764003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2751,8 +2826,11 @@
         <v>0.13535265799863105</v>
       </c>
       <c r="X23" s="4"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="13">
+        <v>0.81285826867688038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2820,8 +2898,11 @@
         <v>0.22617479870644763</v>
       </c>
       <c r="X24" s="4"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="13">
+        <v>0.85198658151360107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2889,8 +2970,11 @@
         <v>0.32433772695800345</v>
       </c>
       <c r="X25" s="4"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="13">
+        <v>0.8721915148993451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2958,8 +3042,11 @@
         <v>0.29066672267053095</v>
       </c>
       <c r="X26" s="4"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="13">
+        <v>0.86786323217958428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3027,8 +3114,11 @@
         <v>0.24549911290354209</v>
       </c>
       <c r="X27" s="4"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="13">
+        <v>0.85877848137372359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3096,8 +3186,11 @@
         <v>0.34459911298461776</v>
       </c>
       <c r="X28" s="4"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="13">
+        <v>0.86317315763624081</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3165,8 +3258,11 @@
         <v>0.18029393057818888</v>
       </c>
       <c r="X29" s="4"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="13">
+        <v>0.79889165636170378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3234,8 +3330,11 @@
         <v>0.2161143585222588</v>
       </c>
       <c r="X30" s="4"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="13">
+        <v>0.81131119129634444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3303,8 +3402,11 @@
         <v>0.36179699378087271</v>
       </c>
       <c r="X31" s="4"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="13">
+        <v>0.88031417540047696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3372,8 +3474,11 @@
         <v>0.40949898169828391</v>
       </c>
       <c r="X32" s="4"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="13">
+        <v>0.87813481422230377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3441,8 +3546,11 @@
         <v>0.4715416162276207</v>
       </c>
       <c r="X33" s="4"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="13">
+        <v>0.8336423899155313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3510,8 +3618,11 @@
         <v>0.2779586527310427</v>
       </c>
       <c r="X34" s="4"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="13">
+        <v>0.8441417276561094</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3579,8 +3690,11 @@
         <v>0.32974381703979772</v>
       </c>
       <c r="X35" s="4"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="13">
+        <v>0.86843001230012296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3648,8 +3762,11 @@
         <v>0.30649902100509352</v>
       </c>
       <c r="X36" s="4"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y36" s="13">
+        <v>0.85961541316935208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3717,8 +3834,11 @@
         <v>0.2213330441520478</v>
       </c>
       <c r="X37" s="4"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y37" s="13">
+        <v>0.77604616208558641</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3786,8 +3906,11 @@
         <v>0.33082829687011095</v>
       </c>
       <c r="X38" s="4"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="13">
+        <v>0.86307244383960169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3855,8 +3978,11 @@
         <v>0.43120211744944126</v>
       </c>
       <c r="X39" s="4"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="13">
+        <v>0.86397875746638308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3924,8 +4050,11 @@
         <v>0.27493128127832756</v>
       </c>
       <c r="X40" s="4"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="13">
+        <v>0.86247307308937204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3993,8 +4122,11 @@
         <v>0.26387914021122971</v>
       </c>
       <c r="X41" s="4"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="13">
+        <v>0.86229163066191139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -4062,8 +4194,11 @@
         <v>0.25607347735539576</v>
       </c>
       <c r="X42" s="4"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="13">
+        <v>0.87128994398738446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4131,8 +4266,11 @@
         <v>0.24262789097203397</v>
       </c>
       <c r="X43" s="4"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="13">
+        <v>0.83777976970705337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4200,8 +4338,11 @@
         <v>0.39860531195604687</v>
       </c>
       <c r="X44" s="4"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="13">
+        <v>0.87529373888716977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4269,8 +4410,11 @@
         <v>0.38372672368754368</v>
       </c>
       <c r="X45" s="4"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="13">
+        <v>0.87585393876008033</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4338,8 +4482,11 @@
         <v>0.29625305322143847</v>
       </c>
       <c r="X46" s="4"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="13">
+        <v>0.87012174033678136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4407,8 +4554,11 @@
         <v>0.23623042714982612</v>
       </c>
       <c r="X47" s="4"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="13">
+        <v>0.79340020216813723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4476,8 +4626,11 @@
         <v>0.23019415426116407</v>
       </c>
       <c r="X48" s="4"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="13">
+        <v>0.85431948561221693</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -4545,8 +4698,11 @@
         <v>0.37872068197124842</v>
       </c>
       <c r="X49" s="4"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="13">
+        <v>0.85665096666049034</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -4573,7 +4729,7 @@
         <v>0.92824943930521286</v>
       </c>
       <c r="K50" s="12">
-        <f>1-I50</f>
+        <f t="shared" ref="K50:K97" si="5">1-I50</f>
         <v>7.1750560694787135E-2</v>
       </c>
       <c r="L50" s="12"/>
@@ -4600,16 +4756,16 @@
         <v>878719</v>
       </c>
       <c r="V50" s="4">
-        <f t="shared" ref="V50:V97" si="5">(O50-U50)/O50</f>
+        <f t="shared" ref="V50:V97" si="6">(O50-U50)/O50</f>
         <v>0.92824943930521286</v>
       </c>
       <c r="W50" s="3"/>
       <c r="X50" s="4">
-        <f t="shared" ref="X50:X97" si="6">1-V50</f>
+        <f t="shared" ref="X50:X97" si="7">1-V50</f>
         <v>7.1750560694787135E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4632,11 +4788,11 @@
         <v>247332</v>
       </c>
       <c r="I51" s="11">
-        <f t="shared" ref="I51:I97" si="7">(B51-H51)/B51</f>
+        <f t="shared" ref="I51:I97" si="8">(B51-H51)/B51</f>
         <v>0.90540317778191692</v>
       </c>
       <c r="K51" s="12">
-        <f>1-I51</f>
+        <f t="shared" si="5"/>
         <v>9.4596822218083076E-2</v>
       </c>
       <c r="L51" s="12"/>
@@ -4663,16 +4819,16 @@
         <v>247332</v>
       </c>
       <c r="V51" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.90540317778191692</v>
       </c>
       <c r="W51" s="3"/>
       <c r="X51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.4596822218083076E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4695,11 +4851,11 @@
         <v>722109</v>
       </c>
       <c r="I52" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92396247345801119</v>
       </c>
       <c r="K52" s="12">
-        <f>1-I52</f>
+        <f t="shared" si="5"/>
         <v>7.6037526541988809E-2</v>
       </c>
       <c r="L52" s="12"/>
@@ -4726,16 +4882,16 @@
         <v>722109</v>
       </c>
       <c r="V52" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92396247345801119</v>
       </c>
       <c r="W52" s="3"/>
       <c r="X52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.6037526541988809E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -4758,11 +4914,11 @@
         <v>932937</v>
       </c>
       <c r="I53" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.91429256504397971</v>
       </c>
       <c r="K53" s="12">
-        <f>1-I53</f>
+        <f t="shared" si="5"/>
         <v>8.570743495602029E-2</v>
       </c>
       <c r="L53" s="12"/>
@@ -4789,16 +4945,16 @@
         <v>932937</v>
       </c>
       <c r="V53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91429256504397971</v>
       </c>
       <c r="W53" s="3"/>
       <c r="X53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.570743495602029E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4821,11 +4977,11 @@
         <v>32362</v>
       </c>
       <c r="I54" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.91753875006051711</v>
       </c>
       <c r="K54" s="12">
-        <f>1-I54</f>
+        <f t="shared" si="5"/>
         <v>8.2461249939482895E-2</v>
       </c>
       <c r="L54" s="12"/>
@@ -4852,16 +5008,16 @@
         <v>32362</v>
       </c>
       <c r="V54" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91753875006051711</v>
       </c>
       <c r="W54" s="3"/>
       <c r="X54" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.2461249939482895E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -4884,11 +5040,11 @@
         <v>323633</v>
       </c>
       <c r="I55" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.9113934343644523</v>
       </c>
       <c r="K55" s="12">
-        <f>1-I55</f>
+        <f t="shared" si="5"/>
         <v>8.8606565635547696E-2</v>
       </c>
       <c r="L55" s="12"/>
@@ -4915,16 +5071,16 @@
         <v>323633</v>
       </c>
       <c r="V55" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9113934343644523</v>
       </c>
       <c r="W55" s="3"/>
       <c r="X55" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.8606565635547696E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -4947,11 +5103,11 @@
         <v>331781</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.91423647479834858</v>
       </c>
       <c r="K56" s="12">
-        <f>1-I56</f>
+        <f t="shared" si="5"/>
         <v>8.5763525201651425E-2</v>
       </c>
       <c r="L56" s="12"/>
@@ -4978,16 +5134,16 @@
         <v>331781</v>
       </c>
       <c r="V56" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91423647479834858</v>
       </c>
       <c r="W56" s="3"/>
       <c r="X56" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.5763525201651425E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -5010,11 +5166,11 @@
         <v>1134644</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93255312543152047</v>
       </c>
       <c r="K57" s="12">
-        <f>1-I57</f>
+        <f t="shared" si="5"/>
         <v>6.7446874568479531E-2</v>
       </c>
       <c r="L57" s="12"/>
@@ -5041,16 +5197,16 @@
         <v>1134644</v>
       </c>
       <c r="V57" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93255312543152047</v>
       </c>
       <c r="W57" s="3"/>
       <c r="X57" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.7446874568479531E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -5073,11 +5229,11 @@
         <v>1280204</v>
       </c>
       <c r="I58" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93398667516796552</v>
       </c>
       <c r="K58" s="12">
-        <f>1-I58</f>
+        <f t="shared" si="5"/>
         <v>6.6013324832034481E-2</v>
       </c>
       <c r="L58" s="12"/>
@@ -5104,16 +5260,16 @@
         <v>1280204</v>
       </c>
       <c r="V58" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93398667516796552</v>
       </c>
       <c r="W58" s="3"/>
       <c r="X58" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.6013324832034481E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -5136,11 +5292,11 @@
         <v>1569381</v>
       </c>
       <c r="I59" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.89983668216066137</v>
       </c>
       <c r="K59" s="12">
-        <f>1-I59</f>
+        <f t="shared" si="5"/>
         <v>0.10016331783933863</v>
       </c>
       <c r="L59" s="12"/>
@@ -5167,16 +5323,16 @@
         <v>1569381</v>
       </c>
       <c r="V59" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.89983668216066137</v>
       </c>
       <c r="W59" s="3"/>
       <c r="X59" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10016331783933863</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -5199,11 +5355,11 @@
         <v>1106458</v>
       </c>
       <c r="I60" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92672564995623574</v>
       </c>
       <c r="K60" s="12">
-        <f>1-I60</f>
+        <f t="shared" si="5"/>
         <v>7.3274350043764258E-2</v>
       </c>
       <c r="L60" s="12"/>
@@ -5230,16 +5386,16 @@
         <v>1106458</v>
       </c>
       <c r="V60" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92672564995623574</v>
       </c>
       <c r="W60" s="3"/>
       <c r="X60" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.3274350043764258E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -5262,11 +5418,11 @@
         <v>1815660</v>
       </c>
       <c r="I61" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.90225754672934555</v>
       </c>
       <c r="K61" s="12">
-        <f>1-I61</f>
+        <f t="shared" si="5"/>
         <v>9.774245327065445E-2</v>
       </c>
       <c r="L61" s="12"/>
@@ -5293,16 +5449,16 @@
         <v>1815660</v>
       </c>
       <c r="V61" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.90225754672934555</v>
       </c>
       <c r="W61" s="3"/>
       <c r="X61" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.774245327065445E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -5325,11 +5481,11 @@
         <v>926886</v>
       </c>
       <c r="I62" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92094980385976155</v>
       </c>
       <c r="K62" s="12">
-        <f>1-I62</f>
+        <f t="shared" si="5"/>
         <v>7.9050196140238449E-2</v>
       </c>
       <c r="L62" s="12"/>
@@ -5356,16 +5512,16 @@
         <v>926886</v>
       </c>
       <c r="V62" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92094980385976155</v>
       </c>
       <c r="W62" s="3"/>
       <c r="X62" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.9050196140238449E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -5388,11 +5544,11 @@
         <v>268472</v>
       </c>
       <c r="I63" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.9105097509544956</v>
       </c>
       <c r="K63" s="12">
-        <f>1-I63</f>
+        <f t="shared" si="5"/>
         <v>8.94902490455044E-2</v>
       </c>
       <c r="L63" s="12"/>
@@ -5419,16 +5575,16 @@
         <v>268472</v>
       </c>
       <c r="V63" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9105097509544956</v>
       </c>
       <c r="W63" s="3"/>
       <c r="X63" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.94902490455044E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -5451,11 +5607,11 @@
         <v>584418</v>
       </c>
       <c r="I64" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93623498843394615</v>
       </c>
       <c r="K64" s="12">
-        <f>1-I64</f>
+        <f t="shared" si="5"/>
         <v>6.3765011566053853E-2</v>
       </c>
       <c r="L64" s="12"/>
@@ -5482,12 +5638,12 @@
         <v>584418</v>
       </c>
       <c r="V64" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93623498843394615</v>
       </c>
       <c r="W64" s="3"/>
       <c r="X64" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.3765011566053853E-2</v>
       </c>
     </row>
@@ -5514,11 +5670,11 @@
         <v>249021</v>
       </c>
       <c r="I65" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.85733478010784347</v>
       </c>
       <c r="K65" s="12">
-        <f>1-I65</f>
+        <f t="shared" si="5"/>
         <v>0.14266521989215653</v>
       </c>
       <c r="L65" s="12"/>
@@ -5545,12 +5701,12 @@
         <v>249021</v>
       </c>
       <c r="V65" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.85733478010784347</v>
       </c>
       <c r="W65" s="3"/>
       <c r="X65" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14266521989215653</v>
       </c>
     </row>
@@ -5577,11 +5733,11 @@
         <v>696053</v>
       </c>
       <c r="I66" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.9403255388360714</v>
       </c>
       <c r="K66" s="12">
-        <f>1-I66</f>
+        <f t="shared" si="5"/>
         <v>5.9674461163928605E-2</v>
       </c>
       <c r="L66" s="12"/>
@@ -5608,12 +5764,12 @@
         <v>696053</v>
       </c>
       <c r="V66" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9403255388360714</v>
       </c>
       <c r="W66" s="3"/>
       <c r="X66" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.9674461163928605E-2</v>
       </c>
     </row>
@@ -5640,11 +5796,11 @@
         <v>739708</v>
       </c>
       <c r="I67" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.9293425200118407</v>
       </c>
       <c r="K67" s="12">
-        <f>1-I67</f>
+        <f t="shared" si="5"/>
         <v>7.06574799881593E-2</v>
       </c>
       <c r="L67" s="12"/>
@@ -5671,12 +5827,12 @@
         <v>739708</v>
       </c>
       <c r="V67" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9293425200118407</v>
       </c>
       <c r="W67" s="3"/>
       <c r="X67" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.06574799881593E-2</v>
       </c>
     </row>
@@ -5703,11 +5859,11 @@
         <v>1490072</v>
       </c>
       <c r="I68" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92982797193141487</v>
       </c>
       <c r="K68" s="12">
-        <f>1-I68</f>
+        <f t="shared" si="5"/>
         <v>7.0172028068585135E-2</v>
       </c>
       <c r="L68" s="12"/>
@@ -5734,12 +5890,12 @@
         <v>1490072</v>
       </c>
       <c r="V68" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92982797193141487</v>
       </c>
       <c r="W68" s="3"/>
       <c r="X68" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0172028068585135E-2</v>
       </c>
     </row>
@@ -5766,11 +5922,11 @@
         <v>252430</v>
       </c>
       <c r="I69" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.90888421332276459</v>
       </c>
       <c r="K69" s="12">
-        <f>1-I69</f>
+        <f t="shared" si="5"/>
         <v>9.1115786677235411E-2</v>
       </c>
       <c r="L69" s="12"/>
@@ -5797,12 +5953,12 @@
         <v>252430</v>
       </c>
       <c r="V69" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.90888421332276459</v>
       </c>
       <c r="W69" s="3"/>
       <c r="X69" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.1115786677235411E-2</v>
       </c>
     </row>
@@ -5829,11 +5985,11 @@
         <v>152308</v>
       </c>
       <c r="I70" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.87713708135630952</v>
       </c>
       <c r="K70" s="12">
-        <f>1-I70</f>
+        <f t="shared" si="5"/>
         <v>0.12286291864369048</v>
       </c>
       <c r="L70" s="12"/>
@@ -5860,12 +6016,12 @@
         <v>152308</v>
       </c>
       <c r="V70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.87713708135630952</v>
       </c>
       <c r="W70" s="3"/>
       <c r="X70" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12286291864369048</v>
       </c>
     </row>
@@ -5892,11 +6048,11 @@
         <v>120008</v>
       </c>
       <c r="I71" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.88578955082121358</v>
       </c>
       <c r="K71" s="12">
-        <f>1-I71</f>
+        <f t="shared" si="5"/>
         <v>0.11421044917878642</v>
       </c>
       <c r="L71" s="12"/>
@@ -5923,12 +6079,12 @@
         <v>120008</v>
       </c>
       <c r="V71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.88578955082121358</v>
       </c>
       <c r="W71" s="3"/>
       <c r="X71" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11421044917878642</v>
       </c>
     </row>
@@ -5955,11 +6111,11 @@
         <v>96812</v>
       </c>
       <c r="I72" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.85402952218687334</v>
       </c>
       <c r="K72" s="12">
-        <f>1-I72</f>
+        <f t="shared" si="5"/>
         <v>0.14597047781312666</v>
       </c>
       <c r="L72" s="12"/>
@@ -5986,12 +6142,12 @@
         <v>96812</v>
       </c>
       <c r="V72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.85402952218687334</v>
       </c>
       <c r="W72" s="3"/>
       <c r="X72" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14597047781312666</v>
       </c>
     </row>
@@ -6018,11 +6174,11 @@
         <v>352621</v>
       </c>
       <c r="I73" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.91749224108239236</v>
       </c>
       <c r="K73" s="12">
-        <f>1-I73</f>
+        <f t="shared" si="5"/>
         <v>8.2507758917607643E-2</v>
       </c>
       <c r="L73" s="12"/>
@@ -6049,12 +6205,12 @@
         <v>352621</v>
       </c>
       <c r="V73" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91749224108239236</v>
       </c>
       <c r="W73" s="3"/>
       <c r="X73" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.2507758917607643E-2</v>
       </c>
     </row>
@@ -6081,11 +6237,11 @@
         <v>237661</v>
       </c>
       <c r="I74" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.84259140899502261</v>
       </c>
       <c r="K74" s="12">
-        <f>1-I74</f>
+        <f t="shared" si="5"/>
         <v>0.15740859100497739</v>
       </c>
       <c r="L74" s="12"/>
@@ -6112,12 +6268,12 @@
         <v>237661</v>
       </c>
       <c r="V74" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84259140899502261</v>
       </c>
       <c r="W74" s="3"/>
       <c r="X74" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.15740859100497739</v>
       </c>
     </row>
@@ -6144,11 +6300,11 @@
         <v>1267014</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.91573648062635504</v>
       </c>
       <c r="K75" s="12">
-        <f>1-I75</f>
+        <f t="shared" si="5"/>
         <v>8.4263519373644957E-2</v>
       </c>
       <c r="L75" s="12"/>
@@ -6175,12 +6331,12 @@
         <v>1267014</v>
       </c>
       <c r="V75" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91573648062635504</v>
       </c>
       <c r="W75" s="3"/>
       <c r="X75" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.4263519373644957E-2</v>
       </c>
     </row>
@@ -6207,11 +6363,11 @@
         <v>1387034</v>
       </c>
       <c r="I76" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.91789761485691179</v>
       </c>
       <c r="K76" s="12">
-        <f>1-I76</f>
+        <f t="shared" si="5"/>
         <v>8.2102385143088208E-2</v>
       </c>
       <c r="L76" s="12"/>
@@ -6238,12 +6394,12 @@
         <v>1387034</v>
       </c>
       <c r="V76" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91789761485691179</v>
       </c>
       <c r="W76" s="3"/>
       <c r="X76" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.2102385143088208E-2</v>
       </c>
     </row>
@@ -6270,11 +6426,11 @@
         <v>340281</v>
       </c>
       <c r="I77" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.91098433074555241</v>
       </c>
       <c r="K77" s="12">
-        <f>1-I77</f>
+        <f t="shared" si="5"/>
         <v>8.9015669254447594E-2</v>
       </c>
       <c r="L77" s="12"/>
@@ -6301,12 +6457,12 @@
         <v>340281</v>
       </c>
       <c r="V77" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91098433074555241</v>
       </c>
       <c r="W77" s="3"/>
       <c r="X77" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.9015669254447594E-2</v>
       </c>
     </row>
@@ -6333,11 +6489,11 @@
         <v>699061</v>
       </c>
       <c r="I78" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92669524987870122</v>
       </c>
       <c r="K78" s="12">
-        <f>1-I78</f>
+        <f t="shared" si="5"/>
         <v>7.3304750121298778E-2</v>
       </c>
       <c r="L78" s="12"/>
@@ -6364,12 +6520,12 @@
         <v>699061</v>
       </c>
       <c r="V78" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92669524987870122</v>
       </c>
       <c r="W78" s="3"/>
       <c r="X78" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.3304750121298778E-2</v>
       </c>
     </row>
@@ -6396,11 +6552,11 @@
         <v>309035</v>
       </c>
       <c r="I79" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.91769292497667565</v>
       </c>
       <c r="K79" s="12">
-        <f>1-I79</f>
+        <f t="shared" si="5"/>
         <v>8.230707502332435E-2</v>
       </c>
       <c r="L79" s="12"/>
@@ -6427,12 +6583,12 @@
         <v>309035</v>
       </c>
       <c r="V79" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91769292497667565</v>
       </c>
       <c r="W79" s="3"/>
       <c r="X79" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.230707502332435E-2</v>
       </c>
     </row>
@@ -6459,11 +6615,11 @@
         <v>645429</v>
       </c>
       <c r="I80" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93546205006076033</v>
       </c>
       <c r="K80" s="12">
-        <f>1-I80</f>
+        <f t="shared" si="5"/>
         <v>6.4537949939239669E-2</v>
       </c>
       <c r="L80" s="12"/>
@@ -6490,12 +6646,12 @@
         <v>645429</v>
       </c>
       <c r="V80" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93546205006076033</v>
       </c>
       <c r="W80" s="3"/>
       <c r="X80" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4537949939239669E-2</v>
       </c>
     </row>
@@ -6522,11 +6678,11 @@
         <v>796681</v>
       </c>
       <c r="I81" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92734552027985639</v>
       </c>
       <c r="K81" s="12">
-        <f>1-I81</f>
+        <f t="shared" si="5"/>
         <v>7.2654479720143605E-2</v>
       </c>
       <c r="L81" s="12"/>
@@ -6553,12 +6709,12 @@
         <v>796681</v>
       </c>
       <c r="V81" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92734552027985639</v>
       </c>
       <c r="W81" s="3"/>
       <c r="X81" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2654479720143605E-2</v>
       </c>
     </row>
@@ -6585,11 +6741,11 @@
         <v>624347</v>
       </c>
       <c r="I82" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.9387768930420759</v>
       </c>
       <c r="K82" s="12">
-        <f>1-I82</f>
+        <f t="shared" si="5"/>
         <v>6.1223106957924101E-2</v>
       </c>
       <c r="L82" s="12"/>
@@ -6616,12 +6772,12 @@
         <v>624347</v>
       </c>
       <c r="V82" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9387768930420759</v>
       </c>
       <c r="W82" s="3"/>
       <c r="X82" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1223106957924101E-2</v>
       </c>
     </row>
@@ -6648,11 +6804,11 @@
         <v>304607</v>
       </c>
       <c r="I83" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.90681407203663478</v>
       </c>
       <c r="K83" s="12">
-        <f>1-I83</f>
+        <f t="shared" si="5"/>
         <v>9.3185927963365223E-2</v>
       </c>
       <c r="L83" s="12"/>
@@ -6679,12 +6835,12 @@
         <v>304607</v>
       </c>
       <c r="V83" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.90681407203663478</v>
       </c>
       <c r="W83" s="3"/>
       <c r="X83" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.3185927963365223E-2</v>
       </c>
     </row>
@@ -6711,11 +6867,11 @@
         <v>793940</v>
       </c>
       <c r="I84" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.91833939560003275</v>
       </c>
       <c r="K84" s="12">
-        <f>1-I84</f>
+        <f t="shared" si="5"/>
         <v>8.1660604399967252E-2</v>
       </c>
       <c r="L84" s="12"/>
@@ -6742,12 +6898,12 @@
         <v>793940</v>
       </c>
       <c r="V84" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91833939560003275</v>
       </c>
       <c r="W84" s="3"/>
       <c r="X84" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.1660604399967252E-2</v>
       </c>
     </row>
@@ -6774,11 +6930,11 @@
         <v>1211234</v>
       </c>
       <c r="I85" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92740718845240933</v>
       </c>
       <c r="K85" s="12">
-        <f>1-I85</f>
+        <f t="shared" si="5"/>
         <v>7.2592811547590674E-2</v>
       </c>
       <c r="L85" s="12"/>
@@ -6805,12 +6961,12 @@
         <v>1211234</v>
       </c>
       <c r="V85" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92740718845240933</v>
       </c>
       <c r="W85" s="3"/>
       <c r="X85" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2592811547590674E-2</v>
       </c>
     </row>
@@ -6837,11 +6993,11 @@
         <v>1560066</v>
       </c>
       <c r="I86" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.90327207428539225</v>
       </c>
       <c r="K86" s="12">
-        <f>1-I86</f>
+        <f t="shared" si="5"/>
         <v>9.6727925714607754E-2</v>
       </c>
       <c r="L86" s="12"/>
@@ -6868,12 +7024,12 @@
         <v>1560066</v>
       </c>
       <c r="V86" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.90327207428539225</v>
       </c>
       <c r="W86" s="3"/>
       <c r="X86" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.6727925714607754E-2</v>
       </c>
     </row>
@@ -6900,11 +7056,11 @@
         <v>675378</v>
       </c>
       <c r="I87" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93940467324157251</v>
       </c>
       <c r="K87" s="12">
-        <f>1-I87</f>
+        <f t="shared" si="5"/>
         <v>6.0595326758427492E-2</v>
       </c>
       <c r="L87" s="12"/>
@@ -6931,12 +7087,12 @@
         <v>675378</v>
       </c>
       <c r="V87" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93940467324157251</v>
       </c>
       <c r="W87" s="3"/>
       <c r="X87" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.0595326758427492E-2</v>
       </c>
     </row>
@@ -6963,11 +7119,11 @@
         <v>96980</v>
       </c>
       <c r="I88" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.79527126873548659</v>
       </c>
       <c r="K88" s="12">
-        <f>1-I88</f>
+        <f t="shared" si="5"/>
         <v>0.20472873126451341</v>
       </c>
       <c r="L88" s="12"/>
@@ -6994,12 +7150,12 @@
         <v>96980</v>
       </c>
       <c r="V88" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.79527126873548659</v>
       </c>
       <c r="W88" s="3"/>
       <c r="X88" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.20472873126451341</v>
       </c>
     </row>
@@ -7026,11 +7182,11 @@
         <v>771746</v>
       </c>
       <c r="I89" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92862876630287416</v>
       </c>
       <c r="K89" s="12">
-        <f>1-I89</f>
+        <f t="shared" si="5"/>
         <v>7.1371233697125835E-2</v>
       </c>
       <c r="L89" s="12"/>
@@ -7057,12 +7213,12 @@
         <v>771746</v>
       </c>
       <c r="V89" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92862876630287416</v>
       </c>
       <c r="W89" s="3"/>
       <c r="X89" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.1371233697125835E-2</v>
       </c>
     </row>
@@ -7089,11 +7245,11 @@
         <v>1496213</v>
       </c>
       <c r="I90" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92750812231921798</v>
       </c>
       <c r="K90" s="12">
-        <f>1-I90</f>
+        <f t="shared" si="5"/>
         <v>7.2491877680782024E-2</v>
       </c>
       <c r="L90" s="12"/>
@@ -7120,12 +7276,12 @@
         <v>1496213</v>
       </c>
       <c r="V90" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92750812231921798</v>
       </c>
       <c r="W90" s="3"/>
       <c r="X90" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2491877680782024E-2</v>
       </c>
     </row>
@@ -7152,11 +7308,11 @@
         <v>215349</v>
       </c>
       <c r="I91" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92705888967770955</v>
       </c>
       <c r="K91" s="12">
-        <f>1-I91</f>
+        <f t="shared" si="5"/>
         <v>7.2941110322290448E-2</v>
       </c>
       <c r="L91" s="12"/>
@@ -7183,12 +7339,12 @@
         <v>215349</v>
       </c>
       <c r="V91" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.92705888967770955</v>
       </c>
       <c r="W91" s="3"/>
       <c r="X91" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2941110322290448E-2</v>
       </c>
     </row>
@@ -7215,11 +7371,11 @@
         <v>2029638</v>
       </c>
       <c r="I92" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.89953066512117597</v>
       </c>
       <c r="K92" s="12">
-        <f>1-I92</f>
+        <f t="shared" si="5"/>
         <v>0.10046933487882403</v>
       </c>
       <c r="L92" s="12"/>
@@ -7246,12 +7402,12 @@
         <v>2029638</v>
       </c>
       <c r="V92" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.89953066512117597</v>
       </c>
       <c r="W92" s="3"/>
       <c r="X92" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10046933487882403</v>
       </c>
     </row>
@@ -7278,11 +7434,11 @@
         <v>2543327</v>
       </c>
       <c r="I93" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.89138087130382104</v>
       </c>
       <c r="K93" s="12">
-        <f>1-I93</f>
+        <f t="shared" si="5"/>
         <v>0.10861912869617896</v>
       </c>
       <c r="L93" s="12"/>
@@ -7309,12 +7465,12 @@
         <v>2543327</v>
       </c>
       <c r="V93" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.89138087130382104</v>
       </c>
       <c r="W93" s="3"/>
       <c r="X93" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10861912869617896</v>
       </c>
     </row>
@@ -7341,11 +7497,11 @@
         <v>1454733</v>
       </c>
       <c r="I94" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93904181283952193</v>
       </c>
       <c r="K94" s="12">
-        <f>1-I94</f>
+        <f t="shared" si="5"/>
         <v>6.0958187160478072E-2</v>
       </c>
       <c r="L94" s="12"/>
@@ -7372,12 +7528,12 @@
         <v>1454733</v>
       </c>
       <c r="V94" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93904181283952193</v>
       </c>
       <c r="W94" s="3"/>
       <c r="X94" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.0958187160478072E-2</v>
       </c>
     </row>
@@ -7404,11 +7560,11 @@
         <v>48765</v>
       </c>
       <c r="I95" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.90378335717456715</v>
       </c>
       <c r="K95" s="12">
-        <f>1-I95</f>
+        <f t="shared" si="5"/>
         <v>9.6216642825432852E-2</v>
       </c>
       <c r="L95" s="12"/>
@@ -7435,12 +7591,12 @@
         <v>48765</v>
       </c>
       <c r="V95" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.90378335717456715</v>
       </c>
       <c r="W95" s="3"/>
       <c r="X95" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.6216642825432852E-2</v>
       </c>
     </row>
@@ -7467,11 +7623,11 @@
         <v>287005</v>
       </c>
       <c r="I96" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.9187602980850692</v>
       </c>
       <c r="K96" s="12">
-        <f>1-I96</f>
+        <f t="shared" si="5"/>
         <v>8.1239701914930795E-2</v>
       </c>
       <c r="L96" s="12"/>
@@ -7498,12 +7654,12 @@
         <v>287005</v>
       </c>
       <c r="V96" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9187602980850692</v>
       </c>
       <c r="W96" s="3"/>
       <c r="X96" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.1239701914930795E-2</v>
       </c>
     </row>
@@ -7530,11 +7686,11 @@
         <v>1032853</v>
       </c>
       <c r="I97" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93236111574070835</v>
       </c>
       <c r="K97" s="12">
-        <f>1-I97</f>
+        <f t="shared" si="5"/>
         <v>6.7638884259291654E-2</v>
       </c>
       <c r="L97" s="12"/>
@@ -7561,42 +7717,42 @@
         <v>1032853</v>
       </c>
       <c r="V97" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93236111574070835</v>
       </c>
       <c r="W97" s="3"/>
       <c r="X97" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.7638884259291654E-2</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B98" s="5">
-        <f t="shared" ref="B98" si="8">SUM(B2:B97)</f>
+        <f t="shared" ref="B98" si="9">SUM(B2:B97)</f>
         <v>1030054588</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" ref="C98:H98" si="9">SUM(C2:C97)</f>
+        <f t="shared" ref="C98:H98" si="10">SUM(C2:C97)</f>
         <v>228782525</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>764441711</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36775808</v>
       </c>
       <c r="F98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54544</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>173669378</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37132406</v>
       </c>
       <c r="I98" s="5"/>
@@ -7606,31 +7762,31 @@
       <c r="M98" s="16"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5">
-        <f t="shared" ref="O98:U98" si="10">SUM(O2:O97)</f>
+        <f t="shared" ref="O98:U98" si="11">SUM(O2:O97)</f>
         <v>1030054588</v>
       </c>
       <c r="P98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>228782525</v>
       </c>
       <c r="Q98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>764441711</v>
       </c>
       <c r="R98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>36775808</v>
       </c>
       <c r="S98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>54544</v>
       </c>
       <c r="T98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>173669378</v>
       </c>
       <c r="U98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>37132406</v>
       </c>
       <c r="V98" s="6"/>

--- a/gene_expression/bioinformatics_pipeline/readcounts_allsteps_checkagainstMS.xlsx
+++ b/gene_expression/bioinformatics_pipeline/readcounts_allsteps_checkagainstMS.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_temperaturevariability2023/gene_expression/bioinformatics_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{BD0676A9-DCF1-D347-8A65-AC01AF31CE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2BDBA03-3DE7-544B-A00A-1B751A9E2A1F}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{BD0676A9-DCF1-D347-8A65-AC01AF31CE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53189A38-04A4-9743-86C9-AEB7E8C73622}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28780" windowHeight="16240" xr2:uid="{E30E7334-B642-5E4F-95D2-E511D28C5524}"/>
+    <workbookView xWindow="15660" yWindow="500" windowWidth="13140" windowHeight="16240" activeTab="1" xr2:uid="{E30E7334-B642-5E4F-95D2-E511D28C5524}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="229">
   <si>
     <t>Acer-005_S23_L001_R1_001.fastq.gz</t>
   </si>
@@ -684,6 +685,45 @@
   </si>
   <si>
     <t>Percent aligned Acer (Michael)</t>
+  </si>
+  <si>
+    <t>reads;</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>these:</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>unpaired;</t>
+  </si>
+  <si>
+    <t>aligned</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>alignment</t>
+  </si>
+  <si>
+    <t>rate</t>
   </si>
 </sst>
 </file>
@@ -778,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -825,6 +865,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D52EED-0510-8B4B-BB21-FD44FEE4B903}">
   <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="132" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A49" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,13 +1317,8 @@
         <f>1-I2</f>
         <v>0.35714683878674613</v>
       </c>
-      <c r="L2">
-        <v>2918558</v>
-      </c>
-      <c r="M2" s="13">
-        <f>L2/G2</f>
-        <v>0.68706597232439792</v>
-      </c>
+      <c r="L2"/>
+      <c r="M2" s="13"/>
       <c r="N2" s="2" t="s">
         <v>99</v>
       </c>
@@ -1348,13 +1384,8 @@
         <f t="shared" ref="J3:J49" si="3">1-I3</f>
         <v>0.36682707473384824</v>
       </c>
-      <c r="L3">
-        <v>3587065</v>
-      </c>
-      <c r="M3" s="13">
-        <f t="shared" ref="M3:M49" si="4">L3/G3</f>
-        <v>0.74025260585038666</v>
-      </c>
+      <c r="L3"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="2" t="s">
         <v>100</v>
       </c>
@@ -1420,13 +1451,8 @@
         <f t="shared" si="3"/>
         <v>0.32740004807955747</v>
       </c>
-      <c r="L4">
-        <v>3218714</v>
-      </c>
-      <c r="M4" s="13">
-        <f t="shared" si="4"/>
-        <v>0.73694513563834418</v>
-      </c>
+      <c r="L4"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="2" t="s">
         <v>101</v>
       </c>
@@ -1492,13 +1518,8 @@
         <f t="shared" si="3"/>
         <v>0.30715217914354886</v>
       </c>
-      <c r="L5">
-        <v>2365036</v>
-      </c>
-      <c r="M5" s="13">
-        <f t="shared" si="4"/>
-        <v>0.65164157448535565</v>
-      </c>
+      <c r="L5"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="2" t="s">
         <v>102</v>
       </c>
@@ -1564,13 +1585,8 @@
         <f t="shared" si="3"/>
         <v>0.32644282288142334</v>
       </c>
-      <c r="L6">
-        <v>2960614</v>
-      </c>
-      <c r="M6" s="13">
-        <f t="shared" si="4"/>
-        <v>0.65786378599862905</v>
-      </c>
+      <c r="L6"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="2" t="s">
         <v>103</v>
       </c>
@@ -1636,13 +1652,8 @@
         <f t="shared" si="3"/>
         <v>0.37711293950617253</v>
       </c>
-      <c r="L7">
-        <v>2931574</v>
-      </c>
-      <c r="M7" s="13">
-        <f t="shared" si="4"/>
-        <v>0.66494629528903737</v>
-      </c>
+      <c r="L7"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="2" t="s">
         <v>104</v>
       </c>
@@ -1708,13 +1719,8 @@
         <f t="shared" si="3"/>
         <v>0.33644155763163519</v>
       </c>
-      <c r="L8">
-        <v>3289468</v>
-      </c>
-      <c r="M8" s="13">
-        <f t="shared" si="4"/>
-        <v>0.75839347666905821</v>
-      </c>
+      <c r="L8"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="2" t="s">
         <v>105</v>
       </c>
@@ -1780,13 +1786,8 @@
         <f t="shared" si="3"/>
         <v>0.33408857849647555</v>
       </c>
-      <c r="L9">
-        <v>3442169</v>
-      </c>
-      <c r="M9" s="13">
-        <f t="shared" si="4"/>
-        <v>0.68500371241047575</v>
-      </c>
+      <c r="L9"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="2" t="s">
         <v>106</v>
       </c>
@@ -1852,13 +1853,8 @@
         <f t="shared" si="3"/>
         <v>0.25819001236639227</v>
       </c>
-      <c r="L10">
-        <v>2233717</v>
-      </c>
-      <c r="M10" s="17">
-        <f t="shared" si="4"/>
-        <v>0.74774376388388619</v>
-      </c>
+      <c r="L10"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="2" t="s">
         <v>107</v>
       </c>
@@ -1924,13 +1920,8 @@
         <f t="shared" si="3"/>
         <v>0.26814255939555143</v>
       </c>
-      <c r="L11">
-        <v>2738756</v>
-      </c>
-      <c r="M11" s="13">
-        <f t="shared" si="4"/>
-        <v>0.73482678248933408</v>
-      </c>
+      <c r="L11"/>
+      <c r="M11" s="13"/>
       <c r="N11" s="2" t="s">
         <v>108</v>
       </c>
@@ -1996,13 +1987,8 @@
         <f t="shared" si="3"/>
         <v>0.40254680636584561</v>
       </c>
-      <c r="L12">
-        <v>3849597</v>
-      </c>
-      <c r="M12" s="13">
-        <f t="shared" si="4"/>
-        <v>0.68243746800185501</v>
-      </c>
+      <c r="L12"/>
+      <c r="M12" s="13"/>
       <c r="N12" s="2" t="s">
         <v>109</v>
       </c>
@@ -2068,13 +2054,8 @@
         <f t="shared" si="3"/>
         <v>0.31868147884429188</v>
       </c>
-      <c r="L13">
-        <v>3027491</v>
-      </c>
-      <c r="M13" s="13">
-        <f t="shared" si="4"/>
-        <v>0.72115450808064663</v>
-      </c>
+      <c r="L13"/>
+      <c r="M13" s="13"/>
       <c r="N13" s="2" t="s">
         <v>110</v>
       </c>
@@ -2140,13 +2121,8 @@
         <f t="shared" si="3"/>
         <v>0.22071835303816689</v>
       </c>
-      <c r="L14">
-        <v>1855978</v>
-      </c>
-      <c r="M14" s="13">
-        <f t="shared" si="4"/>
-        <v>0.58294428041962432</v>
-      </c>
+      <c r="L14"/>
+      <c r="M14" s="13"/>
       <c r="N14" s="2" t="s">
         <v>111</v>
       </c>
@@ -2212,13 +2188,8 @@
         <f t="shared" si="3"/>
         <v>0.33751534120180748</v>
       </c>
-      <c r="L15">
-        <v>2879950</v>
-      </c>
-      <c r="M15" s="13">
-        <f t="shared" si="4"/>
-        <v>0.72337288510227871</v>
-      </c>
+      <c r="L15"/>
+      <c r="M15" s="13"/>
       <c r="N15" s="2" t="s">
         <v>112</v>
       </c>
@@ -2284,13 +2255,8 @@
         <f t="shared" si="3"/>
         <v>0.26267362645498793</v>
       </c>
-      <c r="L16">
-        <v>3288915</v>
-      </c>
-      <c r="M16" s="13">
-        <f t="shared" si="4"/>
-        <v>0.74821359104031449</v>
-      </c>
+      <c r="L16"/>
+      <c r="M16" s="13"/>
       <c r="N16" s="2" t="s">
         <v>113</v>
       </c>
@@ -2356,13 +2322,8 @@
         <f t="shared" si="3"/>
         <v>0.28533489453151484</v>
       </c>
-      <c r="L17">
-        <v>2794945</v>
-      </c>
-      <c r="M17" s="13">
-        <f t="shared" si="4"/>
-        <v>0.74621472130400857</v>
-      </c>
+      <c r="L17"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="2" t="s">
         <v>114</v>
       </c>
@@ -2428,13 +2389,8 @@
         <f t="shared" si="3"/>
         <v>0.25304565359405273</v>
       </c>
-      <c r="L18">
-        <v>2587113</v>
-      </c>
-      <c r="M18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.76199740042701802</v>
-      </c>
+      <c r="L18"/>
+      <c r="M18" s="13"/>
       <c r="N18" s="2" t="s">
         <v>115</v>
       </c>
@@ -2500,13 +2456,8 @@
         <f t="shared" si="3"/>
         <v>0.30185555514670037</v>
       </c>
-      <c r="L19">
-        <v>2779463</v>
-      </c>
-      <c r="M19" s="13">
-        <f t="shared" si="4"/>
-        <v>0.65919005464745251</v>
-      </c>
+      <c r="L19"/>
+      <c r="M19" s="13"/>
       <c r="N19" s="2" t="s">
         <v>116</v>
       </c>
@@ -2572,13 +2523,8 @@
         <f t="shared" si="3"/>
         <v>0.37556406607855075</v>
       </c>
-      <c r="L20">
-        <v>3449011</v>
-      </c>
-      <c r="M20" s="13">
-        <f t="shared" si="4"/>
-        <v>0.67092505271676117</v>
-      </c>
+      <c r="L20"/>
+      <c r="M20" s="13"/>
       <c r="N20" s="2" t="s">
         <v>117</v>
       </c>
@@ -2644,13 +2590,8 @@
         <f t="shared" si="3"/>
         <v>0.16420036132813709</v>
       </c>
-      <c r="L21">
-        <v>853810</v>
-      </c>
-      <c r="M21" s="13">
-        <f t="shared" si="4"/>
-        <v>0.58556260124463178</v>
-      </c>
+      <c r="L21"/>
+      <c r="M21" s="13"/>
       <c r="N21" s="2" t="s">
         <v>118</v>
       </c>
@@ -2716,13 +2657,8 @@
         <f t="shared" si="3"/>
         <v>0.24858296669475022</v>
       </c>
-      <c r="L22">
-        <v>2007059</v>
-      </c>
-      <c r="M22" s="13">
-        <f t="shared" si="4"/>
-        <v>0.66151848802479085</v>
-      </c>
+      <c r="L22"/>
+      <c r="M22" s="13"/>
       <c r="N22" s="2" t="s">
         <v>119</v>
       </c>
@@ -2788,13 +2724,8 @@
         <f t="shared" si="3"/>
         <v>0.13535265799863105</v>
       </c>
-      <c r="L23">
-        <v>506092</v>
-      </c>
-      <c r="M23" s="13">
-        <f t="shared" si="4"/>
-        <v>0.59350871103021885</v>
-      </c>
+      <c r="L23"/>
+      <c r="M23" s="13"/>
       <c r="N23" s="2" t="s">
         <v>120</v>
       </c>
@@ -2860,13 +2791,8 @@
         <f t="shared" si="3"/>
         <v>0.22617479870644763</v>
       </c>
-      <c r="L24">
-        <v>1685851</v>
-      </c>
-      <c r="M24" s="13">
-        <f t="shared" si="4"/>
-        <v>0.74334807814751513</v>
-      </c>
+      <c r="L24"/>
+      <c r="M24" s="13"/>
       <c r="N24" s="2" t="s">
         <v>121</v>
       </c>
@@ -2932,13 +2858,8 @@
         <f t="shared" si="3"/>
         <v>0.32433772695800345</v>
       </c>
-      <c r="L25">
-        <v>2478021</v>
-      </c>
-      <c r="M25" s="13">
-        <f t="shared" si="4"/>
-        <v>0.58850263683995285</v>
-      </c>
+      <c r="L25"/>
+      <c r="M25" s="13"/>
       <c r="N25" s="2" t="s">
         <v>122</v>
       </c>
@@ -3004,13 +2925,8 @@
         <f t="shared" si="3"/>
         <v>0.29066672267053095</v>
       </c>
-      <c r="L26">
-        <v>1507114</v>
-      </c>
-      <c r="M26" s="13">
-        <f t="shared" si="4"/>
-        <v>0.57615355796652679</v>
-      </c>
+      <c r="L26"/>
+      <c r="M26" s="13"/>
       <c r="N26" s="2" t="s">
         <v>123</v>
       </c>
@@ -3076,13 +2992,8 @@
         <f t="shared" si="3"/>
         <v>0.24549911290354209</v>
       </c>
-      <c r="L27">
-        <v>1589025</v>
-      </c>
-      <c r="M27" s="13">
-        <f t="shared" si="4"/>
-        <v>0.72520965257573167</v>
-      </c>
+      <c r="L27"/>
+      <c r="M27" s="13"/>
       <c r="N27" s="2" t="s">
         <v>124</v>
       </c>
@@ -3148,13 +3059,8 @@
         <f t="shared" si="3"/>
         <v>0.34459911298461776</v>
       </c>
-      <c r="L28">
-        <v>2667608</v>
-      </c>
-      <c r="M28" s="13">
-        <f t="shared" si="4"/>
-        <v>0.71908646425415623</v>
-      </c>
+      <c r="L28"/>
+      <c r="M28" s="13"/>
       <c r="N28" s="2" t="s">
         <v>125</v>
       </c>
@@ -3220,13 +3126,8 @@
         <f t="shared" si="3"/>
         <v>0.18029393057818888</v>
       </c>
-      <c r="L29">
-        <v>561607</v>
-      </c>
-      <c r="M29" s="13">
-        <f t="shared" si="4"/>
-        <v>0.46892688388776954</v>
-      </c>
+      <c r="L29"/>
+      <c r="M29" s="13"/>
       <c r="N29" s="2" t="s">
         <v>126</v>
       </c>
@@ -3292,13 +3193,8 @@
         <f t="shared" si="3"/>
         <v>0.2161143585222588</v>
       </c>
-      <c r="L30">
-        <v>1236497</v>
-      </c>
-      <c r="M30" s="13">
-        <f t="shared" si="4"/>
-        <v>0.59181536273128832</v>
-      </c>
+      <c r="L30"/>
+      <c r="M30" s="13"/>
       <c r="N30" s="2" t="s">
         <v>127</v>
       </c>
@@ -3364,13 +3260,8 @@
         <f t="shared" si="3"/>
         <v>0.36179699378087271</v>
       </c>
-      <c r="L31">
-        <v>2930474</v>
-      </c>
-      <c r="M31" s="13">
-        <f t="shared" si="4"/>
-        <v>0.64999777084608257</v>
-      </c>
+      <c r="L31"/>
+      <c r="M31" s="13"/>
       <c r="N31" s="2" t="s">
         <v>128</v>
       </c>
@@ -3436,13 +3327,8 @@
         <f t="shared" si="3"/>
         <v>0.40949898169828391</v>
       </c>
-      <c r="L32">
-        <v>3099395</v>
-      </c>
-      <c r="M32" s="13">
-        <f t="shared" si="4"/>
-        <v>0.65551946204763767</v>
-      </c>
+      <c r="L32"/>
+      <c r="M32" s="13"/>
       <c r="N32" s="2" t="s">
         <v>129</v>
       </c>
@@ -3508,13 +3394,8 @@
         <f t="shared" si="3"/>
         <v>0.4715416162276207</v>
       </c>
-      <c r="L33">
-        <v>3937464</v>
-      </c>
-      <c r="M33" s="13">
-        <f t="shared" si="4"/>
-        <v>0.70205721136581734</v>
-      </c>
+      <c r="L33"/>
+      <c r="M33" s="13"/>
       <c r="N33" s="2" t="s">
         <v>130</v>
       </c>
@@ -3580,13 +3461,8 @@
         <f t="shared" si="3"/>
         <v>0.2779586527310427</v>
       </c>
-      <c r="L34">
-        <v>2042388</v>
-      </c>
-      <c r="M34" s="13">
-        <f t="shared" si="4"/>
-        <v>0.77137437937309228</v>
-      </c>
+      <c r="L34"/>
+      <c r="M34" s="13"/>
       <c r="N34" s="2" t="s">
         <v>131</v>
       </c>
@@ -3652,13 +3528,8 @@
         <f t="shared" si="3"/>
         <v>0.32974381703979772</v>
       </c>
-      <c r="L35">
-        <v>2573688</v>
-      </c>
-      <c r="M35" s="13">
-        <f t="shared" si="4"/>
-        <v>0.72358123352662096</v>
-      </c>
+      <c r="L35"/>
+      <c r="M35" s="13"/>
       <c r="N35" s="2" t="s">
         <v>132</v>
       </c>
@@ -3724,13 +3595,8 @@
         <f t="shared" si="3"/>
         <v>0.30649902100509352</v>
       </c>
-      <c r="L36">
-        <v>2462468</v>
-      </c>
-      <c r="M36" s="13">
-        <f t="shared" si="4"/>
-        <v>0.67709037356076895</v>
-      </c>
+      <c r="L36"/>
+      <c r="M36" s="13"/>
       <c r="N36" s="2" t="s">
         <v>133</v>
       </c>
@@ -3796,13 +3662,8 @@
         <f t="shared" si="3"/>
         <v>0.2213330441520478</v>
       </c>
-      <c r="L37">
-        <v>909757</v>
-      </c>
-      <c r="M37" s="13">
-        <f t="shared" si="4"/>
-        <v>0.62868683378539469</v>
-      </c>
+      <c r="L37"/>
+      <c r="M37" s="13"/>
       <c r="N37" s="2" t="s">
         <v>134</v>
       </c>
@@ -3868,13 +3729,8 @@
         <f t="shared" si="3"/>
         <v>0.33082829687011095</v>
       </c>
-      <c r="L38">
-        <v>2854857</v>
-      </c>
-      <c r="M38" s="13">
-        <f t="shared" si="4"/>
-        <v>0.65253009217249236</v>
-      </c>
+      <c r="L38"/>
+      <c r="M38" s="13"/>
       <c r="N38" s="2" t="s">
         <v>135</v>
       </c>
@@ -3940,13 +3796,8 @@
         <f t="shared" si="3"/>
         <v>0.43120211744944126</v>
       </c>
-      <c r="L39">
-        <v>4120374</v>
-      </c>
-      <c r="M39" s="13">
-        <f t="shared" si="4"/>
-        <v>0.69847407438548337</v>
-      </c>
+      <c r="L39"/>
+      <c r="M39" s="13"/>
       <c r="N39" s="2" t="s">
         <v>136</v>
       </c>
@@ -4012,13 +3863,8 @@
         <f t="shared" si="3"/>
         <v>0.27493128127832756</v>
       </c>
-      <c r="L40">
-        <v>2887605</v>
-      </c>
-      <c r="M40" s="13">
-        <f t="shared" si="4"/>
-        <v>0.70597463864581023</v>
-      </c>
+      <c r="L40"/>
+      <c r="M40" s="13"/>
       <c r="N40" s="2" t="s">
         <v>137</v>
       </c>
@@ -4084,13 +3930,8 @@
         <f t="shared" si="3"/>
         <v>0.26387914021122971</v>
       </c>
-      <c r="L41">
-        <v>1450814</v>
-      </c>
-      <c r="M41" s="13">
-        <f t="shared" si="4"/>
-        <v>0.69072665094597885</v>
-      </c>
+      <c r="L41"/>
+      <c r="M41" s="13"/>
       <c r="N41" s="2" t="s">
         <v>138</v>
       </c>
@@ -4156,13 +3997,8 @@
         <f t="shared" si="3"/>
         <v>0.25607347735539576</v>
       </c>
-      <c r="L42">
-        <v>1451523</v>
-      </c>
-      <c r="M42" s="13">
-        <f t="shared" si="4"/>
-        <v>0.70192177963728897</v>
-      </c>
+      <c r="L42"/>
+      <c r="M42" s="13"/>
       <c r="N42" s="2" t="s">
         <v>139</v>
       </c>
@@ -4228,13 +4064,8 @@
         <f t="shared" si="3"/>
         <v>0.24262789097203397</v>
       </c>
-      <c r="L43">
-        <v>2125336</v>
-      </c>
-      <c r="M43" s="13">
-        <f t="shared" si="4"/>
-        <v>0.65242587311478728</v>
-      </c>
+      <c r="L43"/>
+      <c r="M43" s="13"/>
       <c r="N43" s="2" t="s">
         <v>140</v>
       </c>
@@ -4300,13 +4131,8 @@
         <f t="shared" si="3"/>
         <v>0.39860531195604687</v>
       </c>
-      <c r="L44">
-        <v>3053592</v>
-      </c>
-      <c r="M44" s="13">
-        <f t="shared" si="4"/>
-        <v>0.74816700319079266</v>
-      </c>
+      <c r="L44"/>
+      <c r="M44" s="13"/>
       <c r="N44" s="2" t="s">
         <v>141</v>
       </c>
@@ -4372,13 +4198,8 @@
         <f t="shared" si="3"/>
         <v>0.38372672368754368</v>
       </c>
-      <c r="L45">
-        <v>4474876</v>
-      </c>
-      <c r="M45" s="13">
-        <f t="shared" si="4"/>
-        <v>0.70943260782128714</v>
-      </c>
+      <c r="L45"/>
+      <c r="M45" s="13"/>
       <c r="N45" s="2" t="s">
         <v>142</v>
       </c>
@@ -4444,13 +4265,8 @@
         <f t="shared" si="3"/>
         <v>0.29625305322143847</v>
       </c>
-      <c r="L46">
-        <v>2960681</v>
-      </c>
-      <c r="M46" s="13">
-        <f t="shared" si="4"/>
-        <v>0.72312475331486203</v>
-      </c>
+      <c r="L46"/>
+      <c r="M46" s="13"/>
       <c r="N46" s="2" t="s">
         <v>143</v>
       </c>
@@ -4516,13 +4332,8 @@
         <f t="shared" si="3"/>
         <v>0.23623042714982612</v>
       </c>
-      <c r="L47">
-        <v>1325141</v>
-      </c>
-      <c r="M47" s="13">
-        <f t="shared" si="4"/>
-        <v>0.69911609473624237</v>
-      </c>
+      <c r="L47"/>
+      <c r="M47" s="13"/>
       <c r="N47" s="2" t="s">
         <v>144</v>
       </c>
@@ -4588,13 +4399,8 @@
         <f t="shared" si="3"/>
         <v>0.23019415426116407</v>
       </c>
-      <c r="L48">
-        <v>1452828</v>
-      </c>
-      <c r="M48" s="13">
-        <f t="shared" si="4"/>
-        <v>0.70421878446075803</v>
-      </c>
+      <c r="L48"/>
+      <c r="M48" s="13"/>
       <c r="N48" s="2" t="s">
         <v>145</v>
       </c>
@@ -4660,13 +4466,8 @@
         <f t="shared" si="3"/>
         <v>0.37872068197124842</v>
       </c>
-      <c r="L49">
-        <v>2524166</v>
-      </c>
-      <c r="M49" s="13">
-        <f t="shared" si="4"/>
-        <v>0.68177695475340694</v>
-      </c>
+      <c r="L49"/>
+      <c r="M49" s="13"/>
       <c r="N49" s="2" t="s">
         <v>146</v>
       </c>
@@ -4729,7 +4530,7 @@
         <v>0.92824943930521286</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" ref="K50:K97" si="5">1-I50</f>
+        <f t="shared" ref="K50:K97" si="4">1-I50</f>
         <v>7.1750560694787135E-2</v>
       </c>
       <c r="L50" s="12"/>
@@ -4756,12 +4557,12 @@
         <v>878719</v>
       </c>
       <c r="V50" s="4">
-        <f t="shared" ref="V50:V97" si="6">(O50-U50)/O50</f>
+        <f t="shared" ref="V50:V97" si="5">(O50-U50)/O50</f>
         <v>0.92824943930521286</v>
       </c>
       <c r="W50" s="3"/>
       <c r="X50" s="4">
-        <f t="shared" ref="X50:X97" si="7">1-V50</f>
+        <f t="shared" ref="X50:X97" si="6">1-V50</f>
         <v>7.1750560694787135E-2</v>
       </c>
     </row>
@@ -4788,11 +4589,11 @@
         <v>247332</v>
       </c>
       <c r="I51" s="11">
-        <f t="shared" ref="I51:I97" si="8">(B51-H51)/B51</f>
+        <f t="shared" ref="I51:I97" si="7">(B51-H51)/B51</f>
         <v>0.90540317778191692</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.4596822218083076E-2</v>
       </c>
       <c r="L51" s="12"/>
@@ -4819,12 +4620,12 @@
         <v>247332</v>
       </c>
       <c r="V51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.90540317778191692</v>
       </c>
       <c r="W51" s="3"/>
       <c r="X51" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.4596822218083076E-2</v>
       </c>
     </row>
@@ -4851,11 +4652,11 @@
         <v>722109</v>
       </c>
       <c r="I52" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.92396247345801119</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.6037526541988809E-2</v>
       </c>
       <c r="L52" s="12"/>
@@ -4882,12 +4683,12 @@
         <v>722109</v>
       </c>
       <c r="V52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.92396247345801119</v>
       </c>
       <c r="W52" s="3"/>
       <c r="X52" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.6037526541988809E-2</v>
       </c>
     </row>
@@ -4914,11 +4715,11 @@
         <v>932937</v>
       </c>
       <c r="I53" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.91429256504397971</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.570743495602029E-2</v>
       </c>
       <c r="L53" s="12"/>
@@ -4945,12 +4746,12 @@
         <v>932937</v>
       </c>
       <c r="V53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.91429256504397971</v>
       </c>
       <c r="W53" s="3"/>
       <c r="X53" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.570743495602029E-2</v>
       </c>
     </row>
@@ -4977,11 +4778,11 @@
         <v>32362</v>
       </c>
       <c r="I54" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.91753875006051711</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.2461249939482895E-2</v>
       </c>
       <c r="L54" s="12"/>
@@ -5008,12 +4809,12 @@
         <v>32362</v>
       </c>
       <c r="V54" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.91753875006051711</v>
       </c>
       <c r="W54" s="3"/>
       <c r="X54" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.2461249939482895E-2</v>
       </c>
     </row>
@@ -5040,11 +4841,11 @@
         <v>323633</v>
       </c>
       <c r="I55" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.9113934343644523</v>
       </c>
       <c r="K55" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.8606565635547696E-2</v>
       </c>
       <c r="L55" s="12"/>
@@ -5071,12 +4872,12 @@
         <v>323633</v>
       </c>
       <c r="V55" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.9113934343644523</v>
       </c>
       <c r="W55" s="3"/>
       <c r="X55" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.8606565635547696E-2</v>
       </c>
     </row>
@@ -5103,11 +4904,11 @@
         <v>331781</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.91423647479834858</v>
       </c>
       <c r="K56" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.5763525201651425E-2</v>
       </c>
       <c r="L56" s="12"/>
@@ -5134,12 +4935,12 @@
         <v>331781</v>
       </c>
       <c r="V56" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.91423647479834858</v>
       </c>
       <c r="W56" s="3"/>
       <c r="X56" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.5763525201651425E-2</v>
       </c>
     </row>
@@ -5166,11 +4967,11 @@
         <v>1134644</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.93255312543152047</v>
       </c>
       <c r="K57" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.7446874568479531E-2</v>
       </c>
       <c r="L57" s="12"/>
@@ -5197,12 +4998,12 @@
         <v>1134644</v>
       </c>
       <c r="V57" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.93255312543152047</v>
       </c>
       <c r="W57" s="3"/>
       <c r="X57" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.7446874568479531E-2</v>
       </c>
     </row>
@@ -5229,11 +5030,11 @@
         <v>1280204</v>
       </c>
       <c r="I58" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.93398667516796552</v>
       </c>
       <c r="K58" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.6013324832034481E-2</v>
       </c>
       <c r="L58" s="12"/>
@@ -5260,12 +5061,12 @@
         <v>1280204</v>
       </c>
       <c r="V58" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.93398667516796552</v>
       </c>
       <c r="W58" s="3"/>
       <c r="X58" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.6013324832034481E-2</v>
       </c>
     </row>
@@ -5292,11 +5093,11 @@
         <v>1569381</v>
       </c>
       <c r="I59" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.89983668216066137</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.10016331783933863</v>
       </c>
       <c r="L59" s="12"/>
@@ -5323,12 +5124,12 @@
         <v>1569381</v>
       </c>
       <c r="V59" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.89983668216066137</v>
       </c>
       <c r="W59" s="3"/>
       <c r="X59" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.10016331783933863</v>
       </c>
     </row>
@@ -5355,11 +5156,11 @@
         <v>1106458</v>
       </c>
       <c r="I60" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.92672564995623574</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.3274350043764258E-2</v>
       </c>
       <c r="L60" s="12"/>
@@ -5386,12 +5187,12 @@
         <v>1106458</v>
       </c>
       <c r="V60" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.92672564995623574</v>
       </c>
       <c r="W60" s="3"/>
       <c r="X60" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.3274350043764258E-2</v>
       </c>
     </row>
@@ -5418,11 +5219,11 @@
         <v>1815660</v>
       </c>
       <c r="I61" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.90225754672934555</v>
       </c>
       <c r="K61" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.774245327065445E-2</v>
       </c>
       <c r="L61" s="12"/>
@@ -5449,12 +5250,12 @@
         <v>1815660</v>
       </c>
       <c r="V61" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.90225754672934555</v>
       </c>
       <c r="W61" s="3"/>
       <c r="X61" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.774245327065445E-2</v>
       </c>
     </row>
@@ -5481,11 +5282,11 @@
         <v>926886</v>
       </c>
       <c r="I62" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.92094980385976155</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.9050196140238449E-2</v>
       </c>
       <c r="L62" s="12"/>
@@ -5512,12 +5313,12 @@
         <v>926886</v>
       </c>
       <c r="V62" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.92094980385976155</v>
       </c>
       <c r="W62" s="3"/>
       <c r="X62" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.9050196140238449E-2</v>
       </c>
     </row>
@@ -5544,11 +5345,11 @@
         <v>268472</v>
       </c>
       <c r="I63" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.9105097509544956</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.94902490455044E-2</v>
       </c>
       <c r="L63" s="12"/>
@@ -5575,12 +5376,12 @@
         <v>268472</v>
       </c>
       <c r="V63" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.9105097509544956</v>
       </c>
       <c r="W63" s="3"/>
       <c r="X63" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.94902490455044E-2</v>
       </c>
     </row>
@@ -5607,11 +5408,11 @@
         <v>584418</v>
       </c>
       <c r="I64" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.93623498843394615</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.3765011566053853E-2</v>
       </c>
       <c r="L64" s="12"/>
@@ -5638,12 +5439,12 @@
         <v>584418</v>
       </c>
       <c r="V64" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.93623498843394615</v>
       </c>
       <c r="W64" s="3"/>
       <c r="X64" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.3765011566053853E-2</v>
       </c>
     </row>
@@ -5670,11 +5471,11 @@
         <v>249021</v>
       </c>
       <c r="I65" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.85733478010784347</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.14266521989215653</v>
       </c>
       <c r="L65" s="12"/>
@@ -5701,12 +5502,12 @@
         <v>249021</v>
       </c>
       <c r="V65" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.85733478010784347</v>
       </c>
       <c r="W65" s="3"/>
       <c r="X65" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.14266521989215653</v>
       </c>
     </row>
@@ -5733,11 +5534,11 @@
         <v>696053</v>
       </c>
       <c r="I66" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.9403255388360714</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.9674461163928605E-2</v>
       </c>
       <c r="L66" s="12"/>
@@ -5764,12 +5565,12 @@
         <v>696053</v>
       </c>
       <c r="V66" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.9403255388360714</v>
       </c>
       <c r="W66" s="3"/>
       <c r="X66" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.9674461163928605E-2</v>
       </c>
     </row>
@@ -5796,11 +5597,11 @@
         <v>739708</v>
       </c>
       <c r="I67" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.9293425200118407</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.06574799881593E-2</v>
       </c>
       <c r="L67" s="12"/>
@@ -5827,12 +5628,12 @@
         <v>739708</v>
       </c>
       <c r="V67" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.9293425200118407</v>
       </c>
       <c r="W67" s="3"/>
       <c r="X67" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.06574799881593E-2</v>
       </c>
     </row>
@@ -5859,11 +5660,11 @@
         <v>1490072</v>
       </c>
       <c r="I68" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.92982797193141487</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.0172028068585135E-2</v>
       </c>
       <c r="L68" s="12"/>
@@ -5890,12 +5691,12 @@
         <v>1490072</v>
       </c>
       <c r="V68" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.92982797193141487</v>
       </c>
       <c r="W68" s="3"/>
       <c r="X68" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.0172028068585135E-2</v>
       </c>
     </row>
@@ -5922,11 +5723,11 @@
         <v>252430</v>
       </c>
       <c r="I69" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.90888421332276459</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.1115786677235411E-2</v>
       </c>
       <c r="L69" s="12"/>
@@ -5953,12 +5754,12 @@
         <v>252430</v>
       </c>
       <c r="V69" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.90888421332276459</v>
       </c>
       <c r="W69" s="3"/>
       <c r="X69" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.1115786677235411E-2</v>
       </c>
     </row>
@@ -5985,11 +5786,11 @@
         <v>152308</v>
       </c>
       <c r="I70" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.87713708135630952</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12286291864369048</v>
       </c>
       <c r="L70" s="12"/>
@@ -6016,12 +5817,12 @@
         <v>152308</v>
       </c>
       <c r="V70" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.87713708135630952</v>
       </c>
       <c r="W70" s="3"/>
       <c r="X70" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.12286291864369048</v>
       </c>
     </row>
@@ -6048,11 +5849,11 @@
         <v>120008</v>
       </c>
       <c r="I71" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.88578955082121358</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11421044917878642</v>
       </c>
       <c r="L71" s="12"/>
@@ -6079,12 +5880,12 @@
         <v>120008</v>
       </c>
       <c r="V71" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.88578955082121358</v>
       </c>
       <c r="W71" s="3"/>
       <c r="X71" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.11421044917878642</v>
       </c>
     </row>
@@ -6111,11 +5912,11 @@
         <v>96812</v>
       </c>
       <c r="I72" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.85402952218687334</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.14597047781312666</v>
       </c>
       <c r="L72" s="12"/>
@@ -6142,12 +5943,12 @@
         <v>96812</v>
       </c>
       <c r="V72" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.85402952218687334</v>
       </c>
       <c r="W72" s="3"/>
       <c r="X72" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.14597047781312666</v>
       </c>
     </row>
@@ -6174,11 +5975,11 @@
         <v>352621</v>
       </c>
       <c r="I73" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.91749224108239236</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.2507758917607643E-2</v>
       </c>
       <c r="L73" s="12"/>
@@ -6205,12 +6006,12 @@
         <v>352621</v>
       </c>
       <c r="V73" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.91749224108239236</v>
       </c>
       <c r="W73" s="3"/>
       <c r="X73" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.2507758917607643E-2</v>
       </c>
     </row>
@@ -6237,11 +6038,11 @@
         <v>237661</v>
       </c>
       <c r="I74" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.84259140899502261</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.15740859100497739</v>
       </c>
       <c r="L74" s="12"/>
@@ -6268,12 +6069,12 @@
         <v>237661</v>
       </c>
       <c r="V74" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.84259140899502261</v>
       </c>
       <c r="W74" s="3"/>
       <c r="X74" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.15740859100497739</v>
       </c>
     </row>
@@ -6300,11 +6101,11 @@
         <v>1267014</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.91573648062635504</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.4263519373644957E-2</v>
       </c>
       <c r="L75" s="12"/>
@@ -6331,12 +6132,12 @@
         <v>1267014</v>
       </c>
       <c r="V75" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.91573648062635504</v>
       </c>
       <c r="W75" s="3"/>
       <c r="X75" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.4263519373644957E-2</v>
       </c>
     </row>
@@ -6363,11 +6164,11 @@
         <v>1387034</v>
       </c>
       <c r="I76" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.91789761485691179</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.2102385143088208E-2</v>
       </c>
       <c r="L76" s="12"/>
@@ -6394,12 +6195,12 @@
         <v>1387034</v>
       </c>
       <c r="V76" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.91789761485691179</v>
       </c>
       <c r="W76" s="3"/>
       <c r="X76" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.2102385143088208E-2</v>
       </c>
     </row>
@@ -6426,11 +6227,11 @@
         <v>340281</v>
       </c>
       <c r="I77" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.91098433074555241</v>
       </c>
       <c r="K77" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.9015669254447594E-2</v>
       </c>
       <c r="L77" s="12"/>
@@ -6457,12 +6258,12 @@
         <v>340281</v>
       </c>
       <c r="V77" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.91098433074555241</v>
       </c>
       <c r="W77" s="3"/>
       <c r="X77" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.9015669254447594E-2</v>
       </c>
     </row>
@@ -6489,11 +6290,11 @@
         <v>699061</v>
       </c>
       <c r="I78" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.92669524987870122</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.3304750121298778E-2</v>
       </c>
       <c r="L78" s="12"/>
@@ -6520,12 +6321,12 @@
         <v>699061</v>
       </c>
       <c r="V78" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.92669524987870122</v>
       </c>
       <c r="W78" s="3"/>
       <c r="X78" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.3304750121298778E-2</v>
       </c>
     </row>
@@ -6552,11 +6353,11 @@
         <v>309035</v>
       </c>
       <c r="I79" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.91769292497667565</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.230707502332435E-2</v>
       </c>
       <c r="L79" s="12"/>
@@ -6583,12 +6384,12 @@
         <v>309035</v>
       </c>
       <c r="V79" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.91769292497667565</v>
       </c>
       <c r="W79" s="3"/>
       <c r="X79" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.230707502332435E-2</v>
       </c>
     </row>
@@ -6615,11 +6416,11 @@
         <v>645429</v>
       </c>
       <c r="I80" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.93546205006076033</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.4537949939239669E-2</v>
       </c>
       <c r="L80" s="12"/>
@@ -6646,12 +6447,12 @@
         <v>645429</v>
       </c>
       <c r="V80" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.93546205006076033</v>
       </c>
       <c r="W80" s="3"/>
       <c r="X80" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.4537949939239669E-2</v>
       </c>
     </row>
@@ -6678,11 +6479,11 @@
         <v>796681</v>
       </c>
       <c r="I81" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.92734552027985639</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.2654479720143605E-2</v>
       </c>
       <c r="L81" s="12"/>
@@ -6709,12 +6510,12 @@
         <v>796681</v>
       </c>
       <c r="V81" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.92734552027985639</v>
       </c>
       <c r="W81" s="3"/>
       <c r="X81" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.2654479720143605E-2</v>
       </c>
     </row>
@@ -6741,11 +6542,11 @@
         <v>624347</v>
       </c>
       <c r="I82" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.9387768930420759</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.1223106957924101E-2</v>
       </c>
       <c r="L82" s="12"/>
@@ -6772,12 +6573,12 @@
         <v>624347</v>
       </c>
       <c r="V82" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.9387768930420759</v>
       </c>
       <c r="W82" s="3"/>
       <c r="X82" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.1223106957924101E-2</v>
       </c>
     </row>
@@ -6804,11 +6605,11 @@
         <v>304607</v>
       </c>
       <c r="I83" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.90681407203663478</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.3185927963365223E-2</v>
       </c>
       <c r="L83" s="12"/>
@@ -6835,12 +6636,12 @@
         <v>304607</v>
       </c>
       <c r="V83" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.90681407203663478</v>
       </c>
       <c r="W83" s="3"/>
       <c r="X83" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.3185927963365223E-2</v>
       </c>
     </row>
@@ -6867,11 +6668,11 @@
         <v>793940</v>
       </c>
       <c r="I84" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.91833939560003275</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.1660604399967252E-2</v>
       </c>
       <c r="L84" s="12"/>
@@ -6898,12 +6699,12 @@
         <v>793940</v>
       </c>
       <c r="V84" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.91833939560003275</v>
       </c>
       <c r="W84" s="3"/>
       <c r="X84" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.1660604399967252E-2</v>
       </c>
     </row>
@@ -6930,11 +6731,11 @@
         <v>1211234</v>
       </c>
       <c r="I85" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.92740718845240933</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.2592811547590674E-2</v>
       </c>
       <c r="L85" s="12"/>
@@ -6961,12 +6762,12 @@
         <v>1211234</v>
       </c>
       <c r="V85" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.92740718845240933</v>
       </c>
       <c r="W85" s="3"/>
       <c r="X85" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.2592811547590674E-2</v>
       </c>
     </row>
@@ -6993,11 +6794,11 @@
         <v>1560066</v>
       </c>
       <c r="I86" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.90327207428539225</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.6727925714607754E-2</v>
       </c>
       <c r="L86" s="12"/>
@@ -7024,12 +6825,12 @@
         <v>1560066</v>
       </c>
       <c r="V86" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.90327207428539225</v>
       </c>
       <c r="W86" s="3"/>
       <c r="X86" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.6727925714607754E-2</v>
       </c>
     </row>
@@ -7056,11 +6857,11 @@
         <v>675378</v>
       </c>
       <c r="I87" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.93940467324157251</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.0595326758427492E-2</v>
       </c>
       <c r="L87" s="12"/>
@@ -7087,12 +6888,12 @@
         <v>675378</v>
       </c>
       <c r="V87" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.93940467324157251</v>
       </c>
       <c r="W87" s="3"/>
       <c r="X87" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.0595326758427492E-2</v>
       </c>
     </row>
@@ -7119,11 +6920,11 @@
         <v>96980</v>
       </c>
       <c r="I88" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.79527126873548659</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.20472873126451341</v>
       </c>
       <c r="L88" s="12"/>
@@ -7150,12 +6951,12 @@
         <v>96980</v>
       </c>
       <c r="V88" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.79527126873548659</v>
       </c>
       <c r="W88" s="3"/>
       <c r="X88" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.20472873126451341</v>
       </c>
     </row>
@@ -7182,11 +6983,11 @@
         <v>771746</v>
       </c>
       <c r="I89" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.92862876630287416</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.1371233697125835E-2</v>
       </c>
       <c r="L89" s="12"/>
@@ -7213,12 +7014,12 @@
         <v>771746</v>
       </c>
       <c r="V89" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.92862876630287416</v>
       </c>
       <c r="W89" s="3"/>
       <c r="X89" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.1371233697125835E-2</v>
       </c>
     </row>
@@ -7245,11 +7046,11 @@
         <v>1496213</v>
       </c>
       <c r="I90" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.92750812231921798</v>
       </c>
       <c r="K90" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.2491877680782024E-2</v>
       </c>
       <c r="L90" s="12"/>
@@ -7276,12 +7077,12 @@
         <v>1496213</v>
       </c>
       <c r="V90" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.92750812231921798</v>
       </c>
       <c r="W90" s="3"/>
       <c r="X90" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.2491877680782024E-2</v>
       </c>
     </row>
@@ -7308,11 +7109,11 @@
         <v>215349</v>
       </c>
       <c r="I91" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.92705888967770955</v>
       </c>
       <c r="K91" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.2941110322290448E-2</v>
       </c>
       <c r="L91" s="12"/>
@@ -7339,12 +7140,12 @@
         <v>215349</v>
       </c>
       <c r="V91" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.92705888967770955</v>
       </c>
       <c r="W91" s="3"/>
       <c r="X91" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.2941110322290448E-2</v>
       </c>
     </row>
@@ -7371,11 +7172,11 @@
         <v>2029638</v>
       </c>
       <c r="I92" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.89953066512117597</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.10046933487882403</v>
       </c>
       <c r="L92" s="12"/>
@@ -7402,12 +7203,12 @@
         <v>2029638</v>
       </c>
       <c r="V92" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.89953066512117597</v>
       </c>
       <c r="W92" s="3"/>
       <c r="X92" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.10046933487882403</v>
       </c>
     </row>
@@ -7434,11 +7235,11 @@
         <v>2543327</v>
       </c>
       <c r="I93" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.89138087130382104</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.10861912869617896</v>
       </c>
       <c r="L93" s="12"/>
@@ -7465,12 +7266,12 @@
         <v>2543327</v>
       </c>
       <c r="V93" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.89138087130382104</v>
       </c>
       <c r="W93" s="3"/>
       <c r="X93" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.10861912869617896</v>
       </c>
     </row>
@@ -7497,11 +7298,11 @@
         <v>1454733</v>
       </c>
       <c r="I94" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.93904181283952193</v>
       </c>
       <c r="K94" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.0958187160478072E-2</v>
       </c>
       <c r="L94" s="12"/>
@@ -7528,12 +7329,12 @@
         <v>1454733</v>
       </c>
       <c r="V94" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.93904181283952193</v>
       </c>
       <c r="W94" s="3"/>
       <c r="X94" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.0958187160478072E-2</v>
       </c>
     </row>
@@ -7560,11 +7361,11 @@
         <v>48765</v>
       </c>
       <c r="I95" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.90378335717456715</v>
       </c>
       <c r="K95" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.6216642825432852E-2</v>
       </c>
       <c r="L95" s="12"/>
@@ -7591,12 +7392,12 @@
         <v>48765</v>
       </c>
       <c r="V95" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.90378335717456715</v>
       </c>
       <c r="W95" s="3"/>
       <c r="X95" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.6216642825432852E-2</v>
       </c>
     </row>
@@ -7623,11 +7424,11 @@
         <v>287005</v>
       </c>
       <c r="I96" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.9187602980850692</v>
       </c>
       <c r="K96" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.1239701914930795E-2</v>
       </c>
       <c r="L96" s="12"/>
@@ -7654,12 +7455,12 @@
         <v>287005</v>
       </c>
       <c r="V96" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.9187602980850692</v>
       </c>
       <c r="W96" s="3"/>
       <c r="X96" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.1239701914930795E-2</v>
       </c>
     </row>
@@ -7686,11 +7487,11 @@
         <v>1032853</v>
       </c>
       <c r="I97" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.93236111574070835</v>
       </c>
       <c r="K97" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.7638884259291654E-2</v>
       </c>
       <c r="L97" s="12"/>
@@ -7717,42 +7518,42 @@
         <v>1032853</v>
       </c>
       <c r="V97" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.93236111574070835</v>
       </c>
       <c r="W97" s="3"/>
       <c r="X97" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.7638884259291654E-2</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B98" s="5">
-        <f t="shared" ref="B98" si="9">SUM(B2:B97)</f>
+        <f t="shared" ref="B98" si="8">SUM(B2:B97)</f>
         <v>1030054588</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" ref="C98:H98" si="10">SUM(C2:C97)</f>
+        <f t="shared" ref="C98:H98" si="9">SUM(C2:C97)</f>
         <v>228782525</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>764441711</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>36775808</v>
       </c>
       <c r="F98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>54544</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>173669378</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>37132406</v>
       </c>
       <c r="I98" s="5"/>
@@ -7762,36 +7563,5107 @@
       <c r="M98" s="16"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5">
-        <f t="shared" ref="O98:U98" si="11">SUM(O2:O97)</f>
+        <f t="shared" ref="O98:U98" si="10">SUM(O2:O97)</f>
         <v>1030054588</v>
       </c>
       <c r="P98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>228782525</v>
       </c>
       <c r="Q98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>764441711</v>
       </c>
       <c r="R98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>36775808</v>
       </c>
       <c r="S98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>54544</v>
       </c>
       <c r="T98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>173669378</v>
       </c>
       <c r="U98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>37132406</v>
       </c>
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
       <c r="X98" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E77320-2AB4-6F4B-A221-BFCEDCB98D66}">
+  <dimension ref="A1:N288"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>4247857</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <f>B4+B5</f>
+        <v>3703595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>4247857</v>
+      </c>
+      <c r="C2" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>B10+B11</f>
+        <v>4201694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>544262</v>
+      </c>
+      <c r="C3" s="18">
+        <v>-0.12809999999999999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>B16+B17</f>
+        <v>3819142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2808350</v>
+      </c>
+      <c r="C4" s="18">
+        <v>-0.66110000000000002</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <f>SUM(B22:B23)</f>
+        <v>3132231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>895245</v>
+      </c>
+      <c r="C5" s="18">
+        <v>-0.21079999999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4845731</v>
+      </c>
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>4845731</v>
+      </c>
+      <c r="C8" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>644037</v>
+      </c>
+      <c r="C9" s="18">
+        <v>-0.13289999999999999</v>
+      </c>
+      <c r="D9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>3414022</v>
+      </c>
+      <c r="C10" s="18">
+        <v>-0.70450000000000002</v>
+      </c>
+      <c r="D10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>224</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>787672</v>
+      </c>
+      <c r="C11" s="18">
+        <v>-0.16250000000000001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="B12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4367644</v>
+      </c>
+      <c r="B13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>4367644</v>
+      </c>
+      <c r="C14" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" t="s">
+        <v>218</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>548502</v>
+      </c>
+      <c r="C15" s="18">
+        <v>-0.12559999999999999</v>
+      </c>
+      <c r="D15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>3069086</v>
+      </c>
+      <c r="C16" s="18">
+        <v>-0.70269999999999999</v>
+      </c>
+      <c r="D16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>224</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>750056</v>
+      </c>
+      <c r="C17" s="18">
+        <v>-0.17169999999999999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="B18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" t="s">
+        <v>228</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3629351</v>
+      </c>
+      <c r="B19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" t="s">
+        <v>218</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>3629351</v>
+      </c>
+      <c r="C20" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" t="s">
+        <v>218</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>497120</v>
+      </c>
+      <c r="C21" s="18">
+        <v>-0.13700000000000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>222</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>2314422</v>
+      </c>
+      <c r="C22" s="18">
+        <v>-0.63770000000000004</v>
+      </c>
+      <c r="D22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>817809</v>
+      </c>
+      <c r="C23" s="18">
+        <v>-0.2253</v>
+      </c>
+      <c r="D23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="B24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4500345</v>
+      </c>
+      <c r="B25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>4500345</v>
+      </c>
+      <c r="C26" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>613827</v>
+      </c>
+      <c r="C27" s="18">
+        <v>-0.13639999999999999</v>
+      </c>
+      <c r="D27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>2895134</v>
+      </c>
+      <c r="C28" s="18">
+        <v>-0.64329999999999998</v>
+      </c>
+      <c r="D28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>991384</v>
+      </c>
+      <c r="C29" s="18">
+        <v>-0.2203</v>
+      </c>
+      <c r="D29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="B30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4408738</v>
+      </c>
+      <c r="B31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" t="s">
+        <v>218</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>4408738</v>
+      </c>
+      <c r="C32" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" t="s">
+        <v>217</v>
+      </c>
+      <c r="G32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>535082</v>
+      </c>
+      <c r="C33" s="18">
+        <v>-0.12139999999999999</v>
+      </c>
+      <c r="D33" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>222</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>2862741</v>
+      </c>
+      <c r="C34" s="18">
+        <v>-0.64929999999999999</v>
+      </c>
+      <c r="D34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1010915</v>
+      </c>
+      <c r="C35" s="18">
+        <v>-0.2293</v>
+      </c>
+      <c r="D35" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" t="s">
+        <v>222</v>
+      </c>
+      <c r="J35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="B36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" t="s">
+        <v>228</v>
+      </c>
+      <c r="J36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4337416</v>
+      </c>
+      <c r="B37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" t="s">
+        <v>218</v>
+      </c>
+      <c r="J37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>4337416</v>
+      </c>
+      <c r="C38" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" t="s">
+        <v>218</v>
+      </c>
+      <c r="J38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>577819</v>
+      </c>
+      <c r="C39" s="18">
+        <v>-0.13320000000000001</v>
+      </c>
+      <c r="D39" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>222</v>
+      </c>
+      <c r="J39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>3132819</v>
+      </c>
+      <c r="C40" s="18">
+        <v>-0.72230000000000005</v>
+      </c>
+      <c r="D40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>626778</v>
+      </c>
+      <c r="C41" s="18">
+        <v>-0.14449999999999999</v>
+      </c>
+      <c r="D41" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41" t="s">
+        <v>222</v>
+      </c>
+      <c r="J41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="B42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" t="s">
+        <v>228</v>
+      </c>
+      <c r="J42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5025037</v>
+      </c>
+      <c r="B43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" t="s">
+        <v>218</v>
+      </c>
+      <c r="J43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>5025037</v>
+      </c>
+      <c r="C44" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" t="s">
+        <v>218</v>
+      </c>
+      <c r="J44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>659694</v>
+      </c>
+      <c r="C45" s="18">
+        <v>-0.1313</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>222</v>
+      </c>
+      <c r="J45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>3342531</v>
+      </c>
+      <c r="C46" s="18">
+        <v>-0.66520000000000001</v>
+      </c>
+      <c r="D46" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>1022812</v>
+      </c>
+      <c r="C47" s="18">
+        <v>-0.20349999999999999</v>
+      </c>
+      <c r="D47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" t="s">
+        <v>225</v>
+      </c>
+      <c r="F47" t="s">
+        <v>222</v>
+      </c>
+      <c r="J47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="18">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="B48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" t="s">
+        <v>228</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2987276</v>
+      </c>
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>2987276</v>
+      </c>
+      <c r="C50" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" t="s">
+        <v>217</v>
+      </c>
+      <c r="G50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>510951</v>
+      </c>
+      <c r="C51" s="18">
+        <v>-0.17100000000000001</v>
+      </c>
+      <c r="D51" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>2109094</v>
+      </c>
+      <c r="C52" s="18">
+        <v>-0.70599999999999996</v>
+      </c>
+      <c r="D52" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" t="s">
+        <v>223</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>367231</v>
+      </c>
+      <c r="C53" s="18">
+        <v>-0.1229</v>
+      </c>
+      <c r="D53" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="18">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="B54" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3727077</v>
+      </c>
+      <c r="B55" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>3727077</v>
+      </c>
+      <c r="C56" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" t="s">
+        <v>220</v>
+      </c>
+      <c r="F56" t="s">
+        <v>217</v>
+      </c>
+      <c r="G56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>612973</v>
+      </c>
+      <c r="C57" s="18">
+        <v>-0.16450000000000001</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>2601450</v>
+      </c>
+      <c r="C58" s="18">
+        <v>-0.69799999999999995</v>
+      </c>
+      <c r="D58" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>512654</v>
+      </c>
+      <c r="C59" s="18">
+        <v>-0.13750000000000001</v>
+      </c>
+      <c r="D59" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" t="s">
+        <v>225</v>
+      </c>
+      <c r="F59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="18">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="B60" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>5640952</v>
+      </c>
+      <c r="B61" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>5640952</v>
+      </c>
+      <c r="C62" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" t="s">
+        <v>220</v>
+      </c>
+      <c r="F62" t="s">
+        <v>217</v>
+      </c>
+      <c r="G62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>762635</v>
+      </c>
+      <c r="C63" s="18">
+        <v>-0.13519999999999999</v>
+      </c>
+      <c r="D63" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>3738939</v>
+      </c>
+      <c r="C64" s="18">
+        <v>-0.66279999999999994</v>
+      </c>
+      <c r="D64" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" t="s">
+        <v>223</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>1139378</v>
+      </c>
+      <c r="C65" s="18">
+        <v>-0.20200000000000001</v>
+      </c>
+      <c r="D65" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" t="s">
+        <v>225</v>
+      </c>
+      <c r="F65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="18">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="B66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>4198117</v>
+      </c>
+      <c r="B67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>4198117</v>
+      </c>
+      <c r="C68" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>219</v>
+      </c>
+      <c r="E68" t="s">
+        <v>220</v>
+      </c>
+      <c r="F68" t="s">
+        <v>217</v>
+      </c>
+      <c r="G68" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>571856</v>
+      </c>
+      <c r="C69" s="18">
+        <v>-0.13619999999999999</v>
+      </c>
+      <c r="D69" t="s">
+        <v>221</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>2897644</v>
+      </c>
+      <c r="C70" s="18">
+        <v>-0.69020000000000004</v>
+      </c>
+      <c r="D70" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" t="s">
+        <v>223</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>728617</v>
+      </c>
+      <c r="C71" s="18">
+        <v>-0.1736</v>
+      </c>
+      <c r="D71" t="s">
+        <v>221</v>
+      </c>
+      <c r="E71" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="18">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="B72" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" t="s">
+        <v>227</v>
+      </c>
+      <c r="D72" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>3183800</v>
+      </c>
+      <c r="B73" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>3183800</v>
+      </c>
+      <c r="C74" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" t="s">
+        <v>220</v>
+      </c>
+      <c r="F74" t="s">
+        <v>217</v>
+      </c>
+      <c r="G74" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>435998</v>
+      </c>
+      <c r="C75" s="18">
+        <v>-0.13689999999999999</v>
+      </c>
+      <c r="D75" t="s">
+        <v>221</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>1871469</v>
+      </c>
+      <c r="C76" s="18">
+        <v>-0.58779999999999999</v>
+      </c>
+      <c r="D76" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" t="s">
+        <v>223</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>876333</v>
+      </c>
+      <c r="C77" s="18">
+        <v>-0.2752</v>
+      </c>
+      <c r="D77" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="18">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="B78" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>3981280</v>
+      </c>
+      <c r="B79" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>3981280</v>
+      </c>
+      <c r="C80" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" t="s">
+        <v>220</v>
+      </c>
+      <c r="F80" t="s">
+        <v>217</v>
+      </c>
+      <c r="G80" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>519630</v>
+      </c>
+      <c r="C81" s="18">
+        <v>-0.1305</v>
+      </c>
+      <c r="D81" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>2750621</v>
+      </c>
+      <c r="C82" s="18">
+        <v>-0.69089999999999996</v>
+      </c>
+      <c r="D82" t="s">
+        <v>221</v>
+      </c>
+      <c r="E82" t="s">
+        <v>223</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>711029</v>
+      </c>
+      <c r="C83" s="18">
+        <v>-0.17860000000000001</v>
+      </c>
+      <c r="D83" t="s">
+        <v>221</v>
+      </c>
+      <c r="E83" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="18">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="B84" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>4395690</v>
+      </c>
+      <c r="B85" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>4395690</v>
+      </c>
+      <c r="C86" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" t="s">
+        <v>220</v>
+      </c>
+      <c r="F86" t="s">
+        <v>217</v>
+      </c>
+      <c r="G86" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>719327</v>
+      </c>
+      <c r="C87" s="18">
+        <v>-0.1636</v>
+      </c>
+      <c r="D87" t="s">
+        <v>221</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>3116597</v>
+      </c>
+      <c r="C88" s="18">
+        <v>-0.70899999999999996</v>
+      </c>
+      <c r="D88" t="s">
+        <v>221</v>
+      </c>
+      <c r="E88" t="s">
+        <v>223</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>559766</v>
+      </c>
+      <c r="C89" s="18">
+        <v>-0.1273</v>
+      </c>
+      <c r="D89" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" t="s">
+        <v>225</v>
+      </c>
+      <c r="F89" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="18">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="B90" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" t="s">
+        <v>227</v>
+      </c>
+      <c r="D90" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>3745497</v>
+      </c>
+      <c r="B91" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>3745497</v>
+      </c>
+      <c r="C92" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>219</v>
+      </c>
+      <c r="E92" t="s">
+        <v>220</v>
+      </c>
+      <c r="F92" t="s">
+        <v>217</v>
+      </c>
+      <c r="G92" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>515792</v>
+      </c>
+      <c r="C93" s="18">
+        <v>-0.13769999999999999</v>
+      </c>
+      <c r="D93" t="s">
+        <v>221</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>2675145</v>
+      </c>
+      <c r="C94" s="18">
+        <v>-0.71419999999999995</v>
+      </c>
+      <c r="D94" t="s">
+        <v>221</v>
+      </c>
+      <c r="E94" t="s">
+        <v>223</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>554560</v>
+      </c>
+      <c r="C95" s="18">
+        <v>-0.14810000000000001</v>
+      </c>
+      <c r="D95" t="s">
+        <v>221</v>
+      </c>
+      <c r="E95" t="s">
+        <v>225</v>
+      </c>
+      <c r="F95" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="18">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="B96" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" t="s">
+        <v>227</v>
+      </c>
+      <c r="D96" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>3395173</v>
+      </c>
+      <c r="B97" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" t="s">
+        <v>217</v>
+      </c>
+      <c r="D97" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>3395173</v>
+      </c>
+      <c r="C98" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>219</v>
+      </c>
+      <c r="E98" t="s">
+        <v>220</v>
+      </c>
+      <c r="F98" t="s">
+        <v>217</v>
+      </c>
+      <c r="G98" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>534601</v>
+      </c>
+      <c r="C99" s="18">
+        <v>-0.1575</v>
+      </c>
+      <c r="D99" t="s">
+        <v>221</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>2448953</v>
+      </c>
+      <c r="C100" s="18">
+        <v>-0.72130000000000005</v>
+      </c>
+      <c r="D100" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" t="s">
+        <v>223</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>411619</v>
+      </c>
+      <c r="C101" s="18">
+        <v>-0.1212</v>
+      </c>
+      <c r="D101" t="s">
+        <v>221</v>
+      </c>
+      <c r="E101" t="s">
+        <v>225</v>
+      </c>
+      <c r="F101" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="18">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="B102" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>4216482</v>
+      </c>
+      <c r="B103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" t="s">
+        <v>217</v>
+      </c>
+      <c r="D103" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>4216482</v>
+      </c>
+      <c r="C104" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>219</v>
+      </c>
+      <c r="E104" t="s">
+        <v>220</v>
+      </c>
+      <c r="F104" t="s">
+        <v>217</v>
+      </c>
+      <c r="G104" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>567282</v>
+      </c>
+      <c r="C105" s="18">
+        <v>-0.13450000000000001</v>
+      </c>
+      <c r="D105" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>2729979</v>
+      </c>
+      <c r="C106" s="18">
+        <v>-0.64749999999999996</v>
+      </c>
+      <c r="D106" t="s">
+        <v>221</v>
+      </c>
+      <c r="E106" t="s">
+        <v>223</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>919221</v>
+      </c>
+      <c r="C107" s="18">
+        <v>-0.218</v>
+      </c>
+      <c r="D107" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" t="s">
+        <v>225</v>
+      </c>
+      <c r="F107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="18">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="B108" t="s">
+        <v>226</v>
+      </c>
+      <c r="C108" t="s">
+        <v>227</v>
+      </c>
+      <c r="D108" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>5140680</v>
+      </c>
+      <c r="B109" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>5140680</v>
+      </c>
+      <c r="C110" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>219</v>
+      </c>
+      <c r="E110" t="s">
+        <v>220</v>
+      </c>
+      <c r="F110" t="s">
+        <v>217</v>
+      </c>
+      <c r="G110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>680637</v>
+      </c>
+      <c r="C111" s="18">
+        <v>-0.13239999999999999</v>
+      </c>
+      <c r="D111" t="s">
+        <v>221</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>3348259</v>
+      </c>
+      <c r="C112" s="18">
+        <v>-0.65129999999999999</v>
+      </c>
+      <c r="D112" t="s">
+        <v>221</v>
+      </c>
+      <c r="E112" t="s">
+        <v>223</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>1111784</v>
+      </c>
+      <c r="C113" s="18">
+        <v>-0.21629999999999999</v>
+      </c>
+      <c r="D113" t="s">
+        <v>221</v>
+      </c>
+      <c r="E113" t="s">
+        <v>225</v>
+      </c>
+      <c r="F113" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="18">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" t="s">
+        <v>227</v>
+      </c>
+      <c r="D114" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1458102</v>
+      </c>
+      <c r="B115" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" t="s">
+        <v>217</v>
+      </c>
+      <c r="D115" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>1458102</v>
+      </c>
+      <c r="C116" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>219</v>
+      </c>
+      <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
+        <v>217</v>
+      </c>
+      <c r="G116" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>310890</v>
+      </c>
+      <c r="C117" s="18">
+        <v>-0.2132</v>
+      </c>
+      <c r="D117" t="s">
+        <v>221</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>841793</v>
+      </c>
+      <c r="C118" s="18">
+        <v>-0.57730000000000004</v>
+      </c>
+      <c r="D118" t="s">
+        <v>221</v>
+      </c>
+      <c r="E118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>305419</v>
+      </c>
+      <c r="C119" s="18">
+        <v>-0.20949999999999999</v>
+      </c>
+      <c r="D119" t="s">
+        <v>221</v>
+      </c>
+      <c r="E119" t="s">
+        <v>225</v>
+      </c>
+      <c r="F119" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="18">
+        <v>0.78680000000000005</v>
+      </c>
+      <c r="B120" t="s">
+        <v>226</v>
+      </c>
+      <c r="C120" t="s">
+        <v>227</v>
+      </c>
+      <c r="D120" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>3034018</v>
+      </c>
+      <c r="B121" t="s">
+        <v>216</v>
+      </c>
+      <c r="C121" t="s">
+        <v>217</v>
+      </c>
+      <c r="D121" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>3034018</v>
+      </c>
+      <c r="C122" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>219</v>
+      </c>
+      <c r="E122" t="s">
+        <v>220</v>
+      </c>
+      <c r="F122" t="s">
+        <v>217</v>
+      </c>
+      <c r="G122" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>379912</v>
+      </c>
+      <c r="C123" s="18">
+        <v>-0.12520000000000001</v>
+      </c>
+      <c r="D123" t="s">
+        <v>221</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>1974253</v>
+      </c>
+      <c r="C124" s="18">
+        <v>-0.65069999999999995</v>
+      </c>
+      <c r="D124" t="s">
+        <v>221</v>
+      </c>
+      <c r="E124" t="s">
+        <v>223</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>679853</v>
+      </c>
+      <c r="C125" s="18">
+        <v>-0.22409999999999999</v>
+      </c>
+      <c r="D125" t="s">
+        <v>221</v>
+      </c>
+      <c r="E125" t="s">
+        <v>225</v>
+      </c>
+      <c r="F125" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="18">
+        <v>0.87480000000000002</v>
+      </c>
+      <c r="B126" t="s">
+        <v>226</v>
+      </c>
+      <c r="C126" t="s">
+        <v>227</v>
+      </c>
+      <c r="D126" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>852712</v>
+      </c>
+      <c r="B127" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127" t="s">
+        <v>217</v>
+      </c>
+      <c r="D127" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>852712</v>
+      </c>
+      <c r="C128" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>219</v>
+      </c>
+      <c r="E128" t="s">
+        <v>220</v>
+      </c>
+      <c r="F128" t="s">
+        <v>217</v>
+      </c>
+      <c r="G128" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>159135</v>
+      </c>
+      <c r="C129" s="18">
+        <v>-0.18659999999999999</v>
+      </c>
+      <c r="D129" t="s">
+        <v>221</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>500742</v>
+      </c>
+      <c r="C130" s="18">
+        <v>-0.58720000000000006</v>
+      </c>
+      <c r="D130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E130" t="s">
+        <v>223</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>192835</v>
+      </c>
+      <c r="C131" s="18">
+        <v>-0.2261</v>
+      </c>
+      <c r="D131" t="s">
+        <v>221</v>
+      </c>
+      <c r="E131" t="s">
+        <v>225</v>
+      </c>
+      <c r="F131" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="18">
+        <v>0.81340000000000001</v>
+      </c>
+      <c r="B132" t="s">
+        <v>226</v>
+      </c>
+      <c r="C132" t="s">
+        <v>227</v>
+      </c>
+      <c r="D132" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2267916</v>
+      </c>
+      <c r="B133" t="s">
+        <v>216</v>
+      </c>
+      <c r="C133" t="s">
+        <v>217</v>
+      </c>
+      <c r="D133" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>2267916</v>
+      </c>
+      <c r="C134" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>219</v>
+      </c>
+      <c r="E134" t="s">
+        <v>220</v>
+      </c>
+      <c r="F134" t="s">
+        <v>217</v>
+      </c>
+      <c r="G134" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>335386</v>
+      </c>
+      <c r="C135" s="18">
+        <v>-0.1479</v>
+      </c>
+      <c r="D135" t="s">
+        <v>221</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>1606911</v>
+      </c>
+      <c r="C136" s="18">
+        <v>-0.70850000000000002</v>
+      </c>
+      <c r="D136" t="s">
+        <v>221</v>
+      </c>
+      <c r="E136" t="s">
+        <v>223</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>325619</v>
+      </c>
+      <c r="C137" s="18">
+        <v>-0.14360000000000001</v>
+      </c>
+      <c r="D137" t="s">
+        <v>221</v>
+      </c>
+      <c r="E137" t="s">
+        <v>225</v>
+      </c>
+      <c r="F137" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="18">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="B138" t="s">
+        <v>226</v>
+      </c>
+      <c r="C138" t="s">
+        <v>227</v>
+      </c>
+      <c r="D138" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>4210722</v>
+      </c>
+      <c r="B139" t="s">
+        <v>216</v>
+      </c>
+      <c r="C139" t="s">
+        <v>217</v>
+      </c>
+      <c r="D139" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>4210722</v>
+      </c>
+      <c r="C140" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>219</v>
+      </c>
+      <c r="E140" t="s">
+        <v>220</v>
+      </c>
+      <c r="F140" t="s">
+        <v>217</v>
+      </c>
+      <c r="G140" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>537996</v>
+      </c>
+      <c r="C141" s="18">
+        <v>-0.1278</v>
+      </c>
+      <c r="D141" t="s">
+        <v>221</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>2513760</v>
+      </c>
+      <c r="C142" s="18">
+        <v>-0.59699999999999998</v>
+      </c>
+      <c r="D142" t="s">
+        <v>221</v>
+      </c>
+      <c r="E142" t="s">
+        <v>223</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>1158966</v>
+      </c>
+      <c r="C143" s="18">
+        <v>-0.2752</v>
+      </c>
+      <c r="D143" t="s">
+        <v>221</v>
+      </c>
+      <c r="E143" t="s">
+        <v>225</v>
+      </c>
+      <c r="F143" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="18">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="B144" t="s">
+        <v>226</v>
+      </c>
+      <c r="C144" t="s">
+        <v>227</v>
+      </c>
+      <c r="D144" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2615820</v>
+      </c>
+      <c r="B145" t="s">
+        <v>216</v>
+      </c>
+      <c r="C145" t="s">
+        <v>217</v>
+      </c>
+      <c r="D145" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>2615820</v>
+      </c>
+      <c r="C146" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>219</v>
+      </c>
+      <c r="E146" t="s">
+        <v>220</v>
+      </c>
+      <c r="F146" t="s">
+        <v>217</v>
+      </c>
+      <c r="G146" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>345446</v>
+      </c>
+      <c r="C147" s="18">
+        <v>-0.1321</v>
+      </c>
+      <c r="D147" t="s">
+        <v>221</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>1515324</v>
+      </c>
+      <c r="C148" s="18">
+        <v>-0.57930000000000004</v>
+      </c>
+      <c r="D148" t="s">
+        <v>221</v>
+      </c>
+      <c r="E148" t="s">
+        <v>223</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>755050</v>
+      </c>
+      <c r="C149" s="18">
+        <v>-0.28860000000000002</v>
+      </c>
+      <c r="D149" t="s">
+        <v>221</v>
+      </c>
+      <c r="E149" t="s">
+        <v>225</v>
+      </c>
+      <c r="F149" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="18">
+        <v>0.8679</v>
+      </c>
+      <c r="B150" t="s">
+        <v>226</v>
+      </c>
+      <c r="C150" t="s">
+        <v>227</v>
+      </c>
+      <c r="D150" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>2191125</v>
+      </c>
+      <c r="B151" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151" t="s">
+        <v>217</v>
+      </c>
+      <c r="D151" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>2191125</v>
+      </c>
+      <c r="C152" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>219</v>
+      </c>
+      <c r="E152" t="s">
+        <v>220</v>
+      </c>
+      <c r="F152" t="s">
+        <v>217</v>
+      </c>
+      <c r="G152" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>309204</v>
+      </c>
+      <c r="C153" s="18">
+        <v>-0.1411</v>
+      </c>
+      <c r="D153" t="s">
+        <v>221</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>1516377</v>
+      </c>
+      <c r="C154" s="18">
+        <v>-0.69210000000000005</v>
+      </c>
+      <c r="D154" t="s">
+        <v>221</v>
+      </c>
+      <c r="E154" t="s">
+        <v>223</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B155">
+        <v>365544</v>
+      </c>
+      <c r="C155" s="18">
+        <v>-0.1668</v>
+      </c>
+      <c r="D155" t="s">
+        <v>221</v>
+      </c>
+      <c r="E155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F155" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="18">
+        <v>0.8589</v>
+      </c>
+      <c r="B156" t="s">
+        <v>226</v>
+      </c>
+      <c r="C156" t="s">
+        <v>227</v>
+      </c>
+      <c r="D156" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>3709718</v>
+      </c>
+      <c r="B157" t="s">
+        <v>216</v>
+      </c>
+      <c r="C157" t="s">
+        <v>217</v>
+      </c>
+      <c r="D157" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B158">
+        <v>3709718</v>
+      </c>
+      <c r="C158" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>219</v>
+      </c>
+      <c r="E158" t="s">
+        <v>220</v>
+      </c>
+      <c r="F158" t="s">
+        <v>217</v>
+      </c>
+      <c r="G158" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>507480</v>
+      </c>
+      <c r="C159" s="18">
+        <v>-0.1368</v>
+      </c>
+      <c r="D159" t="s">
+        <v>221</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>2535265</v>
+      </c>
+      <c r="C160" s="18">
+        <v>-0.68340000000000001</v>
+      </c>
+      <c r="D160" t="s">
+        <v>221</v>
+      </c>
+      <c r="E160" t="s">
+        <v>223</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>666973</v>
+      </c>
+      <c r="C161" s="18">
+        <v>-0.17979999999999999</v>
+      </c>
+      <c r="D161" t="s">
+        <v>221</v>
+      </c>
+      <c r="E161" t="s">
+        <v>225</v>
+      </c>
+      <c r="F161" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="18">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="B162" t="s">
+        <v>226</v>
+      </c>
+      <c r="C162" t="s">
+        <v>227</v>
+      </c>
+      <c r="D162" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1197643</v>
+      </c>
+      <c r="B163" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163" t="s">
+        <v>217</v>
+      </c>
+      <c r="D163" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>1197643</v>
+      </c>
+      <c r="C164" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>219</v>
+      </c>
+      <c r="E164" t="s">
+        <v>220</v>
+      </c>
+      <c r="F164" t="s">
+        <v>217</v>
+      </c>
+      <c r="G164" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>240483</v>
+      </c>
+      <c r="C165" s="18">
+        <v>-0.20080000000000001</v>
+      </c>
+      <c r="D165" t="s">
+        <v>221</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>593159</v>
+      </c>
+      <c r="C166" s="18">
+        <v>-0.49530000000000002</v>
+      </c>
+      <c r="D166" t="s">
+        <v>221</v>
+      </c>
+      <c r="E166" t="s">
+        <v>223</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>364001</v>
+      </c>
+      <c r="C167" s="18">
+        <v>-0.3039</v>
+      </c>
+      <c r="D167" t="s">
+        <v>221</v>
+      </c>
+      <c r="E167" t="s">
+        <v>225</v>
+      </c>
+      <c r="F167" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="18">
+        <v>0.79920000000000002</v>
+      </c>
+      <c r="B168" t="s">
+        <v>226</v>
+      </c>
+      <c r="C168" t="s">
+        <v>227</v>
+      </c>
+      <c r="D168" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>2089329</v>
+      </c>
+      <c r="B169" t="s">
+        <v>216</v>
+      </c>
+      <c r="C169" t="s">
+        <v>217</v>
+      </c>
+      <c r="D169" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>2089329</v>
+      </c>
+      <c r="C170" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>219</v>
+      </c>
+      <c r="E170" t="s">
+        <v>220</v>
+      </c>
+      <c r="F170" t="s">
+        <v>217</v>
+      </c>
+      <c r="G170" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>393921</v>
+      </c>
+      <c r="C171" s="18">
+        <v>-0.1885</v>
+      </c>
+      <c r="D171" t="s">
+        <v>221</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <v>1217378</v>
+      </c>
+      <c r="C172" s="18">
+        <v>-0.5827</v>
+      </c>
+      <c r="D172" t="s">
+        <v>221</v>
+      </c>
+      <c r="E172" t="s">
+        <v>223</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>478030</v>
+      </c>
+      <c r="C173" s="18">
+        <v>-0.2288</v>
+      </c>
+      <c r="D173" t="s">
+        <v>221</v>
+      </c>
+      <c r="E173" t="s">
+        <v>225</v>
+      </c>
+      <c r="F173" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="18">
+        <v>0.8115</v>
+      </c>
+      <c r="B174" t="s">
+        <v>226</v>
+      </c>
+      <c r="C174" t="s">
+        <v>227</v>
+      </c>
+      <c r="D174" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>4508437</v>
+      </c>
+      <c r="B175" t="s">
+        <v>216</v>
+      </c>
+      <c r="C175" t="s">
+        <v>217</v>
+      </c>
+      <c r="D175" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>4508437</v>
+      </c>
+      <c r="C176" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>219</v>
+      </c>
+      <c r="E176" t="s">
+        <v>220</v>
+      </c>
+      <c r="F176" t="s">
+        <v>217</v>
+      </c>
+      <c r="G176" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>539483</v>
+      </c>
+      <c r="C177" s="18">
+        <v>-0.1197</v>
+      </c>
+      <c r="D177" t="s">
+        <v>221</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>2871473</v>
+      </c>
+      <c r="C178" s="18">
+        <v>-0.63690000000000002</v>
+      </c>
+      <c r="D178" t="s">
+        <v>221</v>
+      </c>
+      <c r="E178" t="s">
+        <v>223</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>1097481</v>
+      </c>
+      <c r="C179" s="18">
+        <v>-0.24340000000000001</v>
+      </c>
+      <c r="D179" t="s">
+        <v>221</v>
+      </c>
+      <c r="E179" t="s">
+        <v>225</v>
+      </c>
+      <c r="F179" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="18">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="B180" t="s">
+        <v>226</v>
+      </c>
+      <c r="C180" t="s">
+        <v>227</v>
+      </c>
+      <c r="D180" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>4728151</v>
+      </c>
+      <c r="B181" t="s">
+        <v>216</v>
+      </c>
+      <c r="C181" t="s">
+        <v>217</v>
+      </c>
+      <c r="D181" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>4728151</v>
+      </c>
+      <c r="C182" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>219</v>
+      </c>
+      <c r="E182" t="s">
+        <v>220</v>
+      </c>
+      <c r="F182" t="s">
+        <v>217</v>
+      </c>
+      <c r="G182" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>576065</v>
+      </c>
+      <c r="C183" s="18">
+        <v>-0.12180000000000001</v>
+      </c>
+      <c r="D183" t="s">
+        <v>221</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>3037534</v>
+      </c>
+      <c r="C184" s="18">
+        <v>-0.64239999999999997</v>
+      </c>
+      <c r="D184" t="s">
+        <v>221</v>
+      </c>
+      <c r="E184" t="s">
+        <v>223</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>1114552</v>
+      </c>
+      <c r="C185" s="18">
+        <v>-0.23569999999999999</v>
+      </c>
+      <c r="D185" t="s">
+        <v>221</v>
+      </c>
+      <c r="E185" t="s">
+        <v>225</v>
+      </c>
+      <c r="F185" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="18">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="B186" t="s">
+        <v>226</v>
+      </c>
+      <c r="C186" t="s">
+        <v>227</v>
+      </c>
+      <c r="D186" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>5608466</v>
+      </c>
+      <c r="B187" t="s">
+        <v>216</v>
+      </c>
+      <c r="C187" t="s">
+        <v>217</v>
+      </c>
+      <c r="D187" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>5608466</v>
+      </c>
+      <c r="C188" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>219</v>
+      </c>
+      <c r="E188" t="s">
+        <v>220</v>
+      </c>
+      <c r="F188" t="s">
+        <v>217</v>
+      </c>
+      <c r="G188" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>932737</v>
+      </c>
+      <c r="C189" s="18">
+        <v>-0.1663</v>
+      </c>
+      <c r="D189" t="s">
+        <v>221</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>3745468</v>
+      </c>
+      <c r="C190" s="18">
+        <v>-0.66779999999999995</v>
+      </c>
+      <c r="D190" t="s">
+        <v>221</v>
+      </c>
+      <c r="E190" t="s">
+        <v>223</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>930261</v>
+      </c>
+      <c r="C191" s="18">
+        <v>-0.16589999999999999</v>
+      </c>
+      <c r="D191" t="s">
+        <v>221</v>
+      </c>
+      <c r="E191" t="s">
+        <v>225</v>
+      </c>
+      <c r="F191" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="18">
+        <v>0.8337</v>
+      </c>
+      <c r="B192" t="s">
+        <v>226</v>
+      </c>
+      <c r="C192" t="s">
+        <v>227</v>
+      </c>
+      <c r="D192" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>2647726</v>
+      </c>
+      <c r="B193" t="s">
+        <v>216</v>
+      </c>
+      <c r="C193" t="s">
+        <v>217</v>
+      </c>
+      <c r="D193" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>2647726</v>
+      </c>
+      <c r="C194" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>219</v>
+      </c>
+      <c r="E194" t="s">
+        <v>220</v>
+      </c>
+      <c r="F194" t="s">
+        <v>217</v>
+      </c>
+      <c r="G194" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>412432</v>
+      </c>
+      <c r="C195" s="18">
+        <v>-0.15579999999999999</v>
+      </c>
+      <c r="D195" t="s">
+        <v>221</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>1915324</v>
+      </c>
+      <c r="C196" s="18">
+        <v>-0.72340000000000004</v>
+      </c>
+      <c r="D196" t="s">
+        <v>221</v>
+      </c>
+      <c r="E196" t="s">
+        <v>223</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B197">
+        <v>319970</v>
+      </c>
+      <c r="C197" s="18">
+        <v>-0.1208</v>
+      </c>
+      <c r="D197" t="s">
+        <v>221</v>
+      </c>
+      <c r="E197" t="s">
+        <v>225</v>
+      </c>
+      <c r="F197" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="18">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="B198" t="s">
+        <v>226</v>
+      </c>
+      <c r="C198" t="s">
+        <v>227</v>
+      </c>
+      <c r="D198" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>3556875</v>
+      </c>
+      <c r="B199" t="s">
+        <v>216</v>
+      </c>
+      <c r="C199" t="s">
+        <v>217</v>
+      </c>
+      <c r="D199" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B200">
+        <v>3556875</v>
+      </c>
+      <c r="C200" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>219</v>
+      </c>
+      <c r="E200" t="s">
+        <v>220</v>
+      </c>
+      <c r="F200" t="s">
+        <v>217</v>
+      </c>
+      <c r="G200" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <v>467863</v>
+      </c>
+      <c r="C201" s="18">
+        <v>-0.13150000000000001</v>
+      </c>
+      <c r="D201" t="s">
+        <v>221</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>2452739</v>
+      </c>
+      <c r="C202" s="18">
+        <v>-0.68959999999999999</v>
+      </c>
+      <c r="D202" t="s">
+        <v>221</v>
+      </c>
+      <c r="E202" t="s">
+        <v>223</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <v>636273</v>
+      </c>
+      <c r="C203" s="18">
+        <v>-0.1789</v>
+      </c>
+      <c r="D203" t="s">
+        <v>221</v>
+      </c>
+      <c r="E203" t="s">
+        <v>225</v>
+      </c>
+      <c r="F203" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="18">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="B204" t="s">
+        <v>226</v>
+      </c>
+      <c r="C204" t="s">
+        <v>227</v>
+      </c>
+      <c r="D204" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>3636838</v>
+      </c>
+      <c r="B205" t="s">
+        <v>216</v>
+      </c>
+      <c r="C205" t="s">
+        <v>217</v>
+      </c>
+      <c r="D205" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>3636838</v>
+      </c>
+      <c r="C206" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>219</v>
+      </c>
+      <c r="E206" t="s">
+        <v>220</v>
+      </c>
+      <c r="F206" t="s">
+        <v>217</v>
+      </c>
+      <c r="G206" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <v>510313</v>
+      </c>
+      <c r="C207" s="18">
+        <v>-0.14030000000000001</v>
+      </c>
+      <c r="D207" t="s">
+        <v>221</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>2373793</v>
+      </c>
+      <c r="C208" s="18">
+        <v>-0.65269999999999995</v>
+      </c>
+      <c r="D208" t="s">
+        <v>221</v>
+      </c>
+      <c r="E208" t="s">
+        <v>223</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>752732</v>
+      </c>
+      <c r="C209" s="18">
+        <v>-0.20699999999999999</v>
+      </c>
+      <c r="D209" t="s">
+        <v>221</v>
+      </c>
+      <c r="E209" t="s">
+        <v>225</v>
+      </c>
+      <c r="F209" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="18">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="B210" t="s">
+        <v>226</v>
+      </c>
+      <c r="C210" t="s">
+        <v>227</v>
+      </c>
+      <c r="D210" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>1447075</v>
+      </c>
+      <c r="B211" t="s">
+        <v>216</v>
+      </c>
+      <c r="C211" t="s">
+        <v>217</v>
+      </c>
+      <c r="D211" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>1447075</v>
+      </c>
+      <c r="C212" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>219</v>
+      </c>
+      <c r="E212" t="s">
+        <v>220</v>
+      </c>
+      <c r="F212" t="s">
+        <v>217</v>
+      </c>
+      <c r="G212" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>323746</v>
+      </c>
+      <c r="C213" s="18">
+        <v>-0.22370000000000001</v>
+      </c>
+      <c r="D213" t="s">
+        <v>221</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B214">
+        <v>868405</v>
+      </c>
+      <c r="C214" s="18">
+        <v>-0.60009999999999997</v>
+      </c>
+      <c r="D214" t="s">
+        <v>221</v>
+      </c>
+      <c r="E214" t="s">
+        <v>223</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>254924</v>
+      </c>
+      <c r="C215" s="18">
+        <v>-0.1762</v>
+      </c>
+      <c r="D215" t="s">
+        <v>221</v>
+      </c>
+      <c r="E215" t="s">
+        <v>225</v>
+      </c>
+      <c r="F215" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="18">
+        <v>0.77629999999999999</v>
+      </c>
+      <c r="B216" t="s">
+        <v>226</v>
+      </c>
+      <c r="C216" t="s">
+        <v>227</v>
+      </c>
+      <c r="D216" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>4375058</v>
+      </c>
+      <c r="B217" t="s">
+        <v>216</v>
+      </c>
+      <c r="C217" t="s">
+        <v>217</v>
+      </c>
+      <c r="D217" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>4375058</v>
+      </c>
+      <c r="C218" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>219</v>
+      </c>
+      <c r="E218" t="s">
+        <v>220</v>
+      </c>
+      <c r="F218" t="s">
+        <v>217</v>
+      </c>
+      <c r="G218" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>598934</v>
+      </c>
+      <c r="C219" s="18">
+        <v>-0.13689999999999999</v>
+      </c>
+      <c r="D219" t="s">
+        <v>221</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>2786380</v>
+      </c>
+      <c r="C220" s="18">
+        <v>-0.63690000000000002</v>
+      </c>
+      <c r="D220" t="s">
+        <v>221</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>989744</v>
+      </c>
+      <c r="C221" s="18">
+        <v>-0.22620000000000001</v>
+      </c>
+      <c r="D221" t="s">
+        <v>221</v>
+      </c>
+      <c r="E221" t="s">
+        <v>225</v>
+      </c>
+      <c r="F221" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="18">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
+      <c r="C222" t="s">
+        <v>227</v>
+      </c>
+      <c r="D222" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>5899108</v>
+      </c>
+      <c r="B223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C223" t="s">
+        <v>217</v>
+      </c>
+      <c r="D223" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B224">
+        <v>5899108</v>
+      </c>
+      <c r="C224" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>219</v>
+      </c>
+      <c r="E224" t="s">
+        <v>220</v>
+      </c>
+      <c r="F224" t="s">
+        <v>217</v>
+      </c>
+      <c r="G224" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B225">
+        <v>802170</v>
+      </c>
+      <c r="C225" s="18">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="D225" t="s">
+        <v>221</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B226">
+        <v>3966740</v>
+      </c>
+      <c r="C226" s="18">
+        <v>-0.6724</v>
+      </c>
+      <c r="D226" t="s">
+        <v>221</v>
+      </c>
+      <c r="E226" t="s">
+        <v>223</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B227">
+        <v>1130198</v>
+      </c>
+      <c r="C227" s="18">
+        <v>-0.19159999999999999</v>
+      </c>
+      <c r="D227" t="s">
+        <v>221</v>
+      </c>
+      <c r="E227" t="s">
+        <v>225</v>
+      </c>
+      <c r="F227" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="18">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="B228" t="s">
+        <v>226</v>
+      </c>
+      <c r="C228" t="s">
+        <v>227</v>
+      </c>
+      <c r="D228" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>4090239</v>
+      </c>
+      <c r="B229" t="s">
+        <v>216</v>
+      </c>
+      <c r="C229" t="s">
+        <v>217</v>
+      </c>
+      <c r="D229" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <v>4090239</v>
+      </c>
+      <c r="C230" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>219</v>
+      </c>
+      <c r="E230" t="s">
+        <v>220</v>
+      </c>
+      <c r="F230" t="s">
+        <v>217</v>
+      </c>
+      <c r="G230" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B231">
+        <v>562153</v>
+      </c>
+      <c r="C231" s="18">
+        <v>-0.13739999999999999</v>
+      </c>
+      <c r="D231" t="s">
+        <v>221</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B232">
+        <v>2788060</v>
+      </c>
+      <c r="C232" s="18">
+        <v>-0.68159999999999998</v>
+      </c>
+      <c r="D232" t="s">
+        <v>221</v>
+      </c>
+      <c r="E232" t="s">
+        <v>223</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B233">
+        <v>740026</v>
+      </c>
+      <c r="C233" s="18">
+        <v>-0.18090000000000001</v>
+      </c>
+      <c r="D233" t="s">
+        <v>221</v>
+      </c>
+      <c r="E233" t="s">
+        <v>225</v>
+      </c>
+      <c r="F233" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="18">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="B234" t="s">
+        <v>226</v>
+      </c>
+      <c r="C234" t="s">
+        <v>227</v>
+      </c>
+      <c r="D234" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>2100417</v>
+      </c>
+      <c r="B235" t="s">
+        <v>216</v>
+      </c>
+      <c r="C235" t="s">
+        <v>217</v>
+      </c>
+      <c r="D235" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B236">
+        <v>2100417</v>
+      </c>
+      <c r="C236" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>219</v>
+      </c>
+      <c r="E236" t="s">
+        <v>220</v>
+      </c>
+      <c r="F236" t="s">
+        <v>217</v>
+      </c>
+      <c r="G236" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>288904</v>
+      </c>
+      <c r="C237" s="18">
+        <v>-0.13750000000000001</v>
+      </c>
+      <c r="D237" t="s">
+        <v>221</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B238">
+        <v>1396949</v>
+      </c>
+      <c r="C238" s="18">
+        <v>-0.66510000000000002</v>
+      </c>
+      <c r="D238" t="s">
+        <v>221</v>
+      </c>
+      <c r="E238" t="s">
+        <v>223</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B239">
+        <v>414564</v>
+      </c>
+      <c r="C239" s="18">
+        <v>-0.19739999999999999</v>
+      </c>
+      <c r="D239" t="s">
+        <v>221</v>
+      </c>
+      <c r="E239" t="s">
+        <v>225</v>
+      </c>
+      <c r="F239" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="18">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="B240" t="s">
+        <v>226</v>
+      </c>
+      <c r="C240" t="s">
+        <v>227</v>
+      </c>
+      <c r="D240" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>2067927</v>
+      </c>
+      <c r="B241" t="s">
+        <v>216</v>
+      </c>
+      <c r="C241" t="s">
+        <v>217</v>
+      </c>
+      <c r="D241" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B242">
+        <v>2067927</v>
+      </c>
+      <c r="C242" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>219</v>
+      </c>
+      <c r="E242" t="s">
+        <v>220</v>
+      </c>
+      <c r="F242" t="s">
+        <v>217</v>
+      </c>
+      <c r="G242" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B243">
+        <v>265990</v>
+      </c>
+      <c r="C243" s="18">
+        <v>-0.12859999999999999</v>
+      </c>
+      <c r="D243" t="s">
+        <v>221</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B244">
+        <v>1395366</v>
+      </c>
+      <c r="C244" s="18">
+        <v>-0.67479999999999996</v>
+      </c>
+      <c r="D244" t="s">
+        <v>221</v>
+      </c>
+      <c r="E244" t="s">
+        <v>223</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B245">
+        <v>406571</v>
+      </c>
+      <c r="C245" s="18">
+        <v>-0.1966</v>
+      </c>
+      <c r="D245" t="s">
+        <v>221</v>
+      </c>
+      <c r="E245" t="s">
+        <v>225</v>
+      </c>
+      <c r="F245" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="18">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="B246" t="s">
+        <v>226</v>
+      </c>
+      <c r="C246" t="s">
+        <v>227</v>
+      </c>
+      <c r="D246" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>3257590</v>
+      </c>
+      <c r="B247" t="s">
+        <v>216</v>
+      </c>
+      <c r="C247" t="s">
+        <v>217</v>
+      </c>
+      <c r="D247" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B248">
+        <v>3257590</v>
+      </c>
+      <c r="C248" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>219</v>
+      </c>
+      <c r="E248" t="s">
+        <v>220</v>
+      </c>
+      <c r="F248" t="s">
+        <v>217</v>
+      </c>
+      <c r="G248" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B249">
+        <v>528229</v>
+      </c>
+      <c r="C249" s="18">
+        <v>-0.16220000000000001</v>
+      </c>
+      <c r="D249" t="s">
+        <v>221</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B250">
+        <v>2058162</v>
+      </c>
+      <c r="C250" s="18">
+        <v>-0.63180000000000003</v>
+      </c>
+      <c r="D250" t="s">
+        <v>221</v>
+      </c>
+      <c r="E250" t="s">
+        <v>223</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>671199</v>
+      </c>
+      <c r="C251" s="18">
+        <v>-0.20599999999999999</v>
+      </c>
+      <c r="D251" t="s">
+        <v>221</v>
+      </c>
+      <c r="E251" t="s">
+        <v>225</v>
+      </c>
+      <c r="F251" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="18">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="B252" t="s">
+        <v>226</v>
+      </c>
+      <c r="C252" t="s">
+        <v>227</v>
+      </c>
+      <c r="D252" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>4081431</v>
+      </c>
+      <c r="B253" t="s">
+        <v>216</v>
+      </c>
+      <c r="C253" t="s">
+        <v>217</v>
+      </c>
+      <c r="D253" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B254">
+        <v>4081431</v>
+      </c>
+      <c r="C254" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>219</v>
+      </c>
+      <c r="E254" t="s">
+        <v>220</v>
+      </c>
+      <c r="F254" t="s">
+        <v>217</v>
+      </c>
+      <c r="G254" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B255">
+        <v>508856</v>
+      </c>
+      <c r="C255" s="18">
+        <v>-0.12470000000000001</v>
+      </c>
+      <c r="D255" t="s">
+        <v>221</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B256">
+        <v>2904705</v>
+      </c>
+      <c r="C256" s="18">
+        <v>-0.7117</v>
+      </c>
+      <c r="D256" t="s">
+        <v>221</v>
+      </c>
+      <c r="E256" t="s">
+        <v>223</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B257">
+        <v>667870</v>
+      </c>
+      <c r="C257" s="18">
+        <v>-0.1636</v>
+      </c>
+      <c r="D257" t="s">
+        <v>221</v>
+      </c>
+      <c r="E257" t="s">
+        <v>225</v>
+      </c>
+      <c r="F257" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" s="18">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="B258" t="s">
+        <v>226</v>
+      </c>
+      <c r="C258" t="s">
+        <v>227</v>
+      </c>
+      <c r="D258" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>6307683</v>
+      </c>
+      <c r="B259" t="s">
+        <v>216</v>
+      </c>
+      <c r="C259" t="s">
+        <v>217</v>
+      </c>
+      <c r="D259" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B260">
+        <v>6307683</v>
+      </c>
+      <c r="C260" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>219</v>
+      </c>
+      <c r="E260" t="s">
+        <v>220</v>
+      </c>
+      <c r="F260" t="s">
+        <v>217</v>
+      </c>
+      <c r="G260" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B261">
+        <v>782864</v>
+      </c>
+      <c r="C261" s="18">
+        <v>-0.1241</v>
+      </c>
+      <c r="D261" t="s">
+        <v>221</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B262">
+        <v>4284931</v>
+      </c>
+      <c r="C262" s="18">
+        <v>-0.67930000000000001</v>
+      </c>
+      <c r="D262" t="s">
+        <v>221</v>
+      </c>
+      <c r="E262" t="s">
+        <v>223</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B263">
+        <v>1239888</v>
+      </c>
+      <c r="C263" s="18">
+        <v>-0.1966</v>
+      </c>
+      <c r="D263" t="s">
+        <v>221</v>
+      </c>
+      <c r="E263" t="s">
+        <v>225</v>
+      </c>
+      <c r="F263" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="18">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="B264" t="s">
+        <v>226</v>
+      </c>
+      <c r="C264" t="s">
+        <v>227</v>
+      </c>
+      <c r="D264" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>4094288</v>
+      </c>
+      <c r="B265" t="s">
+        <v>216</v>
+      </c>
+      <c r="C265" t="s">
+        <v>217</v>
+      </c>
+      <c r="D265" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B266">
+        <v>4094288</v>
+      </c>
+      <c r="C266" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D266" t="s">
+        <v>219</v>
+      </c>
+      <c r="E266" t="s">
+        <v>220</v>
+      </c>
+      <c r="F266" t="s">
+        <v>217</v>
+      </c>
+      <c r="G266" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B267">
+        <v>531548</v>
+      </c>
+      <c r="C267" s="18">
+        <v>-0.1298</v>
+      </c>
+      <c r="D267" t="s">
+        <v>221</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B268">
+        <v>2833891</v>
+      </c>
+      <c r="C268" s="18">
+        <v>-0.69220000000000004</v>
+      </c>
+      <c r="D268" t="s">
+        <v>221</v>
+      </c>
+      <c r="E268" t="s">
+        <v>223</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B269">
+        <v>728849</v>
+      </c>
+      <c r="C269" s="18">
+        <v>-0.17799999999999999</v>
+      </c>
+      <c r="D269" t="s">
+        <v>221</v>
+      </c>
+      <c r="E269" t="s">
+        <v>225</v>
+      </c>
+      <c r="F269" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="18">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="B270" t="s">
+        <v>226</v>
+      </c>
+      <c r="C270" t="s">
+        <v>227</v>
+      </c>
+      <c r="D270" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>1895452</v>
+      </c>
+      <c r="B271" t="s">
+        <v>216</v>
+      </c>
+      <c r="C271" t="s">
+        <v>217</v>
+      </c>
+      <c r="D271" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>1895452</v>
+      </c>
+      <c r="C272" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D272" t="s">
+        <v>219</v>
+      </c>
+      <c r="E272" t="s">
+        <v>220</v>
+      </c>
+      <c r="F272" t="s">
+        <v>217</v>
+      </c>
+      <c r="G272" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>391302</v>
+      </c>
+      <c r="C273" s="18">
+        <v>-0.2064</v>
+      </c>
+      <c r="D273" t="s">
+        <v>221</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>1251956</v>
+      </c>
+      <c r="C274" s="18">
+        <v>-0.66049999999999998</v>
+      </c>
+      <c r="D274" t="s">
+        <v>221</v>
+      </c>
+      <c r="E274" t="s">
+        <v>223</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>252194</v>
+      </c>
+      <c r="C275" s="18">
+        <v>-0.1331</v>
+      </c>
+      <c r="D275" t="s">
+        <v>221</v>
+      </c>
+      <c r="E275" t="s">
+        <v>225</v>
+      </c>
+      <c r="F275" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" s="18">
+        <v>0.79359999999999997</v>
+      </c>
+      <c r="B276" t="s">
+        <v>226</v>
+      </c>
+      <c r="C276" t="s">
+        <v>227</v>
+      </c>
+      <c r="D276" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>2063035</v>
+      </c>
+      <c r="B277" t="s">
+        <v>216</v>
+      </c>
+      <c r="C277" t="s">
+        <v>217</v>
+      </c>
+      <c r="D277" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>2063035</v>
+      </c>
+      <c r="C278" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D278" t="s">
+        <v>219</v>
+      </c>
+      <c r="E278" t="s">
+        <v>220</v>
+      </c>
+      <c r="F278" t="s">
+        <v>217</v>
+      </c>
+      <c r="G278" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>299957</v>
+      </c>
+      <c r="C279" s="18">
+        <v>-0.1454</v>
+      </c>
+      <c r="D279" t="s">
+        <v>221</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>1395025</v>
+      </c>
+      <c r="C280" s="18">
+        <v>-0.67620000000000002</v>
+      </c>
+      <c r="D280" t="s">
+        <v>221</v>
+      </c>
+      <c r="E280" t="s">
+        <v>223</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>368053</v>
+      </c>
+      <c r="C281" s="18">
+        <v>-0.1784</v>
+      </c>
+      <c r="D281" t="s">
+        <v>221</v>
+      </c>
+      <c r="E281" t="s">
+        <v>225</v>
+      </c>
+      <c r="F281" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" s="18">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="B282" t="s">
+        <v>226</v>
+      </c>
+      <c r="C282" t="s">
+        <v>227</v>
+      </c>
+      <c r="D282" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>3702334</v>
+      </c>
+      <c r="B283" t="s">
+        <v>216</v>
+      </c>
+      <c r="C283" t="s">
+        <v>217</v>
+      </c>
+      <c r="D283" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B284">
+        <v>3702334</v>
+      </c>
+      <c r="C284" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D284" t="s">
+        <v>219</v>
+      </c>
+      <c r="E284" t="s">
+        <v>220</v>
+      </c>
+      <c r="F284" t="s">
+        <v>217</v>
+      </c>
+      <c r="G284" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B285">
+        <v>530596</v>
+      </c>
+      <c r="C285" s="18">
+        <v>-0.14330000000000001</v>
+      </c>
+      <c r="D285" t="s">
+        <v>221</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B286">
+        <v>2427935</v>
+      </c>
+      <c r="C286" s="18">
+        <v>-0.65580000000000005</v>
+      </c>
+      <c r="D286" t="s">
+        <v>221</v>
+      </c>
+      <c r="E286" t="s">
+        <v>223</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B287">
+        <v>743803</v>
+      </c>
+      <c r="C287" s="18">
+        <v>-0.2009</v>
+      </c>
+      <c r="D287" t="s">
+        <v>221</v>
+      </c>
+      <c r="E287" t="s">
+        <v>225</v>
+      </c>
+      <c r="F287" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" s="18">
+        <v>0.85670000000000002</v>
+      </c>
+      <c r="B288" t="s">
+        <v>226</v>
+      </c>
+      <c r="C288" t="s">
+        <v>227</v>
+      </c>
+      <c r="D288" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
